--- a/projects/office_ee.xlsx
+++ b/projects/office_ee.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4780" yWindow="0" windowWidth="24020" windowHeight="16840" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16840" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Outputs!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$Z$134</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$Z$127</definedName>
     <definedName name="AnalysisType">Lookups!$A$17:$A$23</definedName>
     <definedName name="instance_defs">Lookups!$A$2:$D$9</definedName>
     <definedName name="instance_types">Lookups!$A$2:$A$9</definedName>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2609" uniqueCount="837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2585" uniqueCount="845">
   <si>
     <t>type</t>
   </si>
@@ -2473,12 +2473,6 @@
     <t>../../analysis</t>
   </si>
   <si>
-    <t>EE Reduce Lighting Loads by Percentage</t>
-  </si>
-  <si>
-    <t>EE Lighting Power Reduction</t>
-  </si>
-  <si>
     <t>NationalGrid Office EE</t>
   </si>
   <si>
@@ -2552,6 +2546,36 @@
   </si>
   <si>
     <t>EE Electric Equipment Power Reduction</t>
+  </si>
+  <si>
+    <t>LPDtoLamps</t>
+  </si>
+  <si>
+    <t>LPD to Lamps</t>
+  </si>
+  <si>
+    <t>Swap All Lights For New Definition</t>
+  </si>
+  <si>
+    <t>SwapAllLightsForNewDefinition</t>
+  </si>
+  <si>
+    <t>Choose a Lighting Fixture Type</t>
+  </si>
+  <si>
+    <t>lightsDef</t>
+  </si>
+  <si>
+    <t>Fluorescent</t>
+  </si>
+  <si>
+    <t>|Incandescent,Fluorescent,LED|</t>
+  </si>
+  <si>
+    <t>discrete_uncertain</t>
+  </si>
+  <si>
+    <t>['Incandescent','Fluorescent','LED']</t>
   </si>
 </sst>
 </file>
@@ -2698,7 +2722,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1818">
+  <cellStyleXfs count="1822">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4449,6 +4473,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4630,7 +4658,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1818">
+  <cellStyles count="1822">
     <cellStyle name="Comma" xfId="1749" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -5540,6 +5568,8 @@
     <cellStyle name="Followed Hyperlink" xfId="1813" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1815" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1817" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1819" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1821" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -6448,6 +6478,8 @@
     <cellStyle name="Hyperlink" xfId="1812" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1814" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1816" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1818" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1820" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6924,7 +6956,7 @@
         <v>39</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>471</v>
@@ -7178,13 +7210,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="31" t="s">
+        <v>811</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>812</v>
+      </c>
+      <c r="C43" s="31" t="s">
         <v>813</v>
-      </c>
-      <c r="B43" s="26" t="s">
-        <v>814</v>
-      </c>
-      <c r="C43" s="31" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="31" customFormat="1">
@@ -7215,11 +7247,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y207"/>
+  <dimension ref="A1:Y200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A33" sqref="A33:XFD36"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I89" sqref="I89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7900,13 +7932,13 @@
         <v>1</v>
       </c>
       <c r="B33" s="38" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="E33" s="38" t="s">
         <v>68</v>
@@ -7917,10 +7949,10 @@
         <v>21</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="F34" s="30" t="s">
         <v>64</v>
@@ -7934,19 +7966,19 @@
         <v>21</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="F35" s="30" t="s">
         <v>62</v>
       </c>
       <c r="H35" s="30" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="I35" s="30" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="36" spans="1:17" s="30" customFormat="1">
@@ -7954,10 +7986,10 @@
         <v>21</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F36" s="30" t="s">
         <v>64</v>
@@ -9155,13 +9187,13 @@
         <v>1</v>
       </c>
       <c r="B87" s="49" t="s">
-        <v>810</v>
+        <v>836</v>
       </c>
       <c r="C87" s="49" t="s">
-        <v>43</v>
+        <v>835</v>
       </c>
       <c r="D87" s="49" t="s">
-        <v>43</v>
+        <v>835</v>
       </c>
       <c r="E87" s="49" t="s">
         <v>68</v>
@@ -9174,490 +9206,328 @@
       <c r="O87" s="51"/>
       <c r="Q87" s="52"/>
     </row>
-    <row r="88" spans="1:17">
-      <c r="A88" s="30"/>
-      <c r="B88" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C88" s="30"/>
-      <c r="D88" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="E88" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="F88" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G88" s="30"/>
-      <c r="H88" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="I88" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="J88" s="3"/>
-      <c r="K88" s="3"/>
-      <c r="L88" s="3"/>
-      <c r="M88" s="3"/>
-      <c r="N88" s="3"/>
-      <c r="P88" s="40"/>
+    <row r="88" spans="1:17" s="49" customFormat="1">
+      <c r="A88" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="B88" s="49" t="s">
+        <v>837</v>
+      </c>
+      <c r="C88" s="49" t="s">
+        <v>838</v>
+      </c>
+      <c r="D88" s="49" t="s">
+        <v>838</v>
+      </c>
+      <c r="E88" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="J88" s="50"/>
+      <c r="K88" s="51"/>
+      <c r="L88" s="51"/>
+      <c r="M88" s="51"/>
+      <c r="N88" s="51"/>
+      <c r="O88" s="51"/>
+      <c r="Q88" s="52"/>
     </row>
     <row r="89" spans="1:17" s="43" customFormat="1">
       <c r="B89" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D89" s="43" t="s">
-        <v>811</v>
+        <v>839</v>
       </c>
       <c r="E89" s="43" t="s">
-        <v>46</v>
+        <v>840</v>
       </c>
       <c r="F89" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="H89" s="43" t="s">
+        <v>841</v>
+      </c>
+      <c r="I89" s="43" t="s">
+        <v>842</v>
+      </c>
+      <c r="J89" s="43" t="s">
+        <v>841</v>
+      </c>
+      <c r="K89" s="43" t="s">
+        <v>841</v>
+      </c>
+      <c r="L89" s="43" t="s">
+        <v>841</v>
+      </c>
+      <c r="O89" s="43" t="s">
+        <v>844</v>
+      </c>
+      <c r="Q89" s="43" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" s="22" customFormat="1">
+      <c r="A90" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="B90" s="22" t="s">
+        <v>833</v>
+      </c>
+      <c r="C90" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="D90" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="E90" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" s="30" customFormat="1">
+      <c r="A91" s="18"/>
+      <c r="B91" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D91" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="E91" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F91" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H91" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="I91" s="30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" s="43" customFormat="1">
+      <c r="B92" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D92" s="43" t="s">
+        <v>834</v>
+      </c>
+      <c r="E92" s="43" t="s">
+        <v>288</v>
+      </c>
+      <c r="F92" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="H89" s="43">
-        <v>0</v>
-      </c>
-      <c r="I89" s="46"/>
-      <c r="J89" s="45">
-        <v>0</v>
-      </c>
-      <c r="K89" s="45">
+      <c r="G92" s="43" t="s">
+        <v>824</v>
+      </c>
+      <c r="H92" s="43">
+        <v>0</v>
+      </c>
+      <c r="J92" s="43">
+        <v>0</v>
+      </c>
+      <c r="K92" s="43">
         <v>40</v>
       </c>
-      <c r="L89" s="45">
+      <c r="L92" s="43">
         <v>-1</v>
       </c>
-      <c r="M89" s="45">
-        <f>(K89-J89)/6</f>
+      <c r="M92" s="45">
+        <f>(K92-J92)/6</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="N89" s="45">
+      <c r="N92" s="45">
         <v>2.5</v>
       </c>
-      <c r="P89" s="47"/>
-      <c r="Q89" s="43" t="s">
+      <c r="Q92" s="43" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="90" spans="1:17">
-      <c r="A90" s="30"/>
-      <c r="B90" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C90" s="30"/>
-      <c r="D90" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="E90" s="30" t="s">
+    <row r="93" spans="1:17" s="30" customFormat="1">
+      <c r="B93" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D93" s="30" t="s">
+        <v>825</v>
+      </c>
+      <c r="E93" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="F90" s="30" t="s">
+      <c r="F93" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="G90" s="30"/>
-      <c r="H90" s="30">
-        <v>0</v>
-      </c>
-      <c r="J90" s="3"/>
-      <c r="K90" s="3"/>
-      <c r="L90" s="3"/>
-      <c r="M90" s="3"/>
-      <c r="N90" s="3"/>
-      <c r="P90" s="40"/>
-    </row>
-    <row r="91" spans="1:17">
-      <c r="A91" s="30"/>
-      <c r="B91" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C91" s="30"/>
-      <c r="D91" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="E91" s="30" t="s">
+      <c r="G93" s="30" t="s">
+        <v>824</v>
+      </c>
+      <c r="H93" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" s="30" customFormat="1">
+      <c r="B94" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D94" s="30" t="s">
+        <v>826</v>
+      </c>
+      <c r="E94" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="F91" s="30" t="s">
+      <c r="F94" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="G91" s="30"/>
-      <c r="H91" s="30">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3"/>
-      <c r="K91" s="3"/>
-      <c r="L91" s="3"/>
-      <c r="M91" s="3"/>
-      <c r="N91" s="3"/>
-      <c r="P91" s="40"/>
-    </row>
-    <row r="92" spans="1:17">
-      <c r="A92" s="30"/>
-      <c r="B92" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C92" s="30"/>
-      <c r="D92" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="E92" s="30" t="s">
+      <c r="G94" s="30" t="s">
+        <v>824</v>
+      </c>
+      <c r="H94" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" s="30" customFormat="1">
+      <c r="B95" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D95" s="30" t="s">
+        <v>827</v>
+      </c>
+      <c r="E95" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="F92" s="30" t="s">
+      <c r="F95" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="G92" s="30"/>
-      <c r="H92" s="30">
-        <v>0</v>
-      </c>
-      <c r="J92" s="3"/>
-      <c r="K92" s="3"/>
-      <c r="L92" s="3"/>
-      <c r="M92" s="3"/>
-      <c r="N92" s="3"/>
-      <c r="P92" s="40"/>
-    </row>
-    <row r="93" spans="1:17">
-      <c r="A93" s="30"/>
-      <c r="B93" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C93" s="30"/>
-      <c r="D93" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="E93" s="30" t="s">
+      <c r="G95" s="30" t="s">
+        <v>828</v>
+      </c>
+      <c r="H95" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" s="30" customFormat="1">
+      <c r="B96" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D96" s="30" t="s">
+        <v>829</v>
+      </c>
+      <c r="E96" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="F93" s="30" t="s">
+      <c r="F96" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="G93" s="30"/>
-      <c r="H93" s="30" t="b">
+      <c r="H96" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" s="30" customFormat="1">
+      <c r="B97" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D97" s="30" t="s">
+        <v>830</v>
+      </c>
+      <c r="E97" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F97" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G97" s="30" t="s">
+        <v>828</v>
+      </c>
+      <c r="H97" s="30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" s="30" customFormat="1">
+      <c r="B98" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D98" s="30" t="s">
+        <v>831</v>
+      </c>
+      <c r="E98" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F98" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G98" s="30" t="s">
+        <v>824</v>
+      </c>
+      <c r="H98" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" s="30" customFormat="1">
+      <c r="B99" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D99" s="30" t="s">
+        <v>832</v>
+      </c>
+      <c r="E99" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F99" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G99" s="30" t="s">
+        <v>828</v>
+      </c>
+      <c r="H99" s="30">
         <v>1</v>
       </c>
-      <c r="J93" s="3"/>
-      <c r="K93" s="3"/>
-      <c r="L93" s="3"/>
-      <c r="M93" s="3"/>
-      <c r="N93" s="3"/>
-      <c r="P93" s="40"/>
-    </row>
-    <row r="94" spans="1:17">
-      <c r="A94" s="30"/>
-      <c r="B94" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C94" s="30"/>
-      <c r="D94" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="E94" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="F94" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G94" s="30"/>
-      <c r="H94" s="30">
-        <v>15</v>
-      </c>
-      <c r="J94" s="3"/>
-      <c r="K94" s="3"/>
-      <c r="L94" s="3"/>
-      <c r="M94" s="3"/>
-      <c r="N94" s="3"/>
-      <c r="P94" s="40"/>
-    </row>
-    <row r="95" spans="1:17">
-      <c r="A95" s="30"/>
-      <c r="B95" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C95" s="30"/>
-      <c r="D95" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="E95" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F95" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G95" s="30"/>
-      <c r="H95" s="30">
-        <v>0</v>
-      </c>
-      <c r="J95" s="3"/>
-      <c r="K95" s="3"/>
-      <c r="L95" s="3"/>
-      <c r="M95" s="3"/>
-      <c r="N95" s="3"/>
-      <c r="P95" s="40"/>
-    </row>
-    <row r="96" spans="1:17">
-      <c r="A96" s="30"/>
-      <c r="B96" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C96" s="30"/>
-      <c r="D96" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="E96" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="F96" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G96" s="30"/>
-      <c r="H96" s="30">
-        <v>1</v>
-      </c>
-      <c r="J96" s="3"/>
-      <c r="K96" s="3"/>
-      <c r="L96" s="3"/>
-      <c r="M96" s="3"/>
-      <c r="N96" s="3"/>
-      <c r="P96" s="40"/>
-    </row>
-    <row r="97" spans="1:17" s="22" customFormat="1">
-      <c r="A97" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="B97" s="22" t="s">
-        <v>835</v>
-      </c>
-      <c r="C97" s="22" t="s">
-        <v>286</v>
-      </c>
-      <c r="D97" s="22" t="s">
-        <v>286</v>
-      </c>
-      <c r="E97" s="22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17" s="30" customFormat="1">
-      <c r="A98" s="18"/>
-      <c r="B98" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D98" s="30" t="s">
-        <v>373</v>
-      </c>
-      <c r="E98" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="F98" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H98" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="I98" s="30" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17" s="43" customFormat="1">
-      <c r="B99" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D99" s="43" t="s">
-        <v>836</v>
-      </c>
-      <c r="E99" s="43" t="s">
-        <v>288</v>
-      </c>
-      <c r="F99" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="G99" s="43" t="s">
-        <v>826</v>
-      </c>
-      <c r="H99" s="43">
-        <v>0</v>
-      </c>
-      <c r="J99" s="43">
-        <v>0</v>
-      </c>
-      <c r="K99" s="43">
-        <v>40</v>
-      </c>
-      <c r="L99" s="43">
-        <v>-1</v>
-      </c>
-      <c r="M99" s="45">
-        <f>(K99-J99)/6</f>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="N99" s="45">
-        <v>2.5</v>
-      </c>
-      <c r="Q99" s="43" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" s="30" customFormat="1">
-      <c r="B100" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D100" s="30" t="s">
-        <v>827</v>
-      </c>
-      <c r="E100" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F100" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G100" s="30" t="s">
-        <v>826</v>
-      </c>
-      <c r="H100" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17" s="30" customFormat="1">
-      <c r="B101" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D101" s="30" t="s">
-        <v>828</v>
-      </c>
-      <c r="E101" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F101" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G101" s="30" t="s">
-        <v>826</v>
-      </c>
-      <c r="H101" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17" s="30" customFormat="1">
-      <c r="B102" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D102" s="30" t="s">
-        <v>829</v>
-      </c>
-      <c r="E102" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F102" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G102" s="30" t="s">
-        <v>830</v>
-      </c>
-      <c r="H102" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17" s="30" customFormat="1">
-      <c r="B103" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D103" s="30" t="s">
-        <v>831</v>
-      </c>
-      <c r="E103" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="F103" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H103" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17" s="30" customFormat="1">
-      <c r="B104" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D104" s="30" t="s">
-        <v>832</v>
-      </c>
-      <c r="E104" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="F104" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G104" s="30" t="s">
-        <v>830</v>
-      </c>
-      <c r="H104" s="30">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17" s="30" customFormat="1">
-      <c r="B105" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D105" s="30" t="s">
-        <v>833</v>
-      </c>
-      <c r="E105" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F105" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G105" s="30" t="s">
-        <v>826</v>
-      </c>
-      <c r="H105" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17" s="30" customFormat="1">
-      <c r="B106" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D106" s="30" t="s">
-        <v>834</v>
-      </c>
-      <c r="E106" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="F106" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G106" s="30" t="s">
-        <v>830</v>
-      </c>
-      <c r="H106" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:17">
+    </row>
+    <row r="100" spans="2:9">
+      <c r="H100" s="31"/>
+      <c r="I100" s="31"/>
+    </row>
+    <row r="101" spans="2:9">
+      <c r="H101" s="31"/>
+      <c r="I101" s="31"/>
+    </row>
+    <row r="102" spans="2:9">
+      <c r="H102" s="31"/>
+      <c r="I102" s="31"/>
+    </row>
+    <row r="103" spans="2:9">
+      <c r="H103" s="31"/>
+      <c r="I103" s="31"/>
+    </row>
+    <row r="104" spans="2:9">
+      <c r="H104" s="31"/>
+      <c r="I104" s="31"/>
+    </row>
+    <row r="105" spans="2:9">
+      <c r="H105" s="31"/>
+      <c r="I105" s="31"/>
+    </row>
+    <row r="106" spans="2:9">
+      <c r="H106" s="31"/>
+      <c r="I106" s="31"/>
+    </row>
+    <row r="107" spans="2:9">
       <c r="H107" s="31"/>
       <c r="I107" s="31"/>
     </row>
-    <row r="108" spans="1:17">
+    <row r="108" spans="2:9">
       <c r="H108" s="31"/>
       <c r="I108" s="31"/>
     </row>
-    <row r="109" spans="1:17">
+    <row r="109" spans="2:9">
       <c r="H109" s="31"/>
       <c r="I109" s="31"/>
     </row>
-    <row r="110" spans="1:17">
+    <row r="110" spans="2:9">
       <c r="H110" s="31"/>
       <c r="I110" s="31"/>
     </row>
-    <row r="111" spans="1:17">
+    <row r="111" spans="2:9">
       <c r="H111" s="31"/>
       <c r="I111" s="31"/>
     </row>
-    <row r="112" spans="1:17">
+    <row r="112" spans="2:9">
       <c r="H112" s="31"/>
       <c r="I112" s="31"/>
     </row>
@@ -10013,36 +9883,8 @@
       <c r="H200" s="31"/>
       <c r="I200" s="31"/>
     </row>
-    <row r="201" spans="8:9">
-      <c r="H201" s="31"/>
-      <c r="I201" s="31"/>
-    </row>
-    <row r="202" spans="8:9">
-      <c r="H202" s="31"/>
-      <c r="I202" s="31"/>
-    </row>
-    <row r="203" spans="8:9">
-      <c r="H203" s="31"/>
-      <c r="I203" s="31"/>
-    </row>
-    <row r="204" spans="8:9">
-      <c r="H204" s="31"/>
-      <c r="I204" s="31"/>
-    </row>
-    <row r="205" spans="8:9">
-      <c r="H205" s="31"/>
-      <c r="I205" s="31"/>
-    </row>
-    <row r="206" spans="8:9">
-      <c r="H206" s="31"/>
-      <c r="I206" s="31"/>
-    </row>
-    <row r="207" spans="8:9">
-      <c r="H207" s="31"/>
-      <c r="I207" s="31"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A2:Z134"/>
+  <autoFilter ref="A2:Z127"/>
   <mergeCells count="1">
     <mergeCell ref="T1:Y1"/>
   </mergeCells>

--- a/projects/office_ee.xlsx
+++ b/projects/office_ee.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16840" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16440" tabRatio="562" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="TrueFalse">Lookups!$C$12:$C$13</definedName>
     <definedName name="Workflow">Lookups!$E$12:$E$13</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -2467,12 +2467,6 @@
     <t>Unknown</t>
   </si>
   <si>
-    <t>../measures</t>
-  </si>
-  <si>
-    <t>../../analysis</t>
-  </si>
-  <si>
     <t>NationalGrid Office EE</t>
   </si>
   <si>
@@ -2482,9 +2476,6 @@
     <t>calibration_data</t>
   </si>
   <si>
-    <t>../../tmp/calibration_data</t>
-  </si>
-  <si>
     <t>Add Ptac</t>
   </si>
   <si>
@@ -2576,6 +2567,15 @@
   </si>
   <si>
     <t>['Incandescent','Fluorescent','LED']</t>
+  </si>
+  <si>
+    <t>../Cofee-measures</t>
+  </si>
+  <si>
+    <t>../analysis</t>
+  </si>
+  <si>
+    <t>../lib/calibration_data</t>
   </si>
 </sst>
 </file>
@@ -6785,17 +6785,17 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="81.83203125" customWidth="1"/>
+    <col min="1" max="1" width="81.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="28">
+    <row r="1" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="28">
+    <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>41</v>
       </c>
@@ -6815,21 +6815,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.1640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.6640625" style="1"/>
+    <col min="4" max="4" width="33.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="61.7109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="19"/>
       <c r="B1" s="28"/>
       <c r="C1" s="19"/>
@@ -6838,7 +6838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1">
+    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>435</v>
       </c>
@@ -6847,7 +6847,7 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>436</v>
       </c>
@@ -6858,7 +6858,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>456</v>
       </c>
@@ -6869,7 +6869,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="42">
+    <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>469</v>
       </c>
@@ -6880,7 +6880,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="46" customHeight="1">
+    <row r="6" spans="1:5" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>470</v>
       </c>
@@ -6891,7 +6891,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>442</v>
       </c>
@@ -6910,7 +6910,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>443</v>
       </c>
@@ -6929,7 +6929,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>458</v>
       </c>
@@ -6942,7 +6942,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="12" customFormat="1">
+    <row r="11" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>28</v>
       </c>
@@ -6951,40 +6951,40 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>808</v>
+        <v>842</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>809</v>
+        <v>843</v>
       </c>
       <c r="E14" s="31" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>462</v>
       </c>
@@ -6995,7 +6995,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>463</v>
       </c>
@@ -7006,7 +7006,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>464</v>
       </c>
@@ -7017,7 +7017,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>466</v>
       </c>
@@ -7028,7 +7028,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="42">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>27</v>
       </c>
@@ -7041,7 +7041,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>451</v>
       </c>
@@ -7049,11 +7049,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="31" customFormat="1">
+    <row r="22" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="26"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="42">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>450</v>
       </c>
@@ -7070,7 +7070,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
         <v>570</v>
       </c>
@@ -7082,7 +7082,7 @@
       </c>
       <c r="D24" s="35"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
         <v>4</v>
       </c>
@@ -7094,56 +7094,56 @@
       </c>
       <c r="D25" s="35"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="31"/>
       <c r="B26" s="29"/>
       <c r="C26" s="30"/>
       <c r="D26" s="35"/>
     </row>
-    <row r="27" spans="1:5" s="31" customFormat="1">
+    <row r="27" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
       <c r="D27" s="35"/>
     </row>
-    <row r="28" spans="1:5" s="31" customFormat="1">
+    <row r="28" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="30"/>
       <c r="D28" s="35"/>
     </row>
-    <row r="29" spans="1:5" s="31" customFormat="1">
+    <row r="29" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="30"/>
       <c r="D29" s="35"/>
     </row>
-    <row r="30" spans="1:5" s="31" customFormat="1">
+    <row r="30" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="26"/>
       <c r="C30" s="34"/>
       <c r="D30" s="35"/>
     </row>
-    <row r="31" spans="1:5" s="31" customFormat="1">
+    <row r="31" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="26"/>
       <c r="C31" s="34"/>
       <c r="D31" s="35"/>
     </row>
-    <row r="32" spans="1:5" s="31" customFormat="1">
+    <row r="32" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="26"/>
       <c r="C32" s="34"/>
       <c r="D32" s="35"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="31"/>
       <c r="C33" s="34"/>
       <c r="D33" s="35"/>
     </row>
-    <row r="34" spans="1:5" s="31" customFormat="1">
+    <row r="34" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="26"/>
       <c r="C34" s="34"/>
       <c r="D34" s="35"/>
     </row>
-    <row r="35" spans="1:5" s="31" customFormat="1">
+    <row r="35" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="26"/>
       <c r="C35" s="26"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="28">
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>33</v>
       </c>
@@ -7156,7 +7156,7 @@
       <c r="D36" s="11"/>
       <c r="E36" s="13"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
@@ -7164,7 +7164,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="28">
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>30</v>
       </c>
@@ -7181,7 +7181,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="31" customFormat="1">
+    <row r="40" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="31" t="s">
         <v>32</v>
       </c>
@@ -7193,7 +7193,7 @@
       </c>
       <c r="E40" s="2"/>
     </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" ht="56">
+    <row r="42" spans="1:5" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>35</v>
       </c>
@@ -7208,18 +7208,18 @@
         <v>613</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="31" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="31" customFormat="1">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="26"/>
       <c r="D44" s="2"/>
     </row>
@@ -7249,37 +7249,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I89" sqref="I89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="31" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="31" customWidth="1"/>
     <col min="2" max="2" width="47" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="31" customWidth="1"/>
-    <col min="4" max="4" width="39.1640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="24.1640625" style="31" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="31" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.1640625" style="31" customWidth="1"/>
-    <col min="11" max="11" width="8.1640625" style="31" customWidth="1"/>
-    <col min="12" max="12" width="6.6640625" style="31" customWidth="1"/>
-    <col min="13" max="14" width="7.83203125" style="31" customWidth="1"/>
-    <col min="15" max="15" width="11.5" style="31"/>
-    <col min="16" max="16" width="11.5" style="31" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="31" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="31" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" style="31" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" style="31" customWidth="1"/>
+    <col min="12" max="12" width="6.7109375" style="31" customWidth="1"/>
+    <col min="13" max="14" width="7.85546875" style="31" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" style="31"/>
+    <col min="16" max="16" width="11.42578125" style="31" customWidth="1"/>
     <col min="17" max="17" width="23" style="31" customWidth="1"/>
-    <col min="18" max="18" width="27.6640625" style="31" customWidth="1"/>
-    <col min="19" max="19" width="46.1640625" style="31" customWidth="1"/>
-    <col min="20" max="22" width="11.5" style="31"/>
-    <col min="23" max="23" width="13.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="11.5" style="31"/>
+    <col min="18" max="18" width="27.7109375" style="31" customWidth="1"/>
+    <col min="19" max="19" width="46.140625" style="31" customWidth="1"/>
+    <col min="20" max="22" width="11.42578125" style="31"/>
+    <col min="23" max="23" width="13.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="11.42578125" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18">
+    <row r="1" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7314,7 +7314,7 @@
       <c r="X1" s="53"/>
       <c r="Y1" s="53"/>
     </row>
-    <row r="2" spans="1:25" s="8" customFormat="1" ht="15">
+    <row r="2" spans="1:25" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -7330,7 +7330,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:25" s="14" customFormat="1" ht="45">
+    <row r="3" spans="1:25" s="14" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -7404,7 +7404,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="38" customFormat="1">
+    <row r="4" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="b">
         <v>1</v>
       </c>
@@ -7423,7 +7423,7 @@
       <c r="G4" s="39"/>
       <c r="H4" s="39"/>
     </row>
-    <row r="5" spans="1:25" s="30" customFormat="1">
+    <row r="5" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="30" t="s">
         <v>21</v>
       </c>
@@ -7440,7 +7440,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="6" spans="1:25" s="30" customFormat="1">
+    <row r="6" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="30" t="s">
         <v>21</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="38" customFormat="1">
+    <row r="7" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="b">
         <v>1</v>
       </c>
@@ -7476,7 +7476,7 @@
       <c r="G7" s="39"/>
       <c r="H7" s="39"/>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" s="31" t="s">
         <v>21</v>
       </c>
@@ -7501,7 +7501,7 @@
       <c r="P8" s="40"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" s="31" t="s">
         <v>21</v>
       </c>
@@ -7524,7 +7524,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B10" s="31" t="s">
         <v>21</v>
       </c>
@@ -7542,7 +7542,7 @@
       </c>
       <c r="I10" s="31"/>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B11" s="31" t="s">
         <v>21</v>
       </c>
@@ -7560,7 +7560,7 @@
       </c>
       <c r="I11" s="31"/>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B12" s="31" t="s">
         <v>21</v>
       </c>
@@ -7578,7 +7578,7 @@
       </c>
       <c r="I12" s="31"/>
     </row>
-    <row r="13" spans="1:25" s="38" customFormat="1">
+    <row r="13" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="38" t="b">
         <v>1</v>
       </c>
@@ -7597,7 +7597,7 @@
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
     </row>
-    <row r="14" spans="1:25" s="30" customFormat="1">
+    <row r="14" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="30" t="s">
         <v>21</v>
       </c>
@@ -7617,7 +7617,7 @@
         <v>12717</v>
       </c>
     </row>
-    <row r="15" spans="1:25" s="30" customFormat="1">
+    <row r="15" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="30" t="s">
         <v>21</v>
       </c>
@@ -7634,7 +7634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:25" s="30" customFormat="1">
+    <row r="16" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="30" t="s">
         <v>21</v>
       </c>
@@ -7651,7 +7651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="30" customFormat="1">
+    <row r="17" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="30" t="s">
         <v>21</v>
       </c>
@@ -7671,7 +7671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="30" customFormat="1">
+    <row r="18" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="30" t="s">
         <v>21</v>
       </c>
@@ -7688,7 +7688,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="30" customFormat="1">
+    <row r="19" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="30" t="s">
         <v>21</v>
       </c>
@@ -7705,7 +7705,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="30" customFormat="1">
+    <row r="20" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="30" t="s">
         <v>21</v>
       </c>
@@ -7722,7 +7722,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="30" customFormat="1">
+    <row r="21" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="30" t="s">
         <v>21</v>
       </c>
@@ -7739,7 +7739,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="30" customFormat="1">
+    <row r="22" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="30" t="s">
         <v>21</v>
       </c>
@@ -7756,7 +7756,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="30" customFormat="1">
+    <row r="23" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="30" t="s">
         <v>21</v>
       </c>
@@ -7773,7 +7773,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="30" customFormat="1">
+    <row r="24" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="30" t="s">
         <v>21</v>
       </c>
@@ -7790,7 +7790,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="30" customFormat="1">
+    <row r="25" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="30" t="s">
         <v>21</v>
       </c>
@@ -7807,7 +7807,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="30" customFormat="1">
+    <row r="26" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="30" t="s">
         <v>21</v>
       </c>
@@ -7824,7 +7824,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="30" customFormat="1">
+    <row r="27" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="30" t="s">
         <v>21</v>
       </c>
@@ -7841,7 +7841,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="30" customFormat="1">
+    <row r="28" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="30" t="s">
         <v>21</v>
       </c>
@@ -7858,7 +7858,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="30" customFormat="1">
+    <row r="29" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="30" t="s">
         <v>21</v>
       </c>
@@ -7875,7 +7875,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="30" customFormat="1">
+    <row r="30" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="30" t="s">
         <v>21</v>
       </c>
@@ -7892,7 +7892,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="38" customFormat="1">
+    <row r="31" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="38" t="b">
         <v>1</v>
       </c>
@@ -7911,7 +7911,7 @@
       <c r="G31" s="39"/>
       <c r="H31" s="39"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" s="31" t="s">
         <v>21</v>
       </c>
@@ -7927,32 +7927,32 @@
       <c r="H32" s="31"/>
       <c r="I32" s="31"/>
     </row>
-    <row r="33" spans="1:17" s="38" customFormat="1">
+    <row r="33" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B33" s="38" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="E33" s="38" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:17" s="30" customFormat="1">
+    <row r="34" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="F34" s="30" t="s">
         <v>64</v>
@@ -7961,35 +7961,35 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="35" spans="1:17" s="30" customFormat="1">
+    <row r="35" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="F35" s="30" t="s">
         <v>62</v>
       </c>
       <c r="H35" s="30" t="s">
+        <v>817</v>
+      </c>
+      <c r="I35" s="30" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>819</v>
+      </c>
+      <c r="E36" s="30" t="s">
         <v>820</v>
-      </c>
-      <c r="I35" s="30" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" s="30" customFormat="1">
-      <c r="B36" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="30" t="s">
-        <v>822</v>
-      </c>
-      <c r="E36" s="30" t="s">
-        <v>823</v>
       </c>
       <c r="F36" s="30" t="s">
         <v>64</v>
@@ -7998,7 +7998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:17" s="38" customFormat="1">
+    <row r="37" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="38" t="b">
         <v>1</v>
       </c>
@@ -8017,7 +8017,7 @@
       <c r="G37" s="39"/>
       <c r="H37" s="39"/>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B38" s="31" t="s">
         <v>21</v>
       </c>
@@ -8042,7 +8042,7 @@
       <c r="P38" s="40"/>
       <c r="Q38" s="2"/>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B39" s="31" t="s">
         <v>21</v>
       </c>
@@ -8070,7 +8070,7 @@
       <c r="P39" s="40"/>
       <c r="Q39" s="2"/>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B40" s="31" t="s">
         <v>21</v>
       </c>
@@ -8098,7 +8098,7 @@
       <c r="P40" s="40"/>
       <c r="Q40" s="2"/>
     </row>
-    <row r="41" spans="1:17" s="38" customFormat="1">
+    <row r="41" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="38" t="b">
         <v>1</v>
       </c>
@@ -8117,7 +8117,7 @@
       <c r="G41" s="39"/>
       <c r="H41" s="39"/>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B42" s="31" t="s">
         <v>21</v>
       </c>
@@ -8142,7 +8142,7 @@
       <c r="P42" s="40"/>
       <c r="Q42" s="2"/>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B43" s="31" t="s">
         <v>21</v>
       </c>
@@ -8170,7 +8170,7 @@
       <c r="P43" s="40"/>
       <c r="Q43" s="2"/>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B44" s="31" t="s">
         <v>21</v>
       </c>
@@ -8198,7 +8198,7 @@
       <c r="P44" s="40"/>
       <c r="Q44" s="2"/>
     </row>
-    <row r="45" spans="1:17" s="38" customFormat="1">
+    <row r="45" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="38" t="b">
         <v>1</v>
       </c>
@@ -8217,7 +8217,7 @@
       <c r="G45" s="39"/>
       <c r="H45" s="39"/>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B46" s="31" t="s">
         <v>21</v>
       </c>
@@ -8242,7 +8242,7 @@
       <c r="P46" s="40"/>
       <c r="Q46" s="2"/>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B47" s="31" t="s">
         <v>21</v>
       </c>
@@ -8270,7 +8270,7 @@
       <c r="P47" s="40"/>
       <c r="Q47" s="2"/>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B48" s="31" t="s">
         <v>21</v>
       </c>
@@ -8298,7 +8298,7 @@
       <c r="P48" s="40"/>
       <c r="Q48" s="2"/>
     </row>
-    <row r="49" spans="1:17" s="38" customFormat="1">
+    <row r="49" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="38" t="b">
         <v>1</v>
       </c>
@@ -8317,7 +8317,7 @@
       <c r="G49" s="39"/>
       <c r="H49" s="39"/>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B50" s="31" t="s">
         <v>21</v>
       </c>
@@ -8342,7 +8342,7 @@
       <c r="P50" s="40"/>
       <c r="Q50" s="2"/>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B51" s="31" t="s">
         <v>21</v>
       </c>
@@ -8370,7 +8370,7 @@
       <c r="P51" s="40"/>
       <c r="Q51" s="2"/>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B52" s="31" t="s">
         <v>21</v>
       </c>
@@ -8398,7 +8398,7 @@
       <c r="P52" s="40"/>
       <c r="Q52" s="2"/>
     </row>
-    <row r="53" spans="1:17" s="38" customFormat="1">
+    <row r="53" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="38" t="b">
         <v>1</v>
       </c>
@@ -8417,7 +8417,7 @@
       <c r="G53" s="39"/>
       <c r="H53" s="39"/>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B54" s="31" t="s">
         <v>21</v>
       </c>
@@ -8435,7 +8435,7 @@
       </c>
       <c r="I54" s="31"/>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B55" s="31" t="s">
         <v>21</v>
       </c>
@@ -8453,7 +8453,7 @@
       </c>
       <c r="I55" s="31"/>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B56" s="31" t="s">
         <v>21</v>
       </c>
@@ -8471,7 +8471,7 @@
       </c>
       <c r="I56" s="31"/>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B57" s="31" t="s">
         <v>21</v>
       </c>
@@ -8489,7 +8489,7 @@
       </c>
       <c r="I57" s="31"/>
     </row>
-    <row r="58" spans="1:17" s="38" customFormat="1">
+    <row r="58" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="38" t="b">
         <v>1</v>
       </c>
@@ -8508,7 +8508,7 @@
       <c r="G58" s="39"/>
       <c r="H58" s="39"/>
     </row>
-    <row r="59" spans="1:17" s="38" customFormat="1">
+    <row r="59" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="38" t="b">
         <v>1</v>
       </c>
@@ -8527,7 +8527,7 @@
       <c r="G59" s="39"/>
       <c r="H59" s="39"/>
     </row>
-    <row r="60" spans="1:17" s="43" customFormat="1">
+    <row r="60" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="43" t="s">
         <v>21</v>
       </c>
@@ -8563,7 +8563,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="1:17" s="30" customFormat="1">
+    <row r="61" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="30" t="s">
         <v>21</v>
       </c>
@@ -8580,7 +8580,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:17" s="30" customFormat="1">
+    <row r="62" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="30" t="s">
         <v>21</v>
       </c>
@@ -8600,7 +8600,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:17" s="38" customFormat="1">
+    <row r="63" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="38" t="b">
         <v>1</v>
       </c>
@@ -8619,7 +8619,7 @@
       <c r="G63" s="39"/>
       <c r="H63" s="39"/>
     </row>
-    <row r="64" spans="1:17" s="43" customFormat="1">
+    <row r="64" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="43" t="s">
         <v>21</v>
       </c>
@@ -8655,7 +8655,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="65" spans="1:17" s="30" customFormat="1">
+    <row r="65" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="30" t="s">
         <v>21</v>
       </c>
@@ -8672,7 +8672,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="1:17" s="30" customFormat="1">
+    <row r="66" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="30" t="s">
         <v>21</v>
       </c>
@@ -8692,7 +8692,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:17" s="38" customFormat="1">
+    <row r="67" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="38" t="b">
         <v>1</v>
       </c>
@@ -8711,7 +8711,7 @@
       <c r="G67" s="39"/>
       <c r="H67" s="39"/>
     </row>
-    <row r="68" spans="1:17" s="43" customFormat="1">
+    <row r="68" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="43" t="s">
         <v>21</v>
       </c>
@@ -8747,7 +8747,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="69" spans="1:17" s="30" customFormat="1">
+    <row r="69" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="30" t="s">
         <v>21</v>
       </c>
@@ -8764,7 +8764,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:17" s="30" customFormat="1">
+    <row r="70" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="30" t="s">
         <v>21</v>
       </c>
@@ -8784,7 +8784,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="71" spans="1:17" s="38" customFormat="1">
+    <row r="71" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="38" t="b">
         <v>1</v>
       </c>
@@ -8803,7 +8803,7 @@
       <c r="G71" s="39"/>
       <c r="H71" s="39"/>
     </row>
-    <row r="72" spans="1:17" s="30" customFormat="1">
+    <row r="72" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="30" t="s">
         <v>21</v>
       </c>
@@ -8824,7 +8824,7 @@
       </c>
       <c r="O72" s="31"/>
     </row>
-    <row r="73" spans="1:17" s="43" customFormat="1">
+    <row r="73" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="43" t="s">
         <v>21</v>
       </c>
@@ -8860,7 +8860,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="74" spans="1:17" s="30" customFormat="1">
+    <row r="74" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="30" t="s">
         <v>21</v>
       </c>
@@ -8878,7 +8878,7 @@
       </c>
       <c r="O74" s="31"/>
     </row>
-    <row r="75" spans="1:17" s="30" customFormat="1">
+    <row r="75" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="30" t="s">
         <v>21</v>
       </c>
@@ -8896,7 +8896,7 @@
       </c>
       <c r="O75" s="31"/>
     </row>
-    <row r="76" spans="1:17" s="30" customFormat="1">
+    <row r="76" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B76" s="30" t="s">
         <v>21</v>
       </c>
@@ -8914,7 +8914,7 @@
       </c>
       <c r="O76" s="31"/>
     </row>
-    <row r="77" spans="1:17" s="38" customFormat="1">
+    <row r="77" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="38" t="b">
         <v>1</v>
       </c>
@@ -8933,7 +8933,7 @@
       <c r="G77" s="39"/>
       <c r="H77" s="39"/>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="30"/>
       <c r="B78" s="30" t="s">
         <v>21</v>
@@ -8962,7 +8962,7 @@
       <c r="N78" s="3"/>
       <c r="P78" s="40"/>
     </row>
-    <row r="79" spans="1:17" s="43" customFormat="1">
+    <row r="79" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="43" t="s">
         <v>21</v>
       </c>
@@ -9000,7 +9000,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="30"/>
       <c r="B80" s="30" t="s">
         <v>21</v>
@@ -9026,7 +9026,7 @@
       <c r="N80" s="3"/>
       <c r="P80" s="40"/>
     </row>
-    <row r="81" spans="1:17">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="30"/>
       <c r="B81" s="30" t="s">
         <v>21</v>
@@ -9052,7 +9052,7 @@
       <c r="N81" s="3"/>
       <c r="P81" s="40"/>
     </row>
-    <row r="82" spans="1:17">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="30"/>
       <c r="B82" s="30" t="s">
         <v>21</v>
@@ -9078,7 +9078,7 @@
       <c r="N82" s="3"/>
       <c r="P82" s="40"/>
     </row>
-    <row r="83" spans="1:17">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="30"/>
       <c r="B83" s="30" t="s">
         <v>21</v>
@@ -9104,7 +9104,7 @@
       <c r="N83" s="3"/>
       <c r="P83" s="40"/>
     </row>
-    <row r="84" spans="1:17">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="30"/>
       <c r="B84" s="30" t="s">
         <v>21</v>
@@ -9130,7 +9130,7 @@
       <c r="N84" s="3"/>
       <c r="P84" s="40"/>
     </row>
-    <row r="85" spans="1:17">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="30"/>
       <c r="B85" s="30" t="s">
         <v>21</v>
@@ -9156,7 +9156,7 @@
       <c r="N85" s="3"/>
       <c r="P85" s="40"/>
     </row>
-    <row r="86" spans="1:17">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="30"/>
       <c r="B86" s="30" t="s">
         <v>21</v>
@@ -9182,18 +9182,18 @@
       <c r="N86" s="3"/>
       <c r="P86" s="40"/>
     </row>
-    <row r="87" spans="1:17" s="49" customFormat="1">
+    <row r="87" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="49" t="b">
         <v>1</v>
       </c>
       <c r="B87" s="49" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="C87" s="49" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="D87" s="49" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="E87" s="49" t="s">
         <v>68</v>
@@ -9206,18 +9206,18 @@
       <c r="O87" s="51"/>
       <c r="Q87" s="52"/>
     </row>
-    <row r="88" spans="1:17" s="49" customFormat="1">
+    <row r="88" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="49" t="b">
         <v>1</v>
       </c>
       <c r="B88" s="49" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="C88" s="49" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="D88" s="49" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="E88" s="49" t="s">
         <v>68</v>
@@ -9230,47 +9230,47 @@
       <c r="O88" s="51"/>
       <c r="Q88" s="52"/>
     </row>
-    <row r="89" spans="1:17" s="43" customFormat="1">
+    <row r="89" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B89" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D89" s="43" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="E89" s="43" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="F89" s="43" t="s">
         <v>62</v>
       </c>
       <c r="H89" s="43" t="s">
+        <v>838</v>
+      </c>
+      <c r="I89" s="43" t="s">
+        <v>839</v>
+      </c>
+      <c r="J89" s="43" t="s">
+        <v>838</v>
+      </c>
+      <c r="K89" s="43" t="s">
+        <v>838</v>
+      </c>
+      <c r="L89" s="43" t="s">
+        <v>838</v>
+      </c>
+      <c r="O89" s="43" t="s">
         <v>841</v>
       </c>
-      <c r="I89" s="43" t="s">
-        <v>842</v>
-      </c>
-      <c r="J89" s="43" t="s">
-        <v>841</v>
-      </c>
-      <c r="K89" s="43" t="s">
-        <v>841</v>
-      </c>
-      <c r="L89" s="43" t="s">
-        <v>841</v>
-      </c>
-      <c r="O89" s="43" t="s">
-        <v>844</v>
-      </c>
       <c r="Q89" s="43" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17" s="22" customFormat="1">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="22" t="b">
         <v>1</v>
       </c>
       <c r="B90" s="22" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="C90" s="22" t="s">
         <v>286</v>
@@ -9282,7 +9282,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="91" spans="1:17" s="30" customFormat="1">
+    <row r="91" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="18"/>
       <c r="B91" s="30" t="s">
         <v>21</v>
@@ -9303,12 +9303,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="92" spans="1:17" s="43" customFormat="1">
+    <row r="92" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B92" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D92" s="43" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="E92" s="43" t="s">
         <v>288</v>
@@ -9317,7 +9317,7 @@
         <v>64</v>
       </c>
       <c r="G92" s="43" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="H92" s="43">
         <v>0</v>
@@ -9342,12 +9342,12 @@
         <v>800</v>
       </c>
     </row>
-    <row r="93" spans="1:17" s="30" customFormat="1">
+    <row r="93" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B93" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D93" s="30" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="E93" s="30" t="s">
         <v>48</v>
@@ -9356,18 +9356,18 @@
         <v>64</v>
       </c>
       <c r="G93" s="30" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="H93" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:17" s="30" customFormat="1">
+    <row r="94" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B94" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D94" s="30" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="E94" s="30" t="s">
         <v>50</v>
@@ -9376,18 +9376,18 @@
         <v>64</v>
       </c>
       <c r="G94" s="30" t="s">
+        <v>821</v>
+      </c>
+      <c r="H94" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D95" s="30" t="s">
         <v>824</v>
-      </c>
-      <c r="H94" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" s="30" customFormat="1">
-      <c r="B95" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D95" s="30" t="s">
-        <v>827</v>
       </c>
       <c r="E95" s="30" t="s">
         <v>52</v>
@@ -9396,18 +9396,18 @@
         <v>65</v>
       </c>
       <c r="G95" s="30" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="H95" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:17" s="30" customFormat="1">
+    <row r="96" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B96" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D96" s="30" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="E96" s="30" t="s">
         <v>54</v>
@@ -9419,12 +9419,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:9" s="30" customFormat="1">
+    <row r="97" spans="2:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B97" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D97" s="30" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="E97" s="30" t="s">
         <v>56</v>
@@ -9433,18 +9433,18 @@
         <v>65</v>
       </c>
       <c r="G97" s="30" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="H97" s="30">
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="2:9" s="30" customFormat="1">
+    <row r="98" spans="2:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B98" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D98" s="30" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="E98" s="30" t="s">
         <v>58</v>
@@ -9453,18 +9453,18 @@
         <v>64</v>
       </c>
       <c r="G98" s="30" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="H98" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:9" s="30" customFormat="1">
+    <row r="99" spans="2:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B99" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D99" s="30" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="E99" s="30" t="s">
         <v>60</v>
@@ -9473,413 +9473,413 @@
         <v>65</v>
       </c>
       <c r="G99" s="30" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="H99" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="2:9">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H100" s="31"/>
       <c r="I100" s="31"/>
     </row>
-    <row r="101" spans="2:9">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H101" s="31"/>
       <c r="I101" s="31"/>
     </row>
-    <row r="102" spans="2:9">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H102" s="31"/>
       <c r="I102" s="31"/>
     </row>
-    <row r="103" spans="2:9">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H103" s="31"/>
       <c r="I103" s="31"/>
     </row>
-    <row r="104" spans="2:9">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H104" s="31"/>
       <c r="I104" s="31"/>
     </row>
-    <row r="105" spans="2:9">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H105" s="31"/>
       <c r="I105" s="31"/>
     </row>
-    <row r="106" spans="2:9">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H106" s="31"/>
       <c r="I106" s="31"/>
     </row>
-    <row r="107" spans="2:9">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H107" s="31"/>
       <c r="I107" s="31"/>
     </row>
-    <row r="108" spans="2:9">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H108" s="31"/>
       <c r="I108" s="31"/>
     </row>
-    <row r="109" spans="2:9">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H109" s="31"/>
       <c r="I109" s="31"/>
     </row>
-    <row r="110" spans="2:9">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H110" s="31"/>
       <c r="I110" s="31"/>
     </row>
-    <row r="111" spans="2:9">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H111" s="31"/>
       <c r="I111" s="31"/>
     </row>
-    <row r="112" spans="2:9">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H112" s="31"/>
       <c r="I112" s="31"/>
     </row>
-    <row r="113" spans="8:9">
+    <row r="113" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H113" s="31"/>
       <c r="I113" s="31"/>
     </row>
-    <row r="114" spans="8:9">
+    <row r="114" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H114" s="31"/>
       <c r="I114" s="31"/>
     </row>
-    <row r="115" spans="8:9">
+    <row r="115" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H115" s="31"/>
       <c r="I115" s="31"/>
     </row>
-    <row r="116" spans="8:9">
+    <row r="116" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H116" s="31"/>
       <c r="I116" s="31"/>
     </row>
-    <row r="117" spans="8:9">
+    <row r="117" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H117" s="31"/>
       <c r="I117" s="31"/>
     </row>
-    <row r="118" spans="8:9">
+    <row r="118" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H118" s="31"/>
       <c r="I118" s="31"/>
     </row>
-    <row r="119" spans="8:9">
+    <row r="119" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H119" s="31"/>
       <c r="I119" s="31"/>
     </row>
-    <row r="120" spans="8:9">
+    <row r="120" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H120" s="31"/>
       <c r="I120" s="31"/>
     </row>
-    <row r="121" spans="8:9">
+    <row r="121" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H121" s="31"/>
       <c r="I121" s="31"/>
     </row>
-    <row r="122" spans="8:9">
+    <row r="122" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H122" s="31"/>
       <c r="I122" s="31"/>
     </row>
-    <row r="123" spans="8:9">
+    <row r="123" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H123" s="31"/>
       <c r="I123" s="31"/>
     </row>
-    <row r="124" spans="8:9">
+    <row r="124" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H124" s="31"/>
       <c r="I124" s="31"/>
     </row>
-    <row r="125" spans="8:9">
+    <row r="125" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H125" s="31"/>
       <c r="I125" s="31"/>
     </row>
-    <row r="126" spans="8:9">
+    <row r="126" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H126" s="31"/>
       <c r="I126" s="31"/>
     </row>
-    <row r="127" spans="8:9">
+    <row r="127" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H127" s="31"/>
       <c r="I127" s="31"/>
     </row>
-    <row r="128" spans="8:9">
+    <row r="128" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H128" s="31"/>
       <c r="I128" s="31"/>
     </row>
-    <row r="129" spans="8:9">
+    <row r="129" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H129" s="31"/>
       <c r="I129" s="31"/>
     </row>
-    <row r="130" spans="8:9">
+    <row r="130" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H130" s="31"/>
       <c r="I130" s="31"/>
     </row>
-    <row r="131" spans="8:9">
+    <row r="131" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H131" s="31"/>
       <c r="I131" s="31"/>
     </row>
-    <row r="132" spans="8:9">
+    <row r="132" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H132" s="31"/>
       <c r="I132" s="31"/>
     </row>
-    <row r="133" spans="8:9">
+    <row r="133" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H133" s="31"/>
       <c r="I133" s="31"/>
     </row>
-    <row r="134" spans="8:9">
+    <row r="134" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H134" s="31"/>
       <c r="I134" s="31"/>
     </row>
-    <row r="135" spans="8:9">
+    <row r="135" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H135" s="31"/>
       <c r="I135" s="31"/>
     </row>
-    <row r="136" spans="8:9">
+    <row r="136" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H136" s="31"/>
       <c r="I136" s="31"/>
     </row>
-    <row r="137" spans="8:9">
+    <row r="137" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H137" s="31"/>
       <c r="I137" s="31"/>
     </row>
-    <row r="138" spans="8:9">
+    <row r="138" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H138" s="31"/>
       <c r="I138" s="31"/>
     </row>
-    <row r="139" spans="8:9">
+    <row r="139" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H139" s="31"/>
       <c r="I139" s="31"/>
     </row>
-    <row r="140" spans="8:9">
+    <row r="140" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H140" s="31"/>
       <c r="I140" s="31"/>
     </row>
-    <row r="141" spans="8:9">
+    <row r="141" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H141" s="31"/>
       <c r="I141" s="31"/>
     </row>
-    <row r="142" spans="8:9">
+    <row r="142" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H142" s="31"/>
       <c r="I142" s="31"/>
     </row>
-    <row r="143" spans="8:9">
+    <row r="143" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H143" s="31"/>
       <c r="I143" s="31"/>
     </row>
-    <row r="144" spans="8:9">
+    <row r="144" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H144" s="31"/>
       <c r="I144" s="31"/>
     </row>
-    <row r="145" spans="8:9">
+    <row r="145" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H145" s="31"/>
       <c r="I145" s="31"/>
     </row>
-    <row r="146" spans="8:9">
+    <row r="146" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H146" s="31"/>
       <c r="I146" s="31"/>
     </row>
-    <row r="147" spans="8:9">
+    <row r="147" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H147" s="31"/>
       <c r="I147" s="31"/>
     </row>
-    <row r="148" spans="8:9">
+    <row r="148" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H148" s="31"/>
       <c r="I148" s="31"/>
     </row>
-    <row r="149" spans="8:9">
+    <row r="149" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H149" s="31"/>
       <c r="I149" s="31"/>
     </row>
-    <row r="150" spans="8:9">
+    <row r="150" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H150" s="31"/>
       <c r="I150" s="31"/>
     </row>
-    <row r="151" spans="8:9">
+    <row r="151" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H151" s="31"/>
       <c r="I151" s="31"/>
     </row>
-    <row r="152" spans="8:9">
+    <row r="152" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H152" s="31"/>
       <c r="I152" s="31"/>
     </row>
-    <row r="153" spans="8:9">
+    <row r="153" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H153" s="31"/>
       <c r="I153" s="31"/>
     </row>
-    <row r="154" spans="8:9">
+    <row r="154" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H154" s="31"/>
       <c r="I154" s="31"/>
     </row>
-    <row r="155" spans="8:9">
+    <row r="155" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H155" s="31"/>
       <c r="I155" s="31"/>
     </row>
-    <row r="156" spans="8:9">
+    <row r="156" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H156" s="31"/>
       <c r="I156" s="31"/>
     </row>
-    <row r="157" spans="8:9">
+    <row r="157" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H157" s="31"/>
       <c r="I157" s="31"/>
     </row>
-    <row r="158" spans="8:9">
+    <row r="158" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H158" s="31"/>
       <c r="I158" s="31"/>
     </row>
-    <row r="159" spans="8:9">
+    <row r="159" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H159" s="31"/>
       <c r="I159" s="31"/>
     </row>
-    <row r="160" spans="8:9">
+    <row r="160" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H160" s="31"/>
       <c r="I160" s="31"/>
     </row>
-    <row r="161" spans="8:9">
+    <row r="161" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H161" s="31"/>
       <c r="I161" s="31"/>
     </row>
-    <row r="162" spans="8:9">
+    <row r="162" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H162" s="31"/>
       <c r="I162" s="31"/>
     </row>
-    <row r="163" spans="8:9">
+    <row r="163" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H163" s="31"/>
       <c r="I163" s="31"/>
     </row>
-    <row r="164" spans="8:9">
+    <row r="164" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H164" s="31"/>
       <c r="I164" s="31"/>
     </row>
-    <row r="165" spans="8:9">
+    <row r="165" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H165" s="31"/>
       <c r="I165" s="31"/>
     </row>
-    <row r="166" spans="8:9">
+    <row r="166" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H166" s="31"/>
       <c r="I166" s="31"/>
     </row>
-    <row r="167" spans="8:9">
+    <row r="167" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H167" s="31"/>
       <c r="I167" s="31"/>
     </row>
-    <row r="168" spans="8:9">
+    <row r="168" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H168" s="31"/>
       <c r="I168" s="31"/>
     </row>
-    <row r="169" spans="8:9">
+    <row r="169" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H169" s="31"/>
       <c r="I169" s="31"/>
     </row>
-    <row r="170" spans="8:9">
+    <row r="170" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H170" s="31"/>
       <c r="I170" s="31"/>
     </row>
-    <row r="171" spans="8:9">
+    <row r="171" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H171" s="31"/>
       <c r="I171" s="31"/>
     </row>
-    <row r="172" spans="8:9">
+    <row r="172" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H172" s="31"/>
       <c r="I172" s="31"/>
     </row>
-    <row r="173" spans="8:9">
+    <row r="173" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H173" s="31"/>
       <c r="I173" s="31"/>
     </row>
-    <row r="174" spans="8:9">
+    <row r="174" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H174" s="31"/>
       <c r="I174" s="31"/>
     </row>
-    <row r="175" spans="8:9">
+    <row r="175" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H175" s="31"/>
       <c r="I175" s="31"/>
     </row>
-    <row r="176" spans="8:9">
+    <row r="176" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H176" s="31"/>
       <c r="I176" s="31"/>
     </row>
-    <row r="177" spans="8:9">
+    <row r="177" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H177" s="31"/>
       <c r="I177" s="31"/>
     </row>
-    <row r="178" spans="8:9">
+    <row r="178" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H178" s="31"/>
       <c r="I178" s="31"/>
     </row>
-    <row r="179" spans="8:9">
+    <row r="179" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H179" s="31"/>
       <c r="I179" s="31"/>
     </row>
-    <row r="180" spans="8:9">
+    <row r="180" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H180" s="31"/>
       <c r="I180" s="31"/>
     </row>
-    <row r="181" spans="8:9">
+    <row r="181" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H181" s="31"/>
       <c r="I181" s="31"/>
     </row>
-    <row r="182" spans="8:9">
+    <row r="182" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H182" s="31"/>
       <c r="I182" s="31"/>
     </row>
-    <row r="183" spans="8:9">
+    <row r="183" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H183" s="31"/>
       <c r="I183" s="31"/>
     </row>
-    <row r="184" spans="8:9">
+    <row r="184" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H184" s="31"/>
       <c r="I184" s="31"/>
     </row>
-    <row r="185" spans="8:9">
+    <row r="185" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H185" s="31"/>
       <c r="I185" s="31"/>
     </row>
-    <row r="186" spans="8:9">
+    <row r="186" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H186" s="31"/>
       <c r="I186" s="31"/>
     </row>
-    <row r="187" spans="8:9">
+    <row r="187" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H187" s="31"/>
       <c r="I187" s="31"/>
     </row>
-    <row r="188" spans="8:9">
+    <row r="188" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H188" s="31"/>
       <c r="I188" s="31"/>
     </row>
-    <row r="189" spans="8:9">
+    <row r="189" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H189" s="31"/>
       <c r="I189" s="31"/>
     </row>
-    <row r="190" spans="8:9">
+    <row r="190" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H190" s="31"/>
       <c r="I190" s="31"/>
     </row>
-    <row r="191" spans="8:9">
+    <row r="191" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H191" s="31"/>
       <c r="I191" s="31"/>
     </row>
-    <row r="192" spans="8:9">
+    <row r="192" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H192" s="31"/>
       <c r="I192" s="31"/>
     </row>
-    <row r="193" spans="8:9">
+    <row r="193" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H193" s="31"/>
       <c r="I193" s="31"/>
     </row>
-    <row r="194" spans="8:9">
+    <row r="194" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H194" s="31"/>
       <c r="I194" s="31"/>
     </row>
-    <row r="195" spans="8:9">
+    <row r="195" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H195" s="31"/>
       <c r="I195" s="31"/>
     </row>
-    <row r="196" spans="8:9">
+    <row r="196" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H196" s="31"/>
       <c r="I196" s="31"/>
     </row>
-    <row r="197" spans="8:9">
+    <row r="197" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H197" s="31"/>
       <c r="I197" s="31"/>
     </row>
-    <row r="198" spans="8:9">
+    <row r="198" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H198" s="31"/>
       <c r="I198" s="31"/>
     </row>
-    <row r="199" spans="8:9">
+    <row r="199" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H199" s="31"/>
       <c r="I199" s="31"/>
     </row>
-    <row r="200" spans="8:9">
+    <row r="200" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H200" s="31"/>
       <c r="I200" s="31"/>
     </row>
@@ -9907,20 +9907,20 @@
       <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="29.5" style="31" customWidth="1"/>
+    <col min="1" max="2" width="29.42578125" style="31" customWidth="1"/>
     <col min="3" max="3" width="71" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="31" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.5" style="31" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="31" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="31" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" style="31" customWidth="1"/>
-    <col min="11" max="16384" width="11.5" style="31"/>
+    <col min="4" max="4" width="10.42578125" style="31" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.42578125" style="31" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="31" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="31" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="31" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -9935,7 +9935,7 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="15">
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>459</v>
       </c>
@@ -9970,7 +9970,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="14" customFormat="1" ht="30">
+    <row r="3" spans="1:12" s="14" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>628</v>
       </c>
@@ -10006,7 +10006,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>644</v>
       </c>
@@ -10035,7 +10035,7 @@
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
         <v>645</v>
       </c>
@@ -10065,7 +10065,7 @@
       <c r="K5" s="30"/>
       <c r="L5" s="30"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
         <v>646</v>
       </c>
@@ -10094,7 +10094,7 @@
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>647</v>
       </c>
@@ -10123,7 +10123,7 @@
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
         <v>708</v>
       </c>
@@ -10151,7 +10151,7 @@
       <c r="K8" s="30"/>
       <c r="L8" s="30"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>710</v>
       </c>
@@ -10179,7 +10179,7 @@
       <c r="K9" s="30"/>
       <c r="L9" s="30"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
         <v>713</v>
       </c>
@@ -10207,7 +10207,7 @@
       <c r="K10" s="30"/>
       <c r="L10" s="30"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
         <v>715</v>
       </c>
@@ -10235,7 +10235,7 @@
       <c r="K11" s="30"/>
       <c r="L11" s="30"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
         <v>716</v>
       </c>
@@ -10263,7 +10263,7 @@
       <c r="K12" s="30"/>
       <c r="L12" s="30"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
         <v>717</v>
       </c>
@@ -10291,7 +10291,7 @@
       <c r="K13" s="30"/>
       <c r="L13" s="30"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
         <v>718</v>
       </c>
@@ -10319,7 +10319,7 @@
       <c r="K14" s="30"/>
       <c r="L14" s="30"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
         <v>719</v>
       </c>
@@ -10347,7 +10347,7 @@
       <c r="K15" s="30"/>
       <c r="L15" s="30"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
         <v>720</v>
       </c>
@@ -10375,7 +10375,7 @@
       <c r="K16" s="30"/>
       <c r="L16" s="30"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
         <v>721</v>
       </c>
@@ -10403,7 +10403,7 @@
       <c r="K17" s="30"/>
       <c r="L17" s="30"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
         <v>722</v>
       </c>
@@ -10431,7 +10431,7 @@
       <c r="K18" s="30"/>
       <c r="L18" s="30"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
         <v>723</v>
       </c>
@@ -10459,7 +10459,7 @@
       <c r="K19" s="30"/>
       <c r="L19" s="30"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
         <v>724</v>
       </c>
@@ -10487,7 +10487,7 @@
       <c r="K20" s="30"/>
       <c r="L20" s="30"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
         <v>736</v>
       </c>
@@ -10515,7 +10515,7 @@
       <c r="K21" s="30"/>
       <c r="L21" s="30"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
         <v>735</v>
       </c>
@@ -10543,7 +10543,7 @@
       <c r="K22" s="30"/>
       <c r="L22" s="30"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
         <v>740</v>
       </c>
@@ -10571,7 +10571,7 @@
       <c r="K23" s="30"/>
       <c r="L23" s="30"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
         <v>741</v>
       </c>
@@ -10599,7 +10599,7 @@
       <c r="K24" s="30"/>
       <c r="L24" s="30"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
         <v>742</v>
       </c>
@@ -10627,7 +10627,7 @@
       <c r="K25" s="30"/>
       <c r="L25" s="30"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
         <v>743</v>
       </c>
@@ -10655,7 +10655,7 @@
       <c r="K26" s="30"/>
       <c r="L26" s="30"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
         <v>744</v>
       </c>
@@ -10683,7 +10683,7 @@
       <c r="K27" s="30"/>
       <c r="L27" s="30"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="30" t="s">
         <v>745</v>
       </c>
@@ -10711,7 +10711,7 @@
       <c r="K28" s="30"/>
       <c r="L28" s="30"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="30" t="s">
         <v>746</v>
       </c>
@@ -10739,7 +10739,7 @@
       <c r="K29" s="30"/>
       <c r="L29" s="30"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
         <v>747</v>
       </c>
@@ -10767,49 +10767,49 @@
       <c r="K30" s="30"/>
       <c r="L30" s="30"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="30"/>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="30"/>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="30"/>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="30"/>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="30"/>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="30"/>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="30"/>
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
       <c r="D37" s="30"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="30"/>
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
@@ -10834,19 +10834,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="b">
         <v>0</v>
       </c>
@@ -10865,7 +10865,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
         <v>21</v>
@@ -10886,7 +10886,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
         <v>21</v>
@@ -10909,7 +10909,7 @@
       </c>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>21</v>
@@ -10932,7 +10932,7 @@
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
         <v>21</v>
@@ -10955,7 +10955,7 @@
       </c>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
         <v>21</v>
@@ -10978,7 +10978,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
         <v>21</v>
@@ -11001,7 +11001,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
         <v>21</v>
@@ -11024,7 +11024,7 @@
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
         <v>21</v>
@@ -11047,7 +11047,7 @@
       </c>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="B10" s="17" t="s">
         <v>21</v>
@@ -11070,7 +11070,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="b">
         <v>0</v>
       </c>
@@ -11089,7 +11089,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
         <v>21</v>
@@ -11110,7 +11110,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
@@ -11133,7 +11133,7 @@
       </c>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
         <v>21</v>
@@ -11156,7 +11156,7 @@
       </c>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="17" t="s">
         <v>21</v>
@@ -11179,7 +11179,7 @@
       </c>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
         <v>21</v>
@@ -11202,7 +11202,7 @@
       </c>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
         <v>21</v>
@@ -11225,7 +11225,7 @@
       </c>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="17" t="s">
         <v>21</v>
@@ -11248,7 +11248,7 @@
       </c>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="17" t="s">
         <v>21</v>
@@ -11271,7 +11271,7 @@
       </c>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
       <c r="B20" s="17" t="s">
         <v>21</v>
@@ -11294,7 +11294,7 @@
       </c>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="b">
         <v>0</v>
       </c>
@@ -11313,7 +11313,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
       <c r="B22" s="17" t="s">
         <v>21</v>
@@ -11336,7 +11336,7 @@
       </c>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="B23" s="17" t="s">
         <v>21</v>
@@ -11359,7 +11359,7 @@
       </c>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
       <c r="B24" s="17" t="s">
         <v>21</v>
@@ -11382,7 +11382,7 @@
       </c>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
       <c r="B25" s="17" t="s">
         <v>21</v>
@@ -11405,7 +11405,7 @@
       </c>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
       <c r="B26" s="17" t="s">
         <v>21</v>
@@ -11428,7 +11428,7 @@
       </c>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="17"/>
       <c r="B27" s="17" t="s">
         <v>21</v>
@@ -11451,7 +11451,7 @@
       </c>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
         <v>21</v>
@@ -11474,7 +11474,7 @@
       </c>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
       <c r="B29" s="17" t="s">
         <v>21</v>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" ht="15">
+    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
       <c r="B30" s="17" t="s">
         <v>21</v>
@@ -11520,7 +11520,7 @@
       </c>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="15">
+    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="b">
         <v>0</v>
       </c>
@@ -11539,7 +11539,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="15">
+    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
       <c r="B32" s="17" t="s">
         <v>21</v>
@@ -11560,7 +11560,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" ht="15">
+    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
       <c r="B33" s="17" t="s">
         <v>21</v>
@@ -11583,7 +11583,7 @@
       </c>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="15">
+    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
       <c r="B34" s="17" t="s">
         <v>21</v>
@@ -11606,7 +11606,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="15">
+    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
         <v>21</v>
@@ -11629,7 +11629,7 @@
       </c>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="15">
+    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
         <v>21</v>
@@ -11652,7 +11652,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="15">
+    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
         <v>21</v>
@@ -11675,7 +11675,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="15">
+    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
         <v>21</v>
@@ -11698,7 +11698,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" ht="15">
+    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="17"/>
       <c r="B39" s="17" t="s">
         <v>21</v>
@@ -11721,7 +11721,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="15">
+    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
         <v>21</v>
@@ -11744,7 +11744,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="15">
+    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="b">
         <v>0</v>
       </c>
@@ -11763,7 +11763,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="15">
+    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="17"/>
       <c r="B42" s="17" t="s">
         <v>21</v>
@@ -11784,7 +11784,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="15">
+    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="17"/>
       <c r="B43" s="17" t="s">
         <v>21</v>
@@ -11807,7 +11807,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="15">
+    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="17"/>
       <c r="B44" s="17" t="s">
         <v>21</v>
@@ -11830,7 +11830,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="15">
+    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="17"/>
       <c r="B45" s="17" t="s">
         <v>21</v>
@@ -11853,7 +11853,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15">
+    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>21</v>
@@ -11876,7 +11876,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15">
+    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>21</v>
@@ -11899,7 +11899,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15">
+    <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>21</v>
@@ -11922,7 +11922,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15">
+    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>21</v>
@@ -11945,7 +11945,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15">
+    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>21</v>
@@ -11968,7 +11968,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15">
+    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -11987,7 +11987,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15">
+    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>21</v>
@@ -12008,7 +12008,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15">
+    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>21</v>
@@ -12031,7 +12031,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15">
+    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>21</v>
@@ -12054,7 +12054,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15">
+    <row r="55" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>21</v>
@@ -12077,7 +12077,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15">
+    <row r="56" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>21</v>
@@ -12100,7 +12100,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15">
+    <row r="57" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>21</v>
@@ -12123,7 +12123,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15">
+    <row r="58" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>21</v>
@@ -12146,7 +12146,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15">
+    <row r="59" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>21</v>
@@ -12169,7 +12169,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15">
+    <row r="60" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>21</v>
@@ -12192,7 +12192,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15">
+    <row r="61" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -12211,7 +12211,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15">
+    <row r="62" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>21</v>
@@ -12232,7 +12232,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15">
+    <row r="63" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>21</v>
@@ -12257,7 +12257,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15">
+    <row r="64" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>21</v>
@@ -12280,7 +12280,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15">
+    <row r="65" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>21</v>
@@ -12303,7 +12303,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15">
+    <row r="66" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>21</v>
@@ -12326,7 +12326,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15">
+    <row r="67" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>21</v>
@@ -12349,7 +12349,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15">
+    <row r="68" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>21</v>
@@ -12372,7 +12372,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15">
+    <row r="69" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>21</v>
@@ -12395,7 +12395,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15">
+    <row r="70" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>21</v>
@@ -12418,7 +12418,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15">
+    <row r="71" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>21</v>
@@ -12441,7 +12441,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15">
+    <row r="72" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -12460,7 +12460,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15">
+    <row r="73" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>21</v>
@@ -12481,7 +12481,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15">
+    <row r="74" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>21</v>
@@ -12504,7 +12504,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15">
+    <row r="75" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>21</v>
@@ -12529,7 +12529,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15">
+    <row r="76" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>21</v>
@@ -12552,7 +12552,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15">
+    <row r="77" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>21</v>
@@ -12575,7 +12575,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15">
+    <row r="78" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>21</v>
@@ -12598,7 +12598,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15">
+    <row r="79" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>21</v>
@@ -12621,7 +12621,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15">
+    <row r="80" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>21</v>
@@ -12644,7 +12644,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15">
+    <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>21</v>
@@ -12667,7 +12667,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15">
+    <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>21</v>
@@ -12690,7 +12690,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15">
+    <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>21</v>
@@ -12713,7 +12713,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15">
+    <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>21</v>
@@ -12736,7 +12736,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15">
+    <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>21</v>
@@ -12759,7 +12759,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15">
+    <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -12778,7 +12778,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15">
+    <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>21</v>
@@ -12801,7 +12801,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15">
+    <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>21</v>
@@ -12824,7 +12824,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15">
+    <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>21</v>
@@ -12847,7 +12847,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15">
+    <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>21</v>
@@ -12870,7 +12870,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15">
+    <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>21</v>
@@ -12893,7 +12893,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15">
+    <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>21</v>
@@ -12916,7 +12916,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15">
+    <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>21</v>
@@ -12939,7 +12939,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15">
+    <row r="94" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>21</v>
@@ -12962,7 +12962,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15">
+    <row r="95" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>21</v>
@@ -12985,7 +12985,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15">
+    <row r="96" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>21</v>
@@ -13008,7 +13008,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15">
+    <row r="97" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -13027,7 +13027,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15">
+    <row r="98" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>21</v>
@@ -13052,7 +13052,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15">
+    <row r="99" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -13071,7 +13071,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15">
+    <row r="100" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>21</v>
@@ -13092,7 +13092,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="15">
+    <row r="101" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>21</v>
@@ -13117,7 +13117,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15">
+    <row r="102" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -13136,7 +13136,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15">
+    <row r="103" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>21</v>
@@ -13159,7 +13159,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15">
+    <row r="104" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>21</v>
@@ -13184,7 +13184,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15">
+    <row r="105" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>21</v>
@@ -13207,7 +13207,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15">
+    <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>21</v>
@@ -13228,7 +13228,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15">
+    <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -13247,7 +13247,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15">
+    <row r="108" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>21</v>
@@ -13272,7 +13272,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15">
+    <row r="109" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>21</v>
@@ -13295,7 +13295,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15">
+    <row r="110" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>21</v>
@@ -13318,7 +13318,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15">
+    <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>21</v>
@@ -13341,7 +13341,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15">
+    <row r="112" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>21</v>
@@ -13364,7 +13364,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15">
+    <row r="113" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>21</v>
@@ -13387,7 +13387,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15">
+    <row r="114" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>21</v>
@@ -13410,7 +13410,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15">
+    <row r="115" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -13429,7 +13429,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15">
+    <row r="116" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>21</v>
@@ -13452,7 +13452,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15">
+    <row r="117" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>21</v>
@@ -13475,7 +13475,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15">
+    <row r="118" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>21</v>
@@ -13498,7 +13498,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15">
+    <row r="119" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -13517,7 +13517,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15">
+    <row r="120" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>21</v>
@@ -13540,7 +13540,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15">
+    <row r="121" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>21</v>
@@ -13563,7 +13563,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15">
+    <row r="122" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>21</v>
@@ -13586,7 +13586,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15">
+    <row r="123" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>21</v>
@@ -13609,7 +13609,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15">
+    <row r="124" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>21</v>
@@ -13632,7 +13632,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15">
+    <row r="125" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>21</v>
@@ -13655,7 +13655,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15">
+    <row r="126" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -13674,7 +13674,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15">
+    <row r="127" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>21</v>
@@ -13699,7 +13699,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15">
+    <row r="128" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>21</v>
@@ -13722,7 +13722,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15">
+    <row r="129" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>21</v>
@@ -13745,7 +13745,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15">
+    <row r="130" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>21</v>
@@ -13768,7 +13768,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15">
+    <row r="131" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>21</v>
@@ -13791,7 +13791,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15">
+    <row r="132" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>21</v>
@@ -13814,7 +13814,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15">
+    <row r="133" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>21</v>
@@ -13837,7 +13837,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15">
+    <row r="134" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>21</v>
@@ -13860,7 +13860,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15">
+    <row r="135" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>21</v>
@@ -13883,7 +13883,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15">
+    <row r="136" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -13902,7 +13902,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15">
+    <row r="137" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>21</v>
@@ -13927,7 +13927,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15">
+    <row r="138" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>21</v>
@@ -13948,7 +13948,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15">
+    <row r="139" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>21</v>
@@ -13971,7 +13971,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15">
+    <row r="140" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>21</v>
@@ -13994,7 +13994,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15">
+    <row r="141" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>21</v>
@@ -14017,7 +14017,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15">
+    <row r="142" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>21</v>
@@ -14040,7 +14040,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15">
+    <row r="143" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>21</v>
@@ -14063,7 +14063,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15">
+    <row r="144" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>21</v>
@@ -14086,7 +14086,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15">
+    <row r="145" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>21</v>
@@ -14109,7 +14109,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15">
+    <row r="146" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>21</v>
@@ -14132,7 +14132,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15">
+    <row r="147" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>21</v>
@@ -14155,7 +14155,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15">
+    <row r="148" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>21</v>
@@ -14178,7 +14178,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15">
+    <row r="149" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>21</v>
@@ -14201,7 +14201,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15">
+    <row r="150" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>21</v>
@@ -14224,7 +14224,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15">
+    <row r="151" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -14243,7 +14243,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15">
+    <row r="152" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>21</v>
@@ -14266,7 +14266,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15">
+    <row r="153" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -14285,7 +14285,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15">
+    <row r="154" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>21</v>
@@ -14308,7 +14308,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15">
+    <row r="155" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>21</v>
@@ -14331,7 +14331,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15">
+    <row r="156" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -14350,7 +14350,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15">
+    <row r="157" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>21</v>
@@ -14375,7 +14375,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15">
+    <row r="158" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>21</v>
@@ -14398,7 +14398,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15">
+    <row r="159" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>21</v>
@@ -14421,7 +14421,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15">
+    <row r="160" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>21</v>
@@ -14444,7 +14444,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15">
+    <row r="161" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>21</v>
@@ -14467,7 +14467,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15">
+    <row r="162" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>21</v>
@@ -14490,7 +14490,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15">
+    <row r="163" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>21</v>
@@ -14513,7 +14513,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15">
+    <row r="164" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>21</v>
@@ -14536,7 +14536,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15">
+    <row r="165" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>21</v>
@@ -14559,7 +14559,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15">
+    <row r="166" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>21</v>
@@ -14582,7 +14582,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15">
+    <row r="167" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -14601,7 +14601,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15">
+    <row r="168" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>21</v>
@@ -14626,7 +14626,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15">
+    <row r="169" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>21</v>
@@ -14649,7 +14649,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15">
+    <row r="170" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>21</v>
@@ -14672,7 +14672,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15">
+    <row r="171" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>21</v>
@@ -14695,7 +14695,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15">
+    <row r="172" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>21</v>
@@ -14718,7 +14718,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15">
+    <row r="173" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>21</v>
@@ -14741,7 +14741,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15">
+    <row r="174" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>21</v>
@@ -14764,7 +14764,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15">
+    <row r="175" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>21</v>
@@ -14787,7 +14787,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15">
+    <row r="176" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>21</v>
@@ -14810,7 +14810,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15">
+    <row r="177" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>21</v>
@@ -14833,7 +14833,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15">
+    <row r="178" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -14852,7 +14852,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15">
+    <row r="179" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>21</v>
@@ -14875,7 +14875,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15">
+    <row r="180" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>21</v>
@@ -14898,7 +14898,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15">
+    <row r="181" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>21</v>
@@ -14921,7 +14921,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15">
+    <row r="182" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>21</v>
@@ -14944,7 +14944,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15">
+    <row r="183" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -14963,7 +14963,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15">
+    <row r="184" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>21</v>
@@ -14986,7 +14986,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15">
+    <row r="185" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>21</v>
@@ -15009,7 +15009,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15">
+    <row r="186" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>21</v>
@@ -15032,7 +15032,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15">
+    <row r="187" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>21</v>
@@ -15055,7 +15055,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15">
+    <row r="188" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -15074,7 +15074,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15">
+    <row r="189" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>21</v>
@@ -15095,7 +15095,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15">
+    <row r="190" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>21</v>
@@ -15118,7 +15118,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15">
+    <row r="191" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -15137,7 +15137,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15">
+    <row r="192" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>21</v>
@@ -15160,7 +15160,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15">
+    <row r="193" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>21</v>
@@ -15185,7 +15185,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15">
+    <row r="194" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>21</v>
@@ -15206,7 +15206,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15">
+    <row r="195" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>21</v>
@@ -15231,7 +15231,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15">
+    <row r="196" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>21</v>
@@ -15256,7 +15256,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15">
+    <row r="197" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -15275,7 +15275,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15">
+    <row r="198" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>21</v>
@@ -15300,7 +15300,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15">
+    <row r="199" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>21</v>
@@ -15323,7 +15323,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15">
+    <row r="200" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>21</v>
@@ -15346,7 +15346,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15">
+    <row r="201" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>21</v>
@@ -15369,7 +15369,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15">
+    <row r="202" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>21</v>
@@ -15392,7 +15392,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15">
+    <row r="203" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>21</v>
@@ -15415,7 +15415,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15">
+    <row r="204" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>21</v>
@@ -15438,7 +15438,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15">
+    <row r="205" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>21</v>
@@ -15461,7 +15461,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15">
+    <row r="206" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>21</v>
@@ -15484,7 +15484,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15">
+    <row r="207" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -15503,7 +15503,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15">
+    <row r="208" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>21</v>
@@ -15528,7 +15528,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15">
+    <row r="209" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>21</v>
@@ -15551,7 +15551,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15">
+    <row r="210" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>21</v>
@@ -15574,7 +15574,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15">
+    <row r="211" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>21</v>
@@ -15597,7 +15597,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15">
+    <row r="212" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>21</v>
@@ -15620,7 +15620,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15">
+    <row r="213" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>21</v>
@@ -15643,7 +15643,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15">
+    <row r="214" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>21</v>
@@ -15666,7 +15666,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15">
+    <row r="215" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>21</v>
@@ -15689,7 +15689,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15">
+    <row r="216" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>21</v>
@@ -15712,7 +15712,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15">
+    <row r="217" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -15731,7 +15731,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15">
+    <row r="218" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>21</v>
@@ -15752,7 +15752,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15">
+    <row r="219" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>21</v>
@@ -15775,7 +15775,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15">
+    <row r="220" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>21</v>
@@ -15798,7 +15798,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15">
+    <row r="221" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>21</v>
@@ -15821,7 +15821,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15">
+    <row r="222" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>21</v>
@@ -15844,7 +15844,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15">
+    <row r="223" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>21</v>
@@ -15867,7 +15867,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15">
+    <row r="224" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>21</v>
@@ -15890,7 +15890,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15">
+    <row r="225" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>21</v>
@@ -15913,7 +15913,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15">
+    <row r="226" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>21</v>
@@ -15936,7 +15936,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15">
+    <row r="227" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>21</v>
@@ -15959,7 +15959,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15">
+    <row r="228" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>21</v>
@@ -15982,7 +15982,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15">
+    <row r="229" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>21</v>
@@ -16005,7 +16005,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15">
+    <row r="230" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>21</v>
@@ -16028,7 +16028,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15">
+    <row r="231" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>21</v>
@@ -16051,7 +16051,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15">
+    <row r="232" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>21</v>
@@ -16074,7 +16074,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15">
+    <row r="233" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>21</v>
@@ -16097,7 +16097,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15">
+    <row r="234" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -16116,7 +16116,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15">
+    <row r="235" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>21</v>
@@ -16137,7 +16137,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15">
+    <row r="236" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>21</v>
@@ -16160,7 +16160,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15">
+    <row r="237" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>21</v>
@@ -16183,7 +16183,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15">
+    <row r="238" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>21</v>
@@ -16206,7 +16206,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15">
+    <row r="239" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>21</v>
@@ -16229,7 +16229,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15">
+    <row r="240" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>21</v>
@@ -16252,7 +16252,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15">
+    <row r="241" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>21</v>
@@ -16275,7 +16275,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15">
+    <row r="242" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>21</v>
@@ -16298,7 +16298,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15">
+    <row r="243" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>21</v>
@@ -16321,7 +16321,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15">
+    <row r="244" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>21</v>
@@ -16344,7 +16344,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15">
+    <row r="245" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>21</v>
@@ -16367,7 +16367,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15">
+    <row r="246" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>21</v>
@@ -16390,7 +16390,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15">
+    <row r="247" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>21</v>
@@ -16413,7 +16413,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15">
+    <row r="248" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>21</v>
@@ -16436,7 +16436,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15">
+    <row r="249" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>21</v>
@@ -16459,7 +16459,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15">
+    <row r="250" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>21</v>
@@ -16482,7 +16482,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15">
+    <row r="251" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -16501,7 +16501,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15">
+    <row r="252" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>21</v>
@@ -16526,7 +16526,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15">
+    <row r="253" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>21</v>
@@ -16549,7 +16549,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15">
+    <row r="254" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>21</v>
@@ -16572,7 +16572,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15">
+    <row r="255" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>21</v>
@@ -16595,7 +16595,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15">
+    <row r="256" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>21</v>
@@ -16618,7 +16618,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15">
+    <row r="257" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -16637,7 +16637,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15">
+    <row r="258" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>21</v>
@@ -16662,7 +16662,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15">
+    <row r="259" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>21</v>
@@ -16685,7 +16685,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15">
+    <row r="260" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -16704,7 +16704,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15">
+    <row r="261" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -16723,7 +16723,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15">
+    <row r="262" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -16742,7 +16742,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15">
+    <row r="263" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>21</v>
@@ -16763,7 +16763,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15">
+    <row r="264" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>21</v>
@@ -16786,7 +16786,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15">
+    <row r="265" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>21</v>
@@ -16809,7 +16809,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15">
+    <row r="266" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>21</v>
@@ -16832,7 +16832,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15">
+    <row r="267" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>21</v>
@@ -16855,7 +16855,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15">
+    <row r="268" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>21</v>
@@ -16878,7 +16878,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15">
+    <row r="269" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>21</v>
@@ -16901,7 +16901,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15">
+    <row r="270" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>21</v>
@@ -16924,7 +16924,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15">
+    <row r="271" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>21</v>
@@ -16947,7 +16947,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15">
+    <row r="272" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>21</v>
@@ -16970,7 +16970,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15">
+    <row r="273" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>21</v>
@@ -16993,7 +16993,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15">
+    <row r="274" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -17012,7 +17012,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15">
+    <row r="275" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>21</v>
@@ -17035,7 +17035,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15">
+    <row r="276" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -17054,7 +17054,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15">
+    <row r="277" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>21</v>
@@ -17079,7 +17079,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15">
+    <row r="278" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>21</v>
@@ -17102,7 +17102,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15">
+    <row r="279" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>21</v>
@@ -17125,7 +17125,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15">
+    <row r="280" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>21</v>
@@ -17148,7 +17148,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15">
+    <row r="281" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>21</v>
@@ -17171,7 +17171,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15">
+    <row r="282" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>21</v>
@@ -17194,7 +17194,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15">
+    <row r="283" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>21</v>
@@ -17217,7 +17217,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15">
+    <row r="284" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>21</v>
@@ -17240,7 +17240,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15">
+    <row r="285" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>21</v>
@@ -17263,7 +17263,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15">
+    <row r="286" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>21</v>
@@ -17286,7 +17286,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15">
+    <row r="287" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>21</v>
@@ -17309,7 +17309,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15">
+    <row r="288" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -17328,7 +17328,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15">
+    <row r="289" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>21</v>
@@ -17351,7 +17351,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15">
+    <row r="290" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -17370,7 +17370,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15">
+    <row r="291" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>21</v>
@@ -17391,7 +17391,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15">
+    <row r="292" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -17410,7 +17410,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15">
+    <row r="293" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>21</v>
@@ -17431,7 +17431,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15">
+    <row r="294" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -17450,7 +17450,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15">
+    <row r="295" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>21</v>
@@ -17471,7 +17471,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15">
+    <row r="296" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -17490,7 +17490,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15">
+    <row r="297" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>21</v>
@@ -17513,7 +17513,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15">
+    <row r="298" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -17532,7 +17532,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15">
+    <row r="299" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>21</v>
@@ -17557,7 +17557,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15">
+    <row r="300" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>21</v>
@@ -17580,7 +17580,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15">
+    <row r="301" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>21</v>
@@ -17603,7 +17603,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15">
+    <row r="302" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>21</v>
@@ -17626,7 +17626,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15">
+    <row r="303" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>21</v>
@@ -17649,7 +17649,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15">
+    <row r="304" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>21</v>
@@ -17672,7 +17672,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15">
+    <row r="305" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>21</v>
@@ -17695,7 +17695,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15">
+    <row r="306" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>21</v>
@@ -17718,7 +17718,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15">
+    <row r="307" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>21</v>
@@ -17741,7 +17741,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15">
+    <row r="308" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -17760,7 +17760,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15">
+    <row r="309" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>21</v>
@@ -17783,7 +17783,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15">
+    <row r="310" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>21</v>
@@ -17806,7 +17806,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15">
+    <row r="311" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>21</v>
@@ -17829,7 +17829,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15">
+    <row r="312" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>21</v>
@@ -17852,7 +17852,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15">
+    <row r="313" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -17871,7 +17871,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15">
+    <row r="314" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>21</v>
@@ -17894,7 +17894,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15">
+    <row r="315" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>21</v>
@@ -17917,7 +17917,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15">
+    <row r="316" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>21</v>
@@ -17942,7 +17942,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15">
+    <row r="317" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -17961,7 +17961,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15">
+    <row r="318" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>21</v>
@@ -17986,7 +17986,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15">
+    <row r="319" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>21</v>
@@ -18009,7 +18009,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15">
+    <row r="320" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -18028,7 +18028,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15">
+    <row r="321" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>21</v>
@@ -18049,7 +18049,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15">
+    <row r="322" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>21</v>
@@ -18070,7 +18070,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15">
+    <row r="323" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>21</v>
@@ -18093,7 +18093,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15">
+    <row r="324" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -18112,7 +18112,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15">
+    <row r="325" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -18131,7 +18131,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15">
+    <row r="326" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>21</v>
@@ -18156,7 +18156,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15">
+    <row r="327" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>21</v>
@@ -18181,7 +18181,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="328" spans="1:9">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -18195,7 +18195,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="329" spans="1:9">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B329" t="s">
         <v>21</v>
       </c>
@@ -18218,7 +18218,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="330" spans="1:9">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B330" t="s">
         <v>21</v>
       </c>
@@ -18238,7 +18238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B331" t="s">
         <v>21</v>
       </c>
@@ -18258,7 +18258,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B332" t="s">
         <v>21</v>
       </c>
@@ -18278,7 +18278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B333" t="s">
         <v>21</v>
       </c>
@@ -18295,7 +18295,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="334" spans="1:9">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B334" t="s">
         <v>21</v>
       </c>
@@ -18318,7 +18318,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="335" spans="1:9">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B335" t="s">
         <v>21</v>
       </c>
@@ -18341,7 +18341,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="336" spans="1:9">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -18355,7 +18355,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="337" spans="1:16">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B337" t="s">
         <v>21</v>
       </c>
@@ -18378,7 +18378,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="338" spans="1:16">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B338" t="s">
         <v>21</v>
       </c>
@@ -18401,7 +18401,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="339" spans="1:16">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B339" t="s">
         <v>21</v>
       </c>
@@ -18421,7 +18421,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B340" t="s">
         <v>21</v>
       </c>
@@ -18441,7 +18441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B341" t="s">
         <v>21</v>
       </c>
@@ -18458,7 +18458,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="342" spans="1:16">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
@@ -18484,7 +18484,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>21</v>
@@ -18513,7 +18513,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15">
+    <row r="344" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A344" s="17"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -18552,7 +18552,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="345" spans="1:16">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A345" t="b">
         <v>0</v>
       </c>
@@ -18566,7 +18566,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="346" spans="1:16">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B346" t="s">
         <v>21</v>
       </c>
@@ -18586,7 +18586,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16">
+    <row r="347" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -18600,7 +18600,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="348" spans="1:16">
+    <row r="348" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B348" t="s">
         <v>21</v>
       </c>
@@ -18620,7 +18620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16">
+    <row r="349" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B349" t="s">
         <v>21</v>
       </c>
@@ -18640,7 +18640,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="350" spans="1:16">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B350" t="s">
         <v>21</v>
       </c>
@@ -18660,7 +18660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16">
+    <row r="351" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B351" t="s">
         <v>21</v>
       </c>
@@ -18680,7 +18680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16">
+    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B352" t="s">
         <v>21</v>
       </c>
@@ -18700,7 +18700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18">
+    <row r="353" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B353" t="s">
         <v>21</v>
       </c>
@@ -18720,7 +18720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B354" t="s">
         <v>21</v>
       </c>
@@ -18740,7 +18740,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18">
+    <row r="355" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B355" t="s">
         <v>21</v>
       </c>
@@ -18760,7 +18760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B356" t="s">
         <v>21</v>
       </c>
@@ -18780,7 +18780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18">
+    <row r="357" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A357" t="b">
         <v>0</v>
       </c>
@@ -18794,7 +18794,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="358" spans="1:18">
+    <row r="358" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B358" t="s">
         <v>21</v>
       </c>
@@ -18814,7 +18814,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18">
+    <row r="359" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B359" t="s">
         <v>21</v>
       </c>
@@ -18834,7 +18834,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1">
+    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A360" t="b">
         <v>0</v>
       </c>
@@ -18850,7 +18850,7 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1">
+    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B361" t="s">
         <v>21</v>
       </c>
@@ -18876,7 +18876,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A362" s="17"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -18917,7 +18917,7 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18">
+    <row r="363" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A363" t="b">
         <v>0</v>
       </c>
@@ -18931,7 +18931,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="364" spans="1:18">
+    <row r="364" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B364" t="s">
         <v>21</v>
       </c>
@@ -18951,7 +18951,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18">
+    <row r="365" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A365" t="b">
         <v>0</v>
       </c>
@@ -18965,7 +18965,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="366" spans="1:18">
+    <row r="366" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B366" t="s">
         <v>21</v>
       </c>
@@ -19004,17 +19004,17 @@
       <selection activeCell="A17" sqref="A17:A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" customWidth="1"/>
+    <col min="17" max="17" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>441</v>
       </c>
@@ -19025,7 +19025,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="30" customFormat="1">
+    <row r="2" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>589</v>
       </c>
@@ -19039,7 +19039,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="30" customFormat="1">
+    <row r="3" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>592</v>
       </c>
@@ -19053,7 +19053,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="30" customFormat="1">
+    <row r="4" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>594</v>
       </c>
@@ -19067,7 +19067,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="30" customFormat="1">
+    <row r="5" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
         <v>596</v>
       </c>
@@ -19081,7 +19081,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="30" customFormat="1">
+    <row r="6" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
         <v>598</v>
       </c>
@@ -19095,7 +19095,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="30" customFormat="1">
+    <row r="7" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>440</v>
       </c>
@@ -19109,7 +19109,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="30" customFormat="1">
+    <row r="8" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
         <v>601</v>
       </c>
@@ -19123,7 +19123,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="30" customFormat="1">
+    <row r="9" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>603</v>
       </c>
@@ -19137,7 +19137,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>569</v>
       </c>
@@ -19151,7 +19151,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>454</v>
       </c>
@@ -19165,7 +19165,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>452</v>
       </c>
@@ -19176,8 +19176,8 @@
         <v>544</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="30" customFormat="1"/>
-    <row r="16" spans="1:21">
+    <row r="14" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>547</v>
       </c>
@@ -19203,7 +19203,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>548</v>
       </c>
@@ -19244,7 +19244,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -19285,7 +19285,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>542</v>
       </c>
@@ -19317,7 +19317,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>550</v>
       </c>
@@ -19349,7 +19349,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>549</v>
       </c>
@@ -19378,7 +19378,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>551</v>
       </c>
@@ -19410,7 +19410,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>552</v>
       </c>
@@ -19430,7 +19430,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>682</v>
       </c>
@@ -19453,7 +19453,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L25" s="1" t="s">
         <v>558</v>
       </c>
@@ -19464,7 +19464,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L26" s="1" t="s">
         <v>539</v>
       </c>
@@ -19472,7 +19472,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L27" s="1" t="s">
         <v>541</v>
       </c>

--- a/projects/office_ee.xlsx
+++ b/projects/office_ee.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16440" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -2164,9 +2164,6 @@
     <t>../weather/*</t>
   </si>
   <si>
-    <t>calibration_reports.utility_bill_1_consumption_modeled</t>
-  </si>
-  <si>
     <t>Total Electricity Consumption Modeled</t>
   </si>
   <si>
@@ -2176,18 +2173,12 @@
     <t>Total Electricity Peak Modeled</t>
   </si>
   <si>
-    <t>calibration_reports.utility_bill_1_peak_demand_modeled</t>
-  </si>
-  <si>
     <t>kW</t>
   </si>
   <si>
     <t>Electricity Consumption Period 1 Modeled</t>
   </si>
   <si>
-    <t>calibration_reports.utility_bill_1_period_1_consumption_modeled</t>
-  </si>
-  <si>
     <t>Electricity Consumption Period 2 Modeled</t>
   </si>
   <si>
@@ -2218,48 +2209,12 @@
     <t>Electricity Consumption Period 11 Modeled</t>
   </si>
   <si>
-    <t>calibration_reports.utility_bill_1_period_2_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.utility_bill_1_period_3_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.utility_bill_1_period_4_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.utility_bill_1_period_5_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.utility_bill_1_period_6_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.utility_bill_1_period_7_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.utility_bill_1_period_8_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.utility_bill_1_period_9_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.utility_bill_1_period_10_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.utility_bill_1_period_11_consumption_modeled</t>
-  </si>
-  <si>
     <t>Gas Consumption Period 1 Modeled</t>
   </si>
   <si>
     <t>Total Gas Consumption Modeled</t>
   </si>
   <si>
-    <t>calibration_reports.utility_bill_2_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.utility_bill_2_period_1_consumption_modeled</t>
-  </si>
-  <si>
     <t>therms</t>
   </si>
   <si>
@@ -2287,30 +2242,6 @@
     <t>Gas Consumption Period 9 Modeled</t>
   </si>
   <si>
-    <t>calibration_reports.utility_bill_2_period_2_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.utility_bill_2_period_3_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.utility_bill_2_period_4_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.utility_bill_2_period_5_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.utility_bill_2_period_6_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.utility_bill_2_period_7_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.utility_bill_2_period_8_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.utility_bill_2_period_9_consumption_modeled</t>
-  </si>
-  <si>
     <t>Set Building Location And Design Days</t>
   </si>
   <si>
@@ -2576,6 +2507,75 @@
   </si>
   <si>
     <t>../lib/calibration_data</t>
+  </si>
+  <si>
+    <t>calibration_reports.electric_bill_1_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.electric_bill_1_peak_demand_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.electric_bill_1_period_1_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.electric_bill_1_period_2_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.electric_bill_1_period_3_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.electric_bill_1_period_4_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.electric_bill_1_period_5_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.electric_bill_1_period_6_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.electric_bill_1_period_7_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.electric_bill_1_period_8_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.electric_bill_1_period_9_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.electric_bill_1_period_10_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.electric_bill_1_period_11_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.gas_bill_2_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.gas_bill_2_period_1_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.gas_bill_2_period_2_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.gas_bill_2_period_3_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.gas_bill_2_period_4_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.gas_bill_2_period_5_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.gas_bill_2_period_6_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.gas_bill_2_period_7_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.gas_bill_2_period_8_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.gas_bill_2_period_9_consumption_modeled</t>
   </si>
 </sst>
 </file>
@@ -6785,9 +6785,9 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="81.85546875" customWidth="1"/>
+    <col min="1" max="1" width="81.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="45" x14ac:dyDescent="0.25">
@@ -6815,21 +6815,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.7109375" style="1"/>
+    <col min="4" max="4" width="33.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="19"/>
       <c r="B1" s="28"/>
       <c r="C1" s="19"/>
@@ -6838,7 +6838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>435</v>
       </c>
@@ -6847,7 +6847,7 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>436</v>
       </c>
@@ -6880,12 +6880,12 @@
         <v>614</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="45.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>470</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>807</v>
+        <v>784</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>472</v>
@@ -6929,7 +6929,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>458</v>
       </c>
@@ -6942,7 +6942,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>28</v>
       </c>
@@ -6951,40 +6951,40 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>808</v>
+        <v>785</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>842</v>
+        <v>819</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>843</v>
+        <v>820</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>462</v>
       </c>
@@ -7000,13 +7000,13 @@
         <v>463</v>
       </c>
       <c r="B16" s="24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>464</v>
       </c>
@@ -7017,7 +7017,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>466</v>
       </c>
@@ -7041,7 +7041,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>451</v>
       </c>
@@ -7049,7 +7049,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="26"/>
       <c r="D22" s="2"/>
     </row>
@@ -7070,7 +7070,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
         <v>570</v>
       </c>
@@ -7082,7 +7082,7 @@
       </c>
       <c r="D24" s="35"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
         <v>4</v>
       </c>
@@ -7094,51 +7094,51 @@
       </c>
       <c r="D25" s="35"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="31"/>
       <c r="B26" s="29"/>
       <c r="C26" s="30"/>
       <c r="D26" s="35"/>
     </row>
-    <row r="27" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
       <c r="D27" s="35"/>
     </row>
-    <row r="28" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C28" s="30"/>
       <c r="D28" s="35"/>
     </row>
-    <row r="29" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C29" s="30"/>
       <c r="D29" s="35"/>
     </row>
-    <row r="30" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B30" s="26"/>
       <c r="C30" s="34"/>
       <c r="D30" s="35"/>
     </row>
-    <row r="31" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B31" s="26"/>
       <c r="C31" s="34"/>
       <c r="D31" s="35"/>
     </row>
-    <row r="32" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B32" s="26"/>
       <c r="C32" s="34"/>
       <c r="D32" s="35"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="31"/>
       <c r="C33" s="34"/>
       <c r="D33" s="35"/>
     </row>
-    <row r="34" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B34" s="26"/>
       <c r="C34" s="34"/>
       <c r="D34" s="35"/>
     </row>
-    <row r="35" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B35" s="26"/>
       <c r="C35" s="26"/>
       <c r="D35" s="2"/>
@@ -7148,7 +7148,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>792</v>
+        <v>769</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>31</v>
@@ -7156,7 +7156,7 @@
       <c r="D36" s="11"/>
       <c r="E36" s="13"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
@@ -7175,13 +7175,13 @@
         <v>38</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>792</v>
+        <v>769</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="31" t="s">
         <v>32</v>
       </c>
@@ -7201,25 +7201,25 @@
         <v>34</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>797</v>
+        <v>774</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="13" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="31" t="s">
-        <v>809</v>
+        <v>786</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>810</v>
+        <v>787</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B44" s="26"/>
       <c r="D44" s="2"/>
     </row>
@@ -7254,29 +7254,29 @@
       <selection pane="bottomLeft" activeCell="I89" sqref="I89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="31" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="31" customWidth="1"/>
     <col min="2" max="2" width="47" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="31" customWidth="1"/>
-    <col min="4" max="4" width="39.140625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="31" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="31" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" style="31" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" style="31" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" style="31" customWidth="1"/>
-    <col min="13" max="14" width="7.85546875" style="31" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" style="31"/>
-    <col min="16" max="16" width="11.42578125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="39.109375" style="31" customWidth="1"/>
+    <col min="5" max="5" width="24.109375" style="31" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="31" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="31" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" style="31" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" style="31" customWidth="1"/>
+    <col min="13" max="14" width="7.88671875" style="31" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" style="31"/>
+    <col min="16" max="16" width="11.44140625" style="31" customWidth="1"/>
     <col min="17" max="17" width="23" style="31" customWidth="1"/>
-    <col min="18" max="18" width="27.7109375" style="31" customWidth="1"/>
-    <col min="19" max="19" width="46.140625" style="31" customWidth="1"/>
-    <col min="20" max="22" width="11.42578125" style="31"/>
-    <col min="23" max="23" width="13.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="11.42578125" style="31"/>
+    <col min="18" max="18" width="27.6640625" style="31" customWidth="1"/>
+    <col min="19" max="19" width="46.109375" style="31" customWidth="1"/>
+    <col min="20" max="22" width="11.44140625" style="31"/>
+    <col min="23" max="23" width="13.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="11.44140625" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
@@ -7404,18 +7404,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>756</v>
+        <v>733</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>757</v>
+        <v>734</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>757</v>
+        <v>734</v>
       </c>
       <c r="E4" s="38" t="s">
         <v>68</v>
@@ -7423,41 +7423,41 @@
       <c r="G4" s="39"/>
       <c r="H4" s="39"/>
     </row>
-    <row r="5" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>794</v>
+        <v>771</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>795</v>
+        <v>772</v>
       </c>
       <c r="F5" s="30" t="s">
         <v>104</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.25">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>760</v>
+        <v>737</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>759</v>
+        <v>736</v>
       </c>
       <c r="F6" s="30" t="s">
         <v>104</v>
       </c>
       <c r="H6" s="31" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="b">
         <v>1</v>
       </c>
@@ -7476,7 +7476,7 @@
       <c r="G7" s="39"/>
       <c r="H7" s="39"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="31" t="s">
         <v>21</v>
       </c>
@@ -7490,7 +7490,7 @@
         <v>618</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>761</v>
+        <v>738</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -7501,7 +7501,7 @@
       <c r="P8" s="40"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="31" t="s">
         <v>21</v>
       </c>
@@ -7524,7 +7524,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="31" t="s">
         <v>21</v>
       </c>
@@ -7542,7 +7542,7 @@
       </c>
       <c r="I10" s="31"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="31" t="s">
         <v>21</v>
       </c>
@@ -7560,7 +7560,7 @@
       </c>
       <c r="I11" s="31"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" s="31" t="s">
         <v>21</v>
       </c>
@@ -7578,18 +7578,18 @@
       </c>
       <c r="I12" s="31"/>
     </row>
-    <row r="13" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>763</v>
+        <v>740</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>762</v>
+        <v>739</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>762</v>
+        <v>739</v>
       </c>
       <c r="E13" s="38" t="s">
         <v>68</v>
@@ -7597,7 +7597,7 @@
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
     </row>
-    <row r="14" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="30" t="s">
         <v>21</v>
       </c>
@@ -7611,13 +7611,13 @@
         <v>64</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>790</v>
+        <v>767</v>
       </c>
       <c r="H14" s="30">
         <v>12717</v>
       </c>
     </row>
-    <row r="15" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="30" t="s">
         <v>21</v>
       </c>
@@ -7634,7 +7634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="30" t="s">
         <v>21</v>
       </c>
@@ -7651,7 +7651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="30" t="s">
         <v>21</v>
       </c>
@@ -7665,21 +7665,21 @@
         <v>64</v>
       </c>
       <c r="G17" s="30" t="s">
-        <v>791</v>
+        <v>768</v>
       </c>
       <c r="H17" s="30">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>765</v>
+        <v>742</v>
       </c>
       <c r="F18" s="30" t="s">
         <v>64</v>
@@ -7688,15 +7688,15 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>766</v>
+        <v>743</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>767</v>
+        <v>744</v>
       </c>
       <c r="F19" s="30" t="s">
         <v>64</v>
@@ -7705,15 +7705,15 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>768</v>
+        <v>745</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>769</v>
+        <v>746</v>
       </c>
       <c r="F20" s="30" t="s">
         <v>64</v>
@@ -7722,15 +7722,15 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>770</v>
+        <v>747</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>771</v>
+        <v>748</v>
       </c>
       <c r="F21" s="30" t="s">
         <v>64</v>
@@ -7739,15 +7739,15 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>772</v>
+        <v>749</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>773</v>
+        <v>750</v>
       </c>
       <c r="F22" s="30" t="s">
         <v>64</v>
@@ -7756,15 +7756,15 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>774</v>
+        <v>751</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>775</v>
+        <v>752</v>
       </c>
       <c r="F23" s="30" t="s">
         <v>64</v>
@@ -7773,15 +7773,15 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>776</v>
+        <v>753</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>777</v>
+        <v>754</v>
       </c>
       <c r="F24" s="30" t="s">
         <v>64</v>
@@ -7790,15 +7790,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B25" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>778</v>
+        <v>755</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>779</v>
+        <v>756</v>
       </c>
       <c r="F25" s="30" t="s">
         <v>64</v>
@@ -7807,15 +7807,15 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B26" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>780</v>
+        <v>757</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>781</v>
+        <v>758</v>
       </c>
       <c r="F26" s="30" t="s">
         <v>64</v>
@@ -7824,15 +7824,15 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B27" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>782</v>
+        <v>759</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>783</v>
+        <v>760</v>
       </c>
       <c r="F27" s="30" t="s">
         <v>64</v>
@@ -7841,15 +7841,15 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B28" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>784</v>
+        <v>761</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>785</v>
+        <v>762</v>
       </c>
       <c r="F28" s="30" t="s">
         <v>64</v>
@@ -7858,15 +7858,15 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B29" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>786</v>
+        <v>763</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>787</v>
+        <v>764</v>
       </c>
       <c r="F29" s="30" t="s">
         <v>64</v>
@@ -7875,15 +7875,15 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B30" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>789</v>
+        <v>766</v>
       </c>
       <c r="F30" s="30" t="s">
         <v>64</v>
@@ -7892,7 +7892,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="38" t="b">
         <v>1</v>
       </c>
@@ -7911,7 +7911,7 @@
       <c r="G31" s="39"/>
       <c r="H31" s="39"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B32" s="31" t="s">
         <v>21</v>
       </c>
@@ -7927,32 +7927,32 @@
       <c r="H32" s="31"/>
       <c r="I32" s="31"/>
     </row>
-    <row r="33" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B33" s="38" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>812</v>
+        <v>789</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>812</v>
+        <v>789</v>
       </c>
       <c r="E33" s="38" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B34" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>813</v>
+        <v>790</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>814</v>
+        <v>791</v>
       </c>
       <c r="F34" s="30" t="s">
         <v>64</v>
@@ -7961,35 +7961,35 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="35" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B35" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>815</v>
+        <v>792</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>816</v>
+        <v>793</v>
       </c>
       <c r="F35" s="30" t="s">
         <v>62</v>
       </c>
       <c r="H35" s="30" t="s">
-        <v>817</v>
+        <v>794</v>
       </c>
       <c r="I35" s="30" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B36" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>819</v>
+        <v>796</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>820</v>
+        <v>797</v>
       </c>
       <c r="F36" s="30" t="s">
         <v>64</v>
@@ -7998,7 +7998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="38" t="b">
         <v>1</v>
       </c>
@@ -8017,7 +8017,7 @@
       <c r="G37" s="39"/>
       <c r="H37" s="39"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B38" s="31" t="s">
         <v>21</v>
       </c>
@@ -8042,7 +8042,7 @@
       <c r="P38" s="40"/>
       <c r="Q38" s="2"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B39" s="31" t="s">
         <v>21</v>
       </c>
@@ -8070,7 +8070,7 @@
       <c r="P39" s="40"/>
       <c r="Q39" s="2"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B40" s="31" t="s">
         <v>21</v>
       </c>
@@ -8098,7 +8098,7 @@
       <c r="P40" s="40"/>
       <c r="Q40" s="2"/>
     </row>
-    <row r="41" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="38" t="b">
         <v>1</v>
       </c>
@@ -8117,7 +8117,7 @@
       <c r="G41" s="39"/>
       <c r="H41" s="39"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B42" s="31" t="s">
         <v>21</v>
       </c>
@@ -8142,7 +8142,7 @@
       <c r="P42" s="40"/>
       <c r="Q42" s="2"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B43" s="31" t="s">
         <v>21</v>
       </c>
@@ -8170,7 +8170,7 @@
       <c r="P43" s="40"/>
       <c r="Q43" s="2"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B44" s="31" t="s">
         <v>21</v>
       </c>
@@ -8198,7 +8198,7 @@
       <c r="P44" s="40"/>
       <c r="Q44" s="2"/>
     </row>
-    <row r="45" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="38" t="b">
         <v>1</v>
       </c>
@@ -8217,7 +8217,7 @@
       <c r="G45" s="39"/>
       <c r="H45" s="39"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B46" s="31" t="s">
         <v>21</v>
       </c>
@@ -8242,7 +8242,7 @@
       <c r="P46" s="40"/>
       <c r="Q46" s="2"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B47" s="31" t="s">
         <v>21</v>
       </c>
@@ -8270,7 +8270,7 @@
       <c r="P47" s="40"/>
       <c r="Q47" s="2"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B48" s="31" t="s">
         <v>21</v>
       </c>
@@ -8298,7 +8298,7 @@
       <c r="P48" s="40"/>
       <c r="Q48" s="2"/>
     </row>
-    <row r="49" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="38" t="b">
         <v>1</v>
       </c>
@@ -8317,7 +8317,7 @@
       <c r="G49" s="39"/>
       <c r="H49" s="39"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B50" s="31" t="s">
         <v>21</v>
       </c>
@@ -8342,7 +8342,7 @@
       <c r="P50" s="40"/>
       <c r="Q50" s="2"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B51" s="31" t="s">
         <v>21</v>
       </c>
@@ -8370,7 +8370,7 @@
       <c r="P51" s="40"/>
       <c r="Q51" s="2"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B52" s="31" t="s">
         <v>21</v>
       </c>
@@ -8398,7 +8398,7 @@
       <c r="P52" s="40"/>
       <c r="Q52" s="2"/>
     </row>
-    <row r="53" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="38" t="b">
         <v>1</v>
       </c>
@@ -8417,7 +8417,7 @@
       <c r="G53" s="39"/>
       <c r="H53" s="39"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B54" s="31" t="s">
         <v>21</v>
       </c>
@@ -8435,7 +8435,7 @@
       </c>
       <c r="I54" s="31"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B55" s="31" t="s">
         <v>21</v>
       </c>
@@ -8453,7 +8453,7 @@
       </c>
       <c r="I55" s="31"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B56" s="31" t="s">
         <v>21</v>
       </c>
@@ -8471,7 +8471,7 @@
       </c>
       <c r="I56" s="31"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B57" s="31" t="s">
         <v>21</v>
       </c>
@@ -8489,7 +8489,7 @@
       </c>
       <c r="I57" s="31"/>
     </row>
-    <row r="58" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="38" t="b">
         <v>1</v>
       </c>
@@ -8508,12 +8508,12 @@
       <c r="G58" s="39"/>
       <c r="H58" s="39"/>
     </row>
-    <row r="59" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B59" s="38" t="s">
-        <v>798</v>
+        <v>775</v>
       </c>
       <c r="C59" s="38" t="s">
         <v>76</v>
@@ -8527,12 +8527,12 @@
       <c r="G59" s="39"/>
       <c r="H59" s="39"/>
     </row>
-    <row r="60" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B60" s="43" t="s">
         <v>21</v>
       </c>
       <c r="D60" s="43" t="s">
-        <v>799</v>
+        <v>776</v>
       </c>
       <c r="E60" s="43" t="s">
         <v>77</v>
@@ -8560,10 +8560,10 @@
         <v>0.01</v>
       </c>
       <c r="Q60" s="43" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B61" s="30" t="s">
         <v>21</v>
       </c>
@@ -8580,7 +8580,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B62" s="30" t="s">
         <v>21</v>
       </c>
@@ -8600,12 +8600,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B63" s="38" t="s">
-        <v>801</v>
+        <v>778</v>
       </c>
       <c r="C63" s="38" t="s">
         <v>76</v>
@@ -8619,12 +8619,12 @@
       <c r="G63" s="39"/>
       <c r="H63" s="39"/>
     </row>
-    <row r="64" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B64" s="43" t="s">
         <v>21</v>
       </c>
       <c r="D64" s="43" t="s">
-        <v>802</v>
+        <v>779</v>
       </c>
       <c r="E64" s="43" t="s">
         <v>77</v>
@@ -8652,10 +8652,10 @@
         <v>0.01</v>
       </c>
       <c r="Q64" s="43" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B65" s="30" t="s">
         <v>21</v>
       </c>
@@ -8672,7 +8672,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B66" s="30" t="s">
         <v>21</v>
       </c>
@@ -8692,12 +8692,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B67" s="38" t="s">
-        <v>803</v>
+        <v>780</v>
       </c>
       <c r="C67" s="38" t="s">
         <v>76</v>
@@ -8711,12 +8711,12 @@
       <c r="G67" s="39"/>
       <c r="H67" s="39"/>
     </row>
-    <row r="68" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B68" s="43" t="s">
         <v>21</v>
       </c>
       <c r="D68" s="43" t="s">
-        <v>804</v>
+        <v>781</v>
       </c>
       <c r="E68" s="43" t="s">
         <v>77</v>
@@ -8744,10 +8744,10 @@
         <v>0.01</v>
       </c>
       <c r="Q68" s="43" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B69" s="30" t="s">
         <v>21</v>
       </c>
@@ -8764,7 +8764,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B70" s="30" t="s">
         <v>21</v>
       </c>
@@ -8784,7 +8784,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="71" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="38" t="b">
         <v>1</v>
       </c>
@@ -8803,7 +8803,7 @@
       <c r="G71" s="39"/>
       <c r="H71" s="39"/>
     </row>
-    <row r="72" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B72" s="30" t="s">
         <v>21</v>
       </c>
@@ -8824,12 +8824,12 @@
       </c>
       <c r="O72" s="31"/>
     </row>
-    <row r="73" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B73" s="43" t="s">
         <v>21</v>
       </c>
       <c r="D73" s="44" t="s">
-        <v>805</v>
+        <v>782</v>
       </c>
       <c r="E73" s="43" t="s">
         <v>70</v>
@@ -8857,10 +8857,10 @@
         <v>2.5</v>
       </c>
       <c r="Q73" s="43" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B74" s="30" t="s">
         <v>21</v>
       </c>
@@ -8878,7 +8878,7 @@
       </c>
       <c r="O74" s="31"/>
     </row>
-    <row r="75" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B75" s="30" t="s">
         <v>21</v>
       </c>
@@ -8896,7 +8896,7 @@
       </c>
       <c r="O75" s="31"/>
     </row>
-    <row r="76" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B76" s="30" t="s">
         <v>21</v>
       </c>
@@ -8914,7 +8914,7 @@
       </c>
       <c r="O76" s="31"/>
     </row>
-    <row r="77" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="38" t="b">
         <v>1</v>
       </c>
@@ -8933,7 +8933,7 @@
       <c r="G77" s="39"/>
       <c r="H77" s="39"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="30"/>
       <c r="B78" s="30" t="s">
         <v>21</v>
@@ -8962,12 +8962,12 @@
       <c r="N78" s="3"/>
       <c r="P78" s="40"/>
     </row>
-    <row r="79" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B79" s="43" t="s">
         <v>21</v>
       </c>
       <c r="D79" s="43" t="s">
-        <v>806</v>
+        <v>783</v>
       </c>
       <c r="E79" s="43" t="s">
         <v>46</v>
@@ -9000,7 +9000,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="30"/>
       <c r="B80" s="30" t="s">
         <v>21</v>
@@ -9026,7 +9026,7 @@
       <c r="N80" s="3"/>
       <c r="P80" s="40"/>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="30"/>
       <c r="B81" s="30" t="s">
         <v>21</v>
@@ -9052,7 +9052,7 @@
       <c r="N81" s="3"/>
       <c r="P81" s="40"/>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="30"/>
       <c r="B82" s="30" t="s">
         <v>21</v>
@@ -9078,7 +9078,7 @@
       <c r="N82" s="3"/>
       <c r="P82" s="40"/>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="30"/>
       <c r="B83" s="30" t="s">
         <v>21</v>
@@ -9104,7 +9104,7 @@
       <c r="N83" s="3"/>
       <c r="P83" s="40"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="30"/>
       <c r="B84" s="30" t="s">
         <v>21</v>
@@ -9130,7 +9130,7 @@
       <c r="N84" s="3"/>
       <c r="P84" s="40"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="30"/>
       <c r="B85" s="30" t="s">
         <v>21</v>
@@ -9156,7 +9156,7 @@
       <c r="N85" s="3"/>
       <c r="P85" s="40"/>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="30"/>
       <c r="B86" s="30" t="s">
         <v>21</v>
@@ -9182,18 +9182,18 @@
       <c r="N86" s="3"/>
       <c r="P86" s="40"/>
     </row>
-    <row r="87" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" s="49" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="49" t="b">
         <v>1</v>
       </c>
       <c r="B87" s="49" t="s">
-        <v>833</v>
+        <v>810</v>
       </c>
       <c r="C87" s="49" t="s">
-        <v>832</v>
+        <v>809</v>
       </c>
       <c r="D87" s="49" t="s">
-        <v>832</v>
+        <v>809</v>
       </c>
       <c r="E87" s="49" t="s">
         <v>68</v>
@@ -9206,18 +9206,18 @@
       <c r="O87" s="51"/>
       <c r="Q87" s="52"/>
     </row>
-    <row r="88" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" s="49" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="49" t="b">
         <v>1</v>
       </c>
       <c r="B88" s="49" t="s">
-        <v>834</v>
+        <v>811</v>
       </c>
       <c r="C88" s="49" t="s">
-        <v>835</v>
+        <v>812</v>
       </c>
       <c r="D88" s="49" t="s">
-        <v>835</v>
+        <v>812</v>
       </c>
       <c r="E88" s="49" t="s">
         <v>68</v>
@@ -9230,47 +9230,47 @@
       <c r="O88" s="51"/>
       <c r="Q88" s="52"/>
     </row>
-    <row r="89" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B89" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D89" s="43" t="s">
-        <v>836</v>
+        <v>813</v>
       </c>
       <c r="E89" s="43" t="s">
-        <v>837</v>
+        <v>814</v>
       </c>
       <c r="F89" s="43" t="s">
         <v>62</v>
       </c>
       <c r="H89" s="43" t="s">
-        <v>838</v>
+        <v>815</v>
       </c>
       <c r="I89" s="43" t="s">
-        <v>839</v>
+        <v>816</v>
       </c>
       <c r="J89" s="43" t="s">
-        <v>838</v>
+        <v>815</v>
       </c>
       <c r="K89" s="43" t="s">
-        <v>838</v>
+        <v>815</v>
       </c>
       <c r="L89" s="43" t="s">
-        <v>838</v>
+        <v>815</v>
       </c>
       <c r="O89" s="43" t="s">
-        <v>841</v>
+        <v>818</v>
       </c>
       <c r="Q89" s="43" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.25">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="22" t="b">
         <v>1</v>
       </c>
       <c r="B90" s="22" t="s">
-        <v>830</v>
+        <v>807</v>
       </c>
       <c r="C90" s="22" t="s">
         <v>286</v>
@@ -9282,7 +9282,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="91" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="18"/>
       <c r="B91" s="30" t="s">
         <v>21</v>
@@ -9303,12 +9303,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="92" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B92" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D92" s="43" t="s">
-        <v>831</v>
+        <v>808</v>
       </c>
       <c r="E92" s="43" t="s">
         <v>288</v>
@@ -9317,7 +9317,7 @@
         <v>64</v>
       </c>
       <c r="G92" s="43" t="s">
-        <v>821</v>
+        <v>798</v>
       </c>
       <c r="H92" s="43">
         <v>0</v>
@@ -9339,15 +9339,15 @@
         <v>2.5</v>
       </c>
       <c r="Q92" s="43" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B93" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D93" s="30" t="s">
-        <v>822</v>
+        <v>799</v>
       </c>
       <c r="E93" s="30" t="s">
         <v>48</v>
@@ -9356,18 +9356,18 @@
         <v>64</v>
       </c>
       <c r="G93" s="30" t="s">
-        <v>821</v>
+        <v>798</v>
       </c>
       <c r="H93" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B94" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D94" s="30" t="s">
-        <v>823</v>
+        <v>800</v>
       </c>
       <c r="E94" s="30" t="s">
         <v>50</v>
@@ -9376,18 +9376,18 @@
         <v>64</v>
       </c>
       <c r="G94" s="30" t="s">
-        <v>821</v>
+        <v>798</v>
       </c>
       <c r="H94" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B95" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D95" s="30" t="s">
-        <v>824</v>
+        <v>801</v>
       </c>
       <c r="E95" s="30" t="s">
         <v>52</v>
@@ -9396,18 +9396,18 @@
         <v>65</v>
       </c>
       <c r="G95" s="30" t="s">
-        <v>825</v>
+        <v>802</v>
       </c>
       <c r="H95" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B96" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D96" s="30" t="s">
-        <v>826</v>
+        <v>803</v>
       </c>
       <c r="E96" s="30" t="s">
         <v>54</v>
@@ -9419,12 +9419,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B97" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D97" s="30" t="s">
-        <v>827</v>
+        <v>804</v>
       </c>
       <c r="E97" s="30" t="s">
         <v>56</v>
@@ -9433,18 +9433,18 @@
         <v>65</v>
       </c>
       <c r="G97" s="30" t="s">
-        <v>825</v>
+        <v>802</v>
       </c>
       <c r="H97" s="30">
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="2:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B98" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D98" s="30" t="s">
-        <v>828</v>
+        <v>805</v>
       </c>
       <c r="E98" s="30" t="s">
         <v>58</v>
@@ -9453,18 +9453,18 @@
         <v>64</v>
       </c>
       <c r="G98" s="30" t="s">
-        <v>821</v>
+        <v>798</v>
       </c>
       <c r="H98" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B99" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D99" s="30" t="s">
-        <v>829</v>
+        <v>806</v>
       </c>
       <c r="E99" s="30" t="s">
         <v>60</v>
@@ -9473,413 +9473,413 @@
         <v>65</v>
       </c>
       <c r="G99" s="30" t="s">
-        <v>825</v>
+        <v>802</v>
       </c>
       <c r="H99" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="H100" s="31"/>
       <c r="I100" s="31"/>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="H101" s="31"/>
       <c r="I101" s="31"/>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="H102" s="31"/>
       <c r="I102" s="31"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="H103" s="31"/>
       <c r="I103" s="31"/>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="H104" s="31"/>
       <c r="I104" s="31"/>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="H105" s="31"/>
       <c r="I105" s="31"/>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="H106" s="31"/>
       <c r="I106" s="31"/>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="H107" s="31"/>
       <c r="I107" s="31"/>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="H108" s="31"/>
       <c r="I108" s="31"/>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="H109" s="31"/>
       <c r="I109" s="31"/>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="H110" s="31"/>
       <c r="I110" s="31"/>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="H111" s="31"/>
       <c r="I111" s="31"/>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="H112" s="31"/>
       <c r="I112" s="31"/>
     </row>
-    <row r="113" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H113" s="31"/>
       <c r="I113" s="31"/>
     </row>
-    <row r="114" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H114" s="31"/>
       <c r="I114" s="31"/>
     </row>
-    <row r="115" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H115" s="31"/>
       <c r="I115" s="31"/>
     </row>
-    <row r="116" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H116" s="31"/>
       <c r="I116" s="31"/>
     </row>
-    <row r="117" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H117" s="31"/>
       <c r="I117" s="31"/>
     </row>
-    <row r="118" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H118" s="31"/>
       <c r="I118" s="31"/>
     </row>
-    <row r="119" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H119" s="31"/>
       <c r="I119" s="31"/>
     </row>
-    <row r="120" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H120" s="31"/>
       <c r="I120" s="31"/>
     </row>
-    <row r="121" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H121" s="31"/>
       <c r="I121" s="31"/>
     </row>
-    <row r="122" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H122" s="31"/>
       <c r="I122" s="31"/>
     </row>
-    <row r="123" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H123" s="31"/>
       <c r="I123" s="31"/>
     </row>
-    <row r="124" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H124" s="31"/>
       <c r="I124" s="31"/>
     </row>
-    <row r="125" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H125" s="31"/>
       <c r="I125" s="31"/>
     </row>
-    <row r="126" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H126" s="31"/>
       <c r="I126" s="31"/>
     </row>
-    <row r="127" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H127" s="31"/>
       <c r="I127" s="31"/>
     </row>
-    <row r="128" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H128" s="31"/>
       <c r="I128" s="31"/>
     </row>
-    <row r="129" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H129" s="31"/>
       <c r="I129" s="31"/>
     </row>
-    <row r="130" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H130" s="31"/>
       <c r="I130" s="31"/>
     </row>
-    <row r="131" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H131" s="31"/>
       <c r="I131" s="31"/>
     </row>
-    <row r="132" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H132" s="31"/>
       <c r="I132" s="31"/>
     </row>
-    <row r="133" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H133" s="31"/>
       <c r="I133" s="31"/>
     </row>
-    <row r="134" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H134" s="31"/>
       <c r="I134" s="31"/>
     </row>
-    <row r="135" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H135" s="31"/>
       <c r="I135" s="31"/>
     </row>
-    <row r="136" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H136" s="31"/>
       <c r="I136" s="31"/>
     </row>
-    <row r="137" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H137" s="31"/>
       <c r="I137" s="31"/>
     </row>
-    <row r="138" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H138" s="31"/>
       <c r="I138" s="31"/>
     </row>
-    <row r="139" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H139" s="31"/>
       <c r="I139" s="31"/>
     </row>
-    <row r="140" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H140" s="31"/>
       <c r="I140" s="31"/>
     </row>
-    <row r="141" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H141" s="31"/>
       <c r="I141" s="31"/>
     </row>
-    <row r="142" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H142" s="31"/>
       <c r="I142" s="31"/>
     </row>
-    <row r="143" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H143" s="31"/>
       <c r="I143" s="31"/>
     </row>
-    <row r="144" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H144" s="31"/>
       <c r="I144" s="31"/>
     </row>
-    <row r="145" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H145" s="31"/>
       <c r="I145" s="31"/>
     </row>
-    <row r="146" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H146" s="31"/>
       <c r="I146" s="31"/>
     </row>
-    <row r="147" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H147" s="31"/>
       <c r="I147" s="31"/>
     </row>
-    <row r="148" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H148" s="31"/>
       <c r="I148" s="31"/>
     </row>
-    <row r="149" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H149" s="31"/>
       <c r="I149" s="31"/>
     </row>
-    <row r="150" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H150" s="31"/>
       <c r="I150" s="31"/>
     </row>
-    <row r="151" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H151" s="31"/>
       <c r="I151" s="31"/>
     </row>
-    <row r="152" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H152" s="31"/>
       <c r="I152" s="31"/>
     </row>
-    <row r="153" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H153" s="31"/>
       <c r="I153" s="31"/>
     </row>
-    <row r="154" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H154" s="31"/>
       <c r="I154" s="31"/>
     </row>
-    <row r="155" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H155" s="31"/>
       <c r="I155" s="31"/>
     </row>
-    <row r="156" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H156" s="31"/>
       <c r="I156" s="31"/>
     </row>
-    <row r="157" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H157" s="31"/>
       <c r="I157" s="31"/>
     </row>
-    <row r="158" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H158" s="31"/>
       <c r="I158" s="31"/>
     </row>
-    <row r="159" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H159" s="31"/>
       <c r="I159" s="31"/>
     </row>
-    <row r="160" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H160" s="31"/>
       <c r="I160" s="31"/>
     </row>
-    <row r="161" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H161" s="31"/>
       <c r="I161" s="31"/>
     </row>
-    <row r="162" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H162" s="31"/>
       <c r="I162" s="31"/>
     </row>
-    <row r="163" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H163" s="31"/>
       <c r="I163" s="31"/>
     </row>
-    <row r="164" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H164" s="31"/>
       <c r="I164" s="31"/>
     </row>
-    <row r="165" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H165" s="31"/>
       <c r="I165" s="31"/>
     </row>
-    <row r="166" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H166" s="31"/>
       <c r="I166" s="31"/>
     </row>
-    <row r="167" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H167" s="31"/>
       <c r="I167" s="31"/>
     </row>
-    <row r="168" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H168" s="31"/>
       <c r="I168" s="31"/>
     </row>
-    <row r="169" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H169" s="31"/>
       <c r="I169" s="31"/>
     </row>
-    <row r="170" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H170" s="31"/>
       <c r="I170" s="31"/>
     </row>
-    <row r="171" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H171" s="31"/>
       <c r="I171" s="31"/>
     </row>
-    <row r="172" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H172" s="31"/>
       <c r="I172" s="31"/>
     </row>
-    <row r="173" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H173" s="31"/>
       <c r="I173" s="31"/>
     </row>
-    <row r="174" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H174" s="31"/>
       <c r="I174" s="31"/>
     </row>
-    <row r="175" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H175" s="31"/>
       <c r="I175" s="31"/>
     </row>
-    <row r="176" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H176" s="31"/>
       <c r="I176" s="31"/>
     </row>
-    <row r="177" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H177" s="31"/>
       <c r="I177" s="31"/>
     </row>
-    <row r="178" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H178" s="31"/>
       <c r="I178" s="31"/>
     </row>
-    <row r="179" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H179" s="31"/>
       <c r="I179" s="31"/>
     </row>
-    <row r="180" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H180" s="31"/>
       <c r="I180" s="31"/>
     </row>
-    <row r="181" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H181" s="31"/>
       <c r="I181" s="31"/>
     </row>
-    <row r="182" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H182" s="31"/>
       <c r="I182" s="31"/>
     </row>
-    <row r="183" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H183" s="31"/>
       <c r="I183" s="31"/>
     </row>
-    <row r="184" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H184" s="31"/>
       <c r="I184" s="31"/>
     </row>
-    <row r="185" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H185" s="31"/>
       <c r="I185" s="31"/>
     </row>
-    <row r="186" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H186" s="31"/>
       <c r="I186" s="31"/>
     </row>
-    <row r="187" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H187" s="31"/>
       <c r="I187" s="31"/>
     </row>
-    <row r="188" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H188" s="31"/>
       <c r="I188" s="31"/>
     </row>
-    <row r="189" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H189" s="31"/>
       <c r="I189" s="31"/>
     </row>
-    <row r="190" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H190" s="31"/>
       <c r="I190" s="31"/>
     </row>
-    <row r="191" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H191" s="31"/>
       <c r="I191" s="31"/>
     </row>
-    <row r="192" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H192" s="31"/>
       <c r="I192" s="31"/>
     </row>
-    <row r="193" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H193" s="31"/>
       <c r="I193" s="31"/>
     </row>
-    <row r="194" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H194" s="31"/>
       <c r="I194" s="31"/>
     </row>
-    <row r="195" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H195" s="31"/>
       <c r="I195" s="31"/>
     </row>
-    <row r="196" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H196" s="31"/>
       <c r="I196" s="31"/>
     </row>
-    <row r="197" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H197" s="31"/>
       <c r="I197" s="31"/>
     </row>
-    <row r="198" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H198" s="31"/>
       <c r="I198" s="31"/>
     </row>
-    <row r="199" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H199" s="31"/>
       <c r="I199" s="31"/>
     </row>
-    <row r="200" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H200" s="31"/>
       <c r="I200" s="31"/>
     </row>
@@ -9902,22 +9902,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="29.42578125" style="31" customWidth="1"/>
+    <col min="1" max="2" width="29.44140625" style="31" customWidth="1"/>
     <col min="3" max="3" width="71" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="31" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.42578125" style="31" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="31" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="31" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="31" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="31"/>
+    <col min="4" max="4" width="10.44140625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.44140625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" style="31" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="31" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" style="31" customWidth="1"/>
+    <col min="11" max="16384" width="11.44140625" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
@@ -10006,7 +10006,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>644</v>
       </c>
@@ -10035,7 +10035,7 @@
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>645</v>
       </c>
@@ -10065,7 +10065,7 @@
       <c r="K5" s="30"/>
       <c r="L5" s="30"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>646</v>
       </c>
@@ -10094,7 +10094,7 @@
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>647</v>
       </c>
@@ -10123,16 +10123,16 @@
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="30" t="s">
-        <v>707</v>
+        <v>822</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E8" s="30" t="s">
         <v>64</v>
@@ -10151,16 +10151,16 @@
       <c r="K8" s="30"/>
       <c r="L8" s="30"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="30" t="s">
-        <v>711</v>
+        <v>823</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E9" s="30" t="s">
         <v>64</v>
@@ -10179,16 +10179,16 @@
       <c r="K9" s="30"/>
       <c r="L9" s="30"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="30" t="s">
-        <v>714</v>
+        <v>824</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E10" s="30" t="s">
         <v>64</v>
@@ -10207,16 +10207,16 @@
       <c r="K10" s="30"/>
       <c r="L10" s="30"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="30" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="30" t="s">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E11" s="30" t="s">
         <v>64</v>
@@ -10235,16 +10235,16 @@
       <c r="K11" s="30"/>
       <c r="L11" s="30"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="30" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30" t="s">
-        <v>726</v>
+        <v>826</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E12" s="30" t="s">
         <v>64</v>
@@ -10263,16 +10263,16 @@
       <c r="K12" s="30"/>
       <c r="L12" s="30"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="30" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30" t="s">
-        <v>727</v>
+        <v>827</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E13" s="30" t="s">
         <v>64</v>
@@ -10291,16 +10291,16 @@
       <c r="K13" s="30"/>
       <c r="L13" s="30"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="30" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="30" t="s">
-        <v>728</v>
+        <v>828</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E14" s="30" t="s">
         <v>64</v>
@@ -10319,16 +10319,16 @@
       <c r="K14" s="30"/>
       <c r="L14" s="30"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="30" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="30" t="s">
-        <v>729</v>
+        <v>829</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E15" s="30" t="s">
         <v>64</v>
@@ -10347,16 +10347,16 @@
       <c r="K15" s="30"/>
       <c r="L15" s="30"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="30" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="B16" s="30"/>
       <c r="C16" s="30" t="s">
-        <v>730</v>
+        <v>830</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E16" s="30" t="s">
         <v>64</v>
@@ -10375,16 +10375,16 @@
       <c r="K16" s="30"/>
       <c r="L16" s="30"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="30" t="s">
-        <v>731</v>
+        <v>831</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E17" s="30" t="s">
         <v>64</v>
@@ -10403,16 +10403,16 @@
       <c r="K17" s="30"/>
       <c r="L17" s="30"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="B18" s="30"/>
       <c r="C18" s="30" t="s">
-        <v>732</v>
+        <v>832</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E18" s="30" t="s">
         <v>64</v>
@@ -10431,16 +10431,16 @@
       <c r="K18" s="30"/>
       <c r="L18" s="30"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="30" t="s">
-        <v>733</v>
+        <v>833</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E19" s="30" t="s">
         <v>64</v>
@@ -10459,16 +10459,16 @@
       <c r="K19" s="30"/>
       <c r="L19" s="30"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="30" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B20" s="30"/>
       <c r="C20" s="30" t="s">
-        <v>734</v>
+        <v>834</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E20" s="30" t="s">
         <v>64</v>
@@ -10487,16 +10487,16 @@
       <c r="K20" s="30"/>
       <c r="L20" s="30"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
-        <v>736</v>
+        <v>723</v>
       </c>
       <c r="B21" s="30"/>
       <c r="C21" s="30" t="s">
-        <v>737</v>
+        <v>835</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>739</v>
+        <v>724</v>
       </c>
       <c r="E21" s="30" t="s">
         <v>64</v>
@@ -10515,16 +10515,16 @@
       <c r="K21" s="30"/>
       <c r="L21" s="30"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
-        <v>735</v>
+        <v>722</v>
       </c>
       <c r="B22" s="30"/>
       <c r="C22" s="30" t="s">
-        <v>738</v>
+        <v>836</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>739</v>
+        <v>724</v>
       </c>
       <c r="E22" s="30" t="s">
         <v>64</v>
@@ -10543,16 +10543,16 @@
       <c r="K22" s="30"/>
       <c r="L22" s="30"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
-        <v>740</v>
+        <v>725</v>
       </c>
       <c r="B23" s="30"/>
       <c r="C23" s="30" t="s">
-        <v>748</v>
+        <v>837</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>739</v>
+        <v>724</v>
       </c>
       <c r="E23" s="30" t="s">
         <v>64</v>
@@ -10571,16 +10571,16 @@
       <c r="K23" s="30"/>
       <c r="L23" s="30"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
-        <v>741</v>
+        <v>726</v>
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="30" t="s">
-        <v>749</v>
+        <v>838</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>739</v>
+        <v>724</v>
       </c>
       <c r="E24" s="30" t="s">
         <v>64</v>
@@ -10599,16 +10599,16 @@
       <c r="K24" s="30"/>
       <c r="L24" s="30"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
-        <v>742</v>
+        <v>727</v>
       </c>
       <c r="B25" s="30"/>
       <c r="C25" s="30" t="s">
-        <v>750</v>
+        <v>839</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>739</v>
+        <v>724</v>
       </c>
       <c r="E25" s="30" t="s">
         <v>64</v>
@@ -10627,16 +10627,16 @@
       <c r="K25" s="30"/>
       <c r="L25" s="30"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30" t="s">
-        <v>751</v>
+        <v>840</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>739</v>
+        <v>724</v>
       </c>
       <c r="E26" s="30" t="s">
         <v>64</v>
@@ -10655,16 +10655,16 @@
       <c r="K26" s="30"/>
       <c r="L26" s="30"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="B27" s="30"/>
       <c r="C27" s="30" t="s">
-        <v>752</v>
+        <v>841</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>739</v>
+        <v>724</v>
       </c>
       <c r="E27" s="30" t="s">
         <v>64</v>
@@ -10683,16 +10683,16 @@
       <c r="K27" s="30"/>
       <c r="L27" s="30"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
-        <v>745</v>
+        <v>730</v>
       </c>
       <c r="B28" s="30"/>
       <c r="C28" s="30" t="s">
-        <v>753</v>
+        <v>842</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>739</v>
+        <v>724</v>
       </c>
       <c r="E28" s="30" t="s">
         <v>64</v>
@@ -10711,16 +10711,16 @@
       <c r="K28" s="30"/>
       <c r="L28" s="30"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30" t="s">
-        <v>754</v>
+        <v>843</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>739</v>
+        <v>724</v>
       </c>
       <c r="E29" s="30" t="s">
         <v>64</v>
@@ -10739,16 +10739,16 @@
       <c r="K29" s="30"/>
       <c r="L29" s="30"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="B30" s="30"/>
       <c r="C30" s="30" t="s">
-        <v>755</v>
+        <v>844</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>739</v>
+        <v>724</v>
       </c>
       <c r="E30" s="30" t="s">
         <v>64</v>
@@ -10767,49 +10767,49 @@
       <c r="K30" s="30"/>
       <c r="L30" s="30"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="30"/>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="30"/>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="30"/>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="30"/>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="30"/>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="30"/>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="30"/>
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
       <c r="D37" s="30"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="30"/>
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
@@ -10834,16 +10834,16 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -11830,7 +11830,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="17"/>
       <c r="B45" s="17" t="s">
         <v>21</v>
@@ -11853,7 +11853,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>21</v>
@@ -11876,7 +11876,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>21</v>
@@ -11899,7 +11899,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>21</v>
@@ -11922,7 +11922,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>21</v>
@@ -11945,7 +11945,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>21</v>
@@ -11968,7 +11968,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -11987,7 +11987,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>21</v>
@@ -12008,7 +12008,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>21</v>
@@ -12031,7 +12031,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>21</v>
@@ -12054,7 +12054,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>21</v>
@@ -12077,7 +12077,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>21</v>
@@ -12100,7 +12100,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>21</v>
@@ -12123,7 +12123,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>21</v>
@@ -12146,7 +12146,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>21</v>
@@ -12169,7 +12169,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>21</v>
@@ -12192,7 +12192,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -12211,7 +12211,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>21</v>
@@ -12232,7 +12232,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>21</v>
@@ -12257,7 +12257,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>21</v>
@@ -12280,7 +12280,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>21</v>
@@ -12303,7 +12303,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>21</v>
@@ -12326,7 +12326,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>21</v>
@@ -12349,7 +12349,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>21</v>
@@ -12372,7 +12372,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>21</v>
@@ -12395,7 +12395,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>21</v>
@@ -12418,7 +12418,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>21</v>
@@ -12441,7 +12441,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -12460,7 +12460,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>21</v>
@@ -12481,7 +12481,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>21</v>
@@ -12504,7 +12504,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>21</v>
@@ -12529,7 +12529,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>21</v>
@@ -12552,7 +12552,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>21</v>
@@ -12575,7 +12575,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>21</v>
@@ -12598,7 +12598,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>21</v>
@@ -12621,7 +12621,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>21</v>
@@ -12644,7 +12644,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>21</v>
@@ -12667,7 +12667,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>21</v>
@@ -12690,7 +12690,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>21</v>
@@ -12713,7 +12713,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>21</v>
@@ -12736,7 +12736,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>21</v>
@@ -12759,7 +12759,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -12778,7 +12778,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>21</v>
@@ -12801,7 +12801,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>21</v>
@@ -12824,7 +12824,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>21</v>
@@ -12847,7 +12847,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>21</v>
@@ -12870,7 +12870,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>21</v>
@@ -12893,7 +12893,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>21</v>
@@ -12916,7 +12916,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>21</v>
@@ -12939,7 +12939,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>21</v>
@@ -12962,7 +12962,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>21</v>
@@ -12985,7 +12985,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>21</v>
@@ -13008,7 +13008,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -13027,7 +13027,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>21</v>
@@ -13052,7 +13052,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -13071,7 +13071,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>21</v>
@@ -13092,7 +13092,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>21</v>
@@ -13117,7 +13117,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -13136,7 +13136,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>21</v>
@@ -13159,7 +13159,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>21</v>
@@ -13184,7 +13184,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>21</v>
@@ -13207,7 +13207,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>21</v>
@@ -13228,7 +13228,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -13247,7 +13247,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>21</v>
@@ -13272,7 +13272,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>21</v>
@@ -13295,7 +13295,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>21</v>
@@ -13318,7 +13318,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>21</v>
@@ -13341,7 +13341,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>21</v>
@@ -13364,7 +13364,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>21</v>
@@ -13387,7 +13387,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>21</v>
@@ -13410,7 +13410,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -13429,7 +13429,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>21</v>
@@ -13452,7 +13452,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>21</v>
@@ -13475,7 +13475,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>21</v>
@@ -13498,7 +13498,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -13517,7 +13517,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>21</v>
@@ -13540,7 +13540,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>21</v>
@@ -13563,7 +13563,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>21</v>
@@ -13586,7 +13586,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>21</v>
@@ -13609,7 +13609,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>21</v>
@@ -13632,7 +13632,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>21</v>
@@ -13655,7 +13655,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -13674,7 +13674,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>21</v>
@@ -13699,7 +13699,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>21</v>
@@ -13722,7 +13722,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>21</v>
@@ -13745,7 +13745,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>21</v>
@@ -13768,7 +13768,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>21</v>
@@ -13791,7 +13791,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>21</v>
@@ -13814,7 +13814,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>21</v>
@@ -13837,7 +13837,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>21</v>
@@ -13860,7 +13860,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>21</v>
@@ -13883,7 +13883,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -13902,7 +13902,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>21</v>
@@ -13927,7 +13927,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>21</v>
@@ -13948,7 +13948,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>21</v>
@@ -13971,7 +13971,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>21</v>
@@ -13994,7 +13994,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>21</v>
@@ -14017,7 +14017,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>21</v>
@@ -14040,7 +14040,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>21</v>
@@ -14063,7 +14063,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>21</v>
@@ -14086,7 +14086,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>21</v>
@@ -14109,7 +14109,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>21</v>
@@ -14132,7 +14132,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>21</v>
@@ -14155,7 +14155,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>21</v>
@@ -14178,7 +14178,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>21</v>
@@ -14201,7 +14201,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>21</v>
@@ -14224,7 +14224,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -14243,7 +14243,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>21</v>
@@ -14266,7 +14266,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -14285,7 +14285,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>21</v>
@@ -14308,7 +14308,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>21</v>
@@ -14331,7 +14331,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -14350,7 +14350,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>21</v>
@@ -14375,7 +14375,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>21</v>
@@ -14398,7 +14398,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>21</v>
@@ -14421,7 +14421,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>21</v>
@@ -14444,7 +14444,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>21</v>
@@ -14467,7 +14467,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>21</v>
@@ -14490,7 +14490,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>21</v>
@@ -14513,7 +14513,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>21</v>
@@ -14536,7 +14536,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>21</v>
@@ -14559,7 +14559,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>21</v>
@@ -14582,7 +14582,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -14601,7 +14601,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>21</v>
@@ -14626,7 +14626,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>21</v>
@@ -14649,7 +14649,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>21</v>
@@ -14672,7 +14672,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>21</v>
@@ -14695,7 +14695,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>21</v>
@@ -14718,7 +14718,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>21</v>
@@ -14741,7 +14741,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>21</v>
@@ -14764,7 +14764,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>21</v>
@@ -14787,7 +14787,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>21</v>
@@ -14810,7 +14810,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>21</v>
@@ -14833,7 +14833,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -14852,7 +14852,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>21</v>
@@ -14875,7 +14875,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>21</v>
@@ -14898,7 +14898,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>21</v>
@@ -14921,7 +14921,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>21</v>
@@ -14944,7 +14944,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -14963,7 +14963,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>21</v>
@@ -14986,7 +14986,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>21</v>
@@ -15009,7 +15009,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>21</v>
@@ -15032,7 +15032,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>21</v>
@@ -15055,7 +15055,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -15074,7 +15074,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>21</v>
@@ -15095,7 +15095,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>21</v>
@@ -15118,7 +15118,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -15137,7 +15137,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>21</v>
@@ -15160,7 +15160,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>21</v>
@@ -15185,7 +15185,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>21</v>
@@ -15206,7 +15206,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>21</v>
@@ -15231,7 +15231,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>21</v>
@@ -15256,7 +15256,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -15275,7 +15275,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>21</v>
@@ -15300,7 +15300,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>21</v>
@@ -15323,7 +15323,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>21</v>
@@ -15346,7 +15346,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>21</v>
@@ -15369,7 +15369,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>21</v>
@@ -15392,7 +15392,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>21</v>
@@ -15415,7 +15415,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>21</v>
@@ -15438,7 +15438,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>21</v>
@@ -15461,7 +15461,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>21</v>
@@ -15484,7 +15484,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -15503,7 +15503,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>21</v>
@@ -15528,7 +15528,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>21</v>
@@ -15551,7 +15551,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>21</v>
@@ -15574,7 +15574,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>21</v>
@@ -15597,7 +15597,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>21</v>
@@ -15620,7 +15620,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>21</v>
@@ -15643,7 +15643,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>21</v>
@@ -15666,7 +15666,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>21</v>
@@ -15689,7 +15689,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>21</v>
@@ -15712,7 +15712,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -15731,7 +15731,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>21</v>
@@ -15752,7 +15752,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>21</v>
@@ -15775,7 +15775,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>21</v>
@@ -15798,7 +15798,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>21</v>
@@ -15821,7 +15821,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>21</v>
@@ -15844,7 +15844,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>21</v>
@@ -15867,7 +15867,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>21</v>
@@ -15890,7 +15890,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>21</v>
@@ -15913,7 +15913,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>21</v>
@@ -15936,7 +15936,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>21</v>
@@ -15959,7 +15959,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>21</v>
@@ -15982,7 +15982,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>21</v>
@@ -16005,7 +16005,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>21</v>
@@ -16028,7 +16028,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>21</v>
@@ -16051,7 +16051,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>21</v>
@@ -16074,7 +16074,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>21</v>
@@ -16097,7 +16097,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -16116,7 +16116,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>21</v>
@@ -16137,7 +16137,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>21</v>
@@ -16160,7 +16160,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>21</v>
@@ -16183,7 +16183,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>21</v>
@@ -16206,7 +16206,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>21</v>
@@ -16229,7 +16229,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>21</v>
@@ -16252,7 +16252,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>21</v>
@@ -16275,7 +16275,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>21</v>
@@ -16298,7 +16298,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>21</v>
@@ -16321,7 +16321,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>21</v>
@@ -16344,7 +16344,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>21</v>
@@ -16367,7 +16367,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>21</v>
@@ -16390,7 +16390,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>21</v>
@@ -16413,7 +16413,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>21</v>
@@ -16436,7 +16436,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>21</v>
@@ -16459,7 +16459,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>21</v>
@@ -16482,7 +16482,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -16501,7 +16501,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>21</v>
@@ -16526,7 +16526,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>21</v>
@@ -16549,7 +16549,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>21</v>
@@ -16572,7 +16572,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>21</v>
@@ -16595,7 +16595,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>21</v>
@@ -16618,7 +16618,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -16637,7 +16637,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>21</v>
@@ -16662,7 +16662,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>21</v>
@@ -16685,7 +16685,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -16704,7 +16704,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -16723,7 +16723,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -16742,7 +16742,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>21</v>
@@ -16763,7 +16763,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>21</v>
@@ -16786,7 +16786,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>21</v>
@@ -16809,7 +16809,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>21</v>
@@ -16832,7 +16832,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>21</v>
@@ -16855,7 +16855,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>21</v>
@@ -16878,7 +16878,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>21</v>
@@ -16901,7 +16901,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>21</v>
@@ -16924,7 +16924,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>21</v>
@@ -16947,7 +16947,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>21</v>
@@ -16970,7 +16970,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>21</v>
@@ -16993,7 +16993,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -17012,7 +17012,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>21</v>
@@ -17035,7 +17035,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -17054,7 +17054,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>21</v>
@@ -17079,7 +17079,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>21</v>
@@ -17102,7 +17102,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>21</v>
@@ -17125,7 +17125,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>21</v>
@@ -17148,7 +17148,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>21</v>
@@ -17171,7 +17171,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>21</v>
@@ -17194,7 +17194,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>21</v>
@@ -17217,7 +17217,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>21</v>
@@ -17240,7 +17240,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>21</v>
@@ -17263,7 +17263,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>21</v>
@@ -17286,7 +17286,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>21</v>
@@ -17309,7 +17309,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -17328,7 +17328,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>21</v>
@@ -17351,7 +17351,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -17370,7 +17370,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>21</v>
@@ -17391,7 +17391,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -17410,7 +17410,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>21</v>
@@ -17431,7 +17431,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -17450,7 +17450,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>21</v>
@@ -17471,7 +17471,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -17490,7 +17490,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>21</v>
@@ -17513,7 +17513,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -17532,7 +17532,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>21</v>
@@ -17557,7 +17557,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>21</v>
@@ -17580,7 +17580,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>21</v>
@@ -17603,7 +17603,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>21</v>
@@ -17626,7 +17626,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>21</v>
@@ -17649,7 +17649,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>21</v>
@@ -17672,7 +17672,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>21</v>
@@ -17695,7 +17695,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>21</v>
@@ -17718,7 +17718,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>21</v>
@@ -17741,7 +17741,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -17760,7 +17760,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>21</v>
@@ -17783,7 +17783,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>21</v>
@@ -17806,7 +17806,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>21</v>
@@ -17829,7 +17829,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>21</v>
@@ -17852,7 +17852,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -17871,7 +17871,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>21</v>
@@ -17894,7 +17894,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>21</v>
@@ -17917,7 +17917,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>21</v>
@@ -17942,7 +17942,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -17961,7 +17961,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>21</v>
@@ -17986,7 +17986,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>21</v>
@@ -18009,7 +18009,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -18028,7 +18028,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>21</v>
@@ -18049,7 +18049,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>21</v>
@@ -18070,7 +18070,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>21</v>
@@ -18093,7 +18093,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -18112,7 +18112,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -18131,7 +18131,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>21</v>
@@ -18156,7 +18156,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>21</v>
@@ -18181,7 +18181,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -18195,7 +18195,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B329" t="s">
         <v>21</v>
       </c>
@@ -18218,7 +18218,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B330" t="s">
         <v>21</v>
       </c>
@@ -18238,7 +18238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B331" t="s">
         <v>21</v>
       </c>
@@ -18258,7 +18258,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B332" t="s">
         <v>21</v>
       </c>
@@ -18278,7 +18278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B333" t="s">
         <v>21</v>
       </c>
@@ -18295,7 +18295,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B334" t="s">
         <v>21</v>
       </c>
@@ -18318,7 +18318,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B335" t="s">
         <v>21</v>
       </c>
@@ -18341,7 +18341,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -18355,7 +18355,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B337" t="s">
         <v>21</v>
       </c>
@@ -18378,7 +18378,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B338" t="s">
         <v>21</v>
       </c>
@@ -18401,7 +18401,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B339" t="s">
         <v>21</v>
       </c>
@@ -18421,7 +18421,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B340" t="s">
         <v>21</v>
       </c>
@@ -18441,7 +18441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B341" t="s">
         <v>21</v>
       </c>
@@ -18458,7 +18458,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
@@ -18484,7 +18484,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>21</v>
@@ -18513,7 +18513,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A344" s="17"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -18552,7 +18552,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A345" t="b">
         <v>0</v>
       </c>
@@ -18566,7 +18566,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B346" t="s">
         <v>21</v>
       </c>
@@ -18586,7 +18586,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -18600,7 +18600,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B348" t="s">
         <v>21</v>
       </c>
@@ -18620,7 +18620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B349" t="s">
         <v>21</v>
       </c>
@@ -18640,7 +18640,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B350" t="s">
         <v>21</v>
       </c>
@@ -18660,7 +18660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B351" t="s">
         <v>21</v>
       </c>
@@ -18680,7 +18680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B352" t="s">
         <v>21</v>
       </c>
@@ -18700,7 +18700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B353" t="s">
         <v>21</v>
       </c>
@@ -18720,7 +18720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B354" t="s">
         <v>21</v>
       </c>
@@ -18740,7 +18740,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B355" t="s">
         <v>21</v>
       </c>
@@ -18760,7 +18760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B356" t="s">
         <v>21</v>
       </c>
@@ -18780,7 +18780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A357" t="b">
         <v>0</v>
       </c>
@@ -18794,7 +18794,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B358" t="s">
         <v>21</v>
       </c>
@@ -18814,7 +18814,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B359" t="s">
         <v>21</v>
       </c>
@@ -18834,7 +18834,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A360" t="b">
         <v>0</v>
       </c>
@@ -18850,7 +18850,7 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B361" t="s">
         <v>21</v>
       </c>
@@ -18876,7 +18876,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A362" s="17"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -18917,7 +18917,7 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A363" t="b">
         <v>0</v>
       </c>
@@ -18931,7 +18931,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B364" t="s">
         <v>21</v>
       </c>
@@ -18951,7 +18951,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A365" t="b">
         <v>0</v>
       </c>
@@ -18965,7 +18965,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B366" t="s">
         <v>21</v>
       </c>
@@ -19004,17 +19004,17 @@
       <selection activeCell="A17" sqref="A17:A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" customWidth="1"/>
-    <col min="17" max="17" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" customWidth="1"/>
+    <col min="17" max="17" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>441</v>
       </c>
@@ -19025,7 +19025,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>589</v>
       </c>
@@ -19039,7 +19039,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>592</v>
       </c>
@@ -19053,7 +19053,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>594</v>
       </c>
@@ -19067,7 +19067,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
         <v>596</v>
       </c>
@@ -19081,7 +19081,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
         <v>598</v>
       </c>
@@ -19095,7 +19095,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>440</v>
       </c>
@@ -19109,7 +19109,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
         <v>601</v>
       </c>
@@ -19123,7 +19123,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>603</v>
       </c>
@@ -19137,7 +19137,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>569</v>
       </c>
@@ -19151,7 +19151,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>454</v>
       </c>
@@ -19165,7 +19165,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>452</v>
       </c>
@@ -19176,8 +19176,8 @@
         <v>544</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>547</v>
       </c>
@@ -19203,7 +19203,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>548</v>
       </c>
@@ -19244,7 +19244,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -19285,7 +19285,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>542</v>
       </c>
@@ -19317,7 +19317,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>550</v>
       </c>
@@ -19349,7 +19349,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>549</v>
       </c>
@@ -19378,7 +19378,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>551</v>
       </c>
@@ -19410,7 +19410,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>552</v>
       </c>
@@ -19430,7 +19430,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>682</v>
       </c>
@@ -19453,7 +19453,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="L25" s="1" t="s">
         <v>558</v>
       </c>
@@ -19464,7 +19464,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="L26" s="1" t="s">
         <v>539</v>
       </c>
@@ -19472,7 +19472,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="L27" s="1" t="s">
         <v>541</v>
       </c>

--- a/projects/office_ee.xlsx
+++ b/projects/office_ee.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23260" windowHeight="13180" tabRatio="562" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -2722,7 +2722,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1822">
+  <cellStyleXfs count="1826">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4473,6 +4473,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4658,7 +4662,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1822">
+  <cellStyles count="1826">
     <cellStyle name="Comma" xfId="1749" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -5570,6 +5574,8 @@
     <cellStyle name="Followed Hyperlink" xfId="1817" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1819" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1821" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1823" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1825" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -6480,6 +6486,8 @@
     <cellStyle name="Hyperlink" xfId="1816" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1818" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1820" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1822" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1824" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6785,17 +6793,17 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="81.88671875" customWidth="1"/>
+    <col min="1" max="1" width="81.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="28">
       <c r="A1" s="36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="28">
       <c r="A2" s="36" t="s">
         <v>41</v>
       </c>
@@ -6815,21 +6823,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.1640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="19"/>
       <c r="B1" s="28"/>
       <c r="C1" s="19"/>
@@ -6838,7 +6846,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="12" customFormat="1">
       <c r="A2" s="11" t="s">
         <v>435</v>
       </c>
@@ -6847,7 +6855,7 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>436</v>
       </c>
@@ -6858,7 +6866,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="28">
       <c r="A4" s="1" t="s">
         <v>456</v>
       </c>
@@ -6869,7 +6877,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="42">
       <c r="A5" s="1" t="s">
         <v>469</v>
       </c>
@@ -6880,7 +6888,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="45.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="46" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>470</v>
       </c>
@@ -6891,7 +6899,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>442</v>
       </c>
@@ -6910,7 +6918,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="28">
       <c r="A8" s="1" t="s">
         <v>443</v>
       </c>
@@ -6929,7 +6937,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>458</v>
       </c>
@@ -6942,7 +6950,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="12" customFormat="1">
       <c r="A11" s="11" t="s">
         <v>28</v>
       </c>
@@ -6951,7 +6959,7 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
     </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
@@ -6962,7 +6970,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -6973,7 +6981,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -6984,7 +6992,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>462</v>
       </c>
@@ -6995,7 +7003,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>463</v>
       </c>
@@ -7006,7 +7014,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>464</v>
       </c>
@@ -7017,7 +7025,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>466</v>
       </c>
@@ -7028,7 +7036,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A20" s="11" t="s">
         <v>27</v>
       </c>
@@ -7041,7 +7049,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>451</v>
       </c>
@@ -7049,11 +7057,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" s="31" customFormat="1">
       <c r="B22" s="26"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A23" s="11" t="s">
         <v>450</v>
       </c>
@@ -7070,7 +7078,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="30" t="s">
         <v>570</v>
       </c>
@@ -7082,7 +7090,7 @@
       </c>
       <c r="D24" s="35"/>
     </row>
-    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="30" t="s">
         <v>4</v>
       </c>
@@ -7094,56 +7102,56 @@
       </c>
       <c r="D25" s="35"/>
     </row>
-    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="31"/>
       <c r="B26" s="29"/>
       <c r="C26" s="30"/>
       <c r="D26" s="35"/>
     </row>
-    <row r="27" spans="1:5" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" s="31" customFormat="1">
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
       <c r="D27" s="35"/>
     </row>
-    <row r="28" spans="1:5" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" s="31" customFormat="1">
       <c r="C28" s="30"/>
       <c r="D28" s="35"/>
     </row>
-    <row r="29" spans="1:5" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" s="31" customFormat="1">
       <c r="C29" s="30"/>
       <c r="D29" s="35"/>
     </row>
-    <row r="30" spans="1:5" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" s="31" customFormat="1">
       <c r="B30" s="26"/>
       <c r="C30" s="34"/>
       <c r="D30" s="35"/>
     </row>
-    <row r="31" spans="1:5" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" s="31" customFormat="1">
       <c r="B31" s="26"/>
       <c r="C31" s="34"/>
       <c r="D31" s="35"/>
     </row>
-    <row r="32" spans="1:5" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" s="31" customFormat="1">
       <c r="B32" s="26"/>
       <c r="C32" s="34"/>
       <c r="D32" s="35"/>
     </row>
-    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="31"/>
       <c r="C33" s="34"/>
       <c r="D33" s="35"/>
     </row>
-    <row r="34" spans="1:5" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" s="31" customFormat="1">
       <c r="B34" s="26"/>
       <c r="C34" s="34"/>
       <c r="D34" s="35"/>
     </row>
-    <row r="35" spans="1:5" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" s="31" customFormat="1">
       <c r="B35" s="26"/>
       <c r="C35" s="26"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A36" s="11" t="s">
         <v>33</v>
       </c>
@@ -7156,7 +7164,7 @@
       <c r="D36" s="11"/>
       <c r="E36" s="13"/>
     </row>
-    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
@@ -7164,7 +7172,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A39" s="11" t="s">
         <v>30</v>
       </c>
@@ -7181,7 +7189,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" s="31" customFormat="1">
       <c r="A40" s="31" t="s">
         <v>32</v>
       </c>
@@ -7193,7 +7201,7 @@
       </c>
       <c r="E40" s="2"/>
     </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" s="2" customFormat="1" ht="56">
       <c r="A42" s="11" t="s">
         <v>35</v>
       </c>
@@ -7208,7 +7216,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" s="31" t="s">
         <v>786</v>
       </c>
@@ -7219,7 +7227,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" s="31" customFormat="1">
       <c r="B44" s="26"/>
       <c r="D44" s="2"/>
     </row>
@@ -7254,32 +7262,32 @@
       <selection pane="bottomLeft" activeCell="I89" sqref="I89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="31" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="31" customWidth="1"/>
     <col min="2" max="2" width="47" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="31" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" style="31" customWidth="1"/>
-    <col min="5" max="5" width="24.109375" style="31" customWidth="1"/>
+    <col min="4" max="4" width="39.1640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" style="31" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="31" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" style="31" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" style="31" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" style="31" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" style="31" customWidth="1"/>
     <col min="12" max="12" width="6.6640625" style="31" customWidth="1"/>
-    <col min="13" max="14" width="7.88671875" style="31" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" style="31"/>
-    <col min="16" max="16" width="11.44140625" style="31" customWidth="1"/>
+    <col min="13" max="14" width="7.83203125" style="31" customWidth="1"/>
+    <col min="15" max="15" width="11.5" style="31"/>
+    <col min="16" max="16" width="11.5" style="31" customWidth="1"/>
     <col min="17" max="17" width="23" style="31" customWidth="1"/>
     <col min="18" max="18" width="27.6640625" style="31" customWidth="1"/>
-    <col min="19" max="19" width="46.109375" style="31" customWidth="1"/>
-    <col min="20" max="22" width="11.44140625" style="31"/>
+    <col min="19" max="19" width="46.1640625" style="31" customWidth="1"/>
+    <col min="20" max="22" width="11.5" style="31"/>
     <col min="23" max="23" width="13.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="11.44140625" style="31"/>
+    <col min="24" max="16384" width="11.5" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7314,7 +7322,7 @@
       <c r="X1" s="53"/>
       <c r="Y1" s="53"/>
     </row>
-    <row r="2" spans="1:25" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" s="8" customFormat="1" ht="15">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -7330,7 +7338,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:25" s="14" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" s="14" customFormat="1" ht="45">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -7404,7 +7412,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" s="38" customFormat="1">
       <c r="A4" s="38" t="b">
         <v>1</v>
       </c>
@@ -7423,7 +7431,7 @@
       <c r="G4" s="39"/>
       <c r="H4" s="39"/>
     </row>
-    <row r="5" spans="1:25" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" s="30" customFormat="1">
       <c r="B5" s="30" t="s">
         <v>21</v>
       </c>
@@ -7440,7 +7448,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="6" spans="1:25" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" s="30" customFormat="1">
       <c r="B6" s="30" t="s">
         <v>21</v>
       </c>
@@ -7457,7 +7465,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" s="38" customFormat="1">
       <c r="A7" s="38" t="b">
         <v>1</v>
       </c>
@@ -7476,7 +7484,7 @@
       <c r="G7" s="39"/>
       <c r="H7" s="39"/>
     </row>
-    <row r="8" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="B8" s="31" t="s">
         <v>21</v>
       </c>
@@ -7501,7 +7509,7 @@
       <c r="P8" s="40"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25">
       <c r="B9" s="31" t="s">
         <v>21</v>
       </c>
@@ -7524,7 +7532,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25">
       <c r="B10" s="31" t="s">
         <v>21</v>
       </c>
@@ -7542,7 +7550,7 @@
       </c>
       <c r="I10" s="31"/>
     </row>
-    <row r="11" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25">
       <c r="B11" s="31" t="s">
         <v>21</v>
       </c>
@@ -7560,7 +7568,7 @@
       </c>
       <c r="I11" s="31"/>
     </row>
-    <row r="12" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25">
       <c r="B12" s="31" t="s">
         <v>21</v>
       </c>
@@ -7578,7 +7586,7 @@
       </c>
       <c r="I12" s="31"/>
     </row>
-    <row r="13" spans="1:25" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" s="38" customFormat="1">
       <c r="A13" s="38" t="b">
         <v>1</v>
       </c>
@@ -7597,7 +7605,7 @@
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
     </row>
-    <row r="14" spans="1:25" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" s="30" customFormat="1">
       <c r="B14" s="30" t="s">
         <v>21</v>
       </c>
@@ -7617,7 +7625,7 @@
         <v>12717</v>
       </c>
     </row>
-    <row r="15" spans="1:25" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" s="30" customFormat="1">
       <c r="B15" s="30" t="s">
         <v>21</v>
       </c>
@@ -7634,7 +7642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:25" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" s="30" customFormat="1">
       <c r="B16" s="30" t="s">
         <v>21</v>
       </c>
@@ -7651,7 +7659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" s="30" customFormat="1">
       <c r="B17" s="30" t="s">
         <v>21</v>
       </c>
@@ -7671,7 +7679,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" s="30" customFormat="1">
       <c r="B18" s="30" t="s">
         <v>21</v>
       </c>
@@ -7688,7 +7696,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="30" customFormat="1">
       <c r="B19" s="30" t="s">
         <v>21</v>
       </c>
@@ -7705,7 +7713,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" s="30" customFormat="1">
       <c r="B20" s="30" t="s">
         <v>21</v>
       </c>
@@ -7722,7 +7730,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" s="30" customFormat="1">
       <c r="B21" s="30" t="s">
         <v>21</v>
       </c>
@@ -7739,7 +7747,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" s="30" customFormat="1">
       <c r="B22" s="30" t="s">
         <v>21</v>
       </c>
@@ -7756,7 +7764,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="30" customFormat="1">
       <c r="B23" s="30" t="s">
         <v>21</v>
       </c>
@@ -7773,7 +7781,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" s="30" customFormat="1">
       <c r="B24" s="30" t="s">
         <v>21</v>
       </c>
@@ -7790,7 +7798,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" s="30" customFormat="1">
       <c r="B25" s="30" t="s">
         <v>21</v>
       </c>
@@ -7807,7 +7815,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" s="30" customFormat="1">
       <c r="B26" s="30" t="s">
         <v>21</v>
       </c>
@@ -7824,7 +7832,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="30" customFormat="1">
       <c r="B27" s="30" t="s">
         <v>21</v>
       </c>
@@ -7841,7 +7849,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" s="30" customFormat="1">
       <c r="B28" s="30" t="s">
         <v>21</v>
       </c>
@@ -7858,7 +7866,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" s="30" customFormat="1">
       <c r="B29" s="30" t="s">
         <v>21</v>
       </c>
@@ -7875,7 +7883,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" s="30" customFormat="1">
       <c r="B30" s="30" t="s">
         <v>21</v>
       </c>
@@ -7892,7 +7900,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" s="38" customFormat="1">
       <c r="A31" s="38" t="b">
         <v>1</v>
       </c>
@@ -7911,7 +7919,7 @@
       <c r="G31" s="39"/>
       <c r="H31" s="39"/>
     </row>
-    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="B32" s="31" t="s">
         <v>21</v>
       </c>
@@ -7927,7 +7935,7 @@
       <c r="H32" s="31"/>
       <c r="I32" s="31"/>
     </row>
-    <row r="33" spans="1:17" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" s="38" customFormat="1">
       <c r="A33" s="38" t="b">
         <v>1</v>
       </c>
@@ -7944,7 +7952,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:17" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" s="30" customFormat="1">
       <c r="B34" s="30" t="s">
         <v>21</v>
       </c>
@@ -7961,7 +7969,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="35" spans="1:17" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" s="30" customFormat="1">
       <c r="B35" s="30" t="s">
         <v>21</v>
       </c>
@@ -7981,7 +7989,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="36" spans="1:17" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" s="30" customFormat="1">
       <c r="B36" s="30" t="s">
         <v>21</v>
       </c>
@@ -7998,7 +8006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:17" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" s="38" customFormat="1">
       <c r="A37" s="38" t="b">
         <v>1</v>
       </c>
@@ -8017,7 +8025,7 @@
       <c r="G37" s="39"/>
       <c r="H37" s="39"/>
     </row>
-    <row r="38" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17">
       <c r="B38" s="31" t="s">
         <v>21</v>
       </c>
@@ -8042,7 +8050,7 @@
       <c r="P38" s="40"/>
       <c r="Q38" s="2"/>
     </row>
-    <row r="39" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17">
       <c r="B39" s="31" t="s">
         <v>21</v>
       </c>
@@ -8070,7 +8078,7 @@
       <c r="P39" s="40"/>
       <c r="Q39" s="2"/>
     </row>
-    <row r="40" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17">
       <c r="B40" s="31" t="s">
         <v>21</v>
       </c>
@@ -8098,7 +8106,7 @@
       <c r="P40" s="40"/>
       <c r="Q40" s="2"/>
     </row>
-    <row r="41" spans="1:17" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" s="38" customFormat="1">
       <c r="A41" s="38" t="b">
         <v>1</v>
       </c>
@@ -8117,7 +8125,7 @@
       <c r="G41" s="39"/>
       <c r="H41" s="39"/>
     </row>
-    <row r="42" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17">
       <c r="B42" s="31" t="s">
         <v>21</v>
       </c>
@@ -8142,7 +8150,7 @@
       <c r="P42" s="40"/>
       <c r="Q42" s="2"/>
     </row>
-    <row r="43" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17">
       <c r="B43" s="31" t="s">
         <v>21</v>
       </c>
@@ -8170,7 +8178,7 @@
       <c r="P43" s="40"/>
       <c r="Q43" s="2"/>
     </row>
-    <row r="44" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17">
       <c r="B44" s="31" t="s">
         <v>21</v>
       </c>
@@ -8198,7 +8206,7 @@
       <c r="P44" s="40"/>
       <c r="Q44" s="2"/>
     </row>
-    <row r="45" spans="1:17" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" s="38" customFormat="1">
       <c r="A45" s="38" t="b">
         <v>1</v>
       </c>
@@ -8217,7 +8225,7 @@
       <c r="G45" s="39"/>
       <c r="H45" s="39"/>
     </row>
-    <row r="46" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17">
       <c r="B46" s="31" t="s">
         <v>21</v>
       </c>
@@ -8242,7 +8250,7 @@
       <c r="P46" s="40"/>
       <c r="Q46" s="2"/>
     </row>
-    <row r="47" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17">
       <c r="B47" s="31" t="s">
         <v>21</v>
       </c>
@@ -8270,7 +8278,7 @@
       <c r="P47" s="40"/>
       <c r="Q47" s="2"/>
     </row>
-    <row r="48" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17">
       <c r="B48" s="31" t="s">
         <v>21</v>
       </c>
@@ -8298,7 +8306,7 @@
       <c r="P48" s="40"/>
       <c r="Q48" s="2"/>
     </row>
-    <row r="49" spans="1:17" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" s="38" customFormat="1">
       <c r="A49" s="38" t="b">
         <v>1</v>
       </c>
@@ -8317,7 +8325,7 @@
       <c r="G49" s="39"/>
       <c r="H49" s="39"/>
     </row>
-    <row r="50" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17">
       <c r="B50" s="31" t="s">
         <v>21</v>
       </c>
@@ -8342,7 +8350,7 @@
       <c r="P50" s="40"/>
       <c r="Q50" s="2"/>
     </row>
-    <row r="51" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17">
       <c r="B51" s="31" t="s">
         <v>21</v>
       </c>
@@ -8370,7 +8378,7 @@
       <c r="P51" s="40"/>
       <c r="Q51" s="2"/>
     </row>
-    <row r="52" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17">
       <c r="B52" s="31" t="s">
         <v>21</v>
       </c>
@@ -8398,7 +8406,7 @@
       <c r="P52" s="40"/>
       <c r="Q52" s="2"/>
     </row>
-    <row r="53" spans="1:17" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" s="38" customFormat="1">
       <c r="A53" s="38" t="b">
         <v>1</v>
       </c>
@@ -8417,7 +8425,7 @@
       <c r="G53" s="39"/>
       <c r="H53" s="39"/>
     </row>
-    <row r="54" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17">
       <c r="B54" s="31" t="s">
         <v>21</v>
       </c>
@@ -8435,7 +8443,7 @@
       </c>
       <c r="I54" s="31"/>
     </row>
-    <row r="55" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17">
       <c r="B55" s="31" t="s">
         <v>21</v>
       </c>
@@ -8453,7 +8461,7 @@
       </c>
       <c r="I55" s="31"/>
     </row>
-    <row r="56" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17">
       <c r="B56" s="31" t="s">
         <v>21</v>
       </c>
@@ -8471,7 +8479,7 @@
       </c>
       <c r="I56" s="31"/>
     </row>
-    <row r="57" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17">
       <c r="B57" s="31" t="s">
         <v>21</v>
       </c>
@@ -8489,7 +8497,7 @@
       </c>
       <c r="I57" s="31"/>
     </row>
-    <row r="58" spans="1:17" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" s="38" customFormat="1">
       <c r="A58" s="38" t="b">
         <v>1</v>
       </c>
@@ -8508,7 +8516,7 @@
       <c r="G58" s="39"/>
       <c r="H58" s="39"/>
     </row>
-    <row r="59" spans="1:17" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" s="38" customFormat="1">
       <c r="A59" s="38" t="b">
         <v>1</v>
       </c>
@@ -8527,7 +8535,7 @@
       <c r="G59" s="39"/>
       <c r="H59" s="39"/>
     </row>
-    <row r="60" spans="1:17" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" s="43" customFormat="1">
       <c r="B60" s="43" t="s">
         <v>21</v>
       </c>
@@ -8563,7 +8571,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="61" spans="1:17" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" s="30" customFormat="1">
       <c r="B61" s="30" t="s">
         <v>21</v>
       </c>
@@ -8580,7 +8588,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:17" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" s="30" customFormat="1">
       <c r="B62" s="30" t="s">
         <v>21</v>
       </c>
@@ -8600,7 +8608,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:17" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" s="38" customFormat="1">
       <c r="A63" s="38" t="b">
         <v>1</v>
       </c>
@@ -8619,7 +8627,7 @@
       <c r="G63" s="39"/>
       <c r="H63" s="39"/>
     </row>
-    <row r="64" spans="1:17" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" s="43" customFormat="1">
       <c r="B64" s="43" t="s">
         <v>21</v>
       </c>
@@ -8655,7 +8663,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="65" spans="1:17" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" s="30" customFormat="1">
       <c r="B65" s="30" t="s">
         <v>21</v>
       </c>
@@ -8672,7 +8680,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="1:17" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" s="30" customFormat="1">
       <c r="B66" s="30" t="s">
         <v>21</v>
       </c>
@@ -8692,7 +8700,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:17" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" s="38" customFormat="1">
       <c r="A67" s="38" t="b">
         <v>1</v>
       </c>
@@ -8711,7 +8719,7 @@
       <c r="G67" s="39"/>
       <c r="H67" s="39"/>
     </row>
-    <row r="68" spans="1:17" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" s="43" customFormat="1">
       <c r="B68" s="43" t="s">
         <v>21</v>
       </c>
@@ -8747,7 +8755,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="69" spans="1:17" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" s="30" customFormat="1">
       <c r="B69" s="30" t="s">
         <v>21</v>
       </c>
@@ -8764,7 +8772,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:17" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" s="30" customFormat="1">
       <c r="B70" s="30" t="s">
         <v>21</v>
       </c>
@@ -8784,7 +8792,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="71" spans="1:17" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" s="38" customFormat="1">
       <c r="A71" s="38" t="b">
         <v>1</v>
       </c>
@@ -8803,7 +8811,7 @@
       <c r="G71" s="39"/>
       <c r="H71" s="39"/>
     </row>
-    <row r="72" spans="1:17" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" s="30" customFormat="1">
       <c r="B72" s="30" t="s">
         <v>21</v>
       </c>
@@ -8824,7 +8832,7 @@
       </c>
       <c r="O72" s="31"/>
     </row>
-    <row r="73" spans="1:17" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" s="43" customFormat="1">
       <c r="B73" s="43" t="s">
         <v>21</v>
       </c>
@@ -8860,7 +8868,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="74" spans="1:17" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" s="30" customFormat="1">
       <c r="B74" s="30" t="s">
         <v>21</v>
       </c>
@@ -8878,7 +8886,7 @@
       </c>
       <c r="O74" s="31"/>
     </row>
-    <row r="75" spans="1:17" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" s="30" customFormat="1">
       <c r="B75" s="30" t="s">
         <v>21</v>
       </c>
@@ -8896,7 +8904,7 @@
       </c>
       <c r="O75" s="31"/>
     </row>
-    <row r="76" spans="1:17" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" s="30" customFormat="1">
       <c r="B76" s="30" t="s">
         <v>21</v>
       </c>
@@ -8914,7 +8922,7 @@
       </c>
       <c r="O76" s="31"/>
     </row>
-    <row r="77" spans="1:17" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" s="38" customFormat="1">
       <c r="A77" s="38" t="b">
         <v>1</v>
       </c>
@@ -8933,7 +8941,7 @@
       <c r="G77" s="39"/>
       <c r="H77" s="39"/>
     </row>
-    <row r="78" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17">
       <c r="A78" s="30"/>
       <c r="B78" s="30" t="s">
         <v>21</v>
@@ -8962,7 +8970,7 @@
       <c r="N78" s="3"/>
       <c r="P78" s="40"/>
     </row>
-    <row r="79" spans="1:17" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" s="43" customFormat="1">
       <c r="B79" s="43" t="s">
         <v>21</v>
       </c>
@@ -9000,7 +9008,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17">
       <c r="A80" s="30"/>
       <c r="B80" s="30" t="s">
         <v>21</v>
@@ -9026,7 +9034,7 @@
       <c r="N80" s="3"/>
       <c r="P80" s="40"/>
     </row>
-    <row r="81" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17">
       <c r="A81" s="30"/>
       <c r="B81" s="30" t="s">
         <v>21</v>
@@ -9052,7 +9060,7 @@
       <c r="N81" s="3"/>
       <c r="P81" s="40"/>
     </row>
-    <row r="82" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17">
       <c r="A82" s="30"/>
       <c r="B82" s="30" t="s">
         <v>21</v>
@@ -9078,7 +9086,7 @@
       <c r="N82" s="3"/>
       <c r="P82" s="40"/>
     </row>
-    <row r="83" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17">
       <c r="A83" s="30"/>
       <c r="B83" s="30" t="s">
         <v>21</v>
@@ -9104,7 +9112,7 @@
       <c r="N83" s="3"/>
       <c r="P83" s="40"/>
     </row>
-    <row r="84" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17">
       <c r="A84" s="30"/>
       <c r="B84" s="30" t="s">
         <v>21</v>
@@ -9130,7 +9138,7 @@
       <c r="N84" s="3"/>
       <c r="P84" s="40"/>
     </row>
-    <row r="85" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17">
       <c r="A85" s="30"/>
       <c r="B85" s="30" t="s">
         <v>21</v>
@@ -9156,7 +9164,7 @@
       <c r="N85" s="3"/>
       <c r="P85" s="40"/>
     </row>
-    <row r="86" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17">
       <c r="A86" s="30"/>
       <c r="B86" s="30" t="s">
         <v>21</v>
@@ -9182,7 +9190,7 @@
       <c r="N86" s="3"/>
       <c r="P86" s="40"/>
     </row>
-    <row r="87" spans="1:17" s="49" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" s="49" customFormat="1">
       <c r="A87" s="49" t="b">
         <v>1</v>
       </c>
@@ -9206,7 +9214,7 @@
       <c r="O87" s="51"/>
       <c r="Q87" s="52"/>
     </row>
-    <row r="88" spans="1:17" s="49" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" s="49" customFormat="1">
       <c r="A88" s="49" t="b">
         <v>1</v>
       </c>
@@ -9230,7 +9238,7 @@
       <c r="O88" s="51"/>
       <c r="Q88" s="52"/>
     </row>
-    <row r="89" spans="1:17" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" s="43" customFormat="1">
       <c r="B89" s="43" t="s">
         <v>22</v>
       </c>
@@ -9265,7 +9273,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="90" spans="1:17" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" s="22" customFormat="1">
       <c r="A90" s="22" t="b">
         <v>1</v>
       </c>
@@ -9282,7 +9290,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="91" spans="1:17" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" s="30" customFormat="1">
       <c r="A91" s="18"/>
       <c r="B91" s="30" t="s">
         <v>21</v>
@@ -9303,7 +9311,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="92" spans="1:17" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" s="43" customFormat="1">
       <c r="B92" s="43" t="s">
         <v>22</v>
       </c>
@@ -9342,7 +9350,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="93" spans="1:17" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" s="30" customFormat="1">
       <c r="B93" s="30" t="s">
         <v>21</v>
       </c>
@@ -9362,7 +9370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:17" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" s="30" customFormat="1">
       <c r="B94" s="30" t="s">
         <v>21</v>
       </c>
@@ -9382,7 +9390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:17" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" s="30" customFormat="1">
       <c r="B95" s="30" t="s">
         <v>21</v>
       </c>
@@ -9402,7 +9410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:17" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" s="30" customFormat="1">
       <c r="B96" s="30" t="s">
         <v>21</v>
       </c>
@@ -9419,7 +9427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:9" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" s="30" customFormat="1">
       <c r="B97" s="30" t="s">
         <v>21</v>
       </c>
@@ -9439,7 +9447,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="2:9" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" s="30" customFormat="1">
       <c r="B98" s="30" t="s">
         <v>21</v>
       </c>
@@ -9459,7 +9467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:9" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" s="30" customFormat="1">
       <c r="B99" s="30" t="s">
         <v>21</v>
       </c>
@@ -9479,407 +9487,407 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9">
       <c r="H100" s="31"/>
       <c r="I100" s="31"/>
     </row>
-    <row r="101" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9">
       <c r="H101" s="31"/>
       <c r="I101" s="31"/>
     </row>
-    <row r="102" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9">
       <c r="H102" s="31"/>
       <c r="I102" s="31"/>
     </row>
-    <row r="103" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9">
       <c r="H103" s="31"/>
       <c r="I103" s="31"/>
     </row>
-    <row r="104" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9">
       <c r="H104" s="31"/>
       <c r="I104" s="31"/>
     </row>
-    <row r="105" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9">
       <c r="H105" s="31"/>
       <c r="I105" s="31"/>
     </row>
-    <row r="106" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9">
       <c r="H106" s="31"/>
       <c r="I106" s="31"/>
     </row>
-    <row r="107" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9">
       <c r="H107" s="31"/>
       <c r="I107" s="31"/>
     </row>
-    <row r="108" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9">
       <c r="H108" s="31"/>
       <c r="I108" s="31"/>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:9">
       <c r="H109" s="31"/>
       <c r="I109" s="31"/>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:9">
       <c r="H110" s="31"/>
       <c r="I110" s="31"/>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:9">
       <c r="H111" s="31"/>
       <c r="I111" s="31"/>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:9">
       <c r="H112" s="31"/>
       <c r="I112" s="31"/>
     </row>
-    <row r="113" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="8:9">
       <c r="H113" s="31"/>
       <c r="I113" s="31"/>
     </row>
-    <row r="114" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="8:9">
       <c r="H114" s="31"/>
       <c r="I114" s="31"/>
     </row>
-    <row r="115" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="8:9">
       <c r="H115" s="31"/>
       <c r="I115" s="31"/>
     </row>
-    <row r="116" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="8:9">
       <c r="H116" s="31"/>
       <c r="I116" s="31"/>
     </row>
-    <row r="117" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="8:9">
       <c r="H117" s="31"/>
       <c r="I117" s="31"/>
     </row>
-    <row r="118" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="8:9">
       <c r="H118" s="31"/>
       <c r="I118" s="31"/>
     </row>
-    <row r="119" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="8:9">
       <c r="H119" s="31"/>
       <c r="I119" s="31"/>
     </row>
-    <row r="120" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="8:9">
       <c r="H120" s="31"/>
       <c r="I120" s="31"/>
     </row>
-    <row r="121" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="8:9">
       <c r="H121" s="31"/>
       <c r="I121" s="31"/>
     </row>
-    <row r="122" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="8:9">
       <c r="H122" s="31"/>
       <c r="I122" s="31"/>
     </row>
-    <row r="123" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="8:9">
       <c r="H123" s="31"/>
       <c r="I123" s="31"/>
     </row>
-    <row r="124" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="8:9">
       <c r="H124" s="31"/>
       <c r="I124" s="31"/>
     </row>
-    <row r="125" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="8:9">
       <c r="H125" s="31"/>
       <c r="I125" s="31"/>
     </row>
-    <row r="126" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="8:9">
       <c r="H126" s="31"/>
       <c r="I126" s="31"/>
     </row>
-    <row r="127" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="8:9">
       <c r="H127" s="31"/>
       <c r="I127" s="31"/>
     </row>
-    <row r="128" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="8:9">
       <c r="H128" s="31"/>
       <c r="I128" s="31"/>
     </row>
-    <row r="129" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="8:9">
       <c r="H129" s="31"/>
       <c r="I129" s="31"/>
     </row>
-    <row r="130" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="8:9">
       <c r="H130" s="31"/>
       <c r="I130" s="31"/>
     </row>
-    <row r="131" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="8:9">
       <c r="H131" s="31"/>
       <c r="I131" s="31"/>
     </row>
-    <row r="132" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="8:9">
       <c r="H132" s="31"/>
       <c r="I132" s="31"/>
     </row>
-    <row r="133" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="8:9">
       <c r="H133" s="31"/>
       <c r="I133" s="31"/>
     </row>
-    <row r="134" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="8:9">
       <c r="H134" s="31"/>
       <c r="I134" s="31"/>
     </row>
-    <row r="135" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="8:9">
       <c r="H135" s="31"/>
       <c r="I135" s="31"/>
     </row>
-    <row r="136" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="8:9">
       <c r="H136" s="31"/>
       <c r="I136" s="31"/>
     </row>
-    <row r="137" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="8:9">
       <c r="H137" s="31"/>
       <c r="I137" s="31"/>
     </row>
-    <row r="138" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="8:9">
       <c r="H138" s="31"/>
       <c r="I138" s="31"/>
     </row>
-    <row r="139" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="8:9">
       <c r="H139" s="31"/>
       <c r="I139" s="31"/>
     </row>
-    <row r="140" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="8:9">
       <c r="H140" s="31"/>
       <c r="I140" s="31"/>
     </row>
-    <row r="141" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="8:9">
       <c r="H141" s="31"/>
       <c r="I141" s="31"/>
     </row>
-    <row r="142" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="8:9">
       <c r="H142" s="31"/>
       <c r="I142" s="31"/>
     </row>
-    <row r="143" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="8:9">
       <c r="H143" s="31"/>
       <c r="I143" s="31"/>
     </row>
-    <row r="144" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="8:9">
       <c r="H144" s="31"/>
       <c r="I144" s="31"/>
     </row>
-    <row r="145" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="8:9">
       <c r="H145" s="31"/>
       <c r="I145" s="31"/>
     </row>
-    <row r="146" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="8:9">
       <c r="H146" s="31"/>
       <c r="I146" s="31"/>
     </row>
-    <row r="147" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="8:9">
       <c r="H147" s="31"/>
       <c r="I147" s="31"/>
     </row>
-    <row r="148" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="8:9">
       <c r="H148" s="31"/>
       <c r="I148" s="31"/>
     </row>
-    <row r="149" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="8:9">
       <c r="H149" s="31"/>
       <c r="I149" s="31"/>
     </row>
-    <row r="150" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="8:9">
       <c r="H150" s="31"/>
       <c r="I150" s="31"/>
     </row>
-    <row r="151" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="8:9">
       <c r="H151" s="31"/>
       <c r="I151" s="31"/>
     </row>
-    <row r="152" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="8:9">
       <c r="H152" s="31"/>
       <c r="I152" s="31"/>
     </row>
-    <row r="153" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="8:9">
       <c r="H153" s="31"/>
       <c r="I153" s="31"/>
     </row>
-    <row r="154" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="8:9">
       <c r="H154" s="31"/>
       <c r="I154" s="31"/>
     </row>
-    <row r="155" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="8:9">
       <c r="H155" s="31"/>
       <c r="I155" s="31"/>
     </row>
-    <row r="156" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="8:9">
       <c r="H156" s="31"/>
       <c r="I156" s="31"/>
     </row>
-    <row r="157" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="8:9">
       <c r="H157" s="31"/>
       <c r="I157" s="31"/>
     </row>
-    <row r="158" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="8:9">
       <c r="H158" s="31"/>
       <c r="I158" s="31"/>
     </row>
-    <row r="159" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="8:9">
       <c r="H159" s="31"/>
       <c r="I159" s="31"/>
     </row>
-    <row r="160" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="8:9">
       <c r="H160" s="31"/>
       <c r="I160" s="31"/>
     </row>
-    <row r="161" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="8:9">
       <c r="H161" s="31"/>
       <c r="I161" s="31"/>
     </row>
-    <row r="162" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="8:9">
       <c r="H162" s="31"/>
       <c r="I162" s="31"/>
     </row>
-    <row r="163" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="8:9">
       <c r="H163" s="31"/>
       <c r="I163" s="31"/>
     </row>
-    <row r="164" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="8:9">
       <c r="H164" s="31"/>
       <c r="I164" s="31"/>
     </row>
-    <row r="165" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="8:9">
       <c r="H165" s="31"/>
       <c r="I165" s="31"/>
     </row>
-    <row r="166" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="8:9">
       <c r="H166" s="31"/>
       <c r="I166" s="31"/>
     </row>
-    <row r="167" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="8:9">
       <c r="H167" s="31"/>
       <c r="I167" s="31"/>
     </row>
-    <row r="168" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="8:9">
       <c r="H168" s="31"/>
       <c r="I168" s="31"/>
     </row>
-    <row r="169" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="8:9">
       <c r="H169" s="31"/>
       <c r="I169" s="31"/>
     </row>
-    <row r="170" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="8:9">
       <c r="H170" s="31"/>
       <c r="I170" s="31"/>
     </row>
-    <row r="171" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="8:9">
       <c r="H171" s="31"/>
       <c r="I171" s="31"/>
     </row>
-    <row r="172" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="8:9">
       <c r="H172" s="31"/>
       <c r="I172" s="31"/>
     </row>
-    <row r="173" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="8:9">
       <c r="H173" s="31"/>
       <c r="I173" s="31"/>
     </row>
-    <row r="174" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="8:9">
       <c r="H174" s="31"/>
       <c r="I174" s="31"/>
     </row>
-    <row r="175" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="8:9">
       <c r="H175" s="31"/>
       <c r="I175" s="31"/>
     </row>
-    <row r="176" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="8:9">
       <c r="H176" s="31"/>
       <c r="I176" s="31"/>
     </row>
-    <row r="177" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="8:9">
       <c r="H177" s="31"/>
       <c r="I177" s="31"/>
     </row>
-    <row r="178" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="8:9">
       <c r="H178" s="31"/>
       <c r="I178" s="31"/>
     </row>
-    <row r="179" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="8:9">
       <c r="H179" s="31"/>
       <c r="I179" s="31"/>
     </row>
-    <row r="180" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="8:9">
       <c r="H180" s="31"/>
       <c r="I180" s="31"/>
     </row>
-    <row r="181" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="8:9">
       <c r="H181" s="31"/>
       <c r="I181" s="31"/>
     </row>
-    <row r="182" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="8:9">
       <c r="H182" s="31"/>
       <c r="I182" s="31"/>
     </row>
-    <row r="183" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="8:9">
       <c r="H183" s="31"/>
       <c r="I183" s="31"/>
     </row>
-    <row r="184" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="8:9">
       <c r="H184" s="31"/>
       <c r="I184" s="31"/>
     </row>
-    <row r="185" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="8:9">
       <c r="H185" s="31"/>
       <c r="I185" s="31"/>
     </row>
-    <row r="186" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="8:9">
       <c r="H186" s="31"/>
       <c r="I186" s="31"/>
     </row>
-    <row r="187" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="8:9">
       <c r="H187" s="31"/>
       <c r="I187" s="31"/>
     </row>
-    <row r="188" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="8:9">
       <c r="H188" s="31"/>
       <c r="I188" s="31"/>
     </row>
-    <row r="189" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="8:9">
       <c r="H189" s="31"/>
       <c r="I189" s="31"/>
     </row>
-    <row r="190" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="8:9">
       <c r="H190" s="31"/>
       <c r="I190" s="31"/>
     </row>
-    <row r="191" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="8:9">
       <c r="H191" s="31"/>
       <c r="I191" s="31"/>
     </row>
-    <row r="192" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="8:9">
       <c r="H192" s="31"/>
       <c r="I192" s="31"/>
     </row>
-    <row r="193" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="8:9">
       <c r="H193" s="31"/>
       <c r="I193" s="31"/>
     </row>
-    <row r="194" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="8:9">
       <c r="H194" s="31"/>
       <c r="I194" s="31"/>
     </row>
-    <row r="195" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="8:9">
       <c r="H195" s="31"/>
       <c r="I195" s="31"/>
     </row>
-    <row r="196" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="8:9">
       <c r="H196" s="31"/>
       <c r="I196" s="31"/>
     </row>
-    <row r="197" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="8:9">
       <c r="H197" s="31"/>
       <c r="I197" s="31"/>
     </row>
-    <row r="198" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="8:9">
       <c r="H198" s="31"/>
       <c r="I198" s="31"/>
     </row>
-    <row r="199" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="8:9">
       <c r="H199" s="31"/>
       <c r="I199" s="31"/>
     </row>
-    <row r="200" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="8:9">
       <c r="H200" s="31"/>
       <c r="I200" s="31"/>
     </row>
@@ -9902,25 +9910,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="29.44140625" style="31" customWidth="1"/>
+    <col min="1" max="2" width="29.5" style="31" customWidth="1"/>
     <col min="3" max="3" width="71" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="31" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.44140625" style="31" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" style="31" customWidth="1"/>
+    <col min="6" max="7" width="10.5" style="31" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="31" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" style="31" customWidth="1"/>
     <col min="10" max="10" width="9.6640625" style="31" customWidth="1"/>
-    <col min="11" max="16384" width="11.44140625" style="31"/>
+    <col min="11" max="16384" width="11.5" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -9935,7 +9943,7 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="15">
       <c r="A2" s="8" t="s">
         <v>459</v>
       </c>
@@ -9970,7 +9978,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="14" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="14" customFormat="1" ht="30">
       <c r="A3" s="14" t="s">
         <v>628</v>
       </c>
@@ -10006,7 +10014,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="A4" s="30" t="s">
         <v>644</v>
       </c>
@@ -10035,7 +10043,7 @@
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5" s="30" t="s">
         <v>645</v>
       </c>
@@ -10065,7 +10073,7 @@
       <c r="K5" s="30"/>
       <c r="L5" s="30"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="A6" s="30" t="s">
         <v>646</v>
       </c>
@@ -10094,7 +10102,7 @@
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="A7" s="30" t="s">
         <v>647</v>
       </c>
@@ -10123,7 +10131,7 @@
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="A8" s="30" t="s">
         <v>707</v>
       </c>
@@ -10151,7 +10159,7 @@
       <c r="K8" s="30"/>
       <c r="L8" s="30"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12">
       <c r="A9" s="30" t="s">
         <v>709</v>
       </c>
@@ -10179,7 +10187,7 @@
       <c r="K9" s="30"/>
       <c r="L9" s="30"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12">
       <c r="A10" s="30" t="s">
         <v>711</v>
       </c>
@@ -10207,7 +10215,7 @@
       <c r="K10" s="30"/>
       <c r="L10" s="30"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12">
       <c r="A11" s="30" t="s">
         <v>712</v>
       </c>
@@ -10235,7 +10243,7 @@
       <c r="K11" s="30"/>
       <c r="L11" s="30"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12">
       <c r="A12" s="30" t="s">
         <v>713</v>
       </c>
@@ -10263,7 +10271,7 @@
       <c r="K12" s="30"/>
       <c r="L12" s="30"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12">
       <c r="A13" s="30" t="s">
         <v>714</v>
       </c>
@@ -10291,7 +10299,7 @@
       <c r="K13" s="30"/>
       <c r="L13" s="30"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12">
       <c r="A14" s="30" t="s">
         <v>715</v>
       </c>
@@ -10319,7 +10327,7 @@
       <c r="K14" s="30"/>
       <c r="L14" s="30"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12">
       <c r="A15" s="30" t="s">
         <v>716</v>
       </c>
@@ -10347,7 +10355,7 @@
       <c r="K15" s="30"/>
       <c r="L15" s="30"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12">
       <c r="A16" s="30" t="s">
         <v>717</v>
       </c>
@@ -10375,7 +10383,7 @@
       <c r="K16" s="30"/>
       <c r="L16" s="30"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="A17" s="30" t="s">
         <v>718</v>
       </c>
@@ -10403,7 +10411,7 @@
       <c r="K17" s="30"/>
       <c r="L17" s="30"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12">
       <c r="A18" s="30" t="s">
         <v>719</v>
       </c>
@@ -10431,7 +10439,7 @@
       <c r="K18" s="30"/>
       <c r="L18" s="30"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12">
       <c r="A19" s="30" t="s">
         <v>720</v>
       </c>
@@ -10459,7 +10467,7 @@
       <c r="K19" s="30"/>
       <c r="L19" s="30"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12">
       <c r="A20" s="30" t="s">
         <v>721</v>
       </c>
@@ -10487,7 +10495,7 @@
       <c r="K20" s="30"/>
       <c r="L20" s="30"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12">
       <c r="A21" s="30" t="s">
         <v>723</v>
       </c>
@@ -10515,7 +10523,7 @@
       <c r="K21" s="30"/>
       <c r="L21" s="30"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12">
       <c r="A22" s="30" t="s">
         <v>722</v>
       </c>
@@ -10543,7 +10551,7 @@
       <c r="K22" s="30"/>
       <c r="L22" s="30"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12">
       <c r="A23" s="30" t="s">
         <v>725</v>
       </c>
@@ -10571,7 +10579,7 @@
       <c r="K23" s="30"/>
       <c r="L23" s="30"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12">
       <c r="A24" s="30" t="s">
         <v>726</v>
       </c>
@@ -10599,7 +10607,7 @@
       <c r="K24" s="30"/>
       <c r="L24" s="30"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12">
       <c r="A25" s="30" t="s">
         <v>727</v>
       </c>
@@ -10627,7 +10635,7 @@
       <c r="K25" s="30"/>
       <c r="L25" s="30"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12">
       <c r="A26" s="30" t="s">
         <v>728</v>
       </c>
@@ -10655,7 +10663,7 @@
       <c r="K26" s="30"/>
       <c r="L26" s="30"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12">
       <c r="A27" s="30" t="s">
         <v>729</v>
       </c>
@@ -10683,7 +10691,7 @@
       <c r="K27" s="30"/>
       <c r="L27" s="30"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12">
       <c r="A28" s="30" t="s">
         <v>730</v>
       </c>
@@ -10711,7 +10719,7 @@
       <c r="K28" s="30"/>
       <c r="L28" s="30"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12">
       <c r="A29" s="30" t="s">
         <v>731</v>
       </c>
@@ -10739,7 +10747,7 @@
       <c r="K29" s="30"/>
       <c r="L29" s="30"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12">
       <c r="A30" s="30" t="s">
         <v>732</v>
       </c>
@@ -10767,49 +10775,49 @@
       <c r="K30" s="30"/>
       <c r="L30" s="30"/>
     </row>
-    <row r="31" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12">
       <c r="A31" s="30"/>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
     </row>
-    <row r="32" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12">
       <c r="A32" s="30"/>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
     </row>
-    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" s="30"/>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
     </row>
-    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="30"/>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
     </row>
-    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" s="30"/>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
     </row>
-    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="30"/>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
     </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" s="30"/>
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
       <c r="D37" s="30"/>
     </row>
-    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" s="30"/>
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
@@ -10834,19 +10842,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="17" t="b">
         <v>0</v>
       </c>
@@ -10865,7 +10873,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
         <v>21</v>
@@ -10886,7 +10894,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
         <v>21</v>
@@ -10909,7 +10917,7 @@
       </c>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>21</v>
@@ -10932,7 +10940,7 @@
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
         <v>21</v>
@@ -10955,7 +10963,7 @@
       </c>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
         <v>21</v>
@@ -10978,7 +10986,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
         <v>21</v>
@@ -11001,7 +11009,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
         <v>21</v>
@@ -11024,7 +11032,7 @@
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
         <v>21</v>
@@ -11047,7 +11055,7 @@
       </c>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="17"/>
       <c r="B10" s="17" t="s">
         <v>21</v>
@@ -11070,7 +11078,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" s="17" t="b">
         <v>0</v>
       </c>
@@ -11089,7 +11097,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
         <v>21</v>
@@ -11110,7 +11118,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
@@ -11133,7 +11141,7 @@
       </c>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
         <v>21</v>
@@ -11156,7 +11164,7 @@
       </c>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15">
       <c r="A15" s="17"/>
       <c r="B15" s="17" t="s">
         <v>21</v>
@@ -11179,7 +11187,7 @@
       </c>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
         <v>21</v>
@@ -11202,7 +11210,7 @@
       </c>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
         <v>21</v>
@@ -11225,7 +11233,7 @@
       </c>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" s="17"/>
       <c r="B18" s="17" t="s">
         <v>21</v>
@@ -11248,7 +11256,7 @@
       </c>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="17"/>
       <c r="B19" s="17" t="s">
         <v>21</v>
@@ -11271,7 +11279,7 @@
       </c>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" s="17"/>
       <c r="B20" s="17" t="s">
         <v>21</v>
@@ -11294,7 +11302,7 @@
       </c>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15">
       <c r="A21" s="17" t="b">
         <v>0</v>
       </c>
@@ -11313,7 +11321,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15">
       <c r="A22" s="17"/>
       <c r="B22" s="17" t="s">
         <v>21</v>
@@ -11336,7 +11344,7 @@
       </c>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15">
       <c r="A23" s="17"/>
       <c r="B23" s="17" t="s">
         <v>21</v>
@@ -11359,7 +11367,7 @@
       </c>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15">
       <c r="A24" s="17"/>
       <c r="B24" s="17" t="s">
         <v>21</v>
@@ -11382,7 +11390,7 @@
       </c>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15">
       <c r="A25" s="17"/>
       <c r="B25" s="17" t="s">
         <v>21</v>
@@ -11405,7 +11413,7 @@
       </c>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15">
       <c r="A26" s="17"/>
       <c r="B26" s="17" t="s">
         <v>21</v>
@@ -11428,7 +11436,7 @@
       </c>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15">
       <c r="A27" s="17"/>
       <c r="B27" s="17" t="s">
         <v>21</v>
@@ -11451,7 +11459,7 @@
       </c>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
         <v>21</v>
@@ -11474,7 +11482,7 @@
       </c>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15">
       <c r="A29" s="17"/>
       <c r="B29" s="17" t="s">
         <v>21</v>
@@ -11497,7 +11505,7 @@
       </c>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15">
       <c r="A30" s="17"/>
       <c r="B30" s="17" t="s">
         <v>21</v>
@@ -11520,7 +11528,7 @@
       </c>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15">
       <c r="A31" s="17" t="b">
         <v>0</v>
       </c>
@@ -11539,7 +11547,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" s="17"/>
       <c r="B32" s="17" t="s">
         <v>21</v>
@@ -11560,7 +11568,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15">
       <c r="A33" s="17"/>
       <c r="B33" s="17" t="s">
         <v>21</v>
@@ -11583,7 +11591,7 @@
       </c>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15">
       <c r="A34" s="17"/>
       <c r="B34" s="17" t="s">
         <v>21</v>
@@ -11606,7 +11614,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
         <v>21</v>
@@ -11629,7 +11637,7 @@
       </c>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
         <v>21</v>
@@ -11652,7 +11660,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
         <v>21</v>
@@ -11675,7 +11683,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
         <v>21</v>
@@ -11698,7 +11706,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15">
       <c r="A39" s="17"/>
       <c r="B39" s="17" t="s">
         <v>21</v>
@@ -11721,7 +11729,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
         <v>21</v>
@@ -11744,7 +11752,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="15">
       <c r="A41" s="17" t="b">
         <v>0</v>
       </c>
@@ -11763,7 +11771,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="15">
       <c r="A42" s="17"/>
       <c r="B42" s="17" t="s">
         <v>21</v>
@@ -11784,7 +11792,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="15">
       <c r="A43" s="17"/>
       <c r="B43" s="17" t="s">
         <v>21</v>
@@ -11807,7 +11815,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="15">
       <c r="A44" s="17"/>
       <c r="B44" s="17" t="s">
         <v>21</v>
@@ -11830,7 +11838,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15">
       <c r="A45" s="17"/>
       <c r="B45" s="17" t="s">
         <v>21</v>
@@ -11853,7 +11861,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>21</v>
@@ -11876,7 +11884,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>21</v>
@@ -11899,7 +11907,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>21</v>
@@ -11922,7 +11930,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>21</v>
@@ -11945,7 +11953,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>21</v>
@@ -11968,7 +11976,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -11987,7 +11995,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>21</v>
@@ -12008,7 +12016,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>21</v>
@@ -12031,7 +12039,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>21</v>
@@ -12054,7 +12062,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>21</v>
@@ -12077,7 +12085,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="15">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>21</v>
@@ -12100,7 +12108,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="15">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>21</v>
@@ -12123,7 +12131,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="15">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>21</v>
@@ -12146,7 +12154,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="15">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>21</v>
@@ -12169,7 +12177,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="15">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>21</v>
@@ -12192,7 +12200,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="15">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -12211,7 +12219,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="15">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>21</v>
@@ -12232,7 +12240,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="15">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>21</v>
@@ -12257,7 +12265,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="15">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>21</v>
@@ -12280,7 +12288,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="15">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>21</v>
@@ -12303,7 +12311,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="15">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>21</v>
@@ -12326,7 +12334,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="15">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>21</v>
@@ -12349,7 +12357,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="15">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>21</v>
@@ -12372,7 +12380,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="15">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>21</v>
@@ -12395,7 +12403,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="15">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>21</v>
@@ -12418,7 +12426,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>21</v>
@@ -12441,7 +12449,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="15">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -12460,7 +12468,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="15">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>21</v>
@@ -12481,7 +12489,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="15">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>21</v>
@@ -12504,7 +12512,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="15">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>21</v>
@@ -12529,7 +12537,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="15">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>21</v>
@@ -12552,7 +12560,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="15">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>21</v>
@@ -12575,7 +12583,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="15">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>21</v>
@@ -12598,7 +12606,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="15">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>21</v>
@@ -12621,7 +12629,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="15">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>21</v>
@@ -12644,7 +12652,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="15">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>21</v>
@@ -12667,7 +12675,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="15">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>21</v>
@@ -12690,7 +12698,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="15">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>21</v>
@@ -12713,7 +12721,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="15">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>21</v>
@@ -12736,7 +12744,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="15">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>21</v>
@@ -12759,7 +12767,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="15">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -12778,7 +12786,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="15">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>21</v>
@@ -12801,7 +12809,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="15">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>21</v>
@@ -12824,7 +12832,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="15">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>21</v>
@@ -12847,7 +12855,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="15">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>21</v>
@@ -12870,7 +12878,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="15">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>21</v>
@@ -12893,7 +12901,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="15">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>21</v>
@@ -12916,7 +12924,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="15">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>21</v>
@@ -12939,7 +12947,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="15">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>21</v>
@@ -12962,7 +12970,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="15">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>21</v>
@@ -12985,7 +12993,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="15">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>21</v>
@@ -13008,7 +13016,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="15">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -13027,7 +13035,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="15">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>21</v>
@@ -13052,7 +13060,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="15">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -13071,7 +13079,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="15">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>21</v>
@@ -13092,7 +13100,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="15">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>21</v>
@@ -13117,7 +13125,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="15">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -13136,7 +13144,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="15">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>21</v>
@@ -13159,7 +13167,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="15">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>21</v>
@@ -13184,7 +13192,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="15">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>21</v>
@@ -13207,7 +13215,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="15">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>21</v>
@@ -13228,7 +13236,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="15">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -13247,7 +13255,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="15">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>21</v>
@@ -13272,7 +13280,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="15">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>21</v>
@@ -13295,7 +13303,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="15">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>21</v>
@@ -13318,7 +13326,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="15">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>21</v>
@@ -13341,7 +13349,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="15">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>21</v>
@@ -13364,7 +13372,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="15">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>21</v>
@@ -13387,7 +13395,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="15">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>21</v>
@@ -13410,7 +13418,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="15">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -13429,7 +13437,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="15">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>21</v>
@@ -13452,7 +13460,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="15">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>21</v>
@@ -13475,7 +13483,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="15">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>21</v>
@@ -13498,7 +13506,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="15">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -13517,7 +13525,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="15">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>21</v>
@@ -13540,7 +13548,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="15">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>21</v>
@@ -13563,7 +13571,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="15">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>21</v>
@@ -13586,7 +13594,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="15">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>21</v>
@@ -13609,7 +13617,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="15">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>21</v>
@@ -13632,7 +13640,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="15">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>21</v>
@@ -13655,7 +13663,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="15">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -13674,7 +13682,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="15">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>21</v>
@@ -13699,7 +13707,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="15">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>21</v>
@@ -13722,7 +13730,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="15">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>21</v>
@@ -13745,7 +13753,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="15">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>21</v>
@@ -13768,7 +13776,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="15">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>21</v>
@@ -13791,7 +13799,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="15">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>21</v>
@@ -13814,7 +13822,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="15">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>21</v>
@@ -13837,7 +13845,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="15">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>21</v>
@@ -13860,7 +13868,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="15">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>21</v>
@@ -13883,7 +13891,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="15">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -13902,7 +13910,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="15">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>21</v>
@@ -13927,7 +13935,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="15">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>21</v>
@@ -13948,7 +13956,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="15">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>21</v>
@@ -13971,7 +13979,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="15">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>21</v>
@@ -13994,7 +14002,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="15">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>21</v>
@@ -14017,7 +14025,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="15">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>21</v>
@@ -14040,7 +14048,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="15">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>21</v>
@@ -14063,7 +14071,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="15">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>21</v>
@@ -14086,7 +14094,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="15">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>21</v>
@@ -14109,7 +14117,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="15">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>21</v>
@@ -14132,7 +14140,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="15">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>21</v>
@@ -14155,7 +14163,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="15">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>21</v>
@@ -14178,7 +14186,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="15">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>21</v>
@@ -14201,7 +14209,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" ht="15">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>21</v>
@@ -14224,7 +14232,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="15">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -14243,7 +14251,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="15">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>21</v>
@@ -14266,7 +14274,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" ht="15">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -14285,7 +14293,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="15">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>21</v>
@@ -14308,7 +14316,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" ht="15">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>21</v>
@@ -14331,7 +14339,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="15">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -14350,7 +14358,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="15">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>21</v>
@@ -14375,7 +14383,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="15">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>21</v>
@@ -14398,7 +14406,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="15">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>21</v>
@@ -14421,7 +14429,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="15">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>21</v>
@@ -14444,7 +14452,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="15">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>21</v>
@@ -14467,7 +14475,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="15">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>21</v>
@@ -14490,7 +14498,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="15">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>21</v>
@@ -14513,7 +14521,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="15">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>21</v>
@@ -14536,7 +14544,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="15">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>21</v>
@@ -14559,7 +14567,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="15">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>21</v>
@@ -14582,7 +14590,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="15">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -14601,7 +14609,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" ht="15">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>21</v>
@@ -14626,7 +14634,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="15">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>21</v>
@@ -14649,7 +14657,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="15">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>21</v>
@@ -14672,7 +14680,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="15">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>21</v>
@@ -14695,7 +14703,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="15">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>21</v>
@@ -14718,7 +14726,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" ht="15">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>21</v>
@@ -14741,7 +14749,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" ht="15">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>21</v>
@@ -14764,7 +14772,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" ht="15">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>21</v>
@@ -14787,7 +14795,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="15">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>21</v>
@@ -14810,7 +14818,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="15">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>21</v>
@@ -14833,7 +14841,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="15">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -14852,7 +14860,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" ht="15">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>21</v>
@@ -14875,7 +14883,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" ht="15">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>21</v>
@@ -14898,7 +14906,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" ht="15">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>21</v>
@@ -14921,7 +14929,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="15">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>21</v>
@@ -14944,7 +14952,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" ht="15">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -14963,7 +14971,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="15">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>21</v>
@@ -14986,7 +14994,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="15">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>21</v>
@@ -15009,7 +15017,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="15">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>21</v>
@@ -15032,7 +15040,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="15">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>21</v>
@@ -15055,7 +15063,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="15">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -15074,7 +15082,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="15">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>21</v>
@@ -15095,7 +15103,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="15">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>21</v>
@@ -15118,7 +15126,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" ht="15">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -15137,7 +15145,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="15">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>21</v>
@@ -15160,7 +15168,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="15">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>21</v>
@@ -15185,7 +15193,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="15">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>21</v>
@@ -15206,7 +15214,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="15">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>21</v>
@@ -15231,7 +15239,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="15">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>21</v>
@@ -15256,7 +15264,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="15">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -15275,7 +15283,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="15">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>21</v>
@@ -15300,7 +15308,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="15">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>21</v>
@@ -15323,7 +15331,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="15">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>21</v>
@@ -15346,7 +15354,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="15">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>21</v>
@@ -15369,7 +15377,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="15">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>21</v>
@@ -15392,7 +15400,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="15">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>21</v>
@@ -15415,7 +15423,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" ht="15">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>21</v>
@@ -15438,7 +15446,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="15">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>21</v>
@@ -15461,7 +15469,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="15">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>21</v>
@@ -15484,7 +15492,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="15">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -15503,7 +15511,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="15">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>21</v>
@@ -15528,7 +15536,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" ht="15">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>21</v>
@@ -15551,7 +15559,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" ht="15">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>21</v>
@@ -15574,7 +15582,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="15">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>21</v>
@@ -15597,7 +15605,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="15">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>21</v>
@@ -15620,7 +15628,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" ht="15">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>21</v>
@@ -15643,7 +15651,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="15">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>21</v>
@@ -15666,7 +15674,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" ht="15">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>21</v>
@@ -15689,7 +15697,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="15">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>21</v>
@@ -15712,7 +15720,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" ht="15">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -15731,7 +15739,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" ht="15">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>21</v>
@@ -15752,7 +15760,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" ht="15">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>21</v>
@@ -15775,7 +15783,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" ht="15">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>21</v>
@@ -15798,7 +15806,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" ht="15">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>21</v>
@@ -15821,7 +15829,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" ht="15">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>21</v>
@@ -15844,7 +15852,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" ht="15">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>21</v>
@@ -15867,7 +15875,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" ht="15">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>21</v>
@@ -15890,7 +15898,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" ht="15">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>21</v>
@@ -15913,7 +15921,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" ht="15">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>21</v>
@@ -15936,7 +15944,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="15">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>21</v>
@@ -15959,7 +15967,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" ht="15">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>21</v>
@@ -15982,7 +15990,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" ht="15">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>21</v>
@@ -16005,7 +16013,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" ht="15">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>21</v>
@@ -16028,7 +16036,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" ht="15">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>21</v>
@@ -16051,7 +16059,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="15">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>21</v>
@@ -16074,7 +16082,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" ht="15">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>21</v>
@@ -16097,7 +16105,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" ht="15">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -16116,7 +16124,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" ht="15">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>21</v>
@@ -16137,7 +16145,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" ht="15">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>21</v>
@@ -16160,7 +16168,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" ht="15">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>21</v>
@@ -16183,7 +16191,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" ht="15">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>21</v>
@@ -16206,7 +16214,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" ht="15">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>21</v>
@@ -16229,7 +16237,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" ht="15">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>21</v>
@@ -16252,7 +16260,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="15">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>21</v>
@@ -16275,7 +16283,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" ht="15">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>21</v>
@@ -16298,7 +16306,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="15">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>21</v>
@@ -16321,7 +16329,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" ht="15">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>21</v>
@@ -16344,7 +16352,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" ht="15">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>21</v>
@@ -16367,7 +16375,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" ht="15">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>21</v>
@@ -16390,7 +16398,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" ht="15">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>21</v>
@@ -16413,7 +16421,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" ht="15">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>21</v>
@@ -16436,7 +16444,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" ht="15">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>21</v>
@@ -16459,7 +16467,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" ht="15">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>21</v>
@@ -16482,7 +16490,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" ht="15">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -16501,7 +16509,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" ht="15">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>21</v>
@@ -16526,7 +16534,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" ht="15">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>21</v>
@@ -16549,7 +16557,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" ht="15">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>21</v>
@@ -16572,7 +16580,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" ht="15">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>21</v>
@@ -16595,7 +16603,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" ht="15">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>21</v>
@@ -16618,7 +16626,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" ht="15">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -16637,7 +16645,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" ht="15">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>21</v>
@@ -16662,7 +16670,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" ht="15">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>21</v>
@@ -16685,7 +16693,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" ht="15">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -16704,7 +16712,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" ht="15">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -16723,7 +16731,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" ht="15">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -16742,7 +16750,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" ht="15">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>21</v>
@@ -16763,7 +16771,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" ht="15">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>21</v>
@@ -16786,7 +16794,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" ht="15">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>21</v>
@@ -16809,7 +16817,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" ht="15">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>21</v>
@@ -16832,7 +16840,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" ht="15">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>21</v>
@@ -16855,7 +16863,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" ht="15">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>21</v>
@@ -16878,7 +16886,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" ht="15">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>21</v>
@@ -16901,7 +16909,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" ht="15">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>21</v>
@@ -16924,7 +16932,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" ht="15">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>21</v>
@@ -16947,7 +16955,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" ht="15">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>21</v>
@@ -16970,7 +16978,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" ht="15">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>21</v>
@@ -16993,7 +17001,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" ht="15">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -17012,7 +17020,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" ht="15">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>21</v>
@@ -17035,7 +17043,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="15">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -17054,7 +17062,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" ht="15">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>21</v>
@@ -17079,7 +17087,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" ht="15">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>21</v>
@@ -17102,7 +17110,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" ht="15">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>21</v>
@@ -17125,7 +17133,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" ht="15">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>21</v>
@@ -17148,7 +17156,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" ht="15">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>21</v>
@@ -17171,7 +17179,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" ht="15">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>21</v>
@@ -17194,7 +17202,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" ht="15">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>21</v>
@@ -17217,7 +17225,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" ht="15">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>21</v>
@@ -17240,7 +17248,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="15">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>21</v>
@@ -17263,7 +17271,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" ht="15">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>21</v>
@@ -17286,7 +17294,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" ht="15">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>21</v>
@@ -17309,7 +17317,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" ht="15">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -17328,7 +17336,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" ht="15">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>21</v>
@@ -17351,7 +17359,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" ht="15">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -17370,7 +17378,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" ht="15">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>21</v>
@@ -17391,7 +17399,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" ht="15">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -17410,7 +17418,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="15">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>21</v>
@@ -17431,7 +17439,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" ht="15">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -17450,7 +17458,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" ht="15">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>21</v>
@@ -17471,7 +17479,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" ht="15">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -17490,7 +17498,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" ht="15">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>21</v>
@@ -17513,7 +17521,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" ht="15">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -17532,7 +17540,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" ht="15">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>21</v>
@@ -17557,7 +17565,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" ht="15">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>21</v>
@@ -17580,7 +17588,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" ht="15">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>21</v>
@@ -17603,7 +17611,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" ht="15">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>21</v>
@@ -17626,7 +17634,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" ht="15">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>21</v>
@@ -17649,7 +17657,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" ht="15">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>21</v>
@@ -17672,7 +17680,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" ht="15">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>21</v>
@@ -17695,7 +17703,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" ht="15">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>21</v>
@@ -17718,7 +17726,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" ht="15">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>21</v>
@@ -17741,7 +17749,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" ht="15">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -17760,7 +17768,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="15">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>21</v>
@@ -17783,7 +17791,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" ht="15">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>21</v>
@@ -17806,7 +17814,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" ht="15">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>21</v>
@@ -17829,7 +17837,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" ht="15">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>21</v>
@@ -17852,7 +17860,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" ht="15">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -17871,7 +17879,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" ht="15">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>21</v>
@@ -17894,7 +17902,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" ht="15">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>21</v>
@@ -17917,7 +17925,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" ht="15">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>21</v>
@@ -17942,7 +17950,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" ht="15">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -17961,7 +17969,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" ht="15">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>21</v>
@@ -17986,7 +17994,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" ht="15">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>21</v>
@@ -18009,7 +18017,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" ht="15">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -18028,7 +18036,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" ht="15">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>21</v>
@@ -18049,7 +18057,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" ht="15">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>21</v>
@@ -18070,7 +18078,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" ht="15">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>21</v>
@@ -18093,7 +18101,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="15">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -18112,7 +18120,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" ht="15">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -18131,7 +18139,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" ht="15">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>21</v>
@@ -18156,7 +18164,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" ht="15">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>21</v>
@@ -18181,7 +18189,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -18195,7 +18203,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9">
       <c r="B329" t="s">
         <v>21</v>
       </c>
@@ -18218,7 +18226,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9">
       <c r="B330" t="s">
         <v>21</v>
       </c>
@@ -18238,7 +18246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9">
       <c r="B331" t="s">
         <v>21</v>
       </c>
@@ -18258,7 +18266,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9">
       <c r="B332" t="s">
         <v>21</v>
       </c>
@@ -18278,7 +18286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9">
       <c r="B333" t="s">
         <v>21</v>
       </c>
@@ -18295,7 +18303,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9">
       <c r="B334" t="s">
         <v>21</v>
       </c>
@@ -18318,7 +18326,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9">
       <c r="B335" t="s">
         <v>21</v>
       </c>
@@ -18341,7 +18349,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -18355,7 +18363,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:16">
       <c r="B337" t="s">
         <v>21</v>
       </c>
@@ -18378,7 +18386,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:16">
       <c r="B338" t="s">
         <v>21</v>
       </c>
@@ -18401,7 +18409,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:16">
       <c r="B339" t="s">
         <v>21</v>
       </c>
@@ -18421,7 +18429,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:16">
       <c r="B340" t="s">
         <v>21</v>
       </c>
@@ -18441,7 +18449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:16">
       <c r="B341" t="s">
         <v>21</v>
       </c>
@@ -18458,7 +18466,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:16">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
@@ -18484,7 +18492,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:16">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>21</v>
@@ -18513,7 +18521,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:16" ht="15">
       <c r="A344" s="17"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -18552,7 +18560,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:16">
       <c r="A345" t="b">
         <v>0</v>
       </c>
@@ -18566,7 +18574,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:16">
       <c r="B346" t="s">
         <v>21</v>
       </c>
@@ -18586,7 +18594,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:16">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -18600,7 +18608,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:16">
       <c r="B348" t="s">
         <v>21</v>
       </c>
@@ -18620,7 +18628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:16">
       <c r="B349" t="s">
         <v>21</v>
       </c>
@@ -18640,7 +18648,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:16">
       <c r="B350" t="s">
         <v>21</v>
       </c>
@@ -18660,7 +18668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:16">
       <c r="B351" t="s">
         <v>21</v>
       </c>
@@ -18680,7 +18688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:16">
       <c r="B352" t="s">
         <v>21</v>
       </c>
@@ -18700,7 +18708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:18">
       <c r="B353" t="s">
         <v>21</v>
       </c>
@@ -18720,7 +18728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:18">
       <c r="B354" t="s">
         <v>21</v>
       </c>
@@ -18740,7 +18748,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:18">
       <c r="B355" t="s">
         <v>21</v>
       </c>
@@ -18760,7 +18768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:18">
       <c r="B356" t="s">
         <v>21</v>
       </c>
@@ -18780,7 +18788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:18">
       <c r="A357" t="b">
         <v>0</v>
       </c>
@@ -18794,7 +18802,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:18">
       <c r="B358" t="s">
         <v>21</v>
       </c>
@@ -18814,7 +18822,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:18">
       <c r="B359" t="s">
         <v>21</v>
       </c>
@@ -18834,7 +18842,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:18" s="1" customFormat="1">
       <c r="A360" t="b">
         <v>0</v>
       </c>
@@ -18850,7 +18858,7 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:18" s="1" customFormat="1">
       <c r="B361" t="s">
         <v>21</v>
       </c>
@@ -18876,7 +18884,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
       <c r="A362" s="17"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -18917,7 +18925,7 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:18">
       <c r="A363" t="b">
         <v>0</v>
       </c>
@@ -18931,7 +18939,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:18">
       <c r="B364" t="s">
         <v>21</v>
       </c>
@@ -18951,7 +18959,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:18">
       <c r="A365" t="b">
         <v>0</v>
       </c>
@@ -18965,7 +18973,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:18">
       <c r="B366" t="s">
         <v>21</v>
       </c>
@@ -19004,17 +19012,17 @@
       <selection activeCell="A17" sqref="A17:A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.44140625" customWidth="1"/>
+    <col min="17" max="17" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>441</v>
       </c>
@@ -19025,7 +19033,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" s="30" customFormat="1">
       <c r="A2" s="30" t="s">
         <v>589</v>
       </c>
@@ -19039,7 +19047,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" s="30" customFormat="1">
       <c r="A3" s="30" t="s">
         <v>592</v>
       </c>
@@ -19053,7 +19061,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" s="30" customFormat="1">
       <c r="A4" s="30" t="s">
         <v>594</v>
       </c>
@@ -19067,7 +19075,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" s="30" customFormat="1">
       <c r="A5" s="30" t="s">
         <v>596</v>
       </c>
@@ -19081,7 +19089,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" s="30" customFormat="1">
       <c r="A6" s="30" t="s">
         <v>598</v>
       </c>
@@ -19095,7 +19103,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" s="30" customFormat="1">
       <c r="A7" s="30" t="s">
         <v>440</v>
       </c>
@@ -19109,7 +19117,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" s="30" customFormat="1">
       <c r="A8" s="30" t="s">
         <v>601</v>
       </c>
@@ -19123,7 +19131,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" s="30" customFormat="1">
       <c r="A9" s="30" t="s">
         <v>603</v>
       </c>
@@ -19137,7 +19145,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>569</v>
       </c>
@@ -19151,7 +19159,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>454</v>
       </c>
@@ -19165,7 +19173,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>452</v>
       </c>
@@ -19176,8 +19184,8 @@
         <v>544</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" s="30" customFormat="1"/>
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>547</v>
       </c>
@@ -19203,7 +19211,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>548</v>
       </c>
@@ -19244,7 +19252,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -19285,7 +19293,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>542</v>
       </c>
@@ -19317,7 +19325,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>550</v>
       </c>
@@ -19349,7 +19357,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>549</v>
       </c>
@@ -19378,7 +19386,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>551</v>
       </c>
@@ -19410,7 +19418,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>552</v>
       </c>
@@ -19430,7 +19438,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
         <v>682</v>
       </c>
@@ -19453,7 +19461,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17">
       <c r="L25" s="1" t="s">
         <v>558</v>
       </c>
@@ -19464,7 +19472,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17">
       <c r="L26" s="1" t="s">
         <v>539</v>
       </c>
@@ -19472,7 +19480,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17">
       <c r="L27" s="1" t="s">
         <v>541</v>
       </c>

--- a/projects/office_ee.xlsx
+++ b/projects/office_ee.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23260" windowHeight="13180" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23265" windowHeight="13185" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Outputs!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$Z$127</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$Z$126</definedName>
     <definedName name="AnalysisType">Lookups!$A$17:$A$23</definedName>
     <definedName name="instance_defs">Lookups!$A$2:$D$9</definedName>
     <definedName name="instance_types">Lookups!$A$2:$A$9</definedName>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2585" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2574" uniqueCount="839">
   <si>
     <t>type</t>
   </si>
@@ -2476,30 +2476,6 @@
     <t>LPD to Lamps</t>
   </si>
   <si>
-    <t>Swap All Lights For New Definition</t>
-  </si>
-  <si>
-    <t>SwapAllLightsForNewDefinition</t>
-  </si>
-  <si>
-    <t>Choose a Lighting Fixture Type</t>
-  </si>
-  <si>
-    <t>lightsDef</t>
-  </si>
-  <si>
-    <t>Fluorescent</t>
-  </si>
-  <si>
-    <t>|Incandescent,Fluorescent,LED|</t>
-  </si>
-  <si>
-    <t>discrete_uncertain</t>
-  </si>
-  <si>
-    <t>['Incandescent','Fluorescent','LED']</t>
-  </si>
-  <si>
     <t>../Cofee-measures</t>
   </si>
   <si>
@@ -2576,6 +2552,12 @@
   </si>
   <si>
     <t>calibration_reports.gas_bill_2_period_9_consumption_modeled</t>
+  </si>
+  <si>
+    <t>ReplaceAllT12Lampswith25WT8Lamps</t>
+  </si>
+  <si>
+    <t>Replace All T12 Lamps with 25W T8 Lamps</t>
   </si>
 </sst>
 </file>
@@ -6793,17 +6775,17 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="81.83203125" customWidth="1"/>
+    <col min="1" max="1" width="81.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="28">
+    <row r="1" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="28">
+    <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>41</v>
       </c>
@@ -6823,21 +6805,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.1640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.6640625" style="1"/>
+    <col min="4" max="4" width="33.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="61.7109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="19"/>
       <c r="B1" s="28"/>
       <c r="C1" s="19"/>
@@ -6846,7 +6828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1">
+    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>435</v>
       </c>
@@ -6855,7 +6837,7 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>436</v>
       </c>
@@ -6866,7 +6848,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>456</v>
       </c>
@@ -6877,7 +6859,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="42">
+    <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>469</v>
       </c>
@@ -6888,7 +6870,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="46" customHeight="1">
+    <row r="6" spans="1:5" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>470</v>
       </c>
@@ -6899,7 +6881,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>442</v>
       </c>
@@ -6918,7 +6900,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>443</v>
       </c>
@@ -6937,7 +6919,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>458</v>
       </c>
@@ -6950,7 +6932,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="12" customFormat="1">
+    <row r="11" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>28</v>
       </c>
@@ -6959,7 +6941,7 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
@@ -6970,29 +6952,29 @@
         <v>471</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="E14" s="31" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>462</v>
       </c>
@@ -7003,7 +6985,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>463</v>
       </c>
@@ -7014,7 +6996,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>464</v>
       </c>
@@ -7025,7 +7007,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>466</v>
       </c>
@@ -7036,7 +7018,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="42">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>27</v>
       </c>
@@ -7049,7 +7031,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>451</v>
       </c>
@@ -7057,11 +7039,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="31" customFormat="1">
+    <row r="22" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="26"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="42">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>450</v>
       </c>
@@ -7078,7 +7060,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
         <v>570</v>
       </c>
@@ -7090,7 +7072,7 @@
       </c>
       <c r="D24" s="35"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
         <v>4</v>
       </c>
@@ -7102,56 +7084,56 @@
       </c>
       <c r="D25" s="35"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="31"/>
       <c r="B26" s="29"/>
       <c r="C26" s="30"/>
       <c r="D26" s="35"/>
     </row>
-    <row r="27" spans="1:5" s="31" customFormat="1">
+    <row r="27" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
       <c r="D27" s="35"/>
     </row>
-    <row r="28" spans="1:5" s="31" customFormat="1">
+    <row r="28" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="30"/>
       <c r="D28" s="35"/>
     </row>
-    <row r="29" spans="1:5" s="31" customFormat="1">
+    <row r="29" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="30"/>
       <c r="D29" s="35"/>
     </row>
-    <row r="30" spans="1:5" s="31" customFormat="1">
+    <row r="30" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="26"/>
       <c r="C30" s="34"/>
       <c r="D30" s="35"/>
     </row>
-    <row r="31" spans="1:5" s="31" customFormat="1">
+    <row r="31" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="26"/>
       <c r="C31" s="34"/>
       <c r="D31" s="35"/>
     </row>
-    <row r="32" spans="1:5" s="31" customFormat="1">
+    <row r="32" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="26"/>
       <c r="C32" s="34"/>
       <c r="D32" s="35"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="31"/>
       <c r="C33" s="34"/>
       <c r="D33" s="35"/>
     </row>
-    <row r="34" spans="1:5" s="31" customFormat="1">
+    <row r="34" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="26"/>
       <c r="C34" s="34"/>
       <c r="D34" s="35"/>
     </row>
-    <row r="35" spans="1:5" s="31" customFormat="1">
+    <row r="35" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="26"/>
       <c r="C35" s="26"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="28">
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>33</v>
       </c>
@@ -7164,7 +7146,7 @@
       <c r="D36" s="11"/>
       <c r="E36" s="13"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
@@ -7172,7 +7154,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="28">
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>30</v>
       </c>
@@ -7189,7 +7171,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="31" customFormat="1">
+    <row r="40" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="31" t="s">
         <v>32</v>
       </c>
@@ -7201,7 +7183,7 @@
       </c>
       <c r="E40" s="2"/>
     </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" ht="56">
+    <row r="42" spans="1:5" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>35</v>
       </c>
@@ -7216,7 +7198,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="31" t="s">
         <v>786</v>
       </c>
@@ -7224,10 +7206,10 @@
         <v>787</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="31" customFormat="1">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="26"/>
       <c r="D44" s="2"/>
     </row>
@@ -7255,39 +7237,39 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y200"/>
+  <dimension ref="A1:Y199"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I89" sqref="I89"/>
+      <selection pane="bottomLeft" activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="31" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="31" customWidth="1"/>
     <col min="2" max="2" width="47" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="31" customWidth="1"/>
-    <col min="4" max="4" width="39.1640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="24.1640625" style="31" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="31" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.1640625" style="31" customWidth="1"/>
-    <col min="11" max="11" width="8.1640625" style="31" customWidth="1"/>
-    <col min="12" max="12" width="6.6640625" style="31" customWidth="1"/>
-    <col min="13" max="14" width="7.83203125" style="31" customWidth="1"/>
-    <col min="15" max="15" width="11.5" style="31"/>
-    <col min="16" max="16" width="11.5" style="31" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="31" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="31" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" style="31" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" style="31" customWidth="1"/>
+    <col min="12" max="12" width="6.7109375" style="31" customWidth="1"/>
+    <col min="13" max="14" width="7.85546875" style="31" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" style="31"/>
+    <col min="16" max="16" width="11.42578125" style="31" customWidth="1"/>
     <col min="17" max="17" width="23" style="31" customWidth="1"/>
-    <col min="18" max="18" width="27.6640625" style="31" customWidth="1"/>
-    <col min="19" max="19" width="46.1640625" style="31" customWidth="1"/>
-    <col min="20" max="22" width="11.5" style="31"/>
-    <col min="23" max="23" width="13.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="11.5" style="31"/>
+    <col min="18" max="18" width="27.7109375" style="31" customWidth="1"/>
+    <col min="19" max="19" width="46.140625" style="31" customWidth="1"/>
+    <col min="20" max="22" width="11.42578125" style="31"/>
+    <col min="23" max="23" width="13.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="11.42578125" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18">
+    <row r="1" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7322,7 +7304,7 @@
       <c r="X1" s="53"/>
       <c r="Y1" s="53"/>
     </row>
-    <row r="2" spans="1:25" s="8" customFormat="1" ht="15">
+    <row r="2" spans="1:25" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -7338,7 +7320,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:25" s="14" customFormat="1" ht="45">
+    <row r="3" spans="1:25" s="14" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -7412,7 +7394,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="38" customFormat="1">
+    <row r="4" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="b">
         <v>1</v>
       </c>
@@ -7431,7 +7413,7 @@
       <c r="G4" s="39"/>
       <c r="H4" s="39"/>
     </row>
-    <row r="5" spans="1:25" s="30" customFormat="1">
+    <row r="5" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="30" t="s">
         <v>21</v>
       </c>
@@ -7448,7 +7430,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="6" spans="1:25" s="30" customFormat="1">
+    <row r="6" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="30" t="s">
         <v>21</v>
       </c>
@@ -7465,7 +7447,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="38" customFormat="1">
+    <row r="7" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="b">
         <v>1</v>
       </c>
@@ -7484,7 +7466,7 @@
       <c r="G7" s="39"/>
       <c r="H7" s="39"/>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" s="31" t="s">
         <v>21</v>
       </c>
@@ -7509,7 +7491,7 @@
       <c r="P8" s="40"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" s="31" t="s">
         <v>21</v>
       </c>
@@ -7532,7 +7514,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B10" s="31" t="s">
         <v>21</v>
       </c>
@@ -7550,7 +7532,7 @@
       </c>
       <c r="I10" s="31"/>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B11" s="31" t="s">
         <v>21</v>
       </c>
@@ -7568,7 +7550,7 @@
       </c>
       <c r="I11" s="31"/>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B12" s="31" t="s">
         <v>21</v>
       </c>
@@ -7586,7 +7568,7 @@
       </c>
       <c r="I12" s="31"/>
     </row>
-    <row r="13" spans="1:25" s="38" customFormat="1">
+    <row r="13" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="38" t="b">
         <v>1</v>
       </c>
@@ -7605,7 +7587,7 @@
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
     </row>
-    <row r="14" spans="1:25" s="30" customFormat="1">
+    <row r="14" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="30" t="s">
         <v>21</v>
       </c>
@@ -7625,7 +7607,7 @@
         <v>12717</v>
       </c>
     </row>
-    <row r="15" spans="1:25" s="30" customFormat="1">
+    <row r="15" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="30" t="s">
         <v>21</v>
       </c>
@@ -7642,7 +7624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:25" s="30" customFormat="1">
+    <row r="16" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="30" t="s">
         <v>21</v>
       </c>
@@ -7659,7 +7641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="30" customFormat="1">
+    <row r="17" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="30" t="s">
         <v>21</v>
       </c>
@@ -7679,7 +7661,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="30" customFormat="1">
+    <row r="18" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="30" t="s">
         <v>21</v>
       </c>
@@ -7696,7 +7678,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="30" customFormat="1">
+    <row r="19" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="30" t="s">
         <v>21</v>
       </c>
@@ -7713,7 +7695,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="30" customFormat="1">
+    <row r="20" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="30" t="s">
         <v>21</v>
       </c>
@@ -7730,7 +7712,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="30" customFormat="1">
+    <row r="21" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="30" t="s">
         <v>21</v>
       </c>
@@ -7747,7 +7729,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="30" customFormat="1">
+    <row r="22" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="30" t="s">
         <v>21</v>
       </c>
@@ -7764,7 +7746,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="30" customFormat="1">
+    <row r="23" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="30" t="s">
         <v>21</v>
       </c>
@@ -7781,7 +7763,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="30" customFormat="1">
+    <row r="24" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="30" t="s">
         <v>21</v>
       </c>
@@ -7798,7 +7780,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="30" customFormat="1">
+    <row r="25" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="30" t="s">
         <v>21</v>
       </c>
@@ -7815,7 +7797,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="30" customFormat="1">
+    <row r="26" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="30" t="s">
         <v>21</v>
       </c>
@@ -7832,7 +7814,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="30" customFormat="1">
+    <row r="27" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="30" t="s">
         <v>21</v>
       </c>
@@ -7849,7 +7831,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="30" customFormat="1">
+    <row r="28" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="30" t="s">
         <v>21</v>
       </c>
@@ -7866,7 +7848,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="30" customFormat="1">
+    <row r="29" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="30" t="s">
         <v>21</v>
       </c>
@@ -7883,7 +7865,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="30" customFormat="1">
+    <row r="30" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="30" t="s">
         <v>21</v>
       </c>
@@ -7900,7 +7882,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="38" customFormat="1">
+    <row r="31" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="38" t="b">
         <v>1</v>
       </c>
@@ -7919,7 +7901,7 @@
       <c r="G31" s="39"/>
       <c r="H31" s="39"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" s="31" t="s">
         <v>21</v>
       </c>
@@ -7935,7 +7917,7 @@
       <c r="H32" s="31"/>
       <c r="I32" s="31"/>
     </row>
-    <row r="33" spans="1:17" s="38" customFormat="1">
+    <row r="33" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="38" t="b">
         <v>1</v>
       </c>
@@ -7952,7 +7934,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:17" s="30" customFormat="1">
+    <row r="34" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="30" t="s">
         <v>21</v>
       </c>
@@ -7969,7 +7951,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="35" spans="1:17" s="30" customFormat="1">
+    <row r="35" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="30" t="s">
         <v>21</v>
       </c>
@@ -7989,7 +7971,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="36" spans="1:17" s="30" customFormat="1">
+    <row r="36" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="30" t="s">
         <v>21</v>
       </c>
@@ -8006,7 +7988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:17" s="38" customFormat="1">
+    <row r="37" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="38" t="b">
         <v>1</v>
       </c>
@@ -8025,7 +8007,7 @@
       <c r="G37" s="39"/>
       <c r="H37" s="39"/>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B38" s="31" t="s">
         <v>21</v>
       </c>
@@ -8050,7 +8032,7 @@
       <c r="P38" s="40"/>
       <c r="Q38" s="2"/>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B39" s="31" t="s">
         <v>21</v>
       </c>
@@ -8078,7 +8060,7 @@
       <c r="P39" s="40"/>
       <c r="Q39" s="2"/>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B40" s="31" t="s">
         <v>21</v>
       </c>
@@ -8106,7 +8088,7 @@
       <c r="P40" s="40"/>
       <c r="Q40" s="2"/>
     </row>
-    <row r="41" spans="1:17" s="38" customFormat="1">
+    <row r="41" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="38" t="b">
         <v>1</v>
       </c>
@@ -8125,7 +8107,7 @@
       <c r="G41" s="39"/>
       <c r="H41" s="39"/>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B42" s="31" t="s">
         <v>21</v>
       </c>
@@ -8150,7 +8132,7 @@
       <c r="P42" s="40"/>
       <c r="Q42" s="2"/>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B43" s="31" t="s">
         <v>21</v>
       </c>
@@ -8178,7 +8160,7 @@
       <c r="P43" s="40"/>
       <c r="Q43" s="2"/>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B44" s="31" t="s">
         <v>21</v>
       </c>
@@ -8206,7 +8188,7 @@
       <c r="P44" s="40"/>
       <c r="Q44" s="2"/>
     </row>
-    <row r="45" spans="1:17" s="38" customFormat="1">
+    <row r="45" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="38" t="b">
         <v>1</v>
       </c>
@@ -8225,7 +8207,7 @@
       <c r="G45" s="39"/>
       <c r="H45" s="39"/>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B46" s="31" t="s">
         <v>21</v>
       </c>
@@ -8250,7 +8232,7 @@
       <c r="P46" s="40"/>
       <c r="Q46" s="2"/>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B47" s="31" t="s">
         <v>21</v>
       </c>
@@ -8278,7 +8260,7 @@
       <c r="P47" s="40"/>
       <c r="Q47" s="2"/>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B48" s="31" t="s">
         <v>21</v>
       </c>
@@ -8306,7 +8288,7 @@
       <c r="P48" s="40"/>
       <c r="Q48" s="2"/>
     </row>
-    <row r="49" spans="1:17" s="38" customFormat="1">
+    <row r="49" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="38" t="b">
         <v>1</v>
       </c>
@@ -8325,7 +8307,7 @@
       <c r="G49" s="39"/>
       <c r="H49" s="39"/>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B50" s="31" t="s">
         <v>21</v>
       </c>
@@ -8350,7 +8332,7 @@
       <c r="P50" s="40"/>
       <c r="Q50" s="2"/>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B51" s="31" t="s">
         <v>21</v>
       </c>
@@ -8378,7 +8360,7 @@
       <c r="P51" s="40"/>
       <c r="Q51" s="2"/>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B52" s="31" t="s">
         <v>21</v>
       </c>
@@ -8406,7 +8388,7 @@
       <c r="P52" s="40"/>
       <c r="Q52" s="2"/>
     </row>
-    <row r="53" spans="1:17" s="38" customFormat="1">
+    <row r="53" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="38" t="b">
         <v>1</v>
       </c>
@@ -8425,7 +8407,7 @@
       <c r="G53" s="39"/>
       <c r="H53" s="39"/>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B54" s="31" t="s">
         <v>21</v>
       </c>
@@ -8443,7 +8425,7 @@
       </c>
       <c r="I54" s="31"/>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B55" s="31" t="s">
         <v>21</v>
       </c>
@@ -8461,7 +8443,7 @@
       </c>
       <c r="I55" s="31"/>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B56" s="31" t="s">
         <v>21</v>
       </c>
@@ -8479,7 +8461,7 @@
       </c>
       <c r="I56" s="31"/>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B57" s="31" t="s">
         <v>21</v>
       </c>
@@ -8497,7 +8479,7 @@
       </c>
       <c r="I57" s="31"/>
     </row>
-    <row r="58" spans="1:17" s="38" customFormat="1">
+    <row r="58" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="38" t="b">
         <v>1</v>
       </c>
@@ -8516,7 +8498,7 @@
       <c r="G58" s="39"/>
       <c r="H58" s="39"/>
     </row>
-    <row r="59" spans="1:17" s="38" customFormat="1">
+    <row r="59" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="38" t="b">
         <v>1</v>
       </c>
@@ -8535,7 +8517,7 @@
       <c r="G59" s="39"/>
       <c r="H59" s="39"/>
     </row>
-    <row r="60" spans="1:17" s="43" customFormat="1">
+    <row r="60" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="43" t="s">
         <v>21</v>
       </c>
@@ -8571,7 +8553,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="61" spans="1:17" s="30" customFormat="1">
+    <row r="61" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="30" t="s">
         <v>21</v>
       </c>
@@ -8588,7 +8570,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:17" s="30" customFormat="1">
+    <row r="62" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="30" t="s">
         <v>21</v>
       </c>
@@ -8608,7 +8590,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:17" s="38" customFormat="1">
+    <row r="63" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="38" t="b">
         <v>1</v>
       </c>
@@ -8627,7 +8609,7 @@
       <c r="G63" s="39"/>
       <c r="H63" s="39"/>
     </row>
-    <row r="64" spans="1:17" s="43" customFormat="1">
+    <row r="64" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="43" t="s">
         <v>21</v>
       </c>
@@ -8663,7 +8645,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="65" spans="1:17" s="30" customFormat="1">
+    <row r="65" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="30" t="s">
         <v>21</v>
       </c>
@@ -8680,7 +8662,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="1:17" s="30" customFormat="1">
+    <row r="66" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="30" t="s">
         <v>21</v>
       </c>
@@ -8700,7 +8682,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:17" s="38" customFormat="1">
+    <row r="67" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="38" t="b">
         <v>1</v>
       </c>
@@ -8719,7 +8701,7 @@
       <c r="G67" s="39"/>
       <c r="H67" s="39"/>
     </row>
-    <row r="68" spans="1:17" s="43" customFormat="1">
+    <row r="68" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="43" t="s">
         <v>21</v>
       </c>
@@ -8755,7 +8737,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="69" spans="1:17" s="30" customFormat="1">
+    <row r="69" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="30" t="s">
         <v>21</v>
       </c>
@@ -8772,7 +8754,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:17" s="30" customFormat="1">
+    <row r="70" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="30" t="s">
         <v>21</v>
       </c>
@@ -8792,7 +8774,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="71" spans="1:17" s="38" customFormat="1">
+    <row r="71" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="38" t="b">
         <v>1</v>
       </c>
@@ -8811,7 +8793,7 @@
       <c r="G71" s="39"/>
       <c r="H71" s="39"/>
     </row>
-    <row r="72" spans="1:17" s="30" customFormat="1">
+    <row r="72" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="30" t="s">
         <v>21</v>
       </c>
@@ -8832,7 +8814,7 @@
       </c>
       <c r="O72" s="31"/>
     </row>
-    <row r="73" spans="1:17" s="43" customFormat="1">
+    <row r="73" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="43" t="s">
         <v>21</v>
       </c>
@@ -8868,7 +8850,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="74" spans="1:17" s="30" customFormat="1">
+    <row r="74" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="30" t="s">
         <v>21</v>
       </c>
@@ -8886,7 +8868,7 @@
       </c>
       <c r="O74" s="31"/>
     </row>
-    <row r="75" spans="1:17" s="30" customFormat="1">
+    <row r="75" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="30" t="s">
         <v>21</v>
       </c>
@@ -8904,7 +8886,7 @@
       </c>
       <c r="O75" s="31"/>
     </row>
-    <row r="76" spans="1:17" s="30" customFormat="1">
+    <row r="76" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B76" s="30" t="s">
         <v>21</v>
       </c>
@@ -8922,7 +8904,7 @@
       </c>
       <c r="O76" s="31"/>
     </row>
-    <row r="77" spans="1:17" s="38" customFormat="1">
+    <row r="77" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="38" t="b">
         <v>1</v>
       </c>
@@ -8941,7 +8923,7 @@
       <c r="G77" s="39"/>
       <c r="H77" s="39"/>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="30"/>
       <c r="B78" s="30" t="s">
         <v>21</v>
@@ -8970,7 +8952,7 @@
       <c r="N78" s="3"/>
       <c r="P78" s="40"/>
     </row>
-    <row r="79" spans="1:17" s="43" customFormat="1">
+    <row r="79" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="43" t="s">
         <v>21</v>
       </c>
@@ -9008,7 +8990,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="30"/>
       <c r="B80" s="30" t="s">
         <v>21</v>
@@ -9034,7 +9016,7 @@
       <c r="N80" s="3"/>
       <c r="P80" s="40"/>
     </row>
-    <row r="81" spans="1:17">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="30"/>
       <c r="B81" s="30" t="s">
         <v>21</v>
@@ -9060,7 +9042,7 @@
       <c r="N81" s="3"/>
       <c r="P81" s="40"/>
     </row>
-    <row r="82" spans="1:17">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="30"/>
       <c r="B82" s="30" t="s">
         <v>21</v>
@@ -9086,7 +9068,7 @@
       <c r="N82" s="3"/>
       <c r="P82" s="40"/>
     </row>
-    <row r="83" spans="1:17">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="30"/>
       <c r="B83" s="30" t="s">
         <v>21</v>
@@ -9112,7 +9094,7 @@
       <c r="N83" s="3"/>
       <c r="P83" s="40"/>
     </row>
-    <row r="84" spans="1:17">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="30"/>
       <c r="B84" s="30" t="s">
         <v>21</v>
@@ -9138,7 +9120,7 @@
       <c r="N84" s="3"/>
       <c r="P84" s="40"/>
     </row>
-    <row r="85" spans="1:17">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="30"/>
       <c r="B85" s="30" t="s">
         <v>21</v>
@@ -9164,7 +9146,7 @@
       <c r="N85" s="3"/>
       <c r="P85" s="40"/>
     </row>
-    <row r="86" spans="1:17">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="30"/>
       <c r="B86" s="30" t="s">
         <v>21</v>
@@ -9190,7 +9172,7 @@
       <c r="N86" s="3"/>
       <c r="P86" s="40"/>
     </row>
-    <row r="87" spans="1:17" s="49" customFormat="1">
+    <row r="87" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="49" t="b">
         <v>1</v>
       </c>
@@ -9214,18 +9196,18 @@
       <c r="O87" s="51"/>
       <c r="Q87" s="52"/>
     </row>
-    <row r="88" spans="1:17" s="49" customFormat="1">
+    <row r="88" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="49" t="b">
         <v>1</v>
       </c>
       <c r="B88" s="49" t="s">
-        <v>811</v>
+        <v>838</v>
       </c>
       <c r="C88" s="49" t="s">
-        <v>812</v>
+        <v>837</v>
       </c>
       <c r="D88" s="49" t="s">
-        <v>812</v>
+        <v>837</v>
       </c>
       <c r="E88" s="49" t="s">
         <v>68</v>
@@ -9238,127 +9220,112 @@
       <c r="O88" s="51"/>
       <c r="Q88" s="52"/>
     </row>
-    <row r="89" spans="1:17" s="43" customFormat="1">
-      <c r="B89" s="43" t="s">
+    <row r="89" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="B89" s="22" t="s">
+        <v>807</v>
+      </c>
+      <c r="C89" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="D89" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="E89" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="18"/>
+      <c r="B90" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D90" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="E90" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F90" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H90" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="I90" s="30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D89" s="43" t="s">
-        <v>813</v>
-      </c>
-      <c r="E89" s="43" t="s">
-        <v>814</v>
-      </c>
-      <c r="F89" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="H89" s="43" t="s">
-        <v>815</v>
-      </c>
-      <c r="I89" s="43" t="s">
-        <v>816</v>
-      </c>
-      <c r="J89" s="43" t="s">
-        <v>815</v>
-      </c>
-      <c r="K89" s="43" t="s">
-        <v>815</v>
-      </c>
-      <c r="L89" s="43" t="s">
-        <v>815</v>
-      </c>
-      <c r="O89" s="43" t="s">
-        <v>818</v>
-      </c>
-      <c r="Q89" s="43" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17" s="22" customFormat="1">
-      <c r="A90" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="B90" s="22" t="s">
-        <v>807</v>
-      </c>
-      <c r="C90" s="22" t="s">
-        <v>286</v>
-      </c>
-      <c r="D90" s="22" t="s">
-        <v>286</v>
-      </c>
-      <c r="E90" s="22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" s="30" customFormat="1">
-      <c r="A91" s="18"/>
-      <c r="B91" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D91" s="30" t="s">
-        <v>373</v>
-      </c>
-      <c r="E91" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="F91" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H91" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="I91" s="30" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17" s="43" customFormat="1">
-      <c r="B92" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D92" s="43" t="s">
+      <c r="D91" s="43" t="s">
         <v>808</v>
       </c>
-      <c r="E92" s="43" t="s">
+      <c r="E91" s="43" t="s">
         <v>288</v>
       </c>
-      <c r="F92" s="43" t="s">
+      <c r="F91" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="G92" s="43" t="s">
+      <c r="G91" s="43" t="s">
         <v>798</v>
       </c>
-      <c r="H92" s="43">
-        <v>0</v>
-      </c>
-      <c r="J92" s="43">
-        <v>0</v>
-      </c>
-      <c r="K92" s="43">
+      <c r="H91" s="43">
+        <v>0</v>
+      </c>
+      <c r="J91" s="43">
+        <v>0</v>
+      </c>
+      <c r="K91" s="43">
         <v>40</v>
       </c>
-      <c r="L92" s="43">
+      <c r="L91" s="43">
         <v>-1</v>
       </c>
-      <c r="M92" s="45">
-        <f>(K92-J92)/6</f>
+      <c r="M91" s="45">
+        <f>(K91-J91)/6</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="N92" s="45">
+      <c r="N91" s="45">
         <v>2.5</v>
       </c>
-      <c r="Q92" s="43" t="s">
+      <c r="Q91" s="43" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="93" spans="1:17" s="30" customFormat="1">
+    <row r="92" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D92" s="30" t="s">
+        <v>799</v>
+      </c>
+      <c r="E92" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="F92" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G92" s="30" t="s">
+        <v>798</v>
+      </c>
+      <c r="H92" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B93" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D93" s="30" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E93" s="30" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F93" s="30" t="s">
         <v>64</v>
@@ -9370,529 +9337,509 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:17" s="30" customFormat="1">
+    <row r="94" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B94" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D94" s="30" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="E94" s="30" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F94" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G94" s="30" t="s">
+        <v>802</v>
+      </c>
+      <c r="H94" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D95" s="30" t="s">
+        <v>803</v>
+      </c>
+      <c r="E95" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F95" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="H95" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D96" s="30" t="s">
+        <v>804</v>
+      </c>
+      <c r="E96" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F96" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G96" s="30" t="s">
+        <v>802</v>
+      </c>
+      <c r="H96" s="30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D97" s="30" t="s">
+        <v>805</v>
+      </c>
+      <c r="E97" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F97" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="G94" s="30" t="s">
+      <c r="G97" s="30" t="s">
         <v>798</v>
       </c>
-      <c r="H94" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" s="30" customFormat="1">
-      <c r="B95" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D95" s="30" t="s">
-        <v>801</v>
-      </c>
-      <c r="E95" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F95" s="30" t="s">
+      <c r="H97" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D98" s="30" t="s">
+        <v>806</v>
+      </c>
+      <c r="E98" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F98" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="G95" s="30" t="s">
+      <c r="G98" s="30" t="s">
         <v>802</v>
       </c>
-      <c r="H95" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" s="30" customFormat="1">
-      <c r="B96" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D96" s="30" t="s">
-        <v>803</v>
-      </c>
-      <c r="E96" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="F96" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H96" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" s="30" customFormat="1">
-      <c r="B97" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D97" s="30" t="s">
-        <v>804</v>
-      </c>
-      <c r="E97" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="F97" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G97" s="30" t="s">
-        <v>802</v>
-      </c>
-      <c r="H97" s="30">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" s="30" customFormat="1">
-      <c r="B98" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D98" s="30" t="s">
-        <v>805</v>
-      </c>
-      <c r="E98" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F98" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G98" s="30" t="s">
-        <v>798</v>
-      </c>
       <c r="H98" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" s="30" customFormat="1">
-      <c r="B99" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D99" s="30" t="s">
-        <v>806</v>
-      </c>
-      <c r="E99" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="F99" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G99" s="30" t="s">
-        <v>802</v>
-      </c>
-      <c r="H99" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="2:9">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H99" s="31"/>
+      <c r="I99" s="31"/>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H100" s="31"/>
       <c r="I100" s="31"/>
     </row>
-    <row r="101" spans="2:9">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H101" s="31"/>
       <c r="I101" s="31"/>
     </row>
-    <row r="102" spans="2:9">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H102" s="31"/>
       <c r="I102" s="31"/>
     </row>
-    <row r="103" spans="2:9">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H103" s="31"/>
       <c r="I103" s="31"/>
     </row>
-    <row r="104" spans="2:9">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H104" s="31"/>
       <c r="I104" s="31"/>
     </row>
-    <row r="105" spans="2:9">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H105" s="31"/>
       <c r="I105" s="31"/>
     </row>
-    <row r="106" spans="2:9">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H106" s="31"/>
       <c r="I106" s="31"/>
     </row>
-    <row r="107" spans="2:9">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H107" s="31"/>
       <c r="I107" s="31"/>
     </row>
-    <row r="108" spans="2:9">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H108" s="31"/>
       <c r="I108" s="31"/>
     </row>
-    <row r="109" spans="2:9">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H109" s="31"/>
       <c r="I109" s="31"/>
     </row>
-    <row r="110" spans="2:9">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H110" s="31"/>
       <c r="I110" s="31"/>
     </row>
-    <row r="111" spans="2:9">
+    <row r="111" spans="2:9" ht="409.6" x14ac:dyDescent="0">
       <c r="H111" s="31"/>
       <c r="I111" s="31"/>
     </row>
-    <row r="112" spans="2:9">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H112" s="31"/>
       <c r="I112" s="31"/>
     </row>
-    <row r="113" spans="8:9">
+    <row r="113" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H113" s="31"/>
       <c r="I113" s="31"/>
     </row>
-    <row r="114" spans="8:9">
+    <row r="114" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H114" s="31"/>
       <c r="I114" s="31"/>
     </row>
-    <row r="115" spans="8:9">
+    <row r="115" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H115" s="31"/>
       <c r="I115" s="31"/>
     </row>
-    <row r="116" spans="8:9">
+    <row r="116" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H116" s="31"/>
       <c r="I116" s="31"/>
     </row>
-    <row r="117" spans="8:9">
+    <row r="117" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H117" s="31"/>
       <c r="I117" s="31"/>
     </row>
-    <row r="118" spans="8:9">
+    <row r="118" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H118" s="31"/>
       <c r="I118" s="31"/>
     </row>
-    <row r="119" spans="8:9">
+    <row r="119" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H119" s="31"/>
       <c r="I119" s="31"/>
     </row>
-    <row r="120" spans="8:9">
+    <row r="120" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H120" s="31"/>
       <c r="I120" s="31"/>
     </row>
-    <row r="121" spans="8:9">
+    <row r="121" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H121" s="31"/>
       <c r="I121" s="31"/>
     </row>
-    <row r="122" spans="8:9">
+    <row r="122" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H122" s="31"/>
       <c r="I122" s="31"/>
     </row>
-    <row r="123" spans="8:9">
+    <row r="123" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H123" s="31"/>
       <c r="I123" s="31"/>
     </row>
-    <row r="124" spans="8:9">
+    <row r="124" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H124" s="31"/>
       <c r="I124" s="31"/>
     </row>
-    <row r="125" spans="8:9">
+    <row r="125" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H125" s="31"/>
       <c r="I125" s="31"/>
     </row>
-    <row r="126" spans="8:9">
+    <row r="126" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H126" s="31"/>
       <c r="I126" s="31"/>
     </row>
-    <row r="127" spans="8:9">
+    <row r="127" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H127" s="31"/>
       <c r="I127" s="31"/>
     </row>
-    <row r="128" spans="8:9">
+    <row r="128" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H128" s="31"/>
       <c r="I128" s="31"/>
     </row>
-    <row r="129" spans="8:9">
+    <row r="129" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H129" s="31"/>
       <c r="I129" s="31"/>
     </row>
-    <row r="130" spans="8:9">
+    <row r="130" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H130" s="31"/>
       <c r="I130" s="31"/>
     </row>
-    <row r="131" spans="8:9">
+    <row r="131" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H131" s="31"/>
       <c r="I131" s="31"/>
     </row>
-    <row r="132" spans="8:9">
+    <row r="132" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H132" s="31"/>
       <c r="I132" s="31"/>
     </row>
-    <row r="133" spans="8:9">
+    <row r="133" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H133" s="31"/>
       <c r="I133" s="31"/>
     </row>
-    <row r="134" spans="8:9">
+    <row r="134" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H134" s="31"/>
       <c r="I134" s="31"/>
     </row>
-    <row r="135" spans="8:9">
+    <row r="135" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H135" s="31"/>
       <c r="I135" s="31"/>
     </row>
-    <row r="136" spans="8:9">
+    <row r="136" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H136" s="31"/>
       <c r="I136" s="31"/>
     </row>
-    <row r="137" spans="8:9">
+    <row r="137" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H137" s="31"/>
       <c r="I137" s="31"/>
     </row>
-    <row r="138" spans="8:9">
+    <row r="138" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H138" s="31"/>
       <c r="I138" s="31"/>
     </row>
-    <row r="139" spans="8:9">
+    <row r="139" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H139" s="31"/>
       <c r="I139" s="31"/>
     </row>
-    <row r="140" spans="8:9">
+    <row r="140" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H140" s="31"/>
       <c r="I140" s="31"/>
     </row>
-    <row r="141" spans="8:9">
+    <row r="141" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H141" s="31"/>
       <c r="I141" s="31"/>
     </row>
-    <row r="142" spans="8:9">
+    <row r="142" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H142" s="31"/>
       <c r="I142" s="31"/>
     </row>
-    <row r="143" spans="8:9">
+    <row r="143" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H143" s="31"/>
       <c r="I143" s="31"/>
     </row>
-    <row r="144" spans="8:9">
+    <row r="144" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H144" s="31"/>
       <c r="I144" s="31"/>
     </row>
-    <row r="145" spans="8:9">
+    <row r="145" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H145" s="31"/>
       <c r="I145" s="31"/>
     </row>
-    <row r="146" spans="8:9">
+    <row r="146" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H146" s="31"/>
       <c r="I146" s="31"/>
     </row>
-    <row r="147" spans="8:9">
+    <row r="147" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H147" s="31"/>
       <c r="I147" s="31"/>
     </row>
-    <row r="148" spans="8:9">
+    <row r="148" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H148" s="31"/>
       <c r="I148" s="31"/>
     </row>
-    <row r="149" spans="8:9">
+    <row r="149" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H149" s="31"/>
       <c r="I149" s="31"/>
     </row>
-    <row r="150" spans="8:9">
+    <row r="150" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H150" s="31"/>
       <c r="I150" s="31"/>
     </row>
-    <row r="151" spans="8:9">
+    <row r="151" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H151" s="31"/>
       <c r="I151" s="31"/>
     </row>
-    <row r="152" spans="8:9">
+    <row r="152" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H152" s="31"/>
       <c r="I152" s="31"/>
     </row>
-    <row r="153" spans="8:9">
+    <row r="153" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H153" s="31"/>
       <c r="I153" s="31"/>
     </row>
-    <row r="154" spans="8:9">
+    <row r="154" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H154" s="31"/>
       <c r="I154" s="31"/>
     </row>
-    <row r="155" spans="8:9">
+    <row r="155" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H155" s="31"/>
       <c r="I155" s="31"/>
     </row>
-    <row r="156" spans="8:9">
+    <row r="156" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H156" s="31"/>
       <c r="I156" s="31"/>
     </row>
-    <row r="157" spans="8:9">
+    <row r="157" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H157" s="31"/>
       <c r="I157" s="31"/>
     </row>
-    <row r="158" spans="8:9">
+    <row r="158" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H158" s="31"/>
       <c r="I158" s="31"/>
     </row>
-    <row r="159" spans="8:9">
+    <row r="159" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H159" s="31"/>
       <c r="I159" s="31"/>
     </row>
-    <row r="160" spans="8:9">
+    <row r="160" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H160" s="31"/>
       <c r="I160" s="31"/>
     </row>
-    <row r="161" spans="8:9">
+    <row r="161" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H161" s="31"/>
       <c r="I161" s="31"/>
     </row>
-    <row r="162" spans="8:9">
+    <row r="162" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H162" s="31"/>
       <c r="I162" s="31"/>
     </row>
-    <row r="163" spans="8:9">
+    <row r="163" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H163" s="31"/>
       <c r="I163" s="31"/>
     </row>
-    <row r="164" spans="8:9">
+    <row r="164" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H164" s="31"/>
       <c r="I164" s="31"/>
     </row>
-    <row r="165" spans="8:9">
+    <row r="165" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H165" s="31"/>
       <c r="I165" s="31"/>
     </row>
-    <row r="166" spans="8:9">
+    <row r="166" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H166" s="31"/>
       <c r="I166" s="31"/>
     </row>
-    <row r="167" spans="8:9">
+    <row r="167" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H167" s="31"/>
       <c r="I167" s="31"/>
     </row>
-    <row r="168" spans="8:9">
+    <row r="168" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H168" s="31"/>
       <c r="I168" s="31"/>
     </row>
-    <row r="169" spans="8:9">
+    <row r="169" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H169" s="31"/>
       <c r="I169" s="31"/>
     </row>
-    <row r="170" spans="8:9">
+    <row r="170" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H170" s="31"/>
       <c r="I170" s="31"/>
     </row>
-    <row r="171" spans="8:9">
+    <row r="171" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H171" s="31"/>
       <c r="I171" s="31"/>
     </row>
-    <row r="172" spans="8:9">
+    <row r="172" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H172" s="31"/>
       <c r="I172" s="31"/>
     </row>
-    <row r="173" spans="8:9">
+    <row r="173" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H173" s="31"/>
       <c r="I173" s="31"/>
     </row>
-    <row r="174" spans="8:9">
+    <row r="174" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H174" s="31"/>
       <c r="I174" s="31"/>
     </row>
-    <row r="175" spans="8:9">
+    <row r="175" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H175" s="31"/>
       <c r="I175" s="31"/>
     </row>
-    <row r="176" spans="8:9">
+    <row r="176" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H176" s="31"/>
       <c r="I176" s="31"/>
     </row>
-    <row r="177" spans="8:9">
+    <row r="177" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H177" s="31"/>
       <c r="I177" s="31"/>
     </row>
-    <row r="178" spans="8:9">
+    <row r="178" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H178" s="31"/>
       <c r="I178" s="31"/>
     </row>
-    <row r="179" spans="8:9">
+    <row r="179" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H179" s="31"/>
       <c r="I179" s="31"/>
     </row>
-    <row r="180" spans="8:9">
+    <row r="180" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H180" s="31"/>
       <c r="I180" s="31"/>
     </row>
-    <row r="181" spans="8:9">
+    <row r="181" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H181" s="31"/>
       <c r="I181" s="31"/>
     </row>
-    <row r="182" spans="8:9">
+    <row r="182" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H182" s="31"/>
       <c r="I182" s="31"/>
     </row>
-    <row r="183" spans="8:9">
+    <row r="183" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H183" s="31"/>
       <c r="I183" s="31"/>
     </row>
-    <row r="184" spans="8:9">
+    <row r="184" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H184" s="31"/>
       <c r="I184" s="31"/>
     </row>
-    <row r="185" spans="8:9">
+    <row r="185" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H185" s="31"/>
       <c r="I185" s="31"/>
     </row>
-    <row r="186" spans="8:9">
+    <row r="186" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H186" s="31"/>
       <c r="I186" s="31"/>
     </row>
-    <row r="187" spans="8:9">
+    <row r="187" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H187" s="31"/>
       <c r="I187" s="31"/>
     </row>
-    <row r="188" spans="8:9">
+    <row r="188" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H188" s="31"/>
       <c r="I188" s="31"/>
     </row>
-    <row r="189" spans="8:9">
+    <row r="189" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H189" s="31"/>
       <c r="I189" s="31"/>
     </row>
-    <row r="190" spans="8:9">
+    <row r="190" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H190" s="31"/>
       <c r="I190" s="31"/>
     </row>
-    <row r="191" spans="8:9">
+    <row r="191" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H191" s="31"/>
       <c r="I191" s="31"/>
     </row>
-    <row r="192" spans="8:9">
+    <row r="192" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H192" s="31"/>
       <c r="I192" s="31"/>
     </row>
-    <row r="193" spans="8:9">
+    <row r="193" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H193" s="31"/>
       <c r="I193" s="31"/>
     </row>
-    <row r="194" spans="8:9">
+    <row r="194" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H194" s="31"/>
       <c r="I194" s="31"/>
     </row>
-    <row r="195" spans="8:9">
+    <row r="195" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H195" s="31"/>
       <c r="I195" s="31"/>
     </row>
-    <row r="196" spans="8:9">
+    <row r="196" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H196" s="31"/>
       <c r="I196" s="31"/>
     </row>
-    <row r="197" spans="8:9">
+    <row r="197" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H197" s="31"/>
       <c r="I197" s="31"/>
     </row>
-    <row r="198" spans="8:9">
+    <row r="198" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H198" s="31"/>
       <c r="I198" s="31"/>
     </row>
-    <row r="199" spans="8:9">
+    <row r="199" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H199" s="31"/>
       <c r="I199" s="31"/>
     </row>
-    <row r="200" spans="8:9">
-      <c r="H200" s="31"/>
-      <c r="I200" s="31"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A2:Z127"/>
+  <autoFilter ref="A2:Z126"/>
   <mergeCells count="1">
     <mergeCell ref="T1:Y1"/>
   </mergeCells>
@@ -9911,24 +9858,24 @@
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="29.5" style="31" customWidth="1"/>
+    <col min="1" max="2" width="29.42578125" style="31" customWidth="1"/>
     <col min="3" max="3" width="71" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="31" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.5" style="31" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="31" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="31" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" style="31" customWidth="1"/>
-    <col min="11" max="16384" width="11.5" style="31"/>
+    <col min="4" max="4" width="10.42578125" style="31" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.42578125" style="31" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="31" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="31" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="31" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -9943,7 +9890,7 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="15">
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>459</v>
       </c>
@@ -9978,7 +9925,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="14" customFormat="1" ht="30">
+    <row r="3" spans="1:12" s="14" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>628</v>
       </c>
@@ -10014,7 +9961,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>644</v>
       </c>
@@ -10043,7 +9990,7 @@
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
         <v>645</v>
       </c>
@@ -10073,7 +10020,7 @@
       <c r="K5" s="30"/>
       <c r="L5" s="30"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
         <v>646</v>
       </c>
@@ -10102,7 +10049,7 @@
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>647</v>
       </c>
@@ -10131,13 +10078,13 @@
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
         <v>707</v>
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="30" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>708</v>
@@ -10159,13 +10106,13 @@
       <c r="K8" s="30"/>
       <c r="L8" s="30"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>709</v>
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="30" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="D9" s="30" t="s">
         <v>710</v>
@@ -10187,13 +10134,13 @@
       <c r="K9" s="30"/>
       <c r="L9" s="30"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
         <v>711</v>
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="30" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>708</v>
@@ -10215,13 +10162,13 @@
       <c r="K10" s="30"/>
       <c r="L10" s="30"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
         <v>712</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="30" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>708</v>
@@ -10243,13 +10190,13 @@
       <c r="K11" s="30"/>
       <c r="L11" s="30"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
         <v>713</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>708</v>
@@ -10271,13 +10218,13 @@
       <c r="K12" s="30"/>
       <c r="L12" s="30"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
         <v>714</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>708</v>
@@ -10299,13 +10246,13 @@
       <c r="K13" s="30"/>
       <c r="L13" s="30"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
         <v>715</v>
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="30" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="D14" s="30" t="s">
         <v>708</v>
@@ -10327,13 +10274,13 @@
       <c r="K14" s="30"/>
       <c r="L14" s="30"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
         <v>716</v>
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="30" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="D15" s="30" t="s">
         <v>708</v>
@@ -10355,13 +10302,13 @@
       <c r="K15" s="30"/>
       <c r="L15" s="30"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
         <v>717</v>
       </c>
       <c r="B16" s="30"/>
       <c r="C16" s="30" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="D16" s="30" t="s">
         <v>708</v>
@@ -10383,13 +10330,13 @@
       <c r="K16" s="30"/>
       <c r="L16" s="30"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
         <v>718</v>
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="30" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="D17" s="30" t="s">
         <v>708</v>
@@ -10411,13 +10358,13 @@
       <c r="K17" s="30"/>
       <c r="L17" s="30"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
         <v>719</v>
       </c>
       <c r="B18" s="30"/>
       <c r="C18" s="30" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="D18" s="30" t="s">
         <v>708</v>
@@ -10439,13 +10386,13 @@
       <c r="K18" s="30"/>
       <c r="L18" s="30"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
         <v>720</v>
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="30" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
       <c r="D19" s="30" t="s">
         <v>708</v>
@@ -10467,13 +10414,13 @@
       <c r="K19" s="30"/>
       <c r="L19" s="30"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
         <v>721</v>
       </c>
       <c r="B20" s="30"/>
       <c r="C20" s="30" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="D20" s="30" t="s">
         <v>708</v>
@@ -10495,13 +10442,13 @@
       <c r="K20" s="30"/>
       <c r="L20" s="30"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
         <v>723</v>
       </c>
       <c r="B21" s="30"/>
       <c r="C21" s="30" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="D21" s="30" t="s">
         <v>724</v>
@@ -10523,13 +10470,13 @@
       <c r="K21" s="30"/>
       <c r="L21" s="30"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
         <v>722</v>
       </c>
       <c r="B22" s="30"/>
       <c r="C22" s="30" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="D22" s="30" t="s">
         <v>724</v>
@@ -10551,13 +10498,13 @@
       <c r="K22" s="30"/>
       <c r="L22" s="30"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
         <v>725</v>
       </c>
       <c r="B23" s="30"/>
       <c r="C23" s="30" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="D23" s="30" t="s">
         <v>724</v>
@@ -10579,13 +10526,13 @@
       <c r="K23" s="30"/>
       <c r="L23" s="30"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
         <v>726</v>
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="30" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="D24" s="30" t="s">
         <v>724</v>
@@ -10607,13 +10554,13 @@
       <c r="K24" s="30"/>
       <c r="L24" s="30"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
         <v>727</v>
       </c>
       <c r="B25" s="30"/>
       <c r="C25" s="30" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="D25" s="30" t="s">
         <v>724</v>
@@ -10635,13 +10582,13 @@
       <c r="K25" s="30"/>
       <c r="L25" s="30"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
         <v>728</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="D26" s="30" t="s">
         <v>724</v>
@@ -10663,13 +10610,13 @@
       <c r="K26" s="30"/>
       <c r="L26" s="30"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
         <v>729</v>
       </c>
       <c r="B27" s="30"/>
       <c r="C27" s="30" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="D27" s="30" t="s">
         <v>724</v>
@@ -10691,13 +10638,13 @@
       <c r="K27" s="30"/>
       <c r="L27" s="30"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="30" t="s">
         <v>730</v>
       </c>
       <c r="B28" s="30"/>
       <c r="C28" s="30" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="D28" s="30" t="s">
         <v>724</v>
@@ -10719,13 +10666,13 @@
       <c r="K28" s="30"/>
       <c r="L28" s="30"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="30" t="s">
         <v>731</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="D29" s="30" t="s">
         <v>724</v>
@@ -10747,13 +10694,13 @@
       <c r="K29" s="30"/>
       <c r="L29" s="30"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
         <v>732</v>
       </c>
       <c r="B30" s="30"/>
       <c r="C30" s="30" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="D30" s="30" t="s">
         <v>724</v>
@@ -10775,49 +10722,49 @@
       <c r="K30" s="30"/>
       <c r="L30" s="30"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="30"/>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="30"/>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="30"/>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="30"/>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="30"/>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="30"/>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="30"/>
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
       <c r="D37" s="30"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="30"/>
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
@@ -10842,19 +10789,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="b">
         <v>0</v>
       </c>
@@ -10873,7 +10820,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
         <v>21</v>
@@ -10894,7 +10841,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
         <v>21</v>
@@ -10917,7 +10864,7 @@
       </c>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>21</v>
@@ -10940,7 +10887,7 @@
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
         <v>21</v>
@@ -10963,7 +10910,7 @@
       </c>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
         <v>21</v>
@@ -10986,7 +10933,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
         <v>21</v>
@@ -11009,7 +10956,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
         <v>21</v>
@@ -11032,7 +10979,7 @@
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
         <v>21</v>
@@ -11055,7 +11002,7 @@
       </c>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="B10" s="17" t="s">
         <v>21</v>
@@ -11078,7 +11025,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="b">
         <v>0</v>
       </c>
@@ -11097,7 +11044,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
         <v>21</v>
@@ -11118,7 +11065,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
@@ -11141,7 +11088,7 @@
       </c>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
         <v>21</v>
@@ -11164,7 +11111,7 @@
       </c>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="17" t="s">
         <v>21</v>
@@ -11187,7 +11134,7 @@
       </c>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
         <v>21</v>
@@ -11210,7 +11157,7 @@
       </c>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
         <v>21</v>
@@ -11233,7 +11180,7 @@
       </c>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="17" t="s">
         <v>21</v>
@@ -11256,7 +11203,7 @@
       </c>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="17" t="s">
         <v>21</v>
@@ -11279,7 +11226,7 @@
       </c>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
       <c r="B20" s="17" t="s">
         <v>21</v>
@@ -11302,7 +11249,7 @@
       </c>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="b">
         <v>0</v>
       </c>
@@ -11321,7 +11268,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
       <c r="B22" s="17" t="s">
         <v>21</v>
@@ -11344,7 +11291,7 @@
       </c>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="B23" s="17" t="s">
         <v>21</v>
@@ -11367,7 +11314,7 @@
       </c>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
       <c r="B24" s="17" t="s">
         <v>21</v>
@@ -11390,7 +11337,7 @@
       </c>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
       <c r="B25" s="17" t="s">
         <v>21</v>
@@ -11413,7 +11360,7 @@
       </c>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
       <c r="B26" s="17" t="s">
         <v>21</v>
@@ -11436,7 +11383,7 @@
       </c>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="17"/>
       <c r="B27" s="17" t="s">
         <v>21</v>
@@ -11459,7 +11406,7 @@
       </c>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
         <v>21</v>
@@ -11482,7 +11429,7 @@
       </c>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
       <c r="B29" s="17" t="s">
         <v>21</v>
@@ -11505,7 +11452,7 @@
       </c>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" ht="15">
+    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
       <c r="B30" s="17" t="s">
         <v>21</v>
@@ -11528,7 +11475,7 @@
       </c>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="15">
+    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="b">
         <v>0</v>
       </c>
@@ -11547,7 +11494,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="15">
+    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
       <c r="B32" s="17" t="s">
         <v>21</v>
@@ -11568,7 +11515,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" ht="15">
+    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
       <c r="B33" s="17" t="s">
         <v>21</v>
@@ -11591,7 +11538,7 @@
       </c>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="15">
+    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
       <c r="B34" s="17" t="s">
         <v>21</v>
@@ -11614,7 +11561,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="15">
+    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
         <v>21</v>
@@ -11637,7 +11584,7 @@
       </c>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="15">
+    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
         <v>21</v>
@@ -11660,7 +11607,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="15">
+    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
         <v>21</v>
@@ -11683,7 +11630,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="15">
+    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
         <v>21</v>
@@ -11706,7 +11653,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" ht="15">
+    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="17"/>
       <c r="B39" s="17" t="s">
         <v>21</v>
@@ -11729,7 +11676,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="15">
+    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
         <v>21</v>
@@ -11752,7 +11699,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="15">
+    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="b">
         <v>0</v>
       </c>
@@ -11771,7 +11718,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="15">
+    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="17"/>
       <c r="B42" s="17" t="s">
         <v>21</v>
@@ -11792,7 +11739,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="15">
+    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="17"/>
       <c r="B43" s="17" t="s">
         <v>21</v>
@@ -11815,7 +11762,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="15">
+    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="17"/>
       <c r="B44" s="17" t="s">
         <v>21</v>
@@ -11838,7 +11785,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="15">
+    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="17"/>
       <c r="B45" s="17" t="s">
         <v>21</v>
@@ -11861,7 +11808,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15">
+    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>21</v>
@@ -11884,7 +11831,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15">
+    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>21</v>
@@ -11907,7 +11854,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15">
+    <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>21</v>
@@ -11930,7 +11877,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15">
+    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>21</v>
@@ -11953,7 +11900,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15">
+    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>21</v>
@@ -11976,7 +11923,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15">
+    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -11995,7 +11942,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15">
+    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>21</v>
@@ -12016,7 +11963,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15">
+    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>21</v>
@@ -12039,7 +11986,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15">
+    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>21</v>
@@ -12062,7 +12009,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15">
+    <row r="55" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>21</v>
@@ -12085,7 +12032,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15">
+    <row r="56" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>21</v>
@@ -12108,7 +12055,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15">
+    <row r="57" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>21</v>
@@ -12131,7 +12078,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15">
+    <row r="58" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>21</v>
@@ -12154,7 +12101,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15">
+    <row r="59" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>21</v>
@@ -12177,7 +12124,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15">
+    <row r="60" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>21</v>
@@ -12200,7 +12147,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15">
+    <row r="61" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -12219,7 +12166,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15">
+    <row r="62" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>21</v>
@@ -12240,7 +12187,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15">
+    <row r="63" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>21</v>
@@ -12265,7 +12212,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15">
+    <row r="64" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>21</v>
@@ -12288,7 +12235,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15">
+    <row r="65" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>21</v>
@@ -12311,7 +12258,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15">
+    <row r="66" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>21</v>
@@ -12334,7 +12281,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15">
+    <row r="67" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>21</v>
@@ -12357,7 +12304,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15">
+    <row r="68" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>21</v>
@@ -12380,7 +12327,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15">
+    <row r="69" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>21</v>
@@ -12403,7 +12350,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15">
+    <row r="70" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>21</v>
@@ -12426,7 +12373,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15">
+    <row r="71" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>21</v>
@@ -12449,7 +12396,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15">
+    <row r="72" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -12468,7 +12415,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15">
+    <row r="73" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>21</v>
@@ -12489,7 +12436,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15">
+    <row r="74" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>21</v>
@@ -12512,7 +12459,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15">
+    <row r="75" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>21</v>
@@ -12537,7 +12484,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15">
+    <row r="76" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>21</v>
@@ -12560,7 +12507,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15">
+    <row r="77" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>21</v>
@@ -12583,7 +12530,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15">
+    <row r="78" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>21</v>
@@ -12606,7 +12553,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15">
+    <row r="79" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>21</v>
@@ -12629,7 +12576,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15">
+    <row r="80" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>21</v>
@@ -12652,7 +12599,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15">
+    <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>21</v>
@@ -12675,7 +12622,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15">
+    <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>21</v>
@@ -12698,7 +12645,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15">
+    <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>21</v>
@@ -12721,7 +12668,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15">
+    <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>21</v>
@@ -12744,7 +12691,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15">
+    <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>21</v>
@@ -12767,7 +12714,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15">
+    <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -12786,7 +12733,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15">
+    <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>21</v>
@@ -12809,7 +12756,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15">
+    <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>21</v>
@@ -12832,7 +12779,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15">
+    <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>21</v>
@@ -12855,7 +12802,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15">
+    <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>21</v>
@@ -12878,7 +12825,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15">
+    <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>21</v>
@@ -12901,7 +12848,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15">
+    <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>21</v>
@@ -12924,7 +12871,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15">
+    <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>21</v>
@@ -12947,7 +12894,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15">
+    <row r="94" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>21</v>
@@ -12970,7 +12917,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15">
+    <row r="95" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>21</v>
@@ -12993,7 +12940,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15">
+    <row r="96" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>21</v>
@@ -13016,7 +12963,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15">
+    <row r="97" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -13035,7 +12982,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15">
+    <row r="98" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>21</v>
@@ -13060,7 +13007,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15">
+    <row r="99" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -13079,7 +13026,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15">
+    <row r="100" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>21</v>
@@ -13100,7 +13047,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="15">
+    <row r="101" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>21</v>
@@ -13125,7 +13072,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15">
+    <row r="102" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -13144,7 +13091,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15">
+    <row r="103" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>21</v>
@@ -13167,7 +13114,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15">
+    <row r="104" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>21</v>
@@ -13192,7 +13139,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15">
+    <row r="105" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>21</v>
@@ -13215,7 +13162,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15">
+    <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>21</v>
@@ -13236,7 +13183,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15">
+    <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -13255,7 +13202,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15">
+    <row r="108" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>21</v>
@@ -13280,7 +13227,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15">
+    <row r="109" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>21</v>
@@ -13303,7 +13250,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15">
+    <row r="110" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>21</v>
@@ -13326,7 +13273,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15">
+    <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>21</v>
@@ -13349,7 +13296,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15">
+    <row r="112" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>21</v>
@@ -13372,7 +13319,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15">
+    <row r="113" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>21</v>
@@ -13395,7 +13342,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15">
+    <row r="114" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>21</v>
@@ -13418,7 +13365,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15">
+    <row r="115" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -13437,7 +13384,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15">
+    <row r="116" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>21</v>
@@ -13460,7 +13407,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15">
+    <row r="117" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>21</v>
@@ -13483,7 +13430,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15">
+    <row r="118" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>21</v>
@@ -13506,7 +13453,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15">
+    <row r="119" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -13525,7 +13472,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15">
+    <row r="120" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>21</v>
@@ -13548,7 +13495,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15">
+    <row r="121" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>21</v>
@@ -13571,7 +13518,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15">
+    <row r="122" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>21</v>
@@ -13594,7 +13541,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15">
+    <row r="123" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>21</v>
@@ -13617,7 +13564,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15">
+    <row r="124" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>21</v>
@@ -13640,7 +13587,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15">
+    <row r="125" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>21</v>
@@ -13663,7 +13610,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15">
+    <row r="126" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -13682,7 +13629,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15">
+    <row r="127" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>21</v>
@@ -13707,7 +13654,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15">
+    <row r="128" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>21</v>
@@ -13730,7 +13677,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15">
+    <row r="129" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>21</v>
@@ -13753,7 +13700,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15">
+    <row r="130" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>21</v>
@@ -13776,7 +13723,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15">
+    <row r="131" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>21</v>
@@ -13799,7 +13746,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15">
+    <row r="132" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>21</v>
@@ -13822,7 +13769,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15">
+    <row r="133" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>21</v>
@@ -13845,7 +13792,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15">
+    <row r="134" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>21</v>
@@ -13868,7 +13815,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15">
+    <row r="135" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>21</v>
@@ -13891,7 +13838,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15">
+    <row r="136" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -13910,7 +13857,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15">
+    <row r="137" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>21</v>
@@ -13935,7 +13882,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15">
+    <row r="138" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>21</v>
@@ -13956,7 +13903,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15">
+    <row r="139" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>21</v>
@@ -13979,7 +13926,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15">
+    <row r="140" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>21</v>
@@ -14002,7 +13949,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15">
+    <row r="141" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>21</v>
@@ -14025,7 +13972,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15">
+    <row r="142" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>21</v>
@@ -14048,7 +13995,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15">
+    <row r="143" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>21</v>
@@ -14071,7 +14018,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15">
+    <row r="144" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>21</v>
@@ -14094,7 +14041,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15">
+    <row r="145" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>21</v>
@@ -14117,7 +14064,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15">
+    <row r="146" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>21</v>
@@ -14140,7 +14087,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15">
+    <row r="147" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>21</v>
@@ -14163,7 +14110,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15">
+    <row r="148" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>21</v>
@@ -14186,7 +14133,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15">
+    <row r="149" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>21</v>
@@ -14209,7 +14156,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15">
+    <row r="150" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>21</v>
@@ -14232,7 +14179,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15">
+    <row r="151" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -14251,7 +14198,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15">
+    <row r="152" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>21</v>
@@ -14274,7 +14221,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15">
+    <row r="153" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -14293,7 +14240,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15">
+    <row r="154" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>21</v>
@@ -14316,7 +14263,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15">
+    <row r="155" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>21</v>
@@ -14339,7 +14286,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15">
+    <row r="156" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -14358,7 +14305,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15">
+    <row r="157" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>21</v>
@@ -14383,7 +14330,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15">
+    <row r="158" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>21</v>
@@ -14406,7 +14353,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15">
+    <row r="159" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>21</v>
@@ -14429,7 +14376,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15">
+    <row r="160" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>21</v>
@@ -14452,7 +14399,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15">
+    <row r="161" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>21</v>
@@ -14475,7 +14422,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15">
+    <row r="162" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>21</v>
@@ -14498,7 +14445,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15">
+    <row r="163" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>21</v>
@@ -14521,7 +14468,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15">
+    <row r="164" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>21</v>
@@ -14544,7 +14491,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15">
+    <row r="165" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>21</v>
@@ -14567,7 +14514,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15">
+    <row r="166" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>21</v>
@@ -14590,7 +14537,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15">
+    <row r="167" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -14609,7 +14556,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15">
+    <row r="168" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>21</v>
@@ -14634,7 +14581,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15">
+    <row r="169" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>21</v>
@@ -14657,7 +14604,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15">
+    <row r="170" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>21</v>
@@ -14680,7 +14627,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15">
+    <row r="171" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>21</v>
@@ -14703,7 +14650,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15">
+    <row r="172" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>21</v>
@@ -14726,7 +14673,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15">
+    <row r="173" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>21</v>
@@ -14749,7 +14696,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15">
+    <row r="174" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>21</v>
@@ -14772,7 +14719,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15">
+    <row r="175" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>21</v>
@@ -14795,7 +14742,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15">
+    <row r="176" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>21</v>
@@ -14818,7 +14765,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15">
+    <row r="177" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>21</v>
@@ -14841,7 +14788,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15">
+    <row r="178" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -14860,7 +14807,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15">
+    <row r="179" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>21</v>
@@ -14883,7 +14830,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15">
+    <row r="180" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>21</v>
@@ -14906,7 +14853,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15">
+    <row r="181" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>21</v>
@@ -14929,7 +14876,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15">
+    <row r="182" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>21</v>
@@ -14952,7 +14899,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15">
+    <row r="183" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -14971,7 +14918,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15">
+    <row r="184" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>21</v>
@@ -14994,7 +14941,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15">
+    <row r="185" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>21</v>
@@ -15017,7 +14964,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15">
+    <row r="186" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>21</v>
@@ -15040,7 +14987,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15">
+    <row r="187" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>21</v>
@@ -15063,7 +15010,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15">
+    <row r="188" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -15082,7 +15029,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15">
+    <row r="189" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>21</v>
@@ -15103,7 +15050,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15">
+    <row r="190" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>21</v>
@@ -15126,7 +15073,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15">
+    <row r="191" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -15145,7 +15092,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15">
+    <row r="192" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>21</v>
@@ -15168,7 +15115,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15">
+    <row r="193" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>21</v>
@@ -15193,7 +15140,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15">
+    <row r="194" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>21</v>
@@ -15214,7 +15161,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15">
+    <row r="195" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>21</v>
@@ -15239,7 +15186,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15">
+    <row r="196" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>21</v>
@@ -15264,7 +15211,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15">
+    <row r="197" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -15283,7 +15230,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15">
+    <row r="198" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>21</v>
@@ -15308,7 +15255,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15">
+    <row r="199" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>21</v>
@@ -15331,7 +15278,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15">
+    <row r="200" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>21</v>
@@ -15354,7 +15301,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15">
+    <row r="201" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>21</v>
@@ -15377,7 +15324,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15">
+    <row r="202" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>21</v>
@@ -15400,7 +15347,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15">
+    <row r="203" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>21</v>
@@ -15423,7 +15370,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15">
+    <row r="204" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>21</v>
@@ -15446,7 +15393,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15">
+    <row r="205" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>21</v>
@@ -15469,7 +15416,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15">
+    <row r="206" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>21</v>
@@ -15492,7 +15439,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15">
+    <row r="207" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -15511,7 +15458,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15">
+    <row r="208" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>21</v>
@@ -15536,7 +15483,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15">
+    <row r="209" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>21</v>
@@ -15559,7 +15506,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15">
+    <row r="210" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>21</v>
@@ -15582,7 +15529,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15">
+    <row r="211" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>21</v>
@@ -15605,7 +15552,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15">
+    <row r="212" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>21</v>
@@ -15628,7 +15575,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15">
+    <row r="213" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>21</v>
@@ -15651,7 +15598,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15">
+    <row r="214" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>21</v>
@@ -15674,7 +15621,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15">
+    <row r="215" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>21</v>
@@ -15697,7 +15644,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15">
+    <row r="216" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>21</v>
@@ -15720,7 +15667,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15">
+    <row r="217" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -15739,7 +15686,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15">
+    <row r="218" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>21</v>
@@ -15760,7 +15707,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15">
+    <row r="219" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>21</v>
@@ -15783,7 +15730,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15">
+    <row r="220" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>21</v>
@@ -15806,7 +15753,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15">
+    <row r="221" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>21</v>
@@ -15829,7 +15776,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15">
+    <row r="222" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>21</v>
@@ -15852,7 +15799,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15">
+    <row r="223" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>21</v>
@@ -15875,7 +15822,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15">
+    <row r="224" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>21</v>
@@ -15898,7 +15845,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15">
+    <row r="225" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>21</v>
@@ -15921,7 +15868,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15">
+    <row r="226" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>21</v>
@@ -15944,7 +15891,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15">
+    <row r="227" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>21</v>
@@ -15967,7 +15914,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15">
+    <row r="228" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>21</v>
@@ -15990,7 +15937,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15">
+    <row r="229" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>21</v>
@@ -16013,7 +15960,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15">
+    <row r="230" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>21</v>
@@ -16036,7 +15983,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15">
+    <row r="231" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>21</v>
@@ -16059,7 +16006,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15">
+    <row r="232" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>21</v>
@@ -16082,7 +16029,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15">
+    <row r="233" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>21</v>
@@ -16105,7 +16052,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15">
+    <row r="234" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -16124,7 +16071,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15">
+    <row r="235" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>21</v>
@@ -16145,7 +16092,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15">
+    <row r="236" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>21</v>
@@ -16168,7 +16115,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15">
+    <row r="237" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>21</v>
@@ -16191,7 +16138,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15">
+    <row r="238" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>21</v>
@@ -16214,7 +16161,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15">
+    <row r="239" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>21</v>
@@ -16237,7 +16184,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15">
+    <row r="240" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>21</v>
@@ -16260,7 +16207,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15">
+    <row r="241" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>21</v>
@@ -16283,7 +16230,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15">
+    <row r="242" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>21</v>
@@ -16306,7 +16253,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15">
+    <row r="243" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>21</v>
@@ -16329,7 +16276,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15">
+    <row r="244" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>21</v>
@@ -16352,7 +16299,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15">
+    <row r="245" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>21</v>
@@ -16375,7 +16322,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15">
+    <row r="246" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>21</v>
@@ -16398,7 +16345,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15">
+    <row r="247" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>21</v>
@@ -16421,7 +16368,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15">
+    <row r="248" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>21</v>
@@ -16444,7 +16391,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15">
+    <row r="249" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>21</v>
@@ -16467,7 +16414,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15">
+    <row r="250" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>21</v>
@@ -16490,7 +16437,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15">
+    <row r="251" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -16509,7 +16456,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15">
+    <row r="252" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>21</v>
@@ -16534,7 +16481,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15">
+    <row r="253" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>21</v>
@@ -16557,7 +16504,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15">
+    <row r="254" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>21</v>
@@ -16580,7 +16527,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15">
+    <row r="255" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>21</v>
@@ -16603,7 +16550,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15">
+    <row r="256" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>21</v>
@@ -16626,7 +16573,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15">
+    <row r="257" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -16645,7 +16592,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15">
+    <row r="258" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>21</v>
@@ -16670,7 +16617,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15">
+    <row r="259" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>21</v>
@@ -16693,7 +16640,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15">
+    <row r="260" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -16712,7 +16659,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15">
+    <row r="261" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -16731,7 +16678,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15">
+    <row r="262" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -16750,7 +16697,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15">
+    <row r="263" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>21</v>
@@ -16771,7 +16718,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15">
+    <row r="264" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>21</v>
@@ -16794,7 +16741,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15">
+    <row r="265" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>21</v>
@@ -16817,7 +16764,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15">
+    <row r="266" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>21</v>
@@ -16840,7 +16787,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15">
+    <row r="267" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>21</v>
@@ -16863,7 +16810,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15">
+    <row r="268" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>21</v>
@@ -16886,7 +16833,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15">
+    <row r="269" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>21</v>
@@ -16909,7 +16856,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15">
+    <row r="270" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>21</v>
@@ -16932,7 +16879,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15">
+    <row r="271" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>21</v>
@@ -16955,7 +16902,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15">
+    <row r="272" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>21</v>
@@ -16978,7 +16925,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15">
+    <row r="273" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>21</v>
@@ -17001,7 +16948,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15">
+    <row r="274" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -17020,7 +16967,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15">
+    <row r="275" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>21</v>
@@ -17043,7 +16990,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15">
+    <row r="276" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -17062,7 +17009,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15">
+    <row r="277" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>21</v>
@@ -17087,7 +17034,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15">
+    <row r="278" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>21</v>
@@ -17110,7 +17057,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15">
+    <row r="279" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>21</v>
@@ -17133,7 +17080,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15">
+    <row r="280" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>21</v>
@@ -17156,7 +17103,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15">
+    <row r="281" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>21</v>
@@ -17179,7 +17126,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15">
+    <row r="282" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>21</v>
@@ -17202,7 +17149,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15">
+    <row r="283" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>21</v>
@@ -17225,7 +17172,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15">
+    <row r="284" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>21</v>
@@ -17248,7 +17195,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15">
+    <row r="285" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>21</v>
@@ -17271,7 +17218,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15">
+    <row r="286" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>21</v>
@@ -17294,7 +17241,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15">
+    <row r="287" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>21</v>
@@ -17317,7 +17264,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15">
+    <row r="288" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -17336,7 +17283,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15">
+    <row r="289" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>21</v>
@@ -17359,7 +17306,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15">
+    <row r="290" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -17378,7 +17325,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15">
+    <row r="291" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>21</v>
@@ -17399,7 +17346,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15">
+    <row r="292" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -17418,7 +17365,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15">
+    <row r="293" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>21</v>
@@ -17439,7 +17386,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15">
+    <row r="294" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -17458,7 +17405,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15">
+    <row r="295" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>21</v>
@@ -17479,7 +17426,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15">
+    <row r="296" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -17498,7 +17445,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15">
+    <row r="297" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>21</v>
@@ -17521,7 +17468,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15">
+    <row r="298" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -17540,7 +17487,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15">
+    <row r="299" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>21</v>
@@ -17565,7 +17512,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15">
+    <row r="300" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>21</v>
@@ -17588,7 +17535,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15">
+    <row r="301" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>21</v>
@@ -17611,7 +17558,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15">
+    <row r="302" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>21</v>
@@ -17634,7 +17581,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15">
+    <row r="303" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>21</v>
@@ -17657,7 +17604,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15">
+    <row r="304" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>21</v>
@@ -17680,7 +17627,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15">
+    <row r="305" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>21</v>
@@ -17703,7 +17650,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15">
+    <row r="306" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>21</v>
@@ -17726,7 +17673,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15">
+    <row r="307" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>21</v>
@@ -17749,7 +17696,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15">
+    <row r="308" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -17768,7 +17715,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15">
+    <row r="309" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>21</v>
@@ -17791,7 +17738,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15">
+    <row r="310" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>21</v>
@@ -17814,7 +17761,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15">
+    <row r="311" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>21</v>
@@ -17837,7 +17784,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15">
+    <row r="312" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>21</v>
@@ -17860,7 +17807,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15">
+    <row r="313" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -17879,7 +17826,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15">
+    <row r="314" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>21</v>
@@ -17902,7 +17849,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15">
+    <row r="315" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>21</v>
@@ -17925,7 +17872,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15">
+    <row r="316" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>21</v>
@@ -17950,7 +17897,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15">
+    <row r="317" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -17969,7 +17916,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15">
+    <row r="318" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>21</v>
@@ -17994,7 +17941,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15">
+    <row r="319" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>21</v>
@@ -18017,7 +17964,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15">
+    <row r="320" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -18036,7 +17983,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15">
+    <row r="321" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>21</v>
@@ -18057,7 +18004,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15">
+    <row r="322" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>21</v>
@@ -18078,7 +18025,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15">
+    <row r="323" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>21</v>
@@ -18101,7 +18048,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15">
+    <row r="324" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -18120,7 +18067,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15">
+    <row r="325" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -18139,7 +18086,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15">
+    <row r="326" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>21</v>
@@ -18164,7 +18111,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15">
+    <row r="327" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>21</v>
@@ -18189,7 +18136,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="328" spans="1:9">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -18203,7 +18150,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="329" spans="1:9">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B329" t="s">
         <v>21</v>
       </c>
@@ -18226,7 +18173,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="330" spans="1:9">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B330" t="s">
         <v>21</v>
       </c>
@@ -18246,7 +18193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B331" t="s">
         <v>21</v>
       </c>
@@ -18266,7 +18213,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B332" t="s">
         <v>21</v>
       </c>
@@ -18286,7 +18233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B333" t="s">
         <v>21</v>
       </c>
@@ -18303,7 +18250,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="334" spans="1:9">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B334" t="s">
         <v>21</v>
       </c>
@@ -18326,7 +18273,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="335" spans="1:9">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B335" t="s">
         <v>21</v>
       </c>
@@ -18349,7 +18296,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="336" spans="1:9">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -18363,7 +18310,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="337" spans="1:16">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B337" t="s">
         <v>21</v>
       </c>
@@ -18386,7 +18333,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="338" spans="1:16">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B338" t="s">
         <v>21</v>
       </c>
@@ -18409,7 +18356,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="339" spans="1:16">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B339" t="s">
         <v>21</v>
       </c>
@@ -18429,7 +18376,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B340" t="s">
         <v>21</v>
       </c>
@@ -18449,7 +18396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B341" t="s">
         <v>21</v>
       </c>
@@ -18466,7 +18413,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="342" spans="1:16">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
@@ -18492,7 +18439,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>21</v>
@@ -18521,7 +18468,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15">
+    <row r="344" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A344" s="17"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -18560,7 +18507,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="345" spans="1:16">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A345" t="b">
         <v>0</v>
       </c>
@@ -18574,7 +18521,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="346" spans="1:16">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B346" t="s">
         <v>21</v>
       </c>
@@ -18594,7 +18541,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16">
+    <row r="347" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -18608,7 +18555,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="348" spans="1:16">
+    <row r="348" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B348" t="s">
         <v>21</v>
       </c>
@@ -18628,7 +18575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16">
+    <row r="349" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B349" t="s">
         <v>21</v>
       </c>
@@ -18648,7 +18595,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="350" spans="1:16">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B350" t="s">
         <v>21</v>
       </c>
@@ -18668,7 +18615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16">
+    <row r="351" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B351" t="s">
         <v>21</v>
       </c>
@@ -18688,7 +18635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16">
+    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B352" t="s">
         <v>21</v>
       </c>
@@ -18708,7 +18655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18">
+    <row r="353" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B353" t="s">
         <v>21</v>
       </c>
@@ -18728,7 +18675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B354" t="s">
         <v>21</v>
       </c>
@@ -18748,7 +18695,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18">
+    <row r="355" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B355" t="s">
         <v>21</v>
       </c>
@@ -18768,7 +18715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B356" t="s">
         <v>21</v>
       </c>
@@ -18788,7 +18735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18">
+    <row r="357" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A357" t="b">
         <v>0</v>
       </c>
@@ -18802,7 +18749,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="358" spans="1:18">
+    <row r="358" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B358" t="s">
         <v>21</v>
       </c>
@@ -18822,7 +18769,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18">
+    <row r="359" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B359" t="s">
         <v>21</v>
       </c>
@@ -18842,7 +18789,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1">
+    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A360" t="b">
         <v>0</v>
       </c>
@@ -18858,7 +18805,7 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1">
+    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B361" t="s">
         <v>21</v>
       </c>
@@ -18884,7 +18831,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A362" s="17"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -18925,7 +18872,7 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18">
+    <row r="363" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A363" t="b">
         <v>0</v>
       </c>
@@ -18939,7 +18886,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="364" spans="1:18">
+    <row r="364" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B364" t="s">
         <v>21</v>
       </c>
@@ -18959,7 +18906,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18">
+    <row r="365" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A365" t="b">
         <v>0</v>
       </c>
@@ -18973,7 +18920,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="366" spans="1:18">
+    <row r="366" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B366" t="s">
         <v>21</v>
       </c>
@@ -19012,17 +18959,17 @@
       <selection activeCell="A17" sqref="A17:A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" customWidth="1"/>
+    <col min="17" max="17" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>441</v>
       </c>
@@ -19033,7 +18980,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="30" customFormat="1">
+    <row r="2" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>589</v>
       </c>
@@ -19047,7 +18994,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="30" customFormat="1">
+    <row r="3" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>592</v>
       </c>
@@ -19061,7 +19008,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="30" customFormat="1">
+    <row r="4" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>594</v>
       </c>
@@ -19075,7 +19022,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="30" customFormat="1">
+    <row r="5" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
         <v>596</v>
       </c>
@@ -19089,7 +19036,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="30" customFormat="1">
+    <row r="6" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
         <v>598</v>
       </c>
@@ -19103,7 +19050,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="30" customFormat="1">
+    <row r="7" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>440</v>
       </c>
@@ -19117,7 +19064,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="30" customFormat="1">
+    <row r="8" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
         <v>601</v>
       </c>
@@ -19131,7 +19078,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="30" customFormat="1">
+    <row r="9" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>603</v>
       </c>
@@ -19145,7 +19092,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>569</v>
       </c>
@@ -19159,7 +19106,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>454</v>
       </c>
@@ -19173,7 +19120,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>452</v>
       </c>
@@ -19184,8 +19131,8 @@
         <v>544</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="30" customFormat="1"/>
-    <row r="16" spans="1:21">
+    <row r="14" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>547</v>
       </c>
@@ -19211,7 +19158,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>548</v>
       </c>
@@ -19252,7 +19199,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -19293,7 +19240,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>542</v>
       </c>
@@ -19325,7 +19272,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>550</v>
       </c>
@@ -19357,7 +19304,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>549</v>
       </c>
@@ -19386,7 +19333,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>551</v>
       </c>
@@ -19418,7 +19365,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>552</v>
       </c>
@@ -19438,7 +19385,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>682</v>
       </c>
@@ -19461,7 +19408,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L25" s="1" t="s">
         <v>558</v>
       </c>
@@ -19472,7 +19419,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L26" s="1" t="s">
         <v>539</v>
       </c>
@@ -19480,7 +19427,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L27" s="1" t="s">
         <v>541</v>
       </c>

--- a/projects/office_ee.xlsx
+++ b/projects/office_ee.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Outputs!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$Z$126</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$Z$125</definedName>
     <definedName name="AnalysisType">Lookups!$A$17:$A$23</definedName>
     <definedName name="instance_defs">Lookups!$A$2:$D$9</definedName>
     <definedName name="instance_types">Lookups!$A$2:$A$9</definedName>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2574" uniqueCount="839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2568" uniqueCount="835">
   <si>
     <t>type</t>
   </si>
@@ -2407,30 +2407,12 @@
     <t>calibration_data</t>
   </si>
   <si>
-    <t>Add Ptac</t>
-  </si>
-  <si>
-    <t>AddPTAC</t>
-  </si>
-  <si>
     <t>Heating Efficiency</t>
   </si>
   <si>
     <t>heating_efficiency</t>
   </si>
   <si>
-    <t>Heating Fuel Type</t>
-  </si>
-  <si>
-    <t>heating_fuel_type</t>
-  </si>
-  <si>
-    <t>Gas</t>
-  </si>
-  <si>
-    <t>|Gas,Electric|</t>
-  </si>
-  <si>
     <t>Cooling COP</t>
   </si>
   <si>
@@ -2558,6 +2540,12 @@
   </si>
   <si>
     <t>Replace All T12 Lamps with 25W T8 Lamps</t>
+  </si>
+  <si>
+    <t>AddSys3PSZACNgrid</t>
+  </si>
+  <si>
+    <t>Add Sys 3 - PSZ-AC Ngrid</t>
   </si>
 </sst>
 </file>
@@ -6957,7 +6945,7 @@
         <v>25</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>770</v>
@@ -6968,7 +6956,7 @@
         <v>26</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="E14" s="31" t="s">
         <v>770</v>
@@ -7206,7 +7194,7 @@
         <v>787</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -7237,11 +7225,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y199"/>
+  <dimension ref="A1:Y198"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B96" sqref="B96"/>
+      <pane ySplit="3" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7922,13 +7910,13 @@
         <v>1</v>
       </c>
       <c r="B33" s="38" t="s">
-        <v>788</v>
+        <v>834</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>789</v>
+        <v>833</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>789</v>
+        <v>833</v>
       </c>
       <c r="E33" s="38" t="s">
         <v>68</v>
@@ -7939,10 +7927,10 @@
         <v>21</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="F34" s="30" t="s">
         <v>64</v>
@@ -7956,72 +7944,80 @@
         <v>21</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="F35" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H35" s="30" t="s">
-        <v>794</v>
-      </c>
-      <c r="I35" s="30" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="30" t="s">
-        <v>796</v>
-      </c>
-      <c r="E36" s="30" t="s">
-        <v>797</v>
-      </c>
-      <c r="F36" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H36" s="30">
+      <c r="H35" s="30">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="38" t="b">
+    <row r="36" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="B37" s="38" t="s">
+      <c r="B36" s="38" t="s">
         <v>680</v>
       </c>
-      <c r="C37" s="38" t="s">
+      <c r="C36" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="D37" s="38" t="s">
+      <c r="D36" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="E37" s="38" t="s">
+      <c r="E36" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B37" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>683</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="F37" s="31" t="s">
+        <v>619</v>
+      </c>
+      <c r="H37" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="2"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B38" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D38" s="31" t="s">
-        <v>683</v>
+        <v>667</v>
       </c>
       <c r="E38" s="31" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F38" s="31" t="s">
         <v>619</v>
       </c>
+      <c r="G38" s="31" t="s">
+        <v>668</v>
+      </c>
       <c r="H38" s="31">
-        <v>0.4</v>
+        <v>30</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
@@ -8037,19 +8033,19 @@
         <v>21</v>
       </c>
       <c r="D39" s="31" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="E39" s="31" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F39" s="31" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G39" s="31" t="s">
         <v>668</v>
       </c>
-      <c r="H39" s="31">
-        <v>30</v>
+      <c r="H39" s="31" t="s">
+        <v>669</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
@@ -8060,68 +8056,68 @@
       <c r="P39" s="40"/>
       <c r="Q39" s="2"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B40" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D40" s="31" t="s">
-        <v>672</v>
-      </c>
-      <c r="E40" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="F40" s="31" t="s">
-        <v>618</v>
-      </c>
-      <c r="G40" s="31" t="s">
-        <v>668</v>
-      </c>
-      <c r="H40" s="31" t="s">
-        <v>669</v>
-      </c>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="2"/>
-    </row>
-    <row r="41" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="38" t="b">
+    <row r="40" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="B41" s="38" t="s">
+      <c r="B40" s="38" t="s">
         <v>687</v>
       </c>
-      <c r="C41" s="38" t="s">
+      <c r="C40" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="D41" s="38" t="s">
+      <c r="D40" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="E41" s="38" t="s">
+      <c r="E40" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B41" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="31" t="s">
+        <v>684</v>
+      </c>
+      <c r="E41" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="F41" s="31" t="s">
+        <v>619</v>
+      </c>
+      <c r="H41" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="2"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B42" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D42" s="31" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="E42" s="31" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F42" s="31" t="s">
         <v>619</v>
       </c>
+      <c r="G42" s="31" t="s">
+        <v>668</v>
+      </c>
       <c r="H42" s="31">
-        <v>0.4</v>
+        <v>30</v>
       </c>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
@@ -8137,19 +8133,19 @@
         <v>21</v>
       </c>
       <c r="D43" s="31" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="E43" s="31" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F43" s="31" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G43" s="31" t="s">
         <v>668</v>
       </c>
-      <c r="H43" s="31">
-        <v>30</v>
+      <c r="H43" s="31" t="s">
+        <v>82</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
@@ -8160,68 +8156,68 @@
       <c r="P43" s="40"/>
       <c r="Q43" s="2"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B44" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D44" s="31" t="s">
-        <v>673</v>
-      </c>
-      <c r="E44" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="F44" s="31" t="s">
-        <v>618</v>
-      </c>
-      <c r="G44" s="31" t="s">
-        <v>668</v>
-      </c>
-      <c r="H44" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="2"/>
-    </row>
-    <row r="45" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="38" t="b">
+    <row r="44" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="B45" s="38" t="s">
+      <c r="B44" s="38" t="s">
         <v>688</v>
       </c>
-      <c r="C45" s="38" t="s">
+      <c r="C44" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="D45" s="38" t="s">
+      <c r="D44" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="E45" s="38" t="s">
+      <c r="E44" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B45" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>685</v>
+      </c>
+      <c r="E45" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="F45" s="31" t="s">
+        <v>619</v>
+      </c>
+      <c r="H45" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="P45" s="40"/>
+      <c r="Q45" s="2"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B46" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D46" s="31" t="s">
-        <v>685</v>
+        <v>667</v>
       </c>
       <c r="E46" s="31" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F46" s="31" t="s">
         <v>619</v>
       </c>
+      <c r="G46" s="31" t="s">
+        <v>668</v>
+      </c>
       <c r="H46" s="31">
-        <v>0.4</v>
+        <v>30</v>
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
@@ -8237,19 +8233,19 @@
         <v>21</v>
       </c>
       <c r="D47" s="31" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="E47" s="31" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F47" s="31" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G47" s="31" t="s">
         <v>668</v>
       </c>
-      <c r="H47" s="31">
-        <v>30</v>
+      <c r="H47" s="31" t="s">
+        <v>670</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
@@ -8260,68 +8256,68 @@
       <c r="P47" s="40"/>
       <c r="Q47" s="2"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B48" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D48" s="31" t="s">
-        <v>674</v>
-      </c>
-      <c r="E48" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="F48" s="31" t="s">
-        <v>618</v>
-      </c>
-      <c r="G48" s="31" t="s">
-        <v>668</v>
-      </c>
-      <c r="H48" s="31" t="s">
-        <v>670</v>
-      </c>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="P48" s="40"/>
-      <c r="Q48" s="2"/>
-    </row>
-    <row r="49" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="38" t="b">
+    <row r="48" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="B49" s="38" t="s">
+      <c r="B48" s="38" t="s">
         <v>681</v>
       </c>
-      <c r="C49" s="38" t="s">
+      <c r="C48" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="D49" s="38" t="s">
+      <c r="D48" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="E49" s="38" t="s">
+      <c r="E48" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B49" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="31" t="s">
+        <v>686</v>
+      </c>
+      <c r="E49" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="F49" s="31" t="s">
+        <v>619</v>
+      </c>
+      <c r="H49" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="P49" s="40"/>
+      <c r="Q49" s="2"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B50" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D50" s="31" t="s">
-        <v>686</v>
+        <v>667</v>
       </c>
       <c r="E50" s="31" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F50" s="31" t="s">
         <v>619</v>
       </c>
+      <c r="G50" s="31" t="s">
+        <v>668</v>
+      </c>
       <c r="H50" s="31">
-        <v>0.4</v>
+        <v>30</v>
       </c>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
@@ -8337,19 +8333,19 @@
         <v>21</v>
       </c>
       <c r="D51" s="31" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="E51" s="31" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F51" s="31" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G51" s="31" t="s">
         <v>668</v>
       </c>
-      <c r="H51" s="31">
-        <v>30</v>
+      <c r="H51" s="31" t="s">
+        <v>671</v>
       </c>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
@@ -8360,68 +8356,58 @@
       <c r="P51" s="40"/>
       <c r="Q51" s="2"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B52" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D52" s="31" t="s">
-        <v>675</v>
-      </c>
-      <c r="E52" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="F52" s="31" t="s">
+    <row r="52" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="B52" s="38" t="s">
+        <v>691</v>
+      </c>
+      <c r="C52" s="38" t="s">
+        <v>690</v>
+      </c>
+      <c r="D52" s="38" t="s">
+        <v>690</v>
+      </c>
+      <c r="E52" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B53" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" s="31" t="s">
+        <v>693</v>
+      </c>
+      <c r="E53" s="31" t="s">
+        <v>692</v>
+      </c>
+      <c r="F53" s="31" t="s">
         <v>618</v>
       </c>
-      <c r="G52" s="31" t="s">
-        <v>668</v>
-      </c>
-      <c r="H52" s="31" t="s">
-        <v>671</v>
-      </c>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
-      <c r="P52" s="40"/>
-      <c r="Q52" s="2"/>
-    </row>
-    <row r="53" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="B53" s="38" t="s">
-        <v>691</v>
-      </c>
-      <c r="C53" s="38" t="s">
-        <v>690</v>
-      </c>
-      <c r="D53" s="38" t="s">
-        <v>690</v>
-      </c>
-      <c r="E53" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
+      <c r="H53" s="31" t="s">
+        <v>702</v>
+      </c>
+      <c r="I53" s="31"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B54" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D54" s="31" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="E54" s="31" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="F54" s="31" t="s">
         <v>618</v>
       </c>
       <c r="H54" s="31" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="I54" s="31"/>
     </row>
@@ -8430,16 +8416,16 @@
         <v>21</v>
       </c>
       <c r="D55" s="31" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="E55" s="31" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="F55" s="31" t="s">
         <v>618</v>
       </c>
-      <c r="H55" s="31" t="s">
-        <v>703</v>
+      <c r="H55" s="41" t="s">
+        <v>701</v>
       </c>
       <c r="I55" s="31"/>
     </row>
@@ -8448,109 +8434,108 @@
         <v>21</v>
       </c>
       <c r="D56" s="31" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F56" s="31" t="s">
         <v>618</v>
       </c>
       <c r="H56" s="41" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I56" s="31"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B57" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D57" s="31" t="s">
-        <v>699</v>
-      </c>
-      <c r="E57" s="31" t="s">
-        <v>697</v>
-      </c>
-      <c r="F57" s="31" t="s">
-        <v>618</v>
-      </c>
-      <c r="H57" s="41" t="s">
-        <v>700</v>
-      </c>
-      <c r="I57" s="31"/>
+    <row r="57" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="B57" s="38" t="s">
+        <v>705</v>
+      </c>
+      <c r="C57" s="38" t="s">
+        <v>704</v>
+      </c>
+      <c r="D57" s="38" t="s">
+        <v>704</v>
+      </c>
+      <c r="E57" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="G57" s="39"/>
+      <c r="H57" s="39"/>
     </row>
     <row r="58" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B58" s="38" t="s">
-        <v>705</v>
+        <v>775</v>
       </c>
       <c r="C58" s="38" t="s">
-        <v>704</v>
+        <v>76</v>
       </c>
       <c r="D58" s="38" t="s">
-        <v>704</v>
+        <v>76</v>
       </c>
       <c r="E58" s="38" t="s">
-        <v>233</v>
+        <v>68</v>
       </c>
       <c r="G58" s="39"/>
       <c r="H58" s="39"/>
     </row>
-    <row r="59" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="B59" s="38" t="s">
-        <v>775</v>
-      </c>
-      <c r="C59" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D59" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="E59" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="G59" s="39"/>
-      <c r="H59" s="39"/>
-    </row>
-    <row r="60" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="D60" s="43" t="s">
+    <row r="59" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" s="43" t="s">
         <v>776</v>
       </c>
-      <c r="E60" s="43" t="s">
+      <c r="E59" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="F60" s="43" t="s">
+      <c r="F59" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="H60" s="43">
+      <c r="H59" s="43">
         <v>0.44400000000000001</v>
       </c>
-      <c r="J60" s="43">
+      <c r="J59" s="43">
         <v>0.3</v>
       </c>
-      <c r="K60" s="43">
+      <c r="K59" s="43">
         <v>0.5</v>
       </c>
-      <c r="L60" s="43">
+      <c r="L59" s="43">
         <v>0.4</v>
       </c>
-      <c r="M60" s="43">
-        <f>(K60+J60)/6</f>
+      <c r="M59" s="43">
+        <f>(K59+J59)/6</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="N60" s="43">
+      <c r="N59" s="43">
         <v>0.01</v>
       </c>
-      <c r="Q60" s="43" t="s">
+      <c r="Q59" s="43" t="s">
         <v>777</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="E60" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="F60" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="H60" s="30">
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -8558,91 +8543,91 @@
         <v>21</v>
       </c>
       <c r="D61" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E61" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="F61" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H61" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="I61" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="B62" s="38" t="s">
+        <v>778</v>
+      </c>
+      <c r="C62" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D62" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="E62" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="G62" s="39"/>
+      <c r="H62" s="39"/>
+    </row>
+    <row r="63" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" s="43" t="s">
+        <v>779</v>
+      </c>
+      <c r="E63" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="F63" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H63" s="43">
+        <v>0.2</v>
+      </c>
+      <c r="J63" s="43">
+        <v>0.3</v>
+      </c>
+      <c r="K63" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="L63" s="43">
+        <v>0.4</v>
+      </c>
+      <c r="M63" s="43">
+        <f>(K63+J63)/6</f>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="N63" s="43">
+        <v>0.01</v>
+      </c>
+      <c r="Q63" s="43" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="E61" s="30" t="s">
+      <c r="E64" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="F61" s="30" t="s">
+      <c r="F64" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H61" s="30">
+      <c r="H64" s="30">
         <v>30</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D62" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="E62" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="F62" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H62" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="I62" s="30" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="B63" s="38" t="s">
-        <v>778</v>
-      </c>
-      <c r="C63" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D63" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="E63" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="G63" s="39"/>
-      <c r="H63" s="39"/>
-    </row>
-    <row r="64" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="D64" s="43" t="s">
-        <v>779</v>
-      </c>
-      <c r="E64" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="F64" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="H64" s="43">
-        <v>0.2</v>
-      </c>
-      <c r="J64" s="43">
-        <v>0.3</v>
-      </c>
-      <c r="K64" s="43">
-        <v>0.5</v>
-      </c>
-      <c r="L64" s="43">
-        <v>0.4</v>
-      </c>
-      <c r="M64" s="43">
-        <f>(K64+J64)/6</f>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="N64" s="43">
-        <v>0.01</v>
-      </c>
-      <c r="Q64" s="43" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="65" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -8650,91 +8635,91 @@
         <v>21</v>
       </c>
       <c r="D65" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E65" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="F65" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H65" s="30" t="s">
+        <v>670</v>
+      </c>
+      <c r="I65" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="B66" s="38" t="s">
+        <v>780</v>
+      </c>
+      <c r="C66" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D66" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="E66" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="G66" s="39"/>
+      <c r="H66" s="39"/>
+    </row>
+    <row r="67" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" s="43" t="s">
+        <v>781</v>
+      </c>
+      <c r="E67" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="F67" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H67" s="43">
+        <v>0.3</v>
+      </c>
+      <c r="J67" s="43">
+        <v>0.3</v>
+      </c>
+      <c r="K67" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="L67" s="43">
+        <v>0.4</v>
+      </c>
+      <c r="M67" s="43">
+        <f>(K67+J67)/6</f>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="N67" s="43">
+        <v>0.01</v>
+      </c>
+      <c r="Q67" s="43" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="E65" s="30" t="s">
+      <c r="E68" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="F65" s="30" t="s">
+      <c r="F68" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H65" s="30">
+      <c r="H68" s="30">
         <v>30</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D66" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="E66" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="F66" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H66" s="30" t="s">
-        <v>670</v>
-      </c>
-      <c r="I66" s="30" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="B67" s="38" t="s">
-        <v>780</v>
-      </c>
-      <c r="C67" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D67" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="E67" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="G67" s="39"/>
-      <c r="H67" s="39"/>
-    </row>
-    <row r="68" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="D68" s="43" t="s">
-        <v>781</v>
-      </c>
-      <c r="E68" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="F68" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="H68" s="43">
-        <v>0.3</v>
-      </c>
-      <c r="J68" s="43">
-        <v>0.3</v>
-      </c>
-      <c r="K68" s="43">
-        <v>0.5</v>
-      </c>
-      <c r="L68" s="43">
-        <v>0.4</v>
-      </c>
-      <c r="M68" s="43">
-        <f>(K68+J68)/6</f>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="N68" s="43">
-        <v>0.01</v>
-      </c>
-      <c r="Q68" s="43" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="69" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -8742,123 +8727,124 @@
         <v>21</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E69" s="30" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F69" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H69" s="30" t="s">
+        <v>671</v>
+      </c>
+      <c r="I69" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="B70" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C70" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="D70" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="G70" s="39"/>
+      <c r="H70" s="39"/>
+    </row>
+    <row r="71" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E71" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F71" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H71" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="I71" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="O71" s="31"/>
+    </row>
+    <row r="72" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" s="44" t="s">
+        <v>782</v>
+      </c>
+      <c r="E72" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="F72" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="H69" s="30">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D70" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="E70" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="F70" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H70" s="30" t="s">
-        <v>671</v>
-      </c>
-      <c r="I70" s="30" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="B71" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="C71" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="D71" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="E71" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="G71" s="39"/>
-      <c r="H71" s="39"/>
-    </row>
-    <row r="72" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D72" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="E72" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="F72" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H72" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="I72" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="O72" s="31"/>
-    </row>
-    <row r="73" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="D73" s="44" t="s">
-        <v>782</v>
-      </c>
-      <c r="E73" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="F73" s="43" t="s">
+      <c r="H72" s="43">
+        <v>-20</v>
+      </c>
+      <c r="J72" s="45">
+        <v>-100</v>
+      </c>
+      <c r="K72" s="45">
+        <v>100</v>
+      </c>
+      <c r="L72" s="45">
+        <v>0</v>
+      </c>
+      <c r="M72" s="45">
+        <f>(K72-J72)/6</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="N72" s="45">
+        <v>2.5</v>
+      </c>
+      <c r="Q72" s="43" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E73" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="F73" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H73" s="43">
-        <v>-20</v>
-      </c>
-      <c r="J73" s="45">
-        <v>-100</v>
-      </c>
-      <c r="K73" s="45">
-        <v>100</v>
-      </c>
-      <c r="L73" s="45">
-        <v>0</v>
-      </c>
-      <c r="M73" s="45">
-        <f>(K73-J73)/6</f>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="N73" s="45">
-        <v>2.5</v>
-      </c>
-      <c r="Q73" s="43" t="s">
-        <v>777</v>
-      </c>
+      <c r="H73" s="30">
+        <v>0</v>
+      </c>
+      <c r="O73" s="31"/>
     </row>
     <row r="74" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D74" s="30" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E74" s="30" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F74" s="30" t="s">
         <v>64</v>
@@ -8873,122 +8859,130 @@
         <v>21</v>
       </c>
       <c r="D75" s="30" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E75" s="30" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F75" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="H75" s="30">
+        <v>1</v>
+      </c>
+      <c r="O75" s="31"/>
+    </row>
+    <row r="76" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="B76" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C76" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D76" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="E76" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="G76" s="39"/>
+      <c r="H76" s="39"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A77" s="30"/>
+      <c r="B77" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C77" s="30"/>
+      <c r="D77" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E77" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F77" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G77" s="30"/>
+      <c r="H77" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="I77" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3"/>
+      <c r="P77" s="40"/>
+    </row>
+    <row r="78" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D78" s="43" t="s">
+        <v>783</v>
+      </c>
+      <c r="E78" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="F78" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="H75" s="30">
-        <v>0</v>
-      </c>
-      <c r="O75" s="31"/>
-    </row>
-    <row r="76" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D76" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="E76" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="F76" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="H76" s="30">
-        <v>1</v>
-      </c>
-      <c r="O76" s="31"/>
-    </row>
-    <row r="77" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="B77" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="C77" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="D77" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="E77" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="G77" s="39"/>
-      <c r="H77" s="39"/>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A78" s="30"/>
-      <c r="B78" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C78" s="30"/>
-      <c r="D78" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="E78" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="F78" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G78" s="30"/>
-      <c r="H78" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="I78" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
-      <c r="L78" s="3"/>
-      <c r="M78" s="3"/>
-      <c r="N78" s="3"/>
-      <c r="P78" s="40"/>
-    </row>
-    <row r="79" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="D79" s="43" t="s">
-        <v>783</v>
-      </c>
-      <c r="E79" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="F79" s="43" t="s">
+      <c r="H78" s="43">
+        <v>30</v>
+      </c>
+      <c r="I78" s="46"/>
+      <c r="J78" s="45">
+        <v>-40</v>
+      </c>
+      <c r="K78" s="45">
+        <v>40</v>
+      </c>
+      <c r="L78" s="45">
+        <v>-1</v>
+      </c>
+      <c r="M78" s="45">
+        <f>(K78-J78)/6</f>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="N78" s="45">
+        <v>2.5</v>
+      </c>
+      <c r="P78" s="47"/>
+      <c r="Q78" s="43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A79" s="30"/>
+      <c r="B79" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C79" s="30"/>
+      <c r="D79" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="E79" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="F79" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H79" s="43">
-        <v>30</v>
-      </c>
-      <c r="I79" s="46"/>
-      <c r="J79" s="45">
-        <v>-40</v>
-      </c>
-      <c r="K79" s="45">
-        <v>40</v>
-      </c>
-      <c r="L79" s="45">
-        <v>-1</v>
-      </c>
-      <c r="M79" s="45">
-        <f>(K79-J79)/6</f>
-        <v>13.333333333333334</v>
-      </c>
-      <c r="N79" s="45">
-        <v>2.5</v>
-      </c>
-      <c r="P79" s="47"/>
-      <c r="Q79" s="43" t="s">
-        <v>24</v>
-      </c>
+      <c r="G79" s="30"/>
+      <c r="H79" s="30">
+        <v>0</v>
+      </c>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="3"/>
+      <c r="P79" s="40"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="30"/>
@@ -8996,11 +8990,11 @@
         <v>21</v>
       </c>
       <c r="C80" s="30"/>
-      <c r="D80" s="48" t="s">
-        <v>47</v>
+      <c r="D80" s="30" t="s">
+        <v>49</v>
       </c>
       <c r="E80" s="30" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F80" s="30" t="s">
         <v>64</v>
@@ -9023,13 +9017,13 @@
       </c>
       <c r="C81" s="30"/>
       <c r="D81" s="30" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E81" s="30" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F81" s="30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G81" s="30"/>
       <c r="H81" s="30">
@@ -9049,17 +9043,17 @@
       </c>
       <c r="C82" s="30"/>
       <c r="D82" s="30" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E82" s="30" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F82" s="30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G82" s="30"/>
-      <c r="H82" s="30">
-        <v>0</v>
+      <c r="H82" s="30" t="b">
+        <v>1</v>
       </c>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
@@ -9075,17 +9069,17 @@
       </c>
       <c r="C83" s="30"/>
       <c r="D83" s="30" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E83" s="30" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F83" s="30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G83" s="30"/>
-      <c r="H83" s="30" t="b">
-        <v>1</v>
+      <c r="H83" s="30">
+        <v>15</v>
       </c>
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
@@ -9101,17 +9095,17 @@
       </c>
       <c r="C84" s="30"/>
       <c r="D84" s="30" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E84" s="30" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F84" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G84" s="30"/>
       <c r="H84" s="30">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
@@ -9127,17 +9121,17 @@
       </c>
       <c r="C85" s="30"/>
       <c r="D85" s="30" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E85" s="30" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F85" s="30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G85" s="30"/>
       <c r="H85" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
@@ -9146,44 +9140,42 @@
       <c r="N85" s="3"/>
       <c r="P85" s="40"/>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A86" s="30"/>
-      <c r="B86" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C86" s="30"/>
-      <c r="D86" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="E86" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="F86" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G86" s="30"/>
-      <c r="H86" s="30">
+    <row r="86" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
-      <c r="L86" s="3"/>
-      <c r="M86" s="3"/>
-      <c r="N86" s="3"/>
-      <c r="P86" s="40"/>
+      <c r="B86" s="49" t="s">
+        <v>804</v>
+      </c>
+      <c r="C86" s="49" t="s">
+        <v>803</v>
+      </c>
+      <c r="D86" s="49" t="s">
+        <v>803</v>
+      </c>
+      <c r="E86" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="J86" s="50"/>
+      <c r="K86" s="51"/>
+      <c r="L86" s="51"/>
+      <c r="M86" s="51"/>
+      <c r="N86" s="51"/>
+      <c r="O86" s="51"/>
+      <c r="Q86" s="52"/>
     </row>
     <row r="87" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="49" t="b">
         <v>1</v>
       </c>
       <c r="B87" s="49" t="s">
-        <v>810</v>
+        <v>832</v>
       </c>
       <c r="C87" s="49" t="s">
-        <v>809</v>
+        <v>831</v>
       </c>
       <c r="D87" s="49" t="s">
-        <v>809</v>
+        <v>831</v>
       </c>
       <c r="E87" s="49" t="s">
         <v>68</v>
@@ -9196,105 +9188,101 @@
       <c r="O87" s="51"/>
       <c r="Q87" s="52"/>
     </row>
-    <row r="88" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="49" t="b">
+    <row r="88" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="22" t="b">
         <v>1</v>
       </c>
-      <c r="B88" s="49" t="s">
-        <v>838</v>
-      </c>
-      <c r="C88" s="49" t="s">
-        <v>837</v>
-      </c>
-      <c r="D88" s="49" t="s">
-        <v>837</v>
-      </c>
-      <c r="E88" s="49" t="s">
+      <c r="B88" s="22" t="s">
+        <v>801</v>
+      </c>
+      <c r="C88" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="D88" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="E88" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="J88" s="50"/>
-      <c r="K88" s="51"/>
-      <c r="L88" s="51"/>
-      <c r="M88" s="51"/>
-      <c r="N88" s="51"/>
-      <c r="O88" s="51"/>
-      <c r="Q88" s="52"/>
-    </row>
-    <row r="89" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="B89" s="22" t="s">
-        <v>807</v>
-      </c>
-      <c r="C89" s="22" t="s">
-        <v>286</v>
-      </c>
-      <c r="D89" s="22" t="s">
-        <v>286</v>
-      </c>
-      <c r="E89" s="22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="18"/>
-      <c r="B90" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D90" s="30" t="s">
+    </row>
+    <row r="89" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="18"/>
+      <c r="B89" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D89" s="30" t="s">
         <v>373</v>
       </c>
-      <c r="E90" s="30" t="s">
+      <c r="E89" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="F90" s="30" t="s">
+      <c r="F89" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="H90" s="30" t="s">
+      <c r="H89" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="I90" s="30" t="s">
+      <c r="I89" s="30" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="91" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="43" t="s">
+    <row r="90" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D91" s="43" t="s">
-        <v>808</v>
-      </c>
-      <c r="E91" s="43" t="s">
+      <c r="D90" s="43" t="s">
+        <v>802</v>
+      </c>
+      <c r="E90" s="43" t="s">
         <v>288</v>
       </c>
-      <c r="F91" s="43" t="s">
+      <c r="F90" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="G91" s="43" t="s">
-        <v>798</v>
-      </c>
-      <c r="H91" s="43">
-        <v>0</v>
-      </c>
-      <c r="J91" s="43">
-        <v>0</v>
-      </c>
-      <c r="K91" s="43">
+      <c r="G90" s="43" t="s">
+        <v>792</v>
+      </c>
+      <c r="H90" s="43">
+        <v>0</v>
+      </c>
+      <c r="J90" s="43">
+        <v>0</v>
+      </c>
+      <c r="K90" s="43">
         <v>40</v>
       </c>
-      <c r="L91" s="43">
+      <c r="L90" s="43">
         <v>-1</v>
       </c>
-      <c r="M91" s="45">
-        <f>(K91-J91)/6</f>
+      <c r="M90" s="45">
+        <f>(K90-J90)/6</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="N91" s="45">
+      <c r="N90" s="45">
         <v>2.5</v>
       </c>
-      <c r="Q91" s="43" t="s">
+      <c r="Q90" s="43" t="s">
         <v>777</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D91" s="30" t="s">
+        <v>793</v>
+      </c>
+      <c r="E91" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="F91" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G91" s="30" t="s">
+        <v>792</v>
+      </c>
+      <c r="H91" s="30">
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -9302,16 +9290,16 @@
         <v>21</v>
       </c>
       <c r="D92" s="30" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="E92" s="30" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F92" s="30" t="s">
         <v>64</v>
       </c>
       <c r="G92" s="30" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="H92" s="30">
         <v>0</v>
@@ -9322,16 +9310,16 @@
         <v>21</v>
       </c>
       <c r="D93" s="30" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="E93" s="30" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F93" s="30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G93" s="30" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="H93" s="30">
         <v>0</v>
@@ -9342,18 +9330,15 @@
         <v>21</v>
       </c>
       <c r="D94" s="30" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="E94" s="30" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F94" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G94" s="30" t="s">
-        <v>802</v>
-      </c>
-      <c r="H94" s="30">
+        <v>63</v>
+      </c>
+      <c r="H94" s="30" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9362,16 +9347,19 @@
         <v>21</v>
       </c>
       <c r="D95" s="30" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="E95" s="30" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F95" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H95" s="30" t="b">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="G95" s="30" t="s">
+        <v>796</v>
+      </c>
+      <c r="H95" s="30">
+        <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -9379,19 +9367,19 @@
         <v>21</v>
       </c>
       <c r="D96" s="30" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="E96" s="30" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F96" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G96" s="30" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
       <c r="H96" s="30">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -9399,40 +9387,24 @@
         <v>21</v>
       </c>
       <c r="D97" s="30" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="E97" s="30" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F97" s="30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G97" s="30" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="H97" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D98" s="30" t="s">
-        <v>806</v>
-      </c>
-      <c r="E98" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="F98" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G98" s="30" t="s">
-        <v>802</v>
-      </c>
-      <c r="H98" s="30">
         <v>1</v>
       </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H98" s="31"/>
+      <c r="I98" s="31"/>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H99" s="31"/>
@@ -9478,11 +9450,11 @@
       <c r="H109" s="31"/>
       <c r="I109" s="31"/>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" ht="409.6" x14ac:dyDescent="0">
       <c r="H110" s="31"/>
       <c r="I110" s="31"/>
     </row>
-    <row r="111" spans="2:9" ht="409.6" x14ac:dyDescent="0">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H111" s="31"/>
       <c r="I111" s="31"/>
     </row>
@@ -9834,12 +9806,8 @@
       <c r="H198" s="31"/>
       <c r="I198" s="31"/>
     </row>
-    <row r="199" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H199" s="31"/>
-      <c r="I199" s="31"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A2:Z126"/>
+  <autoFilter ref="A2:Z125"/>
   <mergeCells count="1">
     <mergeCell ref="T1:Y1"/>
   </mergeCells>
@@ -10084,7 +10052,7 @@
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="30" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>708</v>
@@ -10112,7 +10080,7 @@
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="30" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="D9" s="30" t="s">
         <v>710</v>
@@ -10140,7 +10108,7 @@
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="30" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>708</v>
@@ -10168,7 +10136,7 @@
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="30" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>708</v>
@@ -10196,7 +10164,7 @@
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>708</v>
@@ -10224,7 +10192,7 @@
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>708</v>
@@ -10252,7 +10220,7 @@
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="30" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="D14" s="30" t="s">
         <v>708</v>
@@ -10280,7 +10248,7 @@
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="30" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="D15" s="30" t="s">
         <v>708</v>
@@ -10308,7 +10276,7 @@
       </c>
       <c r="B16" s="30"/>
       <c r="C16" s="30" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="D16" s="30" t="s">
         <v>708</v>
@@ -10336,7 +10304,7 @@
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="30" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="D17" s="30" t="s">
         <v>708</v>
@@ -10364,7 +10332,7 @@
       </c>
       <c r="B18" s="30"/>
       <c r="C18" s="30" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="D18" s="30" t="s">
         <v>708</v>
@@ -10392,7 +10360,7 @@
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="30" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="D19" s="30" t="s">
         <v>708</v>
@@ -10420,7 +10388,7 @@
       </c>
       <c r="B20" s="30"/>
       <c r="C20" s="30" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="D20" s="30" t="s">
         <v>708</v>
@@ -10448,7 +10416,7 @@
       </c>
       <c r="B21" s="30"/>
       <c r="C21" s="30" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="D21" s="30" t="s">
         <v>724</v>
@@ -10476,7 +10444,7 @@
       </c>
       <c r="B22" s="30"/>
       <c r="C22" s="30" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="D22" s="30" t="s">
         <v>724</v>
@@ -10504,7 +10472,7 @@
       </c>
       <c r="B23" s="30"/>
       <c r="C23" s="30" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="D23" s="30" t="s">
         <v>724</v>
@@ -10532,7 +10500,7 @@
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="30" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="D24" s="30" t="s">
         <v>724</v>
@@ -10560,7 +10528,7 @@
       </c>
       <c r="B25" s="30"/>
       <c r="C25" s="30" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="D25" s="30" t="s">
         <v>724</v>
@@ -10588,7 +10556,7 @@
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="D26" s="30" t="s">
         <v>724</v>
@@ -10616,7 +10584,7 @@
       </c>
       <c r="B27" s="30"/>
       <c r="C27" s="30" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="D27" s="30" t="s">
         <v>724</v>
@@ -10644,7 +10612,7 @@
       </c>
       <c r="B28" s="30"/>
       <c r="C28" s="30" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="D28" s="30" t="s">
         <v>724</v>
@@ -10672,7 +10640,7 @@
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="D29" s="30" t="s">
         <v>724</v>
@@ -10700,7 +10668,7 @@
       </c>
       <c r="B30" s="30"/>
       <c r="C30" s="30" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="D30" s="30" t="s">
         <v>724</v>

--- a/projects/office_ee.xlsx
+++ b/projects/office_ee.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Outputs!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$Z$125</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$Z$130</definedName>
     <definedName name="AnalysisType">Lookups!$A$17:$A$23</definedName>
     <definedName name="instance_defs">Lookups!$A$2:$D$9</definedName>
     <definedName name="instance_types">Lookups!$A$2:$A$9</definedName>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2568" uniqueCount="835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2686" uniqueCount="852">
   <si>
     <t>type</t>
   </si>
@@ -2546,6 +2546,57 @@
   </si>
   <si>
     <t>Add Sys 3 - PSZ-AC Ngrid</t>
+  </si>
+  <si>
+    <t>Choose an Air Loop to Alter</t>
+  </si>
+  <si>
+    <t>Remove Baseline Costs From Effected AirLoopHVACOutdoorAirSystems</t>
+  </si>
+  <si>
+    <t>Material and Installation Costs per Air Loop to Enable Demand Controlled Ventilation</t>
+  </si>
+  <si>
+    <t>Demolition Costs per Air Loop to Enable Demand Controlled Ventilation</t>
+  </si>
+  <si>
+    <t>FixedEnthalpy</t>
+  </si>
+  <si>
+    <t>|FixedDryBulb,FixedEnthalpy,DifferentialDryBulb,DifferentialEnthalpy,FixedDewPointAndDryBulb,NoEconomizer|</t>
+  </si>
+  <si>
+    <t>Economizer Control Type</t>
+  </si>
+  <si>
+    <t>Economizer Maximum Limit Dry-Bulb Temperature</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Btu/lb</t>
+  </si>
+  <si>
+    <t>Economizer Maximum Enthalpy</t>
+  </si>
+  <si>
+    <t>Economizer Maximum Limit Dewpoint Temperature</t>
+  </si>
+  <si>
+    <t>Economizer Minimum Limit Dry-Bulb Temperature</t>
+  </si>
+  <si>
+    <t>Material and Installation Costs per Air Loop to Enable Economizer</t>
+  </si>
+  <si>
+    <t>Demolition Costs per Air Loop to Enable Economizer</t>
+  </si>
+  <si>
+    <t>O &amp; M Costs per Air Loop for Economizer</t>
+  </si>
+  <si>
+    <t>O &amp; M Costs per Air Loop for Demand Controlled Ventilation</t>
   </si>
 </sst>
 </file>
@@ -7225,11 +7276,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y198"/>
+  <dimension ref="A1:Y203"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+      <pane ySplit="3" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9382,7 +9433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B97" s="30" t="s">
         <v>21</v>
       </c>
@@ -9402,127 +9453,533 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H98" s="31"/>
-      <c r="I98" s="31"/>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H99" s="31"/>
-      <c r="I99" s="31"/>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H100" s="31"/>
+    <row r="98" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="B98" s="49" t="s">
+        <v>209</v>
+      </c>
+      <c r="C98" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="D98" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="E98" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="J98" s="50"/>
+      <c r="K98" s="51"/>
+      <c r="L98" s="51"/>
+      <c r="M98" s="51"/>
+      <c r="N98" s="51"/>
+      <c r="O98" s="51"/>
+      <c r="Q98" s="52"/>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B99" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D99" s="31" t="s">
+        <v>835</v>
+      </c>
+      <c r="E99" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="F99" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H99" s="31" t="s">
+        <v>417</v>
+      </c>
+      <c r="I99" s="30" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B100" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D100" s="31" t="s">
+        <v>836</v>
+      </c>
+      <c r="E100" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="F100" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="H100" s="31" t="b">
+        <v>0</v>
+      </c>
       <c r="I100" s="31"/>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H101" s="31"/>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B101" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" s="31" t="s">
+        <v>837</v>
+      </c>
+      <c r="E101" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="F101" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="H101" s="31">
+        <v>0</v>
+      </c>
       <c r="I101" s="31"/>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H102" s="31"/>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B102" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D102" s="31" t="s">
+        <v>838</v>
+      </c>
+      <c r="E102" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="F102" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="H102" s="31">
+        <v>0</v>
+      </c>
       <c r="I102" s="31"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H103" s="31"/>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B103" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D103" s="31" t="s">
+        <v>795</v>
+      </c>
+      <c r="E103" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="F103" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G103" s="30" t="s">
+        <v>796</v>
+      </c>
+      <c r="H103" s="31">
+        <v>0</v>
+      </c>
       <c r="I103" s="31"/>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H104" s="31"/>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B104" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D104" s="31" t="s">
+        <v>797</v>
+      </c>
+      <c r="E104" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="F104" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="G104" s="30"/>
+      <c r="H104" s="31" t="b">
+        <v>0</v>
+      </c>
       <c r="I104" s="31"/>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H105" s="31"/>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B105" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D105" s="30" t="s">
+        <v>798</v>
+      </c>
+      <c r="E105" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F105" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G105" s="30" t="s">
+        <v>796</v>
+      </c>
+      <c r="H105" s="31">
+        <v>15</v>
+      </c>
       <c r="I105" s="31"/>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H106" s="31"/>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B106" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D106" s="30" t="s">
+        <v>851</v>
+      </c>
+      <c r="E106" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F106" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G106" s="30" t="s">
+        <v>792</v>
+      </c>
+      <c r="H106" s="31">
+        <v>0</v>
+      </c>
       <c r="I106" s="31"/>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H107" s="31"/>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B107" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D107" s="30" t="s">
+        <v>800</v>
+      </c>
+      <c r="E107" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F107" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G107" s="30" t="s">
+        <v>796</v>
+      </c>
+      <c r="H107" s="31">
+        <v>1</v>
+      </c>
       <c r="I107" s="31"/>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H108" s="31"/>
-      <c r="I108" s="31"/>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H109" s="31"/>
-      <c r="I109" s="31"/>
-    </row>
-    <row r="110" spans="2:9" ht="409.6" x14ac:dyDescent="0">
-      <c r="H110" s="31"/>
-      <c r="I110" s="31"/>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H111" s="31"/>
+    <row r="108" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="B108" s="49" t="s">
+        <v>216</v>
+      </c>
+      <c r="C108" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="D108" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="E108" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="J108" s="50"/>
+      <c r="K108" s="51"/>
+      <c r="L108" s="51"/>
+      <c r="M108" s="51"/>
+      <c r="N108" s="51"/>
+      <c r="O108" s="51"/>
+      <c r="Q108" s="52"/>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B109" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D109" s="31" t="s">
+        <v>835</v>
+      </c>
+      <c r="E109" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="F109" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H109" s="31" t="s">
+        <v>417</v>
+      </c>
+      <c r="I109" s="30" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B110" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D110" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="E110" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="F110" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H110" s="31" t="s">
+        <v>839</v>
+      </c>
+      <c r="I110" s="30" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B111" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D111" s="31" t="s">
+        <v>842</v>
+      </c>
+      <c r="E111" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="F111" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G111" s="31" t="s">
+        <v>843</v>
+      </c>
+      <c r="H111" s="31">
+        <v>69</v>
+      </c>
       <c r="I111" s="31"/>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H112" s="31"/>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B112" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D112" s="31" t="s">
+        <v>845</v>
+      </c>
+      <c r="E112" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="F112" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G112" s="31" t="s">
+        <v>844</v>
+      </c>
+      <c r="H112" s="31">
+        <v>28</v>
+      </c>
       <c r="I112" s="31"/>
     </row>
-    <row r="113" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H113" s="31"/>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B113" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D113" s="31" t="s">
+        <v>846</v>
+      </c>
+      <c r="E113" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="F113" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G113" s="31" t="s">
+        <v>843</v>
+      </c>
+      <c r="H113" s="31">
+        <v>55</v>
+      </c>
       <c r="I113" s="31"/>
     </row>
-    <row r="114" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H114" s="31"/>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B114" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D114" s="31" t="s">
+        <v>847</v>
+      </c>
+      <c r="E114" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="F114" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G114" s="31" t="s">
+        <v>843</v>
+      </c>
+      <c r="H114" s="31">
+        <v>-148</v>
+      </c>
       <c r="I114" s="31"/>
     </row>
-    <row r="115" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H115" s="31"/>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B115" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D115" s="31" t="s">
+        <v>836</v>
+      </c>
+      <c r="E115" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="F115" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="H115" s="31" t="b">
+        <v>0</v>
+      </c>
       <c r="I115" s="31"/>
     </row>
-    <row r="116" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H116" s="31"/>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B116" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D116" s="31" t="s">
+        <v>848</v>
+      </c>
+      <c r="E116" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="F116" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="H116" s="31">
+        <v>0</v>
+      </c>
       <c r="I116" s="31"/>
     </row>
-    <row r="117" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H117" s="31"/>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B117" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D117" s="31" t="s">
+        <v>849</v>
+      </c>
+      <c r="E117" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="F117" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="H117" s="31">
+        <v>0</v>
+      </c>
       <c r="I117" s="31"/>
     </row>
-    <row r="118" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H118" s="31"/>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B118" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D118" s="31" t="s">
+        <v>795</v>
+      </c>
+      <c r="E118" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="F118" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G118" s="30" t="s">
+        <v>796</v>
+      </c>
+      <c r="H118" s="31">
+        <v>0</v>
+      </c>
       <c r="I118" s="31"/>
     </row>
-    <row r="119" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H119" s="31"/>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B119" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D119" s="31" t="s">
+        <v>797</v>
+      </c>
+      <c r="E119" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="F119" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="G119" s="30"/>
+      <c r="H119" s="31" t="b">
+        <v>0</v>
+      </c>
       <c r="I119" s="31"/>
     </row>
-    <row r="120" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H120" s="31"/>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B120" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D120" s="30" t="s">
+        <v>798</v>
+      </c>
+      <c r="E120" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F120" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G120" s="30" t="s">
+        <v>796</v>
+      </c>
+      <c r="H120" s="31">
+        <v>15</v>
+      </c>
       <c r="I120" s="31"/>
     </row>
-    <row r="121" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H121" s="31"/>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B121" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D121" s="30" t="s">
+        <v>850</v>
+      </c>
+      <c r="E121" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F121" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G121" s="30" t="s">
+        <v>792</v>
+      </c>
+      <c r="H121" s="31">
+        <v>0</v>
+      </c>
       <c r="I121" s="31"/>
     </row>
-    <row r="122" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H122" s="31"/>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B122" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D122" s="30" t="s">
+        <v>800</v>
+      </c>
+      <c r="E122" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F122" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G122" s="30" t="s">
+        <v>796</v>
+      </c>
+      <c r="H122" s="31">
+        <v>1</v>
+      </c>
       <c r="I122" s="31"/>
     </row>
-    <row r="123" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H123" s="31"/>
       <c r="I123" s="31"/>
     </row>
-    <row r="124" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H124" s="31"/>
       <c r="I124" s="31"/>
     </row>
-    <row r="125" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H125" s="31"/>
       <c r="I125" s="31"/>
     </row>
-    <row r="126" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H126" s="31"/>
       <c r="I126" s="31"/>
     </row>
-    <row r="127" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H127" s="31"/>
       <c r="I127" s="31"/>
     </row>
-    <row r="128" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H128" s="31"/>
       <c r="I128" s="31"/>
     </row>
@@ -9806,8 +10263,28 @@
       <c r="H198" s="31"/>
       <c r="I198" s="31"/>
     </row>
+    <row r="199" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H199" s="31"/>
+      <c r="I199" s="31"/>
+    </row>
+    <row r="200" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H200" s="31"/>
+      <c r="I200" s="31"/>
+    </row>
+    <row r="201" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H201" s="31"/>
+      <c r="I201" s="31"/>
+    </row>
+    <row r="202" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H202" s="31"/>
+      <c r="I202" s="31"/>
+    </row>
+    <row r="203" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H203" s="31"/>
+      <c r="I203" s="31"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:Z125"/>
+  <autoFilter ref="A2:Z130"/>
   <mergeCells count="1">
     <mergeCell ref="T1:Y1"/>
   </mergeCells>

--- a/projects/office_ee.xlsx
+++ b/projects/office_ee.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Outputs!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$Z$130</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$Z$135</definedName>
     <definedName name="AnalysisType">Lookups!$A$17:$A$23</definedName>
     <definedName name="instance_defs">Lookups!$A$2:$D$9</definedName>
     <definedName name="instance_types">Lookups!$A$2:$A$9</definedName>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2686" uniqueCount="852">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2710" uniqueCount="864">
   <si>
     <t>type</t>
   </si>
@@ -2597,6 +2597,42 @@
   </si>
   <si>
     <t>O &amp; M Costs per Air Loop for Demand Controlled Ventilation</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>SetRunPeriod</t>
+  </si>
+  <si>
+    <t>Set Run Period</t>
+  </si>
+  <si>
+    <t>begin_month</t>
+  </si>
+  <si>
+    <t>begin_day</t>
+  </si>
+  <si>
+    <t>end_month</t>
+  </si>
+  <si>
+    <t>end_day</t>
+  </si>
+  <si>
+    <t>Begin Month</t>
+  </si>
+  <si>
+    <t>Begin Day</t>
+  </si>
+  <si>
+    <t>End Month</t>
+  </si>
+  <si>
+    <t>End Day</t>
   </si>
 </sst>
 </file>
@@ -7276,11 +7312,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y203"/>
+  <dimension ref="A1:Y208"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C104" sqref="C104"/>
+      <pane ySplit="3" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9196,13 +9232,13 @@
         <v>1</v>
       </c>
       <c r="B86" s="49" t="s">
-        <v>804</v>
+        <v>855</v>
       </c>
       <c r="C86" s="49" t="s">
-        <v>803</v>
+        <v>854</v>
       </c>
       <c r="D86" s="49" t="s">
-        <v>803</v>
+        <v>854</v>
       </c>
       <c r="E86" s="49" t="s">
         <v>68</v>
@@ -9215,45 +9251,46 @@
       <c r="O86" s="51"/>
       <c r="Q86" s="52"/>
     </row>
-    <row r="87" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="49" t="b">
+    <row r="87" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="18"/>
+      <c r="B87" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D87" s="30" t="s">
+        <v>860</v>
+      </c>
+      <c r="E87" s="30" t="s">
+        <v>856</v>
+      </c>
+      <c r="F87" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G87" s="30" t="s">
+        <v>852</v>
+      </c>
+      <c r="H87" s="30">
         <v>1</v>
       </c>
-      <c r="B87" s="49" t="s">
-        <v>832</v>
-      </c>
-      <c r="C87" s="49" t="s">
-        <v>831</v>
-      </c>
-      <c r="D87" s="49" t="s">
-        <v>831</v>
-      </c>
-      <c r="E87" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="J87" s="50"/>
-      <c r="K87" s="51"/>
-      <c r="L87" s="51"/>
-      <c r="M87" s="51"/>
-      <c r="N87" s="51"/>
-      <c r="O87" s="51"/>
-      <c r="Q87" s="52"/>
-    </row>
-    <row r="88" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="22" t="b">
+    </row>
+    <row r="88" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="18"/>
+      <c r="B88" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D88" s="30" t="s">
+        <v>861</v>
+      </c>
+      <c r="E88" s="30" t="s">
+        <v>857</v>
+      </c>
+      <c r="F88" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G88" s="30" t="s">
+        <v>853</v>
+      </c>
+      <c r="H88" s="30">
         <v>1</v>
-      </c>
-      <c r="B88" s="22" t="s">
-        <v>801</v>
-      </c>
-      <c r="C88" s="22" t="s">
-        <v>286</v>
-      </c>
-      <c r="D88" s="22" t="s">
-        <v>286</v>
-      </c>
-      <c r="E88" s="22" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="89" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -9262,155 +9299,165 @@
         <v>21</v>
       </c>
       <c r="D89" s="30" t="s">
+        <v>862</v>
+      </c>
+      <c r="E89" s="30" t="s">
+        <v>858</v>
+      </c>
+      <c r="F89" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G89" s="30" t="s">
+        <v>852</v>
+      </c>
+      <c r="H89" s="30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="18"/>
+      <c r="B90" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D90" s="30" t="s">
+        <v>863</v>
+      </c>
+      <c r="E90" s="30" t="s">
+        <v>859</v>
+      </c>
+      <c r="F90" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G90" s="30" t="s">
+        <v>853</v>
+      </c>
+      <c r="H90" s="30">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="B91" s="49" t="s">
+        <v>804</v>
+      </c>
+      <c r="C91" s="49" t="s">
+        <v>803</v>
+      </c>
+      <c r="D91" s="49" t="s">
+        <v>803</v>
+      </c>
+      <c r="E91" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="J91" s="50"/>
+      <c r="K91" s="51"/>
+      <c r="L91" s="51"/>
+      <c r="M91" s="51"/>
+      <c r="N91" s="51"/>
+      <c r="O91" s="51"/>
+      <c r="Q91" s="52"/>
+    </row>
+    <row r="92" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="B92" s="49" t="s">
+        <v>832</v>
+      </c>
+      <c r="C92" s="49" t="s">
+        <v>831</v>
+      </c>
+      <c r="D92" s="49" t="s">
+        <v>831</v>
+      </c>
+      <c r="E92" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="J92" s="50"/>
+      <c r="K92" s="51"/>
+      <c r="L92" s="51"/>
+      <c r="M92" s="51"/>
+      <c r="N92" s="51"/>
+      <c r="O92" s="51"/>
+      <c r="Q92" s="52"/>
+    </row>
+    <row r="93" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="B93" s="22" t="s">
+        <v>801</v>
+      </c>
+      <c r="C93" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="D93" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="E93" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="18"/>
+      <c r="B94" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D94" s="30" t="s">
         <v>373</v>
       </c>
-      <c r="E89" s="30" t="s">
+      <c r="E94" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="F89" s="30" t="s">
+      <c r="F94" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="H89" s="30" t="s">
+      <c r="H94" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="I89" s="30" t="s">
+      <c r="I94" s="30" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="90" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="43" t="s">
+    <row r="95" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D90" s="43" t="s">
+      <c r="D95" s="43" t="s">
         <v>802</v>
       </c>
-      <c r="E90" s="43" t="s">
+      <c r="E95" s="43" t="s">
         <v>288</v>
       </c>
-      <c r="F90" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="G90" s="43" t="s">
+      <c r="F95" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="G95" s="43" t="s">
         <v>792</v>
       </c>
-      <c r="H90" s="43">
-        <v>0</v>
-      </c>
-      <c r="J90" s="43">
-        <v>0</v>
-      </c>
-      <c r="K90" s="43">
+      <c r="H95" s="43">
+        <v>0</v>
+      </c>
+      <c r="J95" s="43">
+        <v>0</v>
+      </c>
+      <c r="K95" s="43">
         <v>40</v>
       </c>
-      <c r="L90" s="43">
+      <c r="L95" s="43">
         <v>-1</v>
       </c>
-      <c r="M90" s="45">
-        <f>(K90-J90)/6</f>
+      <c r="M95" s="45">
+        <f>(K95-J95)/6</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="N90" s="45">
+      <c r="N95" s="45">
         <v>2.5</v>
       </c>
-      <c r="Q90" s="43" t="s">
+      <c r="Q95" s="43" t="s">
         <v>777</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D91" s="30" t="s">
-        <v>793</v>
-      </c>
-      <c r="E91" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F91" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G91" s="30" t="s">
-        <v>792</v>
-      </c>
-      <c r="H91" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D92" s="30" t="s">
-        <v>794</v>
-      </c>
-      <c r="E92" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F92" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G92" s="30" t="s">
-        <v>792</v>
-      </c>
-      <c r="H92" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D93" s="30" t="s">
-        <v>795</v>
-      </c>
-      <c r="E93" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F93" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G93" s="30" t="s">
-        <v>796</v>
-      </c>
-      <c r="H93" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D94" s="30" t="s">
-        <v>797</v>
-      </c>
-      <c r="E94" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="F94" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H94" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D95" s="30" t="s">
-        <v>798</v>
-      </c>
-      <c r="E95" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="F95" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G95" s="30" t="s">
-        <v>796</v>
-      </c>
-      <c r="H95" s="30">
-        <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -9418,10 +9465,10 @@
         <v>21</v>
       </c>
       <c r="D96" s="30" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="E96" s="30" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F96" s="30" t="s">
         <v>64</v>
@@ -9438,177 +9485,177 @@
         <v>21</v>
       </c>
       <c r="D97" s="30" t="s">
+        <v>794</v>
+      </c>
+      <c r="E97" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F97" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G97" s="30" t="s">
+        <v>792</v>
+      </c>
+      <c r="H97" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D98" s="30" t="s">
+        <v>795</v>
+      </c>
+      <c r="E98" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F98" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G98" s="30" t="s">
+        <v>796</v>
+      </c>
+      <c r="H98" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D99" s="30" t="s">
+        <v>797</v>
+      </c>
+      <c r="E99" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F99" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="H99" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D100" s="30" t="s">
+        <v>798</v>
+      </c>
+      <c r="E100" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F100" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G100" s="30" t="s">
+        <v>796</v>
+      </c>
+      <c r="H100" s="30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" s="30" t="s">
+        <v>799</v>
+      </c>
+      <c r="E101" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F101" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G101" s="30" t="s">
+        <v>792</v>
+      </c>
+      <c r="H101" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D102" s="30" t="s">
         <v>800</v>
       </c>
-      <c r="E97" s="30" t="s">
+      <c r="E102" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="F97" s="30" t="s">
+      <c r="F102" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="G97" s="30" t="s">
+      <c r="G102" s="30" t="s">
         <v>796</v>
       </c>
-      <c r="H97" s="30">
+      <c r="H102" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="49" t="b">
+    <row r="103" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="B98" s="49" t="s">
+      <c r="B103" s="49" t="s">
         <v>209</v>
       </c>
-      <c r="C98" s="49" t="s">
+      <c r="C103" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="D98" s="49" t="s">
+      <c r="D103" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="E98" s="49" t="s">
+      <c r="E103" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="J98" s="50"/>
-      <c r="K98" s="51"/>
-      <c r="L98" s="51"/>
-      <c r="M98" s="51"/>
-      <c r="N98" s="51"/>
-      <c r="O98" s="51"/>
-      <c r="Q98" s="52"/>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B99" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D99" s="31" t="s">
-        <v>835</v>
-      </c>
-      <c r="E99" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="F99" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H99" s="31" t="s">
-        <v>417</v>
-      </c>
-      <c r="I99" s="30" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B100" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D100" s="31" t="s">
-        <v>836</v>
-      </c>
-      <c r="E100" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="F100" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H100" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" s="31"/>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B101" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D101" s="31" t="s">
-        <v>837</v>
-      </c>
-      <c r="E101" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="F101" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="H101" s="31">
-        <v>0</v>
-      </c>
-      <c r="I101" s="31"/>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B102" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D102" s="31" t="s">
-        <v>838</v>
-      </c>
-      <c r="E102" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="F102" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="H102" s="31">
-        <v>0</v>
-      </c>
-      <c r="I102" s="31"/>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B103" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D103" s="31" t="s">
-        <v>795</v>
-      </c>
-      <c r="E103" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="F103" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G103" s="30" t="s">
-        <v>796</v>
-      </c>
-      <c r="H103" s="31">
-        <v>0</v>
-      </c>
-      <c r="I103" s="31"/>
+      <c r="J103" s="50"/>
+      <c r="K103" s="51"/>
+      <c r="L103" s="51"/>
+      <c r="M103" s="51"/>
+      <c r="N103" s="51"/>
+      <c r="O103" s="51"/>
+      <c r="Q103" s="52"/>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B104" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D104" s="31" t="s">
-        <v>797</v>
+        <v>835</v>
       </c>
       <c r="E104" s="31" t="s">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="F104" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="G104" s="30"/>
-      <c r="H104" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I104" s="31"/>
+        <v>62</v>
+      </c>
+      <c r="H104" s="31" t="s">
+        <v>417</v>
+      </c>
+      <c r="I104" s="30" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B105" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D105" s="30" t="s">
-        <v>798</v>
-      </c>
-      <c r="E105" s="30" t="s">
-        <v>56</v>
+      <c r="D105" s="31" t="s">
+        <v>836</v>
+      </c>
+      <c r="E105" s="31" t="s">
+        <v>91</v>
       </c>
       <c r="F105" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G105" s="30" t="s">
-        <v>796</v>
-      </c>
-      <c r="H105" s="31">
-        <v>15</v>
+        <v>63</v>
+      </c>
+      <c r="H105" s="31" t="b">
+        <v>0</v>
       </c>
       <c r="I105" s="31"/>
     </row>
@@ -9616,17 +9663,14 @@
       <c r="B106" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D106" s="30" t="s">
-        <v>851</v>
-      </c>
-      <c r="E106" s="30" t="s">
-        <v>58</v>
+      <c r="D106" s="31" t="s">
+        <v>837</v>
+      </c>
+      <c r="E106" s="31" t="s">
+        <v>128</v>
       </c>
       <c r="F106" s="30" t="s">
         <v>64</v>
-      </c>
-      <c r="G106" s="30" t="s">
-        <v>792</v>
       </c>
       <c r="H106" s="31">
         <v>0</v>
@@ -9637,105 +9681,99 @@
       <c r="B107" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D107" s="30" t="s">
-        <v>800</v>
-      </c>
-      <c r="E107" s="30" t="s">
-        <v>60</v>
+      <c r="D107" s="31" t="s">
+        <v>838</v>
+      </c>
+      <c r="E107" s="31" t="s">
+        <v>50</v>
       </c>
       <c r="F107" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="H107" s="31">
+        <v>0</v>
+      </c>
+      <c r="I107" s="31"/>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B108" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D108" s="31" t="s">
+        <v>795</v>
+      </c>
+      <c r="E108" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="F108" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="G107" s="30" t="s">
+      <c r="G108" s="30" t="s">
         <v>796</v>
       </c>
-      <c r="H107" s="31">
-        <v>1</v>
-      </c>
-      <c r="I107" s="31"/>
-    </row>
-    <row r="108" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B108" s="49" t="s">
-        <v>216</v>
-      </c>
-      <c r="C108" s="49" t="s">
-        <v>217</v>
-      </c>
-      <c r="D108" s="49" t="s">
-        <v>217</v>
-      </c>
-      <c r="E108" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="J108" s="50"/>
-      <c r="K108" s="51"/>
-      <c r="L108" s="51"/>
-      <c r="M108" s="51"/>
-      <c r="N108" s="51"/>
-      <c r="O108" s="51"/>
-      <c r="Q108" s="52"/>
+      <c r="H108" s="31">
+        <v>0</v>
+      </c>
+      <c r="I108" s="31"/>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B109" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D109" s="31" t="s">
-        <v>835</v>
+        <v>797</v>
       </c>
       <c r="E109" s="31" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="F109" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H109" s="31" t="s">
-        <v>417</v>
-      </c>
-      <c r="I109" s="30" t="s">
-        <v>418</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G109" s="30"/>
+      <c r="H109" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I109" s="31"/>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B110" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D110" s="31" t="s">
-        <v>841</v>
-      </c>
-      <c r="E110" s="31" t="s">
-        <v>219</v>
+      <c r="D110" s="30" t="s">
+        <v>798</v>
+      </c>
+      <c r="E110" s="30" t="s">
+        <v>56</v>
       </c>
       <c r="F110" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H110" s="31" t="s">
-        <v>839</v>
-      </c>
-      <c r="I110" s="30" t="s">
-        <v>840</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G110" s="30" t="s">
+        <v>796</v>
+      </c>
+      <c r="H110" s="31">
+        <v>15</v>
+      </c>
+      <c r="I110" s="31"/>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B111" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D111" s="31" t="s">
-        <v>842</v>
-      </c>
-      <c r="E111" s="31" t="s">
-        <v>221</v>
+      <c r="D111" s="30" t="s">
+        <v>851</v>
+      </c>
+      <c r="E111" s="30" t="s">
+        <v>58</v>
       </c>
       <c r="F111" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="G111" s="31" t="s">
-        <v>843</v>
+      <c r="G111" s="30" t="s">
+        <v>792</v>
       </c>
       <c r="H111" s="31">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="I111" s="31"/>
     </row>
@@ -9743,243 +9781,329 @@
       <c r="B112" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D112" s="31" t="s">
+      <c r="D112" s="30" t="s">
+        <v>800</v>
+      </c>
+      <c r="E112" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F112" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G112" s="30" t="s">
+        <v>796</v>
+      </c>
+      <c r="H112" s="31">
+        <v>1</v>
+      </c>
+      <c r="I112" s="31"/>
+    </row>
+    <row r="113" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="B113" s="49" t="s">
+        <v>216</v>
+      </c>
+      <c r="C113" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="D113" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="E113" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="J113" s="50"/>
+      <c r="K113" s="51"/>
+      <c r="L113" s="51"/>
+      <c r="M113" s="51"/>
+      <c r="N113" s="51"/>
+      <c r="O113" s="51"/>
+      <c r="Q113" s="52"/>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B114" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D114" s="31" t="s">
+        <v>835</v>
+      </c>
+      <c r="E114" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="F114" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H114" s="31" t="s">
+        <v>417</v>
+      </c>
+      <c r="I114" s="30" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B115" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D115" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="E115" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="F115" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H115" s="31" t="s">
+        <v>839</v>
+      </c>
+      <c r="I115" s="30" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B116" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D116" s="31" t="s">
+        <v>842</v>
+      </c>
+      <c r="E116" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="F116" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G116" s="31" t="s">
+        <v>843</v>
+      </c>
+      <c r="H116" s="31">
+        <v>69</v>
+      </c>
+      <c r="I116" s="31"/>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B117" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D117" s="31" t="s">
         <v>845</v>
       </c>
-      <c r="E112" s="31" t="s">
+      <c r="E117" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="F112" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G112" s="31" t="s">
+      <c r="F117" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G117" s="31" t="s">
         <v>844</v>
       </c>
-      <c r="H112" s="31">
+      <c r="H117" s="31">
         <v>28</v>
       </c>
-      <c r="I112" s="31"/>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B113" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D113" s="31" t="s">
+      <c r="I117" s="31"/>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B118" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D118" s="31" t="s">
         <v>846</v>
       </c>
-      <c r="E113" s="31" t="s">
+      <c r="E118" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="F113" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G113" s="31" t="s">
+      <c r="F118" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G118" s="31" t="s">
         <v>843</v>
       </c>
-      <c r="H113" s="31">
+      <c r="H118" s="31">
         <v>55</v>
       </c>
-      <c r="I113" s="31"/>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B114" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D114" s="31" t="s">
+      <c r="I118" s="31"/>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B119" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D119" s="31" t="s">
         <v>847</v>
       </c>
-      <c r="E114" s="31" t="s">
+      <c r="E119" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="F114" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G114" s="31" t="s">
+      <c r="F119" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G119" s="31" t="s">
         <v>843</v>
       </c>
-      <c r="H114" s="31">
+      <c r="H119" s="31">
         <v>-148</v>
       </c>
-      <c r="I114" s="31"/>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B115" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D115" s="31" t="s">
+      <c r="I119" s="31"/>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B120" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D120" s="31" t="s">
         <v>836</v>
       </c>
-      <c r="E115" s="31" t="s">
+      <c r="E120" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="F115" s="30" t="s">
+      <c r="F120" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="H115" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I115" s="31"/>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B116" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D116" s="31" t="s">
+      <c r="H120" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I120" s="31"/>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B121" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D121" s="31" t="s">
         <v>848</v>
       </c>
-      <c r="E116" s="31" t="s">
+      <c r="E121" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="F116" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="H116" s="31">
-        <v>0</v>
-      </c>
-      <c r="I116" s="31"/>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B117" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D117" s="31" t="s">
+      <c r="F121" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="H121" s="31">
+        <v>0</v>
+      </c>
+      <c r="I121" s="31"/>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B122" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D122" s="31" t="s">
         <v>849</v>
       </c>
-      <c r="E117" s="31" t="s">
+      <c r="E122" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="F117" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="H117" s="31">
-        <v>0</v>
-      </c>
-      <c r="I117" s="31"/>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B118" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D118" s="31" t="s">
+      <c r="F122" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="H122" s="31">
+        <v>0</v>
+      </c>
+      <c r="I122" s="31"/>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B123" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D123" s="31" t="s">
         <v>795</v>
       </c>
-      <c r="E118" s="31" t="s">
+      <c r="E123" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="F118" s="30" t="s">
+      <c r="F123" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="G118" s="30" t="s">
+      <c r="G123" s="30" t="s">
         <v>796</v>
       </c>
-      <c r="H118" s="31">
-        <v>0</v>
-      </c>
-      <c r="I118" s="31"/>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B119" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D119" s="31" t="s">
+      <c r="H123" s="31">
+        <v>0</v>
+      </c>
+      <c r="I123" s="31"/>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B124" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D124" s="31" t="s">
         <v>797</v>
       </c>
-      <c r="E119" s="31" t="s">
+      <c r="E124" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="F119" s="30" t="s">
+      <c r="F124" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="G119" s="30"/>
-      <c r="H119" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I119" s="31"/>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B120" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D120" s="30" t="s">
+      <c r="G124" s="30"/>
+      <c r="H124" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I124" s="31"/>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B125" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D125" s="30" t="s">
         <v>798</v>
       </c>
-      <c r="E120" s="30" t="s">
+      <c r="E125" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="F120" s="30" t="s">
+      <c r="F125" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="G120" s="30" t="s">
+      <c r="G125" s="30" t="s">
         <v>796</v>
       </c>
-      <c r="H120" s="31">
+      <c r="H125" s="31">
         <v>15</v>
       </c>
-      <c r="I120" s="31"/>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B121" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D121" s="30" t="s">
+      <c r="I125" s="31"/>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B126" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D126" s="30" t="s">
         <v>850</v>
       </c>
-      <c r="E121" s="30" t="s">
+      <c r="E126" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="F121" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G121" s="30" t="s">
+      <c r="F126" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G126" s="30" t="s">
         <v>792</v>
       </c>
-      <c r="H121" s="31">
-        <v>0</v>
-      </c>
-      <c r="I121" s="31"/>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B122" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D122" s="30" t="s">
+      <c r="H126" s="31">
+        <v>0</v>
+      </c>
+      <c r="I126" s="31"/>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B127" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D127" s="30" t="s">
         <v>800</v>
       </c>
-      <c r="E122" s="30" t="s">
+      <c r="E127" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="F122" s="30" t="s">
+      <c r="F127" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="G122" s="30" t="s">
+      <c r="G127" s="30" t="s">
         <v>796</v>
       </c>
-      <c r="H122" s="31">
+      <c r="H127" s="31">
         <v>1</v>
       </c>
-      <c r="I122" s="31"/>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H123" s="31"/>
-      <c r="I123" s="31"/>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H124" s="31"/>
-      <c r="I124" s="31"/>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H125" s="31"/>
-      <c r="I125" s="31"/>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H126" s="31"/>
-      <c r="I126" s="31"/>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H127" s="31"/>
       <c r="I127" s="31"/>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H128" s="31"/>
       <c r="I128" s="31"/>
     </row>
@@ -10283,8 +10407,28 @@
       <c r="H203" s="31"/>
       <c r="I203" s="31"/>
     </row>
+    <row r="204" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H204" s="31"/>
+      <c r="I204" s="31"/>
+    </row>
+    <row r="205" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H205" s="31"/>
+      <c r="I205" s="31"/>
+    </row>
+    <row r="206" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H206" s="31"/>
+      <c r="I206" s="31"/>
+    </row>
+    <row r="207" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H207" s="31"/>
+      <c r="I207" s="31"/>
+    </row>
+    <row r="208" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H208" s="31"/>
+      <c r="I208" s="31"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:Z130"/>
+  <autoFilter ref="A2:Z135"/>
   <mergeCells count="1">
     <mergeCell ref="T1:Y1"/>
   </mergeCells>

--- a/projects/office_ee.xlsx
+++ b/projects/office_ee.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Outputs!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$Z$135</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$Z$138</definedName>
     <definedName name="AnalysisType">Lookups!$A$17:$A$23</definedName>
     <definedName name="instance_defs">Lookups!$A$2:$D$9</definedName>
     <definedName name="instance_types">Lookups!$A$2:$A$9</definedName>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2710" uniqueCount="864">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2725" uniqueCount="865">
   <si>
     <t>type</t>
   </si>
@@ -2633,6 +2633,9 @@
   </si>
   <si>
     <t>End Day</t>
+  </si>
+  <si>
+    <t>Design Specification Outdoor Air Reduction (%)</t>
   </si>
 </sst>
 </file>
@@ -7312,11 +7315,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y208"/>
+  <dimension ref="A1:Y211"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E89" sqref="E89"/>
+      <pane ySplit="3" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9227,92 +9230,114 @@
       <c r="N85" s="3"/>
       <c r="P85" s="40"/>
     </row>
-    <row r="86" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="49" t="b">
+    <row r="86" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="B86" s="49" t="s">
+      <c r="B86" s="38" t="s">
+        <v>327</v>
+      </c>
+      <c r="C86" s="38" t="s">
+        <v>328</v>
+      </c>
+      <c r="D86" s="38" t="s">
+        <v>328</v>
+      </c>
+      <c r="E86" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="G86" s="39"/>
+      <c r="H86" s="39"/>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A87" s="30"/>
+      <c r="B87" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C87" s="30"/>
+      <c r="D87" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="E87" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F87" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G87" s="30"/>
+      <c r="H87" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="I87" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+      <c r="M87" s="3"/>
+      <c r="N87" s="3"/>
+      <c r="P87" s="40"/>
+    </row>
+    <row r="88" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D88" s="43" t="s">
+        <v>864</v>
+      </c>
+      <c r="E88" s="43" t="s">
+        <v>330</v>
+      </c>
+      <c r="F88" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H88" s="43">
+        <v>30</v>
+      </c>
+      <c r="I88" s="46"/>
+      <c r="J88" s="45">
+        <v>-100</v>
+      </c>
+      <c r="K88" s="45">
+        <v>100</v>
+      </c>
+      <c r="L88" s="45">
+        <v>0</v>
+      </c>
+      <c r="M88" s="45">
+        <f>(K88-J88)/6</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="N88" s="45">
+        <v>2.5</v>
+      </c>
+      <c r="Q88" s="43" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="B89" s="49" t="s">
         <v>855</v>
       </c>
-      <c r="C86" s="49" t="s">
+      <c r="C89" s="49" t="s">
         <v>854</v>
       </c>
-      <c r="D86" s="49" t="s">
+      <c r="D89" s="49" t="s">
         <v>854</v>
       </c>
-      <c r="E86" s="49" t="s">
+      <c r="E89" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="J86" s="50"/>
-      <c r="K86" s="51"/>
-      <c r="L86" s="51"/>
-      <c r="M86" s="51"/>
-      <c r="N86" s="51"/>
-      <c r="O86" s="51"/>
-      <c r="Q86" s="52"/>
-    </row>
-    <row r="87" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="18"/>
-      <c r="B87" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D87" s="30" t="s">
-        <v>860</v>
-      </c>
-      <c r="E87" s="30" t="s">
-        <v>856</v>
-      </c>
-      <c r="F87" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G87" s="30" t="s">
-        <v>852</v>
-      </c>
-      <c r="H87" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="18"/>
-      <c r="B88" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D88" s="30" t="s">
-        <v>861</v>
-      </c>
-      <c r="E88" s="30" t="s">
-        <v>857</v>
-      </c>
-      <c r="F88" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G88" s="30" t="s">
-        <v>853</v>
-      </c>
-      <c r="H88" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="18"/>
-      <c r="B89" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D89" s="30" t="s">
-        <v>862</v>
-      </c>
-      <c r="E89" s="30" t="s">
-        <v>858</v>
-      </c>
-      <c r="F89" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G89" s="30" t="s">
-        <v>852</v>
-      </c>
-      <c r="H89" s="30">
-        <v>12</v>
-      </c>
+      <c r="J89" s="50"/>
+      <c r="K89" s="51"/>
+      <c r="L89" s="51"/>
+      <c r="M89" s="51"/>
+      <c r="N89" s="51"/>
+      <c r="O89" s="51"/>
+      <c r="Q89" s="52"/>
     </row>
     <row r="90" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="18"/>
@@ -9320,204 +9345,207 @@
         <v>21</v>
       </c>
       <c r="D90" s="30" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="E90" s="30" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="F90" s="30" t="s">
         <v>65</v>
       </c>
       <c r="G90" s="30" t="s">
+        <v>852</v>
+      </c>
+      <c r="H90" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="18"/>
+      <c r="B91" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D91" s="30" t="s">
+        <v>861</v>
+      </c>
+      <c r="E91" s="30" t="s">
+        <v>857</v>
+      </c>
+      <c r="F91" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G91" s="30" t="s">
         <v>853</v>
       </c>
-      <c r="H90" s="30">
+      <c r="H91" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="18"/>
+      <c r="B92" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D92" s="30" t="s">
+        <v>862</v>
+      </c>
+      <c r="E92" s="30" t="s">
+        <v>858</v>
+      </c>
+      <c r="F92" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G92" s="30" t="s">
+        <v>852</v>
+      </c>
+      <c r="H92" s="30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="18"/>
+      <c r="B93" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D93" s="30" t="s">
+        <v>863</v>
+      </c>
+      <c r="E93" s="30" t="s">
+        <v>859</v>
+      </c>
+      <c r="F93" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G93" s="30" t="s">
+        <v>853</v>
+      </c>
+      <c r="H93" s="30">
         <v>31</v>
       </c>
     </row>
-    <row r="91" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="49" t="b">
+    <row r="94" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="B91" s="49" t="s">
+      <c r="B94" s="49" t="s">
         <v>804</v>
       </c>
-      <c r="C91" s="49" t="s">
+      <c r="C94" s="49" t="s">
         <v>803</v>
       </c>
-      <c r="D91" s="49" t="s">
+      <c r="D94" s="49" t="s">
         <v>803</v>
       </c>
-      <c r="E91" s="49" t="s">
+      <c r="E94" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="J91" s="50"/>
-      <c r="K91" s="51"/>
-      <c r="L91" s="51"/>
-      <c r="M91" s="51"/>
-      <c r="N91" s="51"/>
-      <c r="O91" s="51"/>
-      <c r="Q91" s="52"/>
-    </row>
-    <row r="92" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="49" t="b">
+      <c r="J94" s="50"/>
+      <c r="K94" s="51"/>
+      <c r="L94" s="51"/>
+      <c r="M94" s="51"/>
+      <c r="N94" s="51"/>
+      <c r="O94" s="51"/>
+      <c r="Q94" s="52"/>
+    </row>
+    <row r="95" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="B92" s="49" t="s">
+      <c r="B95" s="49" t="s">
         <v>832</v>
       </c>
-      <c r="C92" s="49" t="s">
+      <c r="C95" s="49" t="s">
         <v>831</v>
       </c>
-      <c r="D92" s="49" t="s">
+      <c r="D95" s="49" t="s">
         <v>831</v>
       </c>
-      <c r="E92" s="49" t="s">
+      <c r="E95" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="J92" s="50"/>
-      <c r="K92" s="51"/>
-      <c r="L92" s="51"/>
-      <c r="M92" s="51"/>
-      <c r="N92" s="51"/>
-      <c r="O92" s="51"/>
-      <c r="Q92" s="52"/>
-    </row>
-    <row r="93" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="22" t="b">
+      <c r="J95" s="50"/>
+      <c r="K95" s="51"/>
+      <c r="L95" s="51"/>
+      <c r="M95" s="51"/>
+      <c r="N95" s="51"/>
+      <c r="O95" s="51"/>
+      <c r="Q95" s="52"/>
+    </row>
+    <row r="96" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="22" t="b">
         <v>1</v>
       </c>
-      <c r="B93" s="22" t="s">
+      <c r="B96" s="22" t="s">
         <v>801</v>
       </c>
-      <c r="C93" s="22" t="s">
+      <c r="C96" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="D93" s="22" t="s">
+      <c r="D96" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="E93" s="22" t="s">
+      <c r="E96" s="22" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="94" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="18"/>
-      <c r="B94" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D94" s="30" t="s">
+    <row r="97" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="18"/>
+      <c r="B97" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D97" s="30" t="s">
         <v>373</v>
       </c>
-      <c r="E94" s="30" t="s">
+      <c r="E97" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="F94" s="30" t="s">
+      <c r="F97" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="H94" s="30" t="s">
+      <c r="H97" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="I94" s="30" t="s">
+      <c r="I97" s="30" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="95" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="43" t="s">
+    <row r="98" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D95" s="43" t="s">
+      <c r="D98" s="43" t="s">
         <v>802</v>
       </c>
-      <c r="E95" s="43" t="s">
+      <c r="E98" s="43" t="s">
         <v>288</v>
       </c>
-      <c r="F95" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="G95" s="43" t="s">
+      <c r="F98" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="G98" s="43" t="s">
         <v>792</v>
       </c>
-      <c r="H95" s="43">
-        <v>0</v>
-      </c>
-      <c r="J95" s="43">
-        <v>0</v>
-      </c>
-      <c r="K95" s="43">
+      <c r="H98" s="43">
+        <v>0</v>
+      </c>
+      <c r="J98" s="43">
+        <v>0</v>
+      </c>
+      <c r="K98" s="43">
         <v>40</v>
       </c>
-      <c r="L95" s="43">
+      <c r="L98" s="43">
         <v>-1</v>
       </c>
-      <c r="M95" s="45">
-        <f>(K95-J95)/6</f>
+      <c r="M98" s="45">
+        <f>(K98-J98)/6</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="N95" s="45">
+      <c r="N98" s="45">
         <v>2.5</v>
       </c>
-      <c r="Q95" s="43" t="s">
+      <c r="Q98" s="43" t="s">
         <v>777</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D96" s="30" t="s">
-        <v>793</v>
-      </c>
-      <c r="E96" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F96" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G96" s="30" t="s">
-        <v>792</v>
-      </c>
-      <c r="H96" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D97" s="30" t="s">
-        <v>794</v>
-      </c>
-      <c r="E97" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F97" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G97" s="30" t="s">
-        <v>792</v>
-      </c>
-      <c r="H97" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D98" s="30" t="s">
-        <v>795</v>
-      </c>
-      <c r="E98" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F98" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G98" s="30" t="s">
-        <v>796</v>
-      </c>
-      <c r="H98" s="30">
-        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -9525,15 +9553,18 @@
         <v>21</v>
       </c>
       <c r="D99" s="30" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="E99" s="30" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F99" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H99" s="30" t="b">
+        <v>64</v>
+      </c>
+      <c r="G99" s="30" t="s">
+        <v>792</v>
+      </c>
+      <c r="H99" s="30">
         <v>0</v>
       </c>
     </row>
@@ -9542,19 +9573,19 @@
         <v>21</v>
       </c>
       <c r="D100" s="30" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="E100" s="30" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F100" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G100" s="30" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="H100" s="30">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -9562,16 +9593,16 @@
         <v>21</v>
       </c>
       <c r="D101" s="30" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="E101" s="30" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F101" s="30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G101" s="30" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="H101" s="30">
         <v>0</v>
@@ -9582,136 +9613,136 @@
         <v>21</v>
       </c>
       <c r="D102" s="30" t="s">
+        <v>797</v>
+      </c>
+      <c r="E102" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F102" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="H102" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D103" s="30" t="s">
+        <v>798</v>
+      </c>
+      <c r="E103" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F103" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G103" s="30" t="s">
+        <v>796</v>
+      </c>
+      <c r="H103" s="30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D104" s="30" t="s">
+        <v>799</v>
+      </c>
+      <c r="E104" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F104" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G104" s="30" t="s">
+        <v>792</v>
+      </c>
+      <c r="H104" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D105" s="30" t="s">
         <v>800</v>
       </c>
-      <c r="E102" s="30" t="s">
+      <c r="E105" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="F102" s="30" t="s">
+      <c r="F105" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="G102" s="30" t="s">
+      <c r="G105" s="30" t="s">
         <v>796</v>
       </c>
-      <c r="H102" s="30">
+      <c r="H105" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="49" t="b">
+    <row r="106" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="B103" s="49" t="s">
+      <c r="B106" s="49" t="s">
         <v>209</v>
       </c>
-      <c r="C103" s="49" t="s">
+      <c r="C106" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="D103" s="49" t="s">
+      <c r="D106" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="E103" s="49" t="s">
+      <c r="E106" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="J103" s="50"/>
-      <c r="K103" s="51"/>
-      <c r="L103" s="51"/>
-      <c r="M103" s="51"/>
-      <c r="N103" s="51"/>
-      <c r="O103" s="51"/>
-      <c r="Q103" s="52"/>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B104" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D104" s="31" t="s">
-        <v>835</v>
-      </c>
-      <c r="E104" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="F104" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H104" s="31" t="s">
-        <v>417</v>
-      </c>
-      <c r="I104" s="30" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B105" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D105" s="31" t="s">
-        <v>836</v>
-      </c>
-      <c r="E105" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="F105" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H105" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I105" s="31"/>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B106" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D106" s="31" t="s">
-        <v>837</v>
-      </c>
-      <c r="E106" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="F106" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="H106" s="31">
-        <v>0</v>
-      </c>
-      <c r="I106" s="31"/>
+      <c r="J106" s="50"/>
+      <c r="K106" s="51"/>
+      <c r="L106" s="51"/>
+      <c r="M106" s="51"/>
+      <c r="N106" s="51"/>
+      <c r="O106" s="51"/>
+      <c r="Q106" s="52"/>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B107" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D107" s="31" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="E107" s="31" t="s">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="F107" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="H107" s="31">
-        <v>0</v>
-      </c>
-      <c r="I107" s="31"/>
+        <v>62</v>
+      </c>
+      <c r="H107" s="31" t="s">
+        <v>417</v>
+      </c>
+      <c r="I107" s="30" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B108" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D108" s="31" t="s">
-        <v>795</v>
+        <v>836</v>
       </c>
       <c r="E108" s="31" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="F108" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G108" s="30" t="s">
-        <v>796</v>
-      </c>
-      <c r="H108" s="31">
+        <v>63</v>
+      </c>
+      <c r="H108" s="31" t="b">
         <v>0</v>
       </c>
       <c r="I108" s="31"/>
@@ -9721,16 +9752,15 @@
         <v>21</v>
       </c>
       <c r="D109" s="31" t="s">
-        <v>797</v>
+        <v>837</v>
       </c>
       <c r="E109" s="31" t="s">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="F109" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="G109" s="30"/>
-      <c r="H109" s="31" t="b">
+        <v>64</v>
+      </c>
+      <c r="H109" s="31">
         <v>0</v>
       </c>
       <c r="I109" s="31"/>
@@ -9739,20 +9769,17 @@
       <c r="B110" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D110" s="30" t="s">
-        <v>798</v>
-      </c>
-      <c r="E110" s="30" t="s">
-        <v>56</v>
+      <c r="D110" s="31" t="s">
+        <v>838</v>
+      </c>
+      <c r="E110" s="31" t="s">
+        <v>50</v>
       </c>
       <c r="F110" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G110" s="30" t="s">
-        <v>796</v>
+        <v>64</v>
       </c>
       <c r="H110" s="31">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I110" s="31"/>
     </row>
@@ -9760,17 +9787,17 @@
       <c r="B111" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D111" s="30" t="s">
-        <v>851</v>
-      </c>
-      <c r="E111" s="30" t="s">
-        <v>58</v>
+      <c r="D111" s="31" t="s">
+        <v>795</v>
+      </c>
+      <c r="E111" s="31" t="s">
+        <v>52</v>
       </c>
       <c r="F111" s="30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G111" s="30" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="H111" s="31">
         <v>0</v>
@@ -9781,159 +9808,157 @@
       <c r="B112" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D112" s="30" t="s">
-        <v>800</v>
-      </c>
-      <c r="E112" s="30" t="s">
-        <v>60</v>
+      <c r="D112" s="31" t="s">
+        <v>797</v>
+      </c>
+      <c r="E112" s="31" t="s">
+        <v>54</v>
       </c>
       <c r="F112" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="G112" s="30"/>
+      <c r="H112" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I112" s="31"/>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B113" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D113" s="30" t="s">
+        <v>798</v>
+      </c>
+      <c r="E113" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F113" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="G112" s="30" t="s">
+      <c r="G113" s="30" t="s">
         <v>796</v>
       </c>
-      <c r="H112" s="31">
-        <v>1</v>
-      </c>
-      <c r="I112" s="31"/>
-    </row>
-    <row r="113" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B113" s="49" t="s">
-        <v>216</v>
-      </c>
-      <c r="C113" s="49" t="s">
-        <v>217</v>
-      </c>
-      <c r="D113" s="49" t="s">
-        <v>217</v>
-      </c>
-      <c r="E113" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="J113" s="50"/>
-      <c r="K113" s="51"/>
-      <c r="L113" s="51"/>
-      <c r="M113" s="51"/>
-      <c r="N113" s="51"/>
-      <c r="O113" s="51"/>
-      <c r="Q113" s="52"/>
+      <c r="H113" s="31">
+        <v>15</v>
+      </c>
+      <c r="I113" s="31"/>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B114" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D114" s="31" t="s">
-        <v>835</v>
-      </c>
-      <c r="E114" s="31" t="s">
-        <v>126</v>
+      <c r="D114" s="30" t="s">
+        <v>851</v>
+      </c>
+      <c r="E114" s="30" t="s">
+        <v>58</v>
       </c>
       <c r="F114" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H114" s="31" t="s">
-        <v>417</v>
-      </c>
-      <c r="I114" s="30" t="s">
-        <v>418</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G114" s="30" t="s">
+        <v>792</v>
+      </c>
+      <c r="H114" s="31">
+        <v>0</v>
+      </c>
+      <c r="I114" s="31"/>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B115" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D115" s="31" t="s">
-        <v>841</v>
-      </c>
-      <c r="E115" s="31" t="s">
-        <v>219</v>
+      <c r="D115" s="30" t="s">
+        <v>800</v>
+      </c>
+      <c r="E115" s="30" t="s">
+        <v>60</v>
       </c>
       <c r="F115" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H115" s="31" t="s">
-        <v>839</v>
-      </c>
-      <c r="I115" s="30" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B116" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D116" s="31" t="s">
-        <v>842</v>
-      </c>
-      <c r="E116" s="31" t="s">
-        <v>221</v>
-      </c>
-      <c r="F116" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G116" s="31" t="s">
-        <v>843</v>
-      </c>
-      <c r="H116" s="31">
-        <v>69</v>
-      </c>
-      <c r="I116" s="31"/>
+        <v>65</v>
+      </c>
+      <c r="G115" s="30" t="s">
+        <v>796</v>
+      </c>
+      <c r="H115" s="31">
+        <v>1</v>
+      </c>
+      <c r="I115" s="31"/>
+    </row>
+    <row r="116" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="B116" s="49" t="s">
+        <v>216</v>
+      </c>
+      <c r="C116" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="D116" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="E116" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="J116" s="50"/>
+      <c r="K116" s="51"/>
+      <c r="L116" s="51"/>
+      <c r="M116" s="51"/>
+      <c r="N116" s="51"/>
+      <c r="O116" s="51"/>
+      <c r="Q116" s="52"/>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B117" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D117" s="31" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="E117" s="31" t="s">
-        <v>223</v>
+        <v>126</v>
       </c>
       <c r="F117" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G117" s="31" t="s">
-        <v>844</v>
-      </c>
-      <c r="H117" s="31">
-        <v>28</v>
-      </c>
-      <c r="I117" s="31"/>
+        <v>62</v>
+      </c>
+      <c r="H117" s="31" t="s">
+        <v>417</v>
+      </c>
+      <c r="I117" s="30" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B118" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D118" s="31" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="E118" s="31" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F118" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G118" s="31" t="s">
-        <v>843</v>
-      </c>
-      <c r="H118" s="31">
-        <v>55</v>
-      </c>
-      <c r="I118" s="31"/>
+        <v>62</v>
+      </c>
+      <c r="H118" s="31" t="s">
+        <v>839</v>
+      </c>
+      <c r="I118" s="30" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B119" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D119" s="31" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="E119" s="31" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F119" s="30" t="s">
         <v>64</v>
@@ -9942,7 +9967,7 @@
         <v>843</v>
       </c>
       <c r="H119" s="31">
-        <v>-148</v>
+        <v>69</v>
       </c>
       <c r="I119" s="31"/>
     </row>
@@ -9951,16 +9976,19 @@
         <v>21</v>
       </c>
       <c r="D120" s="31" t="s">
-        <v>836</v>
+        <v>845</v>
       </c>
       <c r="E120" s="31" t="s">
-        <v>91</v>
+        <v>223</v>
       </c>
       <c r="F120" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H120" s="31" t="b">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="G120" s="31" t="s">
+        <v>844</v>
+      </c>
+      <c r="H120" s="31">
+        <v>28</v>
       </c>
       <c r="I120" s="31"/>
     </row>
@@ -9969,16 +9997,19 @@
         <v>21</v>
       </c>
       <c r="D121" s="31" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E121" s="31" t="s">
-        <v>128</v>
+        <v>225</v>
       </c>
       <c r="F121" s="30" t="s">
         <v>64</v>
       </c>
+      <c r="G121" s="31" t="s">
+        <v>843</v>
+      </c>
       <c r="H121" s="31">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="I121" s="31"/>
     </row>
@@ -9987,16 +10018,19 @@
         <v>21</v>
       </c>
       <c r="D122" s="31" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E122" s="31" t="s">
-        <v>50</v>
+        <v>227</v>
       </c>
       <c r="F122" s="30" t="s">
         <v>64</v>
       </c>
+      <c r="G122" s="31" t="s">
+        <v>843</v>
+      </c>
       <c r="H122" s="31">
-        <v>0</v>
+        <v>-148</v>
       </c>
       <c r="I122" s="31"/>
     </row>
@@ -10005,18 +10039,15 @@
         <v>21</v>
       </c>
       <c r="D123" s="31" t="s">
-        <v>795</v>
+        <v>836</v>
       </c>
       <c r="E123" s="31" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="F123" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G123" s="30" t="s">
-        <v>796</v>
-      </c>
-      <c r="H123" s="31">
+        <v>63</v>
+      </c>
+      <c r="H123" s="31" t="b">
         <v>0</v>
       </c>
       <c r="I123" s="31"/>
@@ -10026,16 +10057,15 @@
         <v>21</v>
       </c>
       <c r="D124" s="31" t="s">
-        <v>797</v>
+        <v>848</v>
       </c>
       <c r="E124" s="31" t="s">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="F124" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="G124" s="30"/>
-      <c r="H124" s="31" t="b">
+        <v>64</v>
+      </c>
+      <c r="H124" s="31">
         <v>0</v>
       </c>
       <c r="I124" s="31"/>
@@ -10044,20 +10074,17 @@
       <c r="B125" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D125" s="30" t="s">
-        <v>798</v>
-      </c>
-      <c r="E125" s="30" t="s">
-        <v>56</v>
+      <c r="D125" s="31" t="s">
+        <v>849</v>
+      </c>
+      <c r="E125" s="31" t="s">
+        <v>50</v>
       </c>
       <c r="F125" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G125" s="30" t="s">
-        <v>796</v>
+        <v>64</v>
       </c>
       <c r="H125" s="31">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I125" s="31"/>
     </row>
@@ -10065,17 +10092,17 @@
       <c r="B126" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D126" s="30" t="s">
-        <v>850</v>
-      </c>
-      <c r="E126" s="30" t="s">
-        <v>58</v>
+      <c r="D126" s="31" t="s">
+        <v>795</v>
+      </c>
+      <c r="E126" s="31" t="s">
+        <v>52</v>
       </c>
       <c r="F126" s="30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G126" s="30" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="H126" s="31">
         <v>0</v>
@@ -10086,88 +10113,137 @@
       <c r="B127" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D127" s="30" t="s">
+      <c r="D127" s="31" t="s">
+        <v>797</v>
+      </c>
+      <c r="E127" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="F127" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="G127" s="30"/>
+      <c r="H127" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I127" s="31"/>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B128" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D128" s="30" t="s">
+        <v>798</v>
+      </c>
+      <c r="E128" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F128" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G128" s="30" t="s">
+        <v>796</v>
+      </c>
+      <c r="H128" s="31">
+        <v>15</v>
+      </c>
+      <c r="I128" s="31"/>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B129" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D129" s="30" t="s">
+        <v>850</v>
+      </c>
+      <c r="E129" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F129" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G129" s="30" t="s">
+        <v>792</v>
+      </c>
+      <c r="H129" s="31">
+        <v>0</v>
+      </c>
+      <c r="I129" s="31"/>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B130" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D130" s="30" t="s">
         <v>800</v>
       </c>
-      <c r="E127" s="30" t="s">
+      <c r="E130" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="F127" s="30" t="s">
+      <c r="F130" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="G127" s="30" t="s">
+      <c r="G130" s="30" t="s">
         <v>796</v>
       </c>
-      <c r="H127" s="31">
+      <c r="H130" s="31">
         <v>1</v>
       </c>
-      <c r="I127" s="31"/>
-    </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H128" s="31"/>
-      <c r="I128" s="31"/>
-    </row>
-    <row r="129" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H129" s="31"/>
-      <c r="I129" s="31"/>
-    </row>
-    <row r="130" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H130" s="31"/>
       <c r="I130" s="31"/>
     </row>
-    <row r="131" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H131" s="31"/>
       <c r="I131" s="31"/>
     </row>
-    <row r="132" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H132" s="31"/>
       <c r="I132" s="31"/>
     </row>
-    <row r="133" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H133" s="31"/>
       <c r="I133" s="31"/>
     </row>
-    <row r="134" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H134" s="31"/>
       <c r="I134" s="31"/>
     </row>
-    <row r="135" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H135" s="31"/>
       <c r="I135" s="31"/>
     </row>
-    <row r="136" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H136" s="31"/>
       <c r="I136" s="31"/>
     </row>
-    <row r="137" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H137" s="31"/>
       <c r="I137" s="31"/>
     </row>
-    <row r="138" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H138" s="31"/>
       <c r="I138" s="31"/>
     </row>
-    <row r="139" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H139" s="31"/>
       <c r="I139" s="31"/>
     </row>
-    <row r="140" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H140" s="31"/>
       <c r="I140" s="31"/>
     </row>
-    <row r="141" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H141" s="31"/>
       <c r="I141" s="31"/>
     </row>
-    <row r="142" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H142" s="31"/>
       <c r="I142" s="31"/>
     </row>
-    <row r="143" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H143" s="31"/>
       <c r="I143" s="31"/>
     </row>
-    <row r="144" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H144" s="31"/>
       <c r="I144" s="31"/>
     </row>
@@ -10427,8 +10503,20 @@
       <c r="H208" s="31"/>
       <c r="I208" s="31"/>
     </row>
+    <row r="209" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H209" s="31"/>
+      <c r="I209" s="31"/>
+    </row>
+    <row r="210" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H210" s="31"/>
+      <c r="I210" s="31"/>
+    </row>
+    <row r="211" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H211" s="31"/>
+      <c r="I211" s="31"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:Z135"/>
+  <autoFilter ref="A2:Z138"/>
   <mergeCells count="1">
     <mergeCell ref="T1:Y1"/>
   </mergeCells>

--- a/projects/office_ee.xlsx
+++ b/projects/office_ee.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Outputs!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$Z$138</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$Z$142</definedName>
     <definedName name="AnalysisType">Lookups!$A$17:$A$23</definedName>
     <definedName name="instance_defs">Lookups!$A$2:$D$9</definedName>
     <definedName name="instance_types">Lookups!$A$2:$A$9</definedName>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2725" uniqueCount="865">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2743" uniqueCount="871">
   <si>
     <t>type</t>
   </si>
@@ -2636,6 +2636,24 @@
   </si>
   <si>
     <t>Design Specification Outdoor Air Reduction (%)</t>
+  </si>
+  <si>
+    <t>IncreaseInsulationRValueForRoofsByPercentage</t>
+  </si>
+  <si>
+    <t>IncreaseInsulationRValueForExteriorWallsByPercentage</t>
+  </si>
+  <si>
+    <t>Increase Insulation R value For Roofs By Percentage</t>
+  </si>
+  <si>
+    <t>Increase Insulation R value For Exterior Walls By Percentage</t>
+  </si>
+  <si>
+    <t>Percentage Increase of R-value for Roof Insulation</t>
+  </si>
+  <si>
+    <t>Percentage Increase of R-value for Exterior Wall Insulation</t>
   </si>
 </sst>
 </file>
@@ -7315,11 +7333,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y211"/>
+  <dimension ref="A1:Y215"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E87" sqref="E87"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9315,177 +9333,203 @@
         <v>777</v>
       </c>
     </row>
-    <row r="89" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="49" t="b">
+    <row r="89" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="B89" s="49" t="s">
+      <c r="B89" s="38" t="s">
+        <v>867</v>
+      </c>
+      <c r="C89" s="38" t="s">
+        <v>865</v>
+      </c>
+      <c r="D89" s="38" t="s">
+        <v>865</v>
+      </c>
+      <c r="E89" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="G89" s="39"/>
+      <c r="H89" s="39"/>
+    </row>
+    <row r="90" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D90" s="43" t="s">
+        <v>869</v>
+      </c>
+      <c r="E90" s="43" t="s">
+        <v>258</v>
+      </c>
+      <c r="F90" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H90" s="43">
+        <v>30</v>
+      </c>
+      <c r="I90" s="46"/>
+      <c r="J90" s="45">
+        <v>-100</v>
+      </c>
+      <c r="K90" s="45">
+        <v>100</v>
+      </c>
+      <c r="L90" s="45">
+        <v>0</v>
+      </c>
+      <c r="M90" s="45">
+        <f>(K90-J90)/6</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="N90" s="45">
+        <v>2.5</v>
+      </c>
+      <c r="Q90" s="43" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="B91" s="38" t="s">
+        <v>868</v>
+      </c>
+      <c r="C91" s="38" t="s">
+        <v>866</v>
+      </c>
+      <c r="D91" s="38" t="s">
+        <v>866</v>
+      </c>
+      <c r="E91" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="G91" s="39"/>
+      <c r="H91" s="39"/>
+    </row>
+    <row r="92" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D92" s="43" t="s">
+        <v>870</v>
+      </c>
+      <c r="E92" s="43" t="s">
+        <v>258</v>
+      </c>
+      <c r="F92" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H92" s="43">
+        <v>30</v>
+      </c>
+      <c r="I92" s="46"/>
+      <c r="J92" s="45">
+        <v>-100</v>
+      </c>
+      <c r="K92" s="45">
+        <v>100</v>
+      </c>
+      <c r="L92" s="45">
+        <v>0</v>
+      </c>
+      <c r="M92" s="45">
+        <f>(K92-J92)/6</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="N92" s="45">
+        <v>2.5</v>
+      </c>
+      <c r="Q92" s="43" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="B93" s="49" t="s">
         <v>855</v>
       </c>
-      <c r="C89" s="49" t="s">
+      <c r="C93" s="49" t="s">
         <v>854</v>
       </c>
-      <c r="D89" s="49" t="s">
+      <c r="D93" s="49" t="s">
         <v>854</v>
       </c>
-      <c r="E89" s="49" t="s">
+      <c r="E93" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="J89" s="50"/>
-      <c r="K89" s="51"/>
-      <c r="L89" s="51"/>
-      <c r="M89" s="51"/>
-      <c r="N89" s="51"/>
-      <c r="O89" s="51"/>
-      <c r="Q89" s="52"/>
-    </row>
-    <row r="90" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="18"/>
-      <c r="B90" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D90" s="30" t="s">
+      <c r="J93" s="50"/>
+      <c r="K93" s="51"/>
+      <c r="L93" s="51"/>
+      <c r="M93" s="51"/>
+      <c r="N93" s="51"/>
+      <c r="O93" s="51"/>
+      <c r="Q93" s="52"/>
+    </row>
+    <row r="94" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="18"/>
+      <c r="B94" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D94" s="30" t="s">
         <v>860</v>
       </c>
-      <c r="E90" s="30" t="s">
+      <c r="E94" s="30" t="s">
         <v>856</v>
       </c>
-      <c r="F90" s="30" t="s">
+      <c r="F94" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="G90" s="30" t="s">
+      <c r="G94" s="30" t="s">
         <v>852</v>
       </c>
-      <c r="H90" s="30">
+      <c r="H94" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="18"/>
-      <c r="B91" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D91" s="30" t="s">
+    <row r="95" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="18"/>
+      <c r="B95" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D95" s="30" t="s">
         <v>861</v>
       </c>
-      <c r="E91" s="30" t="s">
+      <c r="E95" s="30" t="s">
         <v>857</v>
       </c>
-      <c r="F91" s="30" t="s">
+      <c r="F95" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="G91" s="30" t="s">
+      <c r="G95" s="30" t="s">
         <v>853</v>
       </c>
-      <c r="H91" s="30">
+      <c r="H95" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="18"/>
-      <c r="B92" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D92" s="30" t="s">
+    <row r="96" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="18"/>
+      <c r="B96" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D96" s="30" t="s">
         <v>862</v>
       </c>
-      <c r="E92" s="30" t="s">
+      <c r="E96" s="30" t="s">
         <v>858</v>
       </c>
-      <c r="F92" s="30" t="s">
+      <c r="F96" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="G92" s="30" t="s">
+      <c r="G96" s="30" t="s">
         <v>852</v>
       </c>
-      <c r="H92" s="30">
+      <c r="H96" s="30">
         <v>12</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="18"/>
-      <c r="B93" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D93" s="30" t="s">
-        <v>863</v>
-      </c>
-      <c r="E93" s="30" t="s">
-        <v>859</v>
-      </c>
-      <c r="F93" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G93" s="30" t="s">
-        <v>853</v>
-      </c>
-      <c r="H93" s="30">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B94" s="49" t="s">
-        <v>804</v>
-      </c>
-      <c r="C94" s="49" t="s">
-        <v>803</v>
-      </c>
-      <c r="D94" s="49" t="s">
-        <v>803</v>
-      </c>
-      <c r="E94" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="J94" s="50"/>
-      <c r="K94" s="51"/>
-      <c r="L94" s="51"/>
-      <c r="M94" s="51"/>
-      <c r="N94" s="51"/>
-      <c r="O94" s="51"/>
-      <c r="Q94" s="52"/>
-    </row>
-    <row r="95" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B95" s="49" t="s">
-        <v>832</v>
-      </c>
-      <c r="C95" s="49" t="s">
-        <v>831</v>
-      </c>
-      <c r="D95" s="49" t="s">
-        <v>831</v>
-      </c>
-      <c r="E95" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="J95" s="50"/>
-      <c r="K95" s="51"/>
-      <c r="L95" s="51"/>
-      <c r="M95" s="51"/>
-      <c r="N95" s="51"/>
-      <c r="O95" s="51"/>
-      <c r="Q95" s="52"/>
-    </row>
-    <row r="96" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="B96" s="22" t="s">
-        <v>801</v>
-      </c>
-      <c r="C96" s="22" t="s">
-        <v>286</v>
-      </c>
-      <c r="D96" s="22" t="s">
-        <v>286</v>
-      </c>
-      <c r="E96" s="22" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="97" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -9494,135 +9538,144 @@
         <v>21</v>
       </c>
       <c r="D97" s="30" t="s">
+        <v>863</v>
+      </c>
+      <c r="E97" s="30" t="s">
+        <v>859</v>
+      </c>
+      <c r="F97" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G97" s="30" t="s">
+        <v>853</v>
+      </c>
+      <c r="H97" s="30">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="B98" s="49" t="s">
+        <v>804</v>
+      </c>
+      <c r="C98" s="49" t="s">
+        <v>803</v>
+      </c>
+      <c r="D98" s="49" t="s">
+        <v>803</v>
+      </c>
+      <c r="E98" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="J98" s="50"/>
+      <c r="K98" s="51"/>
+      <c r="L98" s="51"/>
+      <c r="M98" s="51"/>
+      <c r="N98" s="51"/>
+      <c r="O98" s="51"/>
+      <c r="Q98" s="52"/>
+    </row>
+    <row r="99" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="B99" s="49" t="s">
+        <v>832</v>
+      </c>
+      <c r="C99" s="49" t="s">
+        <v>831</v>
+      </c>
+      <c r="D99" s="49" t="s">
+        <v>831</v>
+      </c>
+      <c r="E99" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="J99" s="50"/>
+      <c r="K99" s="51"/>
+      <c r="L99" s="51"/>
+      <c r="M99" s="51"/>
+      <c r="N99" s="51"/>
+      <c r="O99" s="51"/>
+      <c r="Q99" s="52"/>
+    </row>
+    <row r="100" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="B100" s="22" t="s">
+        <v>801</v>
+      </c>
+      <c r="C100" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="D100" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="E100" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="18"/>
+      <c r="B101" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" s="30" t="s">
         <v>373</v>
       </c>
-      <c r="E97" s="30" t="s">
+      <c r="E101" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="F97" s="30" t="s">
+      <c r="F101" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="H97" s="30" t="s">
+      <c r="H101" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="I97" s="30" t="s">
+      <c r="I101" s="30" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="98" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="43" t="s">
+    <row r="102" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D98" s="43" t="s">
+      <c r="D102" s="43" t="s">
         <v>802</v>
       </c>
-      <c r="E98" s="43" t="s">
+      <c r="E102" s="43" t="s">
         <v>288</v>
       </c>
-      <c r="F98" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="G98" s="43" t="s">
+      <c r="F102" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="G102" s="43" t="s">
         <v>792</v>
       </c>
-      <c r="H98" s="43">
-        <v>0</v>
-      </c>
-      <c r="J98" s="43">
-        <v>0</v>
-      </c>
-      <c r="K98" s="43">
+      <c r="H102" s="43">
+        <v>0</v>
+      </c>
+      <c r="J102" s="43">
+        <v>0</v>
+      </c>
+      <c r="K102" s="43">
         <v>40</v>
       </c>
-      <c r="L98" s="43">
+      <c r="L102" s="43">
         <v>-1</v>
       </c>
-      <c r="M98" s="45">
-        <f>(K98-J98)/6</f>
+      <c r="M102" s="45">
+        <f>(K102-J102)/6</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="N98" s="45">
+      <c r="N102" s="45">
         <v>2.5</v>
       </c>
-      <c r="Q98" s="43" t="s">
+      <c r="Q102" s="43" t="s">
         <v>777</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D99" s="30" t="s">
-        <v>793</v>
-      </c>
-      <c r="E99" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F99" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G99" s="30" t="s">
-        <v>792</v>
-      </c>
-      <c r="H99" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D100" s="30" t="s">
-        <v>794</v>
-      </c>
-      <c r="E100" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F100" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G100" s="30" t="s">
-        <v>792</v>
-      </c>
-      <c r="H100" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D101" s="30" t="s">
-        <v>795</v>
-      </c>
-      <c r="E101" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F101" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G101" s="30" t="s">
-        <v>796</v>
-      </c>
-      <c r="H101" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D102" s="30" t="s">
-        <v>797</v>
-      </c>
-      <c r="E102" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="F102" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H102" s="30" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -9630,19 +9683,19 @@
         <v>21</v>
       </c>
       <c r="D103" s="30" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="E103" s="30" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F103" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G103" s="30" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="H103" s="30">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -9650,10 +9703,10 @@
         <v>21</v>
       </c>
       <c r="D104" s="30" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="E104" s="30" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F104" s="30" t="s">
         <v>64</v>
@@ -9670,10 +9723,10 @@
         <v>21</v>
       </c>
       <c r="D105" s="30" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="E105" s="30" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F105" s="30" t="s">
         <v>65</v>
@@ -9682,142 +9735,143 @@
         <v>796</v>
       </c>
       <c r="H105" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D106" s="30" t="s">
+        <v>797</v>
+      </c>
+      <c r="E106" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F106" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="H106" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D107" s="30" t="s">
+        <v>798</v>
+      </c>
+      <c r="E107" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F107" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G107" s="30" t="s">
+        <v>796</v>
+      </c>
+      <c r="H107" s="30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D108" s="30" t="s">
+        <v>799</v>
+      </c>
+      <c r="E108" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F108" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G108" s="30" t="s">
+        <v>792</v>
+      </c>
+      <c r="H108" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D109" s="30" t="s">
+        <v>800</v>
+      </c>
+      <c r="E109" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F109" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G109" s="30" t="s">
+        <v>796</v>
+      </c>
+      <c r="H109" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="49" t="b">
+    <row r="110" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="B106" s="49" t="s">
+      <c r="B110" s="49" t="s">
         <v>209</v>
       </c>
-      <c r="C106" s="49" t="s">
+      <c r="C110" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="D106" s="49" t="s">
+      <c r="D110" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="E106" s="49" t="s">
+      <c r="E110" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="J106" s="50"/>
-      <c r="K106" s="51"/>
-      <c r="L106" s="51"/>
-      <c r="M106" s="51"/>
-      <c r="N106" s="51"/>
-      <c r="O106" s="51"/>
-      <c r="Q106" s="52"/>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B107" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D107" s="31" t="s">
-        <v>835</v>
-      </c>
-      <c r="E107" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="F107" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H107" s="31" t="s">
-        <v>417</v>
-      </c>
-      <c r="I107" s="30" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B108" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D108" s="31" t="s">
-        <v>836</v>
-      </c>
-      <c r="E108" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="F108" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H108" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I108" s="31"/>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B109" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D109" s="31" t="s">
-        <v>837</v>
-      </c>
-      <c r="E109" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="F109" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="H109" s="31">
-        <v>0</v>
-      </c>
-      <c r="I109" s="31"/>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B110" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D110" s="31" t="s">
-        <v>838</v>
-      </c>
-      <c r="E110" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="F110" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="H110" s="31">
-        <v>0</v>
-      </c>
-      <c r="I110" s="31"/>
+      <c r="J110" s="50"/>
+      <c r="K110" s="51"/>
+      <c r="L110" s="51"/>
+      <c r="M110" s="51"/>
+      <c r="N110" s="51"/>
+      <c r="O110" s="51"/>
+      <c r="Q110" s="52"/>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B111" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D111" s="31" t="s">
-        <v>795</v>
+        <v>835</v>
       </c>
       <c r="E111" s="31" t="s">
-        <v>52</v>
+        <v>126</v>
       </c>
       <c r="F111" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G111" s="30" t="s">
-        <v>796</v>
-      </c>
-      <c r="H111" s="31">
-        <v>0</v>
-      </c>
-      <c r="I111" s="31"/>
+        <v>62</v>
+      </c>
+      <c r="H111" s="31" t="s">
+        <v>417</v>
+      </c>
+      <c r="I111" s="30" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B112" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D112" s="31" t="s">
-        <v>797</v>
+        <v>836</v>
       </c>
       <c r="E112" s="31" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="F112" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="G112" s="30"/>
       <c r="H112" s="31" t="b">
         <v>0</v>
       </c>
@@ -9827,20 +9881,17 @@
       <c r="B113" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D113" s="30" t="s">
-        <v>798</v>
-      </c>
-      <c r="E113" s="30" t="s">
-        <v>56</v>
+      <c r="D113" s="31" t="s">
+        <v>837</v>
+      </c>
+      <c r="E113" s="31" t="s">
+        <v>128</v>
       </c>
       <c r="F113" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G113" s="30" t="s">
-        <v>796</v>
+        <v>64</v>
       </c>
       <c r="H113" s="31">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I113" s="31"/>
     </row>
@@ -9848,17 +9899,14 @@
       <c r="B114" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D114" s="30" t="s">
-        <v>851</v>
-      </c>
-      <c r="E114" s="30" t="s">
-        <v>58</v>
+      <c r="D114" s="31" t="s">
+        <v>838</v>
+      </c>
+      <c r="E114" s="31" t="s">
+        <v>50</v>
       </c>
       <c r="F114" s="30" t="s">
         <v>64</v>
-      </c>
-      <c r="G114" s="30" t="s">
-        <v>792</v>
       </c>
       <c r="H114" s="31">
         <v>0</v>
@@ -9869,11 +9917,11 @@
       <c r="B115" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D115" s="30" t="s">
-        <v>800</v>
-      </c>
-      <c r="E115" s="30" t="s">
-        <v>60</v>
+      <c r="D115" s="31" t="s">
+        <v>795</v>
+      </c>
+      <c r="E115" s="31" t="s">
+        <v>52</v>
       </c>
       <c r="F115" s="30" t="s">
         <v>65</v>
@@ -9882,173 +9930,174 @@
         <v>796</v>
       </c>
       <c r="H115" s="31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" s="31"/>
     </row>
-    <row r="116" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B116" s="49" t="s">
-        <v>216</v>
-      </c>
-      <c r="C116" s="49" t="s">
-        <v>217</v>
-      </c>
-      <c r="D116" s="49" t="s">
-        <v>217</v>
-      </c>
-      <c r="E116" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="J116" s="50"/>
-      <c r="K116" s="51"/>
-      <c r="L116" s="51"/>
-      <c r="M116" s="51"/>
-      <c r="N116" s="51"/>
-      <c r="O116" s="51"/>
-      <c r="Q116" s="52"/>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B116" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D116" s="31" t="s">
+        <v>797</v>
+      </c>
+      <c r="E116" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="F116" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="G116" s="30"/>
+      <c r="H116" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I116" s="31"/>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B117" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D117" s="31" t="s">
-        <v>835</v>
-      </c>
-      <c r="E117" s="31" t="s">
-        <v>126</v>
+      <c r="D117" s="30" t="s">
+        <v>798</v>
+      </c>
+      <c r="E117" s="30" t="s">
+        <v>56</v>
       </c>
       <c r="F117" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H117" s="31" t="s">
-        <v>417</v>
-      </c>
-      <c r="I117" s="30" t="s">
-        <v>418</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G117" s="30" t="s">
+        <v>796</v>
+      </c>
+      <c r="H117" s="31">
+        <v>15</v>
+      </c>
+      <c r="I117" s="31"/>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B118" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D118" s="31" t="s">
-        <v>841</v>
-      </c>
-      <c r="E118" s="31" t="s">
-        <v>219</v>
+      <c r="D118" s="30" t="s">
+        <v>851</v>
+      </c>
+      <c r="E118" s="30" t="s">
+        <v>58</v>
       </c>
       <c r="F118" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H118" s="31" t="s">
-        <v>839</v>
-      </c>
-      <c r="I118" s="30" t="s">
-        <v>840</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G118" s="30" t="s">
+        <v>792</v>
+      </c>
+      <c r="H118" s="31">
+        <v>0</v>
+      </c>
+      <c r="I118" s="31"/>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B119" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D119" s="31" t="s">
-        <v>842</v>
-      </c>
-      <c r="E119" s="31" t="s">
-        <v>221</v>
+      <c r="D119" s="30" t="s">
+        <v>800</v>
+      </c>
+      <c r="E119" s="30" t="s">
+        <v>60</v>
       </c>
       <c r="F119" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G119" s="31" t="s">
-        <v>843</v>
+        <v>65</v>
+      </c>
+      <c r="G119" s="30" t="s">
+        <v>796</v>
       </c>
       <c r="H119" s="31">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="I119" s="31"/>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B120" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D120" s="31" t="s">
-        <v>845</v>
-      </c>
-      <c r="E120" s="31" t="s">
-        <v>223</v>
-      </c>
-      <c r="F120" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G120" s="31" t="s">
-        <v>844</v>
-      </c>
-      <c r="H120" s="31">
-        <v>28</v>
-      </c>
-      <c r="I120" s="31"/>
+    <row r="120" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="B120" s="49" t="s">
+        <v>216</v>
+      </c>
+      <c r="C120" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="D120" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="E120" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="J120" s="50"/>
+      <c r="K120" s="51"/>
+      <c r="L120" s="51"/>
+      <c r="M120" s="51"/>
+      <c r="N120" s="51"/>
+      <c r="O120" s="51"/>
+      <c r="Q120" s="52"/>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B121" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D121" s="31" t="s">
-        <v>846</v>
+        <v>835</v>
       </c>
       <c r="E121" s="31" t="s">
-        <v>225</v>
+        <v>126</v>
       </c>
       <c r="F121" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G121" s="31" t="s">
-        <v>843</v>
-      </c>
-      <c r="H121" s="31">
-        <v>55</v>
-      </c>
-      <c r="I121" s="31"/>
+        <v>62</v>
+      </c>
+      <c r="H121" s="31" t="s">
+        <v>417</v>
+      </c>
+      <c r="I121" s="30" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B122" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D122" s="31" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="E122" s="31" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="F122" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G122" s="31" t="s">
-        <v>843</v>
-      </c>
-      <c r="H122" s="31">
-        <v>-148</v>
-      </c>
-      <c r="I122" s="31"/>
+        <v>62</v>
+      </c>
+      <c r="H122" s="31" t="s">
+        <v>839</v>
+      </c>
+      <c r="I122" s="30" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B123" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D123" s="31" t="s">
-        <v>836</v>
+        <v>842</v>
       </c>
       <c r="E123" s="31" t="s">
-        <v>91</v>
+        <v>221</v>
       </c>
       <c r="F123" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H123" s="31" t="b">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="G123" s="31" t="s">
+        <v>843</v>
+      </c>
+      <c r="H123" s="31">
+        <v>69</v>
       </c>
       <c r="I123" s="31"/>
     </row>
@@ -10057,16 +10106,19 @@
         <v>21</v>
       </c>
       <c r="D124" s="31" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="E124" s="31" t="s">
-        <v>128</v>
+        <v>223</v>
       </c>
       <c r="F124" s="30" t="s">
         <v>64</v>
       </c>
+      <c r="G124" s="31" t="s">
+        <v>844</v>
+      </c>
       <c r="H124" s="31">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I124" s="31"/>
     </row>
@@ -10075,16 +10127,19 @@
         <v>21</v>
       </c>
       <c r="D125" s="31" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="E125" s="31" t="s">
-        <v>50</v>
+        <v>225</v>
       </c>
       <c r="F125" s="30" t="s">
         <v>64</v>
       </c>
+      <c r="G125" s="31" t="s">
+        <v>843</v>
+      </c>
       <c r="H125" s="31">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="I125" s="31"/>
     </row>
@@ -10093,19 +10148,19 @@
         <v>21</v>
       </c>
       <c r="D126" s="31" t="s">
-        <v>795</v>
+        <v>847</v>
       </c>
       <c r="E126" s="31" t="s">
-        <v>52</v>
+        <v>227</v>
       </c>
       <c r="F126" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G126" s="30" t="s">
-        <v>796</v>
+        <v>64</v>
+      </c>
+      <c r="G126" s="31" t="s">
+        <v>843</v>
       </c>
       <c r="H126" s="31">
-        <v>0</v>
+        <v>-148</v>
       </c>
       <c r="I126" s="31"/>
     </row>
@@ -10114,15 +10169,14 @@
         <v>21</v>
       </c>
       <c r="D127" s="31" t="s">
-        <v>797</v>
+        <v>836</v>
       </c>
       <c r="E127" s="31" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="F127" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="G127" s="30"/>
       <c r="H127" s="31" t="b">
         <v>0</v>
       </c>
@@ -10132,20 +10186,17 @@
       <c r="B128" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D128" s="30" t="s">
-        <v>798</v>
-      </c>
-      <c r="E128" s="30" t="s">
-        <v>56</v>
+      <c r="D128" s="31" t="s">
+        <v>848</v>
+      </c>
+      <c r="E128" s="31" t="s">
+        <v>128</v>
       </c>
       <c r="F128" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G128" s="30" t="s">
-        <v>796</v>
+        <v>64</v>
       </c>
       <c r="H128" s="31">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I128" s="31"/>
     </row>
@@ -10153,17 +10204,14 @@
       <c r="B129" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D129" s="30" t="s">
-        <v>850</v>
-      </c>
-      <c r="E129" s="30" t="s">
-        <v>58</v>
+      <c r="D129" s="31" t="s">
+        <v>849</v>
+      </c>
+      <c r="E129" s="31" t="s">
+        <v>50</v>
       </c>
       <c r="F129" s="30" t="s">
         <v>64</v>
-      </c>
-      <c r="G129" s="30" t="s">
-        <v>792</v>
       </c>
       <c r="H129" s="31">
         <v>0</v>
@@ -10174,11 +10222,11 @@
       <c r="B130" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D130" s="30" t="s">
-        <v>800</v>
-      </c>
-      <c r="E130" s="30" t="s">
-        <v>60</v>
+      <c r="D130" s="31" t="s">
+        <v>795</v>
+      </c>
+      <c r="E130" s="31" t="s">
+        <v>52</v>
       </c>
       <c r="F130" s="30" t="s">
         <v>65</v>
@@ -10187,24 +10235,90 @@
         <v>796</v>
       </c>
       <c r="H130" s="31">
+        <v>0</v>
+      </c>
+      <c r="I130" s="31"/>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B131" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D131" s="31" t="s">
+        <v>797</v>
+      </c>
+      <c r="E131" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="F131" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="G131" s="30"/>
+      <c r="H131" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I131" s="31"/>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B132" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D132" s="30" t="s">
+        <v>798</v>
+      </c>
+      <c r="E132" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F132" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G132" s="30" t="s">
+        <v>796</v>
+      </c>
+      <c r="H132" s="31">
+        <v>15</v>
+      </c>
+      <c r="I132" s="31"/>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B133" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D133" s="30" t="s">
+        <v>850</v>
+      </c>
+      <c r="E133" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F133" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G133" s="30" t="s">
+        <v>792</v>
+      </c>
+      <c r="H133" s="31">
+        <v>0</v>
+      </c>
+      <c r="I133" s="31"/>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B134" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D134" s="30" t="s">
+        <v>800</v>
+      </c>
+      <c r="E134" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F134" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G134" s="30" t="s">
+        <v>796</v>
+      </c>
+      <c r="H134" s="31">
         <v>1</v>
       </c>
-      <c r="I130" s="31"/>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H131" s="31"/>
-      <c r="I131" s="31"/>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H132" s="31"/>
-      <c r="I132" s="31"/>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H133" s="31"/>
-      <c r="I133" s="31"/>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H134" s="31"/>
       <c r="I134" s="31"/>
     </row>
     <row r="135" spans="2:9" x14ac:dyDescent="0.25">
@@ -10515,8 +10629,24 @@
       <c r="H211" s="31"/>
       <c r="I211" s="31"/>
     </row>
+    <row r="212" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H212" s="31"/>
+      <c r="I212" s="31"/>
+    </row>
+    <row r="213" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H213" s="31"/>
+      <c r="I213" s="31"/>
+    </row>
+    <row r="214" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H214" s="31"/>
+      <c r="I214" s="31"/>
+    </row>
+    <row r="215" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H215" s="31"/>
+      <c r="I215" s="31"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:Z138"/>
+  <autoFilter ref="A2:Z142"/>
   <mergeCells count="1">
     <mergeCell ref="T1:Y1"/>
   </mergeCells>

--- a/projects/office_ee.xlsx
+++ b/projects/office_ee.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Outputs!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$Z$142</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$Z$144</definedName>
     <definedName name="AnalysisType">Lookups!$A$17:$A$23</definedName>
     <definedName name="instance_defs">Lookups!$A$2:$D$9</definedName>
     <definedName name="instance_types">Lookups!$A$2:$A$9</definedName>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2743" uniqueCount="871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2752" uniqueCount="874">
   <si>
     <t>type</t>
   </si>
@@ -2654,6 +2654,15 @@
   </si>
   <si>
     <t>Percentage Increase of R-value for Exterior Wall Insulation</t>
+  </si>
+  <si>
+    <t>Rotate Building</t>
+  </si>
+  <si>
+    <t>Number of Degrees to Rotate Building positive value is clockwise</t>
+  </si>
+  <si>
+    <t>degrees</t>
   </si>
 </sst>
 </file>
@@ -7333,11 +7342,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y215"/>
+  <dimension ref="A1:Y217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D93" sqref="D93"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8069,13 +8078,13 @@
         <v>1</v>
       </c>
       <c r="B36" s="38" t="s">
-        <v>680</v>
+        <v>871</v>
       </c>
       <c r="C36" s="38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D36" s="38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E36" s="38" t="s">
         <v>68</v>
@@ -8088,72 +8097,56 @@
         <v>21</v>
       </c>
       <c r="D37" s="31" t="s">
-        <v>683</v>
+        <v>872</v>
       </c>
       <c r="E37" s="31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F37" s="31" t="s">
         <v>619</v>
       </c>
+      <c r="G37" s="31" t="s">
+        <v>873</v>
+      </c>
       <c r="H37" s="31">
-        <v>0.4</v>
-      </c>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="2"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B38" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38" s="31" t="s">
-        <v>667</v>
-      </c>
-      <c r="E38" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="F38" s="31" t="s">
-        <v>619</v>
-      </c>
-      <c r="G38" s="31" t="s">
-        <v>668</v>
-      </c>
-      <c r="H38" s="31">
-        <v>30</v>
-      </c>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="I37" s="31"/>
+    </row>
+    <row r="38" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="B38" s="38" t="s">
+        <v>680</v>
+      </c>
+      <c r="C38" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B39" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D39" s="31" t="s">
-        <v>672</v>
+        <v>683</v>
       </c>
       <c r="E39" s="31" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F39" s="31" t="s">
-        <v>618</v>
-      </c>
-      <c r="G39" s="31" t="s">
-        <v>668</v>
-      </c>
-      <c r="H39" s="31" t="s">
-        <v>669</v>
+        <v>619</v>
+      </c>
+      <c r="H39" s="31">
+        <v>0.4</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
@@ -8164,40 +8157,52 @@
       <c r="P39" s="40"/>
       <c r="Q39" s="2"/>
     </row>
-    <row r="40" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="B40" s="38" t="s">
-        <v>687</v>
-      </c>
-      <c r="C40" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D40" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="E40" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B40" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="31" t="s">
+        <v>667</v>
+      </c>
+      <c r="E40" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="F40" s="31" t="s">
+        <v>619</v>
+      </c>
+      <c r="G40" s="31" t="s">
+        <v>668</v>
+      </c>
+      <c r="H40" s="31">
+        <v>30</v>
+      </c>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="2"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B41" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D41" s="31" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="E41" s="31" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F41" s="31" t="s">
-        <v>619</v>
-      </c>
-      <c r="H41" s="31">
-        <v>0.4</v>
+        <v>618</v>
+      </c>
+      <c r="G41" s="31" t="s">
+        <v>668</v>
+      </c>
+      <c r="H41" s="31" t="s">
+        <v>669</v>
       </c>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
@@ -8208,52 +8213,40 @@
       <c r="P41" s="40"/>
       <c r="Q41" s="2"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B42" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D42" s="31" t="s">
-        <v>667</v>
-      </c>
-      <c r="E42" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="F42" s="31" t="s">
-        <v>619</v>
-      </c>
-      <c r="G42" s="31" t="s">
-        <v>668</v>
-      </c>
-      <c r="H42" s="31">
-        <v>30</v>
-      </c>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="2"/>
+    <row r="42" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="B42" s="38" t="s">
+        <v>687</v>
+      </c>
+      <c r="C42" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="E42" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B43" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D43" s="31" t="s">
-        <v>673</v>
+        <v>684</v>
       </c>
       <c r="E43" s="31" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F43" s="31" t="s">
-        <v>618</v>
-      </c>
-      <c r="G43" s="31" t="s">
-        <v>668</v>
-      </c>
-      <c r="H43" s="31" t="s">
-        <v>82</v>
+        <v>619</v>
+      </c>
+      <c r="H43" s="31">
+        <v>0.4</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
@@ -8264,40 +8257,52 @@
       <c r="P43" s="40"/>
       <c r="Q43" s="2"/>
     </row>
-    <row r="44" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="B44" s="38" t="s">
-        <v>688</v>
-      </c>
-      <c r="C44" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D44" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="E44" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="G44" s="39"/>
-      <c r="H44" s="39"/>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B44" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="31" t="s">
+        <v>667</v>
+      </c>
+      <c r="E44" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="F44" s="31" t="s">
+        <v>619</v>
+      </c>
+      <c r="G44" s="31" t="s">
+        <v>668</v>
+      </c>
+      <c r="H44" s="31">
+        <v>30</v>
+      </c>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="2"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B45" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D45" s="31" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="E45" s="31" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F45" s="31" t="s">
-        <v>619</v>
-      </c>
-      <c r="H45" s="31">
-        <v>0.4</v>
+        <v>618</v>
+      </c>
+      <c r="G45" s="31" t="s">
+        <v>668</v>
+      </c>
+      <c r="H45" s="31" t="s">
+        <v>82</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
@@ -8308,52 +8313,40 @@
       <c r="P45" s="40"/>
       <c r="Q45" s="2"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B46" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D46" s="31" t="s">
-        <v>667</v>
-      </c>
-      <c r="E46" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="F46" s="31" t="s">
-        <v>619</v>
-      </c>
-      <c r="G46" s="31" t="s">
-        <v>668</v>
-      </c>
-      <c r="H46" s="31">
-        <v>30</v>
-      </c>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="P46" s="40"/>
-      <c r="Q46" s="2"/>
+    <row r="46" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="B46" s="38" t="s">
+        <v>688</v>
+      </c>
+      <c r="C46" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D46" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="E46" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B47" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D47" s="31" t="s">
-        <v>674</v>
+        <v>685</v>
       </c>
       <c r="E47" s="31" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F47" s="31" t="s">
-        <v>618</v>
-      </c>
-      <c r="G47" s="31" t="s">
-        <v>668</v>
-      </c>
-      <c r="H47" s="31" t="s">
-        <v>670</v>
+        <v>619</v>
+      </c>
+      <c r="H47" s="31">
+        <v>0.4</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
@@ -8364,40 +8357,52 @@
       <c r="P47" s="40"/>
       <c r="Q47" s="2"/>
     </row>
-    <row r="48" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="B48" s="38" t="s">
-        <v>681</v>
-      </c>
-      <c r="C48" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D48" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="E48" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="G48" s="39"/>
-      <c r="H48" s="39"/>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B48" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="31" t="s">
+        <v>667</v>
+      </c>
+      <c r="E48" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="F48" s="31" t="s">
+        <v>619</v>
+      </c>
+      <c r="G48" s="31" t="s">
+        <v>668</v>
+      </c>
+      <c r="H48" s="31">
+        <v>30</v>
+      </c>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="P48" s="40"/>
+      <c r="Q48" s="2"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B49" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="E49" s="31" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F49" s="31" t="s">
-        <v>619</v>
-      </c>
-      <c r="H49" s="31">
-        <v>0.4</v>
+        <v>618</v>
+      </c>
+      <c r="G49" s="31" t="s">
+        <v>668</v>
+      </c>
+      <c r="H49" s="31" t="s">
+        <v>670</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
@@ -8408,52 +8413,40 @@
       <c r="P49" s="40"/>
       <c r="Q49" s="2"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B50" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D50" s="31" t="s">
-        <v>667</v>
-      </c>
-      <c r="E50" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="F50" s="31" t="s">
-        <v>619</v>
-      </c>
-      <c r="G50" s="31" t="s">
-        <v>668</v>
-      </c>
-      <c r="H50" s="31">
-        <v>30</v>
-      </c>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="P50" s="40"/>
-      <c r="Q50" s="2"/>
+    <row r="50" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="B50" s="38" t="s">
+        <v>681</v>
+      </c>
+      <c r="C50" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D50" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="E50" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B51" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D51" s="31" t="s">
-        <v>675</v>
+        <v>686</v>
       </c>
       <c r="E51" s="31" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F51" s="31" t="s">
-        <v>618</v>
-      </c>
-      <c r="G51" s="31" t="s">
-        <v>668</v>
-      </c>
-      <c r="H51" s="31" t="s">
-        <v>671</v>
+        <v>619</v>
+      </c>
+      <c r="H51" s="31">
+        <v>0.4</v>
       </c>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
@@ -8464,76 +8457,96 @@
       <c r="P51" s="40"/>
       <c r="Q51" s="2"/>
     </row>
-    <row r="52" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="B52" s="38" t="s">
-        <v>691</v>
-      </c>
-      <c r="C52" s="38" t="s">
-        <v>690</v>
-      </c>
-      <c r="D52" s="38" t="s">
-        <v>690</v>
-      </c>
-      <c r="E52" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="G52" s="39"/>
-      <c r="H52" s="39"/>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B52" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="31" t="s">
+        <v>667</v>
+      </c>
+      <c r="E52" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="F52" s="31" t="s">
+        <v>619</v>
+      </c>
+      <c r="G52" s="31" t="s">
+        <v>668</v>
+      </c>
+      <c r="H52" s="31">
+        <v>30</v>
+      </c>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="P52" s="40"/>
+      <c r="Q52" s="2"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B53" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D53" s="31" t="s">
-        <v>693</v>
+        <v>675</v>
       </c>
       <c r="E53" s="31" t="s">
-        <v>692</v>
+        <v>81</v>
       </c>
       <c r="F53" s="31" t="s">
         <v>618</v>
       </c>
+      <c r="G53" s="31" t="s">
+        <v>668</v>
+      </c>
       <c r="H53" s="31" t="s">
-        <v>702</v>
-      </c>
-      <c r="I53" s="31"/>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B54" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D54" s="31" t="s">
-        <v>695</v>
-      </c>
-      <c r="E54" s="31" t="s">
-        <v>694</v>
-      </c>
-      <c r="F54" s="31" t="s">
-        <v>618</v>
-      </c>
-      <c r="H54" s="31" t="s">
-        <v>703</v>
-      </c>
-      <c r="I54" s="31"/>
+        <v>671</v>
+      </c>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="P53" s="40"/>
+      <c r="Q53" s="2"/>
+    </row>
+    <row r="54" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="B54" s="38" t="s">
+        <v>691</v>
+      </c>
+      <c r="C54" s="38" t="s">
+        <v>690</v>
+      </c>
+      <c r="D54" s="38" t="s">
+        <v>690</v>
+      </c>
+      <c r="E54" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B55" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D55" s="31" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="E55" s="31" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="F55" s="31" t="s">
         <v>618</v>
       </c>
-      <c r="H55" s="41" t="s">
-        <v>701</v>
+      <c r="H55" s="31" t="s">
+        <v>702</v>
       </c>
       <c r="I55" s="31"/>
     </row>
@@ -8542,529 +8555,498 @@
         <v>21</v>
       </c>
       <c r="D56" s="31" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="F56" s="31" t="s">
         <v>618</v>
       </c>
-      <c r="H56" s="41" t="s">
+      <c r="H56" s="31" t="s">
+        <v>703</v>
+      </c>
+      <c r="I56" s="31"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B57" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" s="31" t="s">
+        <v>698</v>
+      </c>
+      <c r="E57" s="31" t="s">
+        <v>696</v>
+      </c>
+      <c r="F57" s="31" t="s">
+        <v>618</v>
+      </c>
+      <c r="H57" s="41" t="s">
+        <v>701</v>
+      </c>
+      <c r="I57" s="31"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B58" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" s="31" t="s">
+        <v>699</v>
+      </c>
+      <c r="E58" s="31" t="s">
+        <v>697</v>
+      </c>
+      <c r="F58" s="31" t="s">
+        <v>618</v>
+      </c>
+      <c r="H58" s="41" t="s">
         <v>700</v>
       </c>
-      <c r="I56" s="31"/>
-    </row>
-    <row r="57" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="38" t="b">
+      <c r="I58" s="31"/>
+    </row>
+    <row r="59" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="B57" s="38" t="s">
+      <c r="B59" s="38" t="s">
         <v>705</v>
       </c>
-      <c r="C57" s="38" t="s">
+      <c r="C59" s="38" t="s">
         <v>704</v>
       </c>
-      <c r="D57" s="38" t="s">
+      <c r="D59" s="38" t="s">
         <v>704</v>
       </c>
-      <c r="E57" s="38" t="s">
+      <c r="E59" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="G57" s="39"/>
-      <c r="H57" s="39"/>
-    </row>
-    <row r="58" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="38" t="b">
+      <c r="G59" s="39"/>
+      <c r="H59" s="39"/>
+    </row>
+    <row r="60" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="B58" s="38" t="s">
+      <c r="B60" s="38" t="s">
         <v>775</v>
       </c>
-      <c r="C58" s="38" t="s">
+      <c r="C60" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="D58" s="38" t="s">
+      <c r="D60" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="E58" s="38" t="s">
+      <c r="E60" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="G58" s="39"/>
-      <c r="H58" s="39"/>
-    </row>
-    <row r="59" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="D59" s="43" t="s">
+      <c r="G60" s="39"/>
+      <c r="H60" s="39"/>
+    </row>
+    <row r="61" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" s="43" t="s">
         <v>776</v>
       </c>
-      <c r="E59" s="43" t="s">
+      <c r="E61" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="F59" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="H59" s="43">
+      <c r="F61" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H61" s="43">
         <v>0.44400000000000001</v>
       </c>
-      <c r="J59" s="43">
+      <c r="J61" s="43">
         <v>0.3</v>
       </c>
-      <c r="K59" s="43">
+      <c r="K61" s="43">
         <v>0.5</v>
       </c>
-      <c r="L59" s="43">
+      <c r="L61" s="43">
         <v>0.4</v>
       </c>
-      <c r="M59" s="43">
-        <f>(K59+J59)/6</f>
+      <c r="M61" s="43">
+        <f>(K61+J61)/6</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="N59" s="43">
+      <c r="N61" s="43">
         <v>0.01</v>
       </c>
-      <c r="Q59" s="43" t="s">
+      <c r="Q61" s="43" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="60" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D60" s="30" t="s">
+    <row r="62" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="E60" s="30" t="s">
+      <c r="E62" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="F60" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="H60" s="30">
+      <c r="F62" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="H62" s="30">
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D61" s="30" t="s">
+    <row r="63" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="E61" s="30" t="s">
+      <c r="E63" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="F61" s="30" t="s">
+      <c r="F63" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="H61" s="30" t="s">
+      <c r="H63" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="I61" s="30" t="s">
+      <c r="I63" s="30" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="38" t="b">
+    <row r="64" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="B62" s="38" t="s">
+      <c r="B64" s="38" t="s">
         <v>778</v>
       </c>
-      <c r="C62" s="38" t="s">
+      <c r="C64" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="D62" s="38" t="s">
+      <c r="D64" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="E62" s="38" t="s">
+      <c r="E64" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="G62" s="39"/>
-      <c r="H62" s="39"/>
-    </row>
-    <row r="63" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="D63" s="43" t="s">
+      <c r="G64" s="39"/>
+      <c r="H64" s="39"/>
+    </row>
+    <row r="65" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" s="43" t="s">
         <v>779</v>
       </c>
-      <c r="E63" s="43" t="s">
+      <c r="E65" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="F63" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="H63" s="43">
+      <c r="F65" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H65" s="43">
         <v>0.2</v>
       </c>
-      <c r="J63" s="43">
+      <c r="J65" s="43">
         <v>0.3</v>
       </c>
-      <c r="K63" s="43">
+      <c r="K65" s="43">
         <v>0.5</v>
       </c>
-      <c r="L63" s="43">
+      <c r="L65" s="43">
         <v>0.4</v>
       </c>
-      <c r="M63" s="43">
-        <f>(K63+J63)/6</f>
+      <c r="M65" s="43">
+        <f>(K65+J65)/6</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="N63" s="43">
+      <c r="N65" s="43">
         <v>0.01</v>
       </c>
-      <c r="Q63" s="43" t="s">
+      <c r="Q65" s="43" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="64" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D64" s="30" t="s">
+    <row r="66" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="E64" s="30" t="s">
+      <c r="E66" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="F64" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="H64" s="30">
+      <c r="F66" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="H66" s="30">
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D65" s="30" t="s">
+    <row r="67" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="E65" s="30" t="s">
+      <c r="E67" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="F65" s="30" t="s">
+      <c r="F67" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="H65" s="30" t="s">
+      <c r="H67" s="30" t="s">
         <v>670</v>
       </c>
-      <c r="I65" s="30" t="s">
+      <c r="I67" s="30" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="38" t="b">
+    <row r="68" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="B66" s="38" t="s">
+      <c r="B68" s="38" t="s">
         <v>780</v>
       </c>
-      <c r="C66" s="38" t="s">
+      <c r="C68" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="D66" s="38" t="s">
+      <c r="D68" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="E66" s="38" t="s">
+      <c r="E68" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="G66" s="39"/>
-      <c r="H66" s="39"/>
-    </row>
-    <row r="67" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="D67" s="43" t="s">
+      <c r="G68" s="39"/>
+      <c r="H68" s="39"/>
+    </row>
+    <row r="69" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" s="43" t="s">
         <v>781</v>
       </c>
-      <c r="E67" s="43" t="s">
+      <c r="E69" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="F67" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="H67" s="43">
+      <c r="F69" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H69" s="43">
         <v>0.3</v>
       </c>
-      <c r="J67" s="43">
+      <c r="J69" s="43">
         <v>0.3</v>
       </c>
-      <c r="K67" s="43">
+      <c r="K69" s="43">
         <v>0.5</v>
       </c>
-      <c r="L67" s="43">
+      <c r="L69" s="43">
         <v>0.4</v>
       </c>
-      <c r="M67" s="43">
-        <f>(K67+J67)/6</f>
+      <c r="M69" s="43">
+        <f>(K69+J69)/6</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="N67" s="43">
+      <c r="N69" s="43">
         <v>0.01</v>
       </c>
-      <c r="Q67" s="43" t="s">
+      <c r="Q69" s="43" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="68" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D68" s="30" t="s">
+    <row r="70" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="E68" s="30" t="s">
+      <c r="E70" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="F68" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="H68" s="30">
+      <c r="F70" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="H70" s="30">
         <v>30</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D69" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="E69" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="F69" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H69" s="30" t="s">
-        <v>671</v>
-      </c>
-      <c r="I69" s="30" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="B70" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="C70" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="D70" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="E70" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="G70" s="39"/>
-      <c r="H70" s="39"/>
     </row>
     <row r="71" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D71" s="30" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="E71" s="30" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="F71" s="30" t="s">
         <v>62</v>
       </c>
       <c r="H71" s="30" t="s">
-        <v>66</v>
+        <v>671</v>
       </c>
       <c r="I71" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="O71" s="31"/>
-    </row>
-    <row r="72" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="D72" s="44" t="s">
-        <v>782</v>
-      </c>
-      <c r="E72" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="F72" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="H72" s="43">
-        <v>-20</v>
-      </c>
-      <c r="J72" s="45">
-        <v>-100</v>
-      </c>
-      <c r="K72" s="45">
-        <v>100</v>
-      </c>
-      <c r="L72" s="45">
-        <v>0</v>
-      </c>
-      <c r="M72" s="45">
-        <f>(K72-J72)/6</f>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="N72" s="45">
-        <v>2.5</v>
-      </c>
-      <c r="Q72" s="43" t="s">
-        <v>777</v>
-      </c>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="B72" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C72" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="D72" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="G72" s="39"/>
+      <c r="H72" s="39"/>
     </row>
     <row r="73" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D73" s="30" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="E73" s="30" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F73" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="H73" s="30">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="H73" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="I73" s="30" t="s">
+        <v>83</v>
       </c>
       <c r="O73" s="31"/>
     </row>
-    <row r="74" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D74" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="E74" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F74" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="H74" s="30">
-        <v>0</v>
-      </c>
-      <c r="O74" s="31"/>
+    <row r="74" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" s="44" t="s">
+        <v>782</v>
+      </c>
+      <c r="E74" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="F74" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H74" s="43">
+        <v>-20</v>
+      </c>
+      <c r="J74" s="45">
+        <v>-100</v>
+      </c>
+      <c r="K74" s="45">
+        <v>100</v>
+      </c>
+      <c r="L74" s="45">
+        <v>0</v>
+      </c>
+      <c r="M74" s="45">
+        <f>(K74-J74)/6</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="N74" s="45">
+        <v>2.5</v>
+      </c>
+      <c r="Q74" s="43" t="s">
+        <v>777</v>
+      </c>
     </row>
     <row r="75" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D75" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E75" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="F75" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="H75" s="30">
+        <v>0</v>
+      </c>
+      <c r="O75" s="31"/>
+    </row>
+    <row r="76" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D76" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="E76" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F76" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="H76" s="30">
+        <v>0</v>
+      </c>
+      <c r="O76" s="31"/>
+    </row>
+    <row r="77" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="E75" s="30" t="s">
+      <c r="E77" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="F75" s="30" t="s">
+      <c r="F77" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="H75" s="30">
+      <c r="H77" s="30">
         <v>1</v>
       </c>
-      <c r="O75" s="31"/>
-    </row>
-    <row r="76" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="38" t="b">
+      <c r="O77" s="31"/>
+    </row>
+    <row r="78" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="B76" s="38" t="s">
+      <c r="B78" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C76" s="38" t="s">
+      <c r="C78" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="D76" s="38" t="s">
+      <c r="D78" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="E76" s="38" t="s">
+      <c r="E78" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="G76" s="39"/>
-      <c r="H76" s="39"/>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A77" s="30"/>
-      <c r="B77" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C77" s="30"/>
-      <c r="D77" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="E77" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="F77" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G77" s="30"/>
-      <c r="H77" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="I77" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
-      <c r="M77" s="3"/>
-      <c r="N77" s="3"/>
-      <c r="P77" s="40"/>
-    </row>
-    <row r="78" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="D78" s="43" t="s">
-        <v>783</v>
-      </c>
-      <c r="E78" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="F78" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="H78" s="43">
-        <v>30</v>
-      </c>
-      <c r="I78" s="46"/>
-      <c r="J78" s="45">
-        <v>-40</v>
-      </c>
-      <c r="K78" s="45">
-        <v>40</v>
-      </c>
-      <c r="L78" s="45">
-        <v>-1</v>
-      </c>
-      <c r="M78" s="45">
-        <f>(K78-J78)/6</f>
-        <v>13.333333333333334</v>
-      </c>
-      <c r="N78" s="45">
-        <v>2.5</v>
-      </c>
-      <c r="P78" s="47"/>
-      <c r="Q78" s="43" t="s">
-        <v>24</v>
-      </c>
+      <c r="G78" s="39"/>
+      <c r="H78" s="39"/>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="30"/>
@@ -9072,18 +9054,21 @@
         <v>21</v>
       </c>
       <c r="C79" s="30"/>
-      <c r="D79" s="48" t="s">
-        <v>47</v>
+      <c r="D79" s="30" t="s">
+        <v>44</v>
       </c>
       <c r="E79" s="30" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F79" s="30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G79" s="30"/>
-      <c r="H79" s="30">
-        <v>0</v>
+      <c r="H79" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="I79" s="30" t="s">
+        <v>83</v>
       </c>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
@@ -9092,31 +9077,43 @@
       <c r="N79" s="3"/>
       <c r="P79" s="40"/>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A80" s="30"/>
-      <c r="B80" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C80" s="30"/>
-      <c r="D80" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="E80" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F80" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G80" s="30"/>
-      <c r="H80" s="30">
-        <v>0</v>
-      </c>
-      <c r="J80" s="3"/>
-      <c r="K80" s="3"/>
-      <c r="L80" s="3"/>
-      <c r="M80" s="3"/>
-      <c r="N80" s="3"/>
-      <c r="P80" s="40"/>
+    <row r="80" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D80" s="43" t="s">
+        <v>783</v>
+      </c>
+      <c r="E80" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="F80" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H80" s="43">
+        <v>30</v>
+      </c>
+      <c r="I80" s="46"/>
+      <c r="J80" s="45">
+        <v>-40</v>
+      </c>
+      <c r="K80" s="45">
+        <v>40</v>
+      </c>
+      <c r="L80" s="45">
+        <v>-1</v>
+      </c>
+      <c r="M80" s="45">
+        <f>(K80-J80)/6</f>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="N80" s="45">
+        <v>2.5</v>
+      </c>
+      <c r="P80" s="47"/>
+      <c r="Q80" s="43" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="30"/>
@@ -9124,14 +9121,14 @@
         <v>21</v>
       </c>
       <c r="C81" s="30"/>
-      <c r="D81" s="30" t="s">
-        <v>51</v>
+      <c r="D81" s="48" t="s">
+        <v>47</v>
       </c>
       <c r="E81" s="30" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F81" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G81" s="30"/>
       <c r="H81" s="30">
@@ -9151,17 +9148,17 @@
       </c>
       <c r="C82" s="30"/>
       <c r="D82" s="30" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E82" s="30" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F82" s="30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G82" s="30"/>
-      <c r="H82" s="30" t="b">
-        <v>1</v>
+      <c r="H82" s="30">
+        <v>0</v>
       </c>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
@@ -9177,17 +9174,17 @@
       </c>
       <c r="C83" s="30"/>
       <c r="D83" s="30" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E83" s="30" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F83" s="30" t="s">
         <v>65</v>
       </c>
       <c r="G83" s="30"/>
       <c r="H83" s="30">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
@@ -9203,17 +9200,17 @@
       </c>
       <c r="C84" s="30"/>
       <c r="D84" s="30" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E84" s="30" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F84" s="30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G84" s="30"/>
-      <c r="H84" s="30">
-        <v>0</v>
+      <c r="H84" s="30" t="b">
+        <v>1</v>
       </c>
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
@@ -9229,17 +9226,17 @@
       </c>
       <c r="C85" s="30"/>
       <c r="D85" s="30" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E85" s="30" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F85" s="30" t="s">
         <v>65</v>
       </c>
       <c r="G85" s="30"/>
       <c r="H85" s="30">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
@@ -9248,24 +9245,31 @@
       <c r="N85" s="3"/>
       <c r="P85" s="40"/>
     </row>
-    <row r="86" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="B86" s="38" t="s">
-        <v>327</v>
-      </c>
-      <c r="C86" s="38" t="s">
-        <v>328</v>
-      </c>
-      <c r="D86" s="38" t="s">
-        <v>328</v>
-      </c>
-      <c r="E86" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="G86" s="39"/>
-      <c r="H86" s="39"/>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A86" s="30"/>
+      <c r="B86" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C86" s="30"/>
+      <c r="D86" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E86" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F86" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G86" s="30"/>
+      <c r="H86" s="30">
+        <v>0</v>
+      </c>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
+      <c r="M86" s="3"/>
+      <c r="N86" s="3"/>
+      <c r="P86" s="40"/>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="30"/>
@@ -9274,20 +9278,17 @@
       </c>
       <c r="C87" s="30"/>
       <c r="D87" s="30" t="s">
-        <v>373</v>
+        <v>59</v>
       </c>
       <c r="E87" s="30" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="F87" s="30" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G87" s="30"/>
-      <c r="H87" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="I87" s="30" t="s">
-        <v>83</v>
+      <c r="H87" s="30">
+        <v>1</v>
       </c>
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
@@ -9296,71 +9297,63 @@
       <c r="N87" s="3"/>
       <c r="P87" s="40"/>
     </row>
-    <row r="88" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="D88" s="43" t="s">
-        <v>864</v>
-      </c>
-      <c r="E88" s="43" t="s">
-        <v>330</v>
-      </c>
-      <c r="F88" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="H88" s="43">
-        <v>30</v>
-      </c>
-      <c r="I88" s="46"/>
-      <c r="J88" s="45">
-        <v>-100</v>
-      </c>
-      <c r="K88" s="45">
-        <v>100</v>
-      </c>
-      <c r="L88" s="45">
-        <v>0</v>
-      </c>
-      <c r="M88" s="45">
-        <f>(K88-J88)/6</f>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="N88" s="45">
-        <v>2.5</v>
-      </c>
-      <c r="Q88" s="43" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="38" t="b">
+    <row r="88" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="B89" s="38" t="s">
-        <v>867</v>
-      </c>
-      <c r="C89" s="38" t="s">
-        <v>865</v>
-      </c>
-      <c r="D89" s="38" t="s">
-        <v>865</v>
-      </c>
-      <c r="E89" s="38" t="s">
+      <c r="B88" s="38" t="s">
+        <v>327</v>
+      </c>
+      <c r="C88" s="38" t="s">
+        <v>328</v>
+      </c>
+      <c r="D88" s="38" t="s">
+        <v>328</v>
+      </c>
+      <c r="E88" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="G89" s="39"/>
-      <c r="H89" s="39"/>
+      <c r="G88" s="39"/>
+      <c r="H88" s="39"/>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A89" s="30"/>
+      <c r="B89" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C89" s="30"/>
+      <c r="D89" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="E89" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F89" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G89" s="30"/>
+      <c r="H89" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="I89" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="3"/>
+      <c r="M89" s="3"/>
+      <c r="N89" s="3"/>
+      <c r="P89" s="40"/>
     </row>
     <row r="90" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B90" s="43" t="s">
         <v>21</v>
       </c>
       <c r="D90" s="43" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="E90" s="43" t="s">
-        <v>258</v>
+        <v>330</v>
       </c>
       <c r="F90" s="43" t="s">
         <v>64</v>
@@ -9394,13 +9387,13 @@
         <v>1</v>
       </c>
       <c r="B91" s="38" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C91" s="38" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D91" s="38" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E91" s="38" t="s">
         <v>68</v>
@@ -9413,7 +9406,7 @@
         <v>21</v>
       </c>
       <c r="D92" s="43" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E92" s="43" t="s">
         <v>258</v>
@@ -9445,71 +9438,85 @@
         <v>777</v>
       </c>
     </row>
-    <row r="93" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="49" t="b">
+    <row r="93" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="B93" s="49" t="s">
+      <c r="B93" s="38" t="s">
+        <v>868</v>
+      </c>
+      <c r="C93" s="38" t="s">
+        <v>866</v>
+      </c>
+      <c r="D93" s="38" t="s">
+        <v>866</v>
+      </c>
+      <c r="E93" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="G93" s="39"/>
+      <c r="H93" s="39"/>
+    </row>
+    <row r="94" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D94" s="43" t="s">
+        <v>870</v>
+      </c>
+      <c r="E94" s="43" t="s">
+        <v>258</v>
+      </c>
+      <c r="F94" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H94" s="43">
+        <v>30</v>
+      </c>
+      <c r="I94" s="46"/>
+      <c r="J94" s="45">
+        <v>-100</v>
+      </c>
+      <c r="K94" s="45">
+        <v>100</v>
+      </c>
+      <c r="L94" s="45">
+        <v>0</v>
+      </c>
+      <c r="M94" s="45">
+        <f>(K94-J94)/6</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="N94" s="45">
+        <v>2.5</v>
+      </c>
+      <c r="Q94" s="43" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="B95" s="49" t="s">
         <v>855</v>
       </c>
-      <c r="C93" s="49" t="s">
+      <c r="C95" s="49" t="s">
         <v>854</v>
       </c>
-      <c r="D93" s="49" t="s">
+      <c r="D95" s="49" t="s">
         <v>854</v>
       </c>
-      <c r="E93" s="49" t="s">
+      <c r="E95" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="J93" s="50"/>
-      <c r="K93" s="51"/>
-      <c r="L93" s="51"/>
-      <c r="M93" s="51"/>
-      <c r="N93" s="51"/>
-      <c r="O93" s="51"/>
-      <c r="Q93" s="52"/>
-    </row>
-    <row r="94" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="18"/>
-      <c r="B94" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D94" s="30" t="s">
-        <v>860</v>
-      </c>
-      <c r="E94" s="30" t="s">
-        <v>856</v>
-      </c>
-      <c r="F94" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G94" s="30" t="s">
-        <v>852</v>
-      </c>
-      <c r="H94" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="18"/>
-      <c r="B95" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D95" s="30" t="s">
-        <v>861</v>
-      </c>
-      <c r="E95" s="30" t="s">
-        <v>857</v>
-      </c>
-      <c r="F95" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G95" s="30" t="s">
-        <v>853</v>
-      </c>
-      <c r="H95" s="30">
-        <v>1</v>
-      </c>
+      <c r="J95" s="50"/>
+      <c r="K95" s="51"/>
+      <c r="L95" s="51"/>
+      <c r="M95" s="51"/>
+      <c r="N95" s="51"/>
+      <c r="O95" s="51"/>
+      <c r="Q95" s="52"/>
     </row>
     <row r="96" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="18"/>
@@ -9517,10 +9524,10 @@
         <v>21</v>
       </c>
       <c r="D96" s="30" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="E96" s="30" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="F96" s="30" t="s">
         <v>65</v>
@@ -9529,7 +9536,7 @@
         <v>852</v>
       </c>
       <c r="H96" s="30">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -9538,10 +9545,10 @@
         <v>21</v>
       </c>
       <c r="D97" s="30" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E97" s="30" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="F97" s="30" t="s">
         <v>65</v>
@@ -9550,172 +9557,174 @@
         <v>853</v>
       </c>
       <c r="H97" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="18"/>
+      <c r="B98" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D98" s="30" t="s">
+        <v>862</v>
+      </c>
+      <c r="E98" s="30" t="s">
+        <v>858</v>
+      </c>
+      <c r="F98" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G98" s="30" t="s">
+        <v>852</v>
+      </c>
+      <c r="H98" s="30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="18"/>
+      <c r="B99" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D99" s="30" t="s">
+        <v>863</v>
+      </c>
+      <c r="E99" s="30" t="s">
+        <v>859</v>
+      </c>
+      <c r="F99" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G99" s="30" t="s">
+        <v>853</v>
+      </c>
+      <c r="H99" s="30">
         <v>31</v>
       </c>
     </row>
-    <row r="98" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="49" t="b">
+    <row r="100" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="B98" s="49" t="s">
+      <c r="B100" s="49" t="s">
         <v>804</v>
       </c>
-      <c r="C98" s="49" t="s">
+      <c r="C100" s="49" t="s">
         <v>803</v>
       </c>
-      <c r="D98" s="49" t="s">
+      <c r="D100" s="49" t="s">
         <v>803</v>
       </c>
-      <c r="E98" s="49" t="s">
+      <c r="E100" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="J98" s="50"/>
-      <c r="K98" s="51"/>
-      <c r="L98" s="51"/>
-      <c r="M98" s="51"/>
-      <c r="N98" s="51"/>
-      <c r="O98" s="51"/>
-      <c r="Q98" s="52"/>
-    </row>
-    <row r="99" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="49" t="b">
+      <c r="J100" s="50"/>
+      <c r="K100" s="51"/>
+      <c r="L100" s="51"/>
+      <c r="M100" s="51"/>
+      <c r="N100" s="51"/>
+      <c r="O100" s="51"/>
+      <c r="Q100" s="52"/>
+    </row>
+    <row r="101" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="B99" s="49" t="s">
+      <c r="B101" s="49" t="s">
         <v>832</v>
       </c>
-      <c r="C99" s="49" t="s">
+      <c r="C101" s="49" t="s">
         <v>831</v>
       </c>
-      <c r="D99" s="49" t="s">
+      <c r="D101" s="49" t="s">
         <v>831</v>
       </c>
-      <c r="E99" s="49" t="s">
+      <c r="E101" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="J99" s="50"/>
-      <c r="K99" s="51"/>
-      <c r="L99" s="51"/>
-      <c r="M99" s="51"/>
-      <c r="N99" s="51"/>
-      <c r="O99" s="51"/>
-      <c r="Q99" s="52"/>
-    </row>
-    <row r="100" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="22" t="b">
+      <c r="J101" s="50"/>
+      <c r="K101" s="51"/>
+      <c r="L101" s="51"/>
+      <c r="M101" s="51"/>
+      <c r="N101" s="51"/>
+      <c r="O101" s="51"/>
+      <c r="Q101" s="52"/>
+    </row>
+    <row r="102" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="22" t="b">
         <v>1</v>
       </c>
-      <c r="B100" s="22" t="s">
+      <c r="B102" s="22" t="s">
         <v>801</v>
       </c>
-      <c r="C100" s="22" t="s">
+      <c r="C102" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="D100" s="22" t="s">
+      <c r="D102" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="E100" s="22" t="s">
+      <c r="E102" s="22" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="101" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="18"/>
-      <c r="B101" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D101" s="30" t="s">
+    <row r="103" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="18"/>
+      <c r="B103" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D103" s="30" t="s">
         <v>373</v>
       </c>
-      <c r="E101" s="30" t="s">
+      <c r="E103" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="F101" s="30" t="s">
+      <c r="F103" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="H101" s="30" t="s">
+      <c r="H103" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="I101" s="30" t="s">
+      <c r="I103" s="30" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="102" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="43" t="s">
+    <row r="104" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D102" s="43" t="s">
+      <c r="D104" s="43" t="s">
         <v>802</v>
       </c>
-      <c r="E102" s="43" t="s">
+      <c r="E104" s="43" t="s">
         <v>288</v>
       </c>
-      <c r="F102" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="G102" s="43" t="s">
+      <c r="F104" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="G104" s="43" t="s">
         <v>792</v>
       </c>
-      <c r="H102" s="43">
-        <v>0</v>
-      </c>
-      <c r="J102" s="43">
-        <v>0</v>
-      </c>
-      <c r="K102" s="43">
+      <c r="H104" s="43">
+        <v>0</v>
+      </c>
+      <c r="J104" s="43">
+        <v>0</v>
+      </c>
+      <c r="K104" s="43">
         <v>40</v>
       </c>
-      <c r="L102" s="43">
+      <c r="L104" s="43">
         <v>-1</v>
       </c>
-      <c r="M102" s="45">
-        <f>(K102-J102)/6</f>
+      <c r="M104" s="45">
+        <f>(K104-J104)/6</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="N102" s="45">
+      <c r="N104" s="45">
         <v>2.5</v>
       </c>
-      <c r="Q102" s="43" t="s">
+      <c r="Q104" s="43" t="s">
         <v>777</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D103" s="30" t="s">
-        <v>793</v>
-      </c>
-      <c r="E103" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F103" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G103" s="30" t="s">
-        <v>792</v>
-      </c>
-      <c r="H103" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D104" s="30" t="s">
-        <v>794</v>
-      </c>
-      <c r="E104" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F104" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G104" s="30" t="s">
-        <v>792</v>
-      </c>
-      <c r="H104" s="30">
-        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -9723,16 +9732,16 @@
         <v>21</v>
       </c>
       <c r="D105" s="30" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="E105" s="30" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F105" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G105" s="30" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="H105" s="30">
         <v>0</v>
@@ -9743,15 +9752,18 @@
         <v>21</v>
       </c>
       <c r="D106" s="30" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="E106" s="30" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F106" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H106" s="30" t="b">
+        <v>64</v>
+      </c>
+      <c r="G106" s="30" t="s">
+        <v>792</v>
+      </c>
+      <c r="H106" s="30">
         <v>0</v>
       </c>
     </row>
@@ -9760,10 +9772,10 @@
         <v>21</v>
       </c>
       <c r="D107" s="30" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="E107" s="30" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F107" s="30" t="s">
         <v>65</v>
@@ -9772,7 +9784,7 @@
         <v>796</v>
       </c>
       <c r="H107" s="30">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -9780,18 +9792,15 @@
         <v>21</v>
       </c>
       <c r="D108" s="30" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E108" s="30" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F108" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G108" s="30" t="s">
-        <v>792</v>
-      </c>
-      <c r="H108" s="30">
+        <v>63</v>
+      </c>
+      <c r="H108" s="30" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9800,10 +9809,10 @@
         <v>21</v>
       </c>
       <c r="D109" s="30" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E109" s="30" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F109" s="30" t="s">
         <v>65</v>
@@ -9812,103 +9821,107 @@
         <v>796</v>
       </c>
       <c r="H109" s="30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D110" s="30" t="s">
+        <v>799</v>
+      </c>
+      <c r="E110" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F110" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G110" s="30" t="s">
+        <v>792</v>
+      </c>
+      <c r="H110" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D111" s="30" t="s">
+        <v>800</v>
+      </c>
+      <c r="E111" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F111" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G111" s="30" t="s">
+        <v>796</v>
+      </c>
+      <c r="H111" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="49" t="b">
+    <row r="112" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="B110" s="49" t="s">
+      <c r="B112" s="49" t="s">
         <v>209</v>
       </c>
-      <c r="C110" s="49" t="s">
+      <c r="C112" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="D110" s="49" t="s">
+      <c r="D112" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="E110" s="49" t="s">
+      <c r="E112" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="J110" s="50"/>
-      <c r="K110" s="51"/>
-      <c r="L110" s="51"/>
-      <c r="M110" s="51"/>
-      <c r="N110" s="51"/>
-      <c r="O110" s="51"/>
-      <c r="Q110" s="52"/>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B111" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D111" s="31" t="s">
-        <v>835</v>
-      </c>
-      <c r="E111" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="F111" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H111" s="31" t="s">
-        <v>417</v>
-      </c>
-      <c r="I111" s="30" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B112" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D112" s="31" t="s">
-        <v>836</v>
-      </c>
-      <c r="E112" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="F112" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H112" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I112" s="31"/>
+      <c r="J112" s="50"/>
+      <c r="K112" s="51"/>
+      <c r="L112" s="51"/>
+      <c r="M112" s="51"/>
+      <c r="N112" s="51"/>
+      <c r="O112" s="51"/>
+      <c r="Q112" s="52"/>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B113" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D113" s="31" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E113" s="31" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F113" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="H113" s="31">
-        <v>0</v>
-      </c>
-      <c r="I113" s="31"/>
+        <v>62</v>
+      </c>
+      <c r="H113" s="31" t="s">
+        <v>417</v>
+      </c>
+      <c r="I113" s="30" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B114" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D114" s="31" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E114" s="31" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="F114" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="H114" s="31">
+        <v>63</v>
+      </c>
+      <c r="H114" s="31" t="b">
         <v>0</v>
       </c>
       <c r="I114" s="31"/>
@@ -9918,16 +9931,13 @@
         <v>21</v>
       </c>
       <c r="D115" s="31" t="s">
-        <v>795</v>
+        <v>837</v>
       </c>
       <c r="E115" s="31" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="F115" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G115" s="30" t="s">
-        <v>796</v>
+        <v>64</v>
       </c>
       <c r="H115" s="31">
         <v>0</v>
@@ -9939,16 +9949,15 @@
         <v>21</v>
       </c>
       <c r="D116" s="31" t="s">
-        <v>797</v>
+        <v>838</v>
       </c>
       <c r="E116" s="31" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F116" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="G116" s="30"/>
-      <c r="H116" s="31" t="b">
+        <v>64</v>
+      </c>
+      <c r="H116" s="31">
         <v>0</v>
       </c>
       <c r="I116" s="31"/>
@@ -9957,11 +9966,11 @@
       <c r="B117" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D117" s="30" t="s">
-        <v>798</v>
-      </c>
-      <c r="E117" s="30" t="s">
-        <v>56</v>
+      <c r="D117" s="31" t="s">
+        <v>795</v>
+      </c>
+      <c r="E117" s="31" t="s">
+        <v>52</v>
       </c>
       <c r="F117" s="30" t="s">
         <v>65</v>
@@ -9970,7 +9979,7 @@
         <v>796</v>
       </c>
       <c r="H117" s="31">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I117" s="31"/>
     </row>
@@ -9978,19 +9987,17 @@
       <c r="B118" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D118" s="30" t="s">
-        <v>851</v>
-      </c>
-      <c r="E118" s="30" t="s">
-        <v>58</v>
+      <c r="D118" s="31" t="s">
+        <v>797</v>
+      </c>
+      <c r="E118" s="31" t="s">
+        <v>54</v>
       </c>
       <c r="F118" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G118" s="30" t="s">
-        <v>792</v>
-      </c>
-      <c r="H118" s="31">
+        <v>63</v>
+      </c>
+      <c r="G118" s="30"/>
+      <c r="H118" s="31" t="b">
         <v>0</v>
       </c>
       <c r="I118" s="31"/>
@@ -10000,10 +10007,10 @@
         <v>21</v>
       </c>
       <c r="D119" s="30" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E119" s="30" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F119" s="30" t="s">
         <v>65</v>
@@ -10012,125 +10019,125 @@
         <v>796</v>
       </c>
       <c r="H119" s="31">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I119" s="31"/>
     </row>
-    <row r="120" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B120" s="49" t="s">
-        <v>216</v>
-      </c>
-      <c r="C120" s="49" t="s">
-        <v>217</v>
-      </c>
-      <c r="D120" s="49" t="s">
-        <v>217</v>
-      </c>
-      <c r="E120" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="J120" s="50"/>
-      <c r="K120" s="51"/>
-      <c r="L120" s="51"/>
-      <c r="M120" s="51"/>
-      <c r="N120" s="51"/>
-      <c r="O120" s="51"/>
-      <c r="Q120" s="52"/>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B120" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D120" s="30" t="s">
+        <v>851</v>
+      </c>
+      <c r="E120" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F120" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G120" s="30" t="s">
+        <v>792</v>
+      </c>
+      <c r="H120" s="31">
+        <v>0</v>
+      </c>
+      <c r="I120" s="31"/>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B121" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D121" s="31" t="s">
-        <v>835</v>
-      </c>
-      <c r="E121" s="31" t="s">
-        <v>126</v>
+      <c r="D121" s="30" t="s">
+        <v>800</v>
+      </c>
+      <c r="E121" s="30" t="s">
+        <v>60</v>
       </c>
       <c r="F121" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H121" s="31" t="s">
-        <v>417</v>
-      </c>
-      <c r="I121" s="30" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B122" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D122" s="31" t="s">
-        <v>841</v>
-      </c>
-      <c r="E122" s="31" t="s">
-        <v>219</v>
-      </c>
-      <c r="F122" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H122" s="31" t="s">
-        <v>839</v>
-      </c>
-      <c r="I122" s="30" t="s">
-        <v>840</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G121" s="30" t="s">
+        <v>796</v>
+      </c>
+      <c r="H121" s="31">
+        <v>1</v>
+      </c>
+      <c r="I121" s="31"/>
+    </row>
+    <row r="122" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="B122" s="49" t="s">
+        <v>216</v>
+      </c>
+      <c r="C122" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="D122" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="E122" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="J122" s="50"/>
+      <c r="K122" s="51"/>
+      <c r="L122" s="51"/>
+      <c r="M122" s="51"/>
+      <c r="N122" s="51"/>
+      <c r="O122" s="51"/>
+      <c r="Q122" s="52"/>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B123" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D123" s="31" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="E123" s="31" t="s">
-        <v>221</v>
+        <v>126</v>
       </c>
       <c r="F123" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G123" s="31" t="s">
-        <v>843</v>
-      </c>
-      <c r="H123" s="31">
-        <v>69</v>
-      </c>
-      <c r="I123" s="31"/>
+        <v>62</v>
+      </c>
+      <c r="H123" s="31" t="s">
+        <v>417</v>
+      </c>
+      <c r="I123" s="30" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B124" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D124" s="31" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="E124" s="31" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F124" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G124" s="31" t="s">
-        <v>844</v>
-      </c>
-      <c r="H124" s="31">
-        <v>28</v>
-      </c>
-      <c r="I124" s="31"/>
+        <v>62</v>
+      </c>
+      <c r="H124" s="31" t="s">
+        <v>839</v>
+      </c>
+      <c r="I124" s="30" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B125" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D125" s="31" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="E125" s="31" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F125" s="30" t="s">
         <v>64</v>
@@ -10139,7 +10146,7 @@
         <v>843</v>
       </c>
       <c r="H125" s="31">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="I125" s="31"/>
     </row>
@@ -10148,19 +10155,19 @@
         <v>21</v>
       </c>
       <c r="D126" s="31" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E126" s="31" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F126" s="30" t="s">
         <v>64</v>
       </c>
       <c r="G126" s="31" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="H126" s="31">
-        <v>-148</v>
+        <v>28</v>
       </c>
       <c r="I126" s="31"/>
     </row>
@@ -10169,16 +10176,19 @@
         <v>21</v>
       </c>
       <c r="D127" s="31" t="s">
-        <v>836</v>
+        <v>846</v>
       </c>
       <c r="E127" s="31" t="s">
-        <v>91</v>
+        <v>225</v>
       </c>
       <c r="F127" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H127" s="31" t="b">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="G127" s="31" t="s">
+        <v>843</v>
+      </c>
+      <c r="H127" s="31">
+        <v>55</v>
       </c>
       <c r="I127" s="31"/>
     </row>
@@ -10187,16 +10197,19 @@
         <v>21</v>
       </c>
       <c r="D128" s="31" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E128" s="31" t="s">
-        <v>128</v>
+        <v>227</v>
       </c>
       <c r="F128" s="30" t="s">
         <v>64</v>
       </c>
+      <c r="G128" s="31" t="s">
+        <v>843</v>
+      </c>
       <c r="H128" s="31">
-        <v>0</v>
+        <v>-148</v>
       </c>
       <c r="I128" s="31"/>
     </row>
@@ -10205,15 +10218,15 @@
         <v>21</v>
       </c>
       <c r="D129" s="31" t="s">
-        <v>849</v>
+        <v>836</v>
       </c>
       <c r="E129" s="31" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="F129" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="H129" s="31">
+        <v>63</v>
+      </c>
+      <c r="H129" s="31" t="b">
         <v>0</v>
       </c>
       <c r="I129" s="31"/>
@@ -10223,16 +10236,13 @@
         <v>21</v>
       </c>
       <c r="D130" s="31" t="s">
-        <v>795</v>
+        <v>848</v>
       </c>
       <c r="E130" s="31" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="F130" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G130" s="30" t="s">
-        <v>796</v>
+        <v>64</v>
       </c>
       <c r="H130" s="31">
         <v>0</v>
@@ -10244,16 +10254,15 @@
         <v>21</v>
       </c>
       <c r="D131" s="31" t="s">
-        <v>797</v>
+        <v>849</v>
       </c>
       <c r="E131" s="31" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F131" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="G131" s="30"/>
-      <c r="H131" s="31" t="b">
+        <v>64</v>
+      </c>
+      <c r="H131" s="31">
         <v>0</v>
       </c>
       <c r="I131" s="31"/>
@@ -10262,11 +10271,11 @@
       <c r="B132" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D132" s="30" t="s">
-        <v>798</v>
-      </c>
-      <c r="E132" s="30" t="s">
-        <v>56</v>
+      <c r="D132" s="31" t="s">
+        <v>795</v>
+      </c>
+      <c r="E132" s="31" t="s">
+        <v>52</v>
       </c>
       <c r="F132" s="30" t="s">
         <v>65</v>
@@ -10275,7 +10284,7 @@
         <v>796</v>
       </c>
       <c r="H132" s="31">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I132" s="31"/>
     </row>
@@ -10283,19 +10292,17 @@
       <c r="B133" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D133" s="30" t="s">
-        <v>850</v>
-      </c>
-      <c r="E133" s="30" t="s">
-        <v>58</v>
+      <c r="D133" s="31" t="s">
+        <v>797</v>
+      </c>
+      <c r="E133" s="31" t="s">
+        <v>54</v>
       </c>
       <c r="F133" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G133" s="30" t="s">
-        <v>792</v>
-      </c>
-      <c r="H133" s="31">
+        <v>63</v>
+      </c>
+      <c r="G133" s="30"/>
+      <c r="H133" s="31" t="b">
         <v>0</v>
       </c>
       <c r="I133" s="31"/>
@@ -10305,10 +10312,10 @@
         <v>21</v>
       </c>
       <c r="D134" s="30" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E134" s="30" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F134" s="30" t="s">
         <v>65</v>
@@ -10317,16 +10324,50 @@
         <v>796</v>
       </c>
       <c r="H134" s="31">
+        <v>15</v>
+      </c>
+      <c r="I134" s="31"/>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B135" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D135" s="30" t="s">
+        <v>850</v>
+      </c>
+      <c r="E135" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F135" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G135" s="30" t="s">
+        <v>792</v>
+      </c>
+      <c r="H135" s="31">
+        <v>0</v>
+      </c>
+      <c r="I135" s="31"/>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B136" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D136" s="30" t="s">
+        <v>800</v>
+      </c>
+      <c r="E136" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F136" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G136" s="30" t="s">
+        <v>796</v>
+      </c>
+      <c r="H136" s="31">
         <v>1</v>
       </c>
-      <c r="I134" s="31"/>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H135" s="31"/>
-      <c r="I135" s="31"/>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H136" s="31"/>
       <c r="I136" s="31"/>
     </row>
     <row r="137" spans="2:9" x14ac:dyDescent="0.25">
@@ -10645,8 +10686,16 @@
       <c r="H215" s="31"/>
       <c r="I215" s="31"/>
     </row>
+    <row r="216" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H216" s="31"/>
+      <c r="I216" s="31"/>
+    </row>
+    <row r="217" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H217" s="31"/>
+      <c r="I217" s="31"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:Z142"/>
+  <autoFilter ref="A2:Z144"/>
   <mergeCells count="1">
     <mergeCell ref="T1:Y1"/>
   </mergeCells>

--- a/projects/office_ee.xlsx
+++ b/projects/office_ee.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23265" windowHeight="13185" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15090" windowHeight="7905" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Outputs!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$Z$144</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$Z$148</definedName>
     <definedName name="AnalysisType">Lookups!$A$17:$A$23</definedName>
     <definedName name="instance_defs">Lookups!$A$2:$D$9</definedName>
     <definedName name="instance_types">Lookups!$A$2:$A$9</definedName>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2752" uniqueCount="874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2772" uniqueCount="879">
   <si>
     <t>type</t>
   </si>
@@ -2663,6 +2663,21 @@
   </si>
   <si>
     <t>degrees</t>
+  </si>
+  <si>
+    <t>AdjustThermostatSetpointsByDegrees</t>
+  </si>
+  <si>
+    <t>deg F</t>
+  </si>
+  <si>
+    <t>Alter Design Day Thermostats</t>
+  </si>
+  <si>
+    <t>Degrees Fahrenheit to Adjust Cooling Setpoint By</t>
+  </si>
+  <si>
+    <t>Degrees Fahrenheit to Adjust heating Setpoint By</t>
   </si>
 </sst>
 </file>
@@ -7342,11 +7357,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y217"/>
+  <dimension ref="A1:Y221"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I37" sqref="I37"/>
+      <pane ySplit="3" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O102" sqref="O102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9494,177 +9509,212 @@
         <v>777</v>
       </c>
     </row>
-    <row r="95" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="49" t="b">
+    <row r="95" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="B95" s="49" t="s">
+      <c r="B95" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="C95" s="38" t="s">
+        <v>874</v>
+      </c>
+      <c r="D95" s="38" t="s">
+        <v>874</v>
+      </c>
+      <c r="E95" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="G95" s="39"/>
+      <c r="H95" s="39"/>
+    </row>
+    <row r="96" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D96" s="43" t="s">
+        <v>877</v>
+      </c>
+      <c r="E96" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="F96" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="G96" s="43" t="s">
+        <v>875</v>
+      </c>
+      <c r="H96" s="43">
+        <v>1</v>
+      </c>
+      <c r="I96" s="46"/>
+      <c r="J96" s="45">
+        <v>-5</v>
+      </c>
+      <c r="K96" s="45">
+        <v>5</v>
+      </c>
+      <c r="L96" s="45">
+        <v>0</v>
+      </c>
+      <c r="M96" s="45">
+        <f>(K96-J96)/6</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="N96" s="45">
+        <v>2.5</v>
+      </c>
+      <c r="Q96" s="43" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D97" s="43" t="s">
+        <v>878</v>
+      </c>
+      <c r="E97" s="43" t="s">
+        <v>192</v>
+      </c>
+      <c r="F97" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="G97" s="43" t="s">
+        <v>875</v>
+      </c>
+      <c r="H97" s="43">
+        <v>-1</v>
+      </c>
+      <c r="I97" s="46"/>
+      <c r="J97" s="45">
+        <v>-5</v>
+      </c>
+      <c r="K97" s="45">
+        <v>5</v>
+      </c>
+      <c r="L97" s="45">
+        <v>0</v>
+      </c>
+      <c r="M97" s="45">
+        <f>(K97-J97)/6</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="N97" s="45">
+        <v>2.5</v>
+      </c>
+      <c r="Q97" s="43" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B98" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D98" s="31" t="s">
+        <v>876</v>
+      </c>
+      <c r="E98" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="F98" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="H98" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J98" s="3"/>
+      <c r="K98" s="3"/>
+      <c r="L98" s="3"/>
+      <c r="M98" s="3"/>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="B99" s="49" t="s">
         <v>855</v>
       </c>
-      <c r="C95" s="49" t="s">
+      <c r="C99" s="49" t="s">
         <v>854</v>
       </c>
-      <c r="D95" s="49" t="s">
+      <c r="D99" s="49" t="s">
         <v>854</v>
       </c>
-      <c r="E95" s="49" t="s">
+      <c r="E99" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="J95" s="50"/>
-      <c r="K95" s="51"/>
-      <c r="L95" s="51"/>
-      <c r="M95" s="51"/>
-      <c r="N95" s="51"/>
-      <c r="O95" s="51"/>
-      <c r="Q95" s="52"/>
-    </row>
-    <row r="96" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="18"/>
-      <c r="B96" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D96" s="30" t="s">
+      <c r="J99" s="50"/>
+      <c r="K99" s="51"/>
+      <c r="L99" s="51"/>
+      <c r="M99" s="51"/>
+      <c r="N99" s="51"/>
+      <c r="O99" s="51"/>
+      <c r="Q99" s="52"/>
+    </row>
+    <row r="100" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="18"/>
+      <c r="B100" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D100" s="30" t="s">
         <v>860</v>
       </c>
-      <c r="E96" s="30" t="s">
+      <c r="E100" s="30" t="s">
         <v>856</v>
       </c>
-      <c r="F96" s="30" t="s">
+      <c r="F100" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="G96" s="30" t="s">
+      <c r="G100" s="30" t="s">
         <v>852</v>
       </c>
-      <c r="H96" s="30">
+      <c r="H100" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="18"/>
-      <c r="B97" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D97" s="30" t="s">
+    <row r="101" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="18"/>
+      <c r="B101" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" s="30" t="s">
         <v>861</v>
       </c>
-      <c r="E97" s="30" t="s">
+      <c r="E101" s="30" t="s">
         <v>857</v>
       </c>
-      <c r="F97" s="30" t="s">
+      <c r="F101" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="G97" s="30" t="s">
+      <c r="G101" s="30" t="s">
         <v>853</v>
       </c>
-      <c r="H97" s="30">
+      <c r="H101" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="18"/>
-      <c r="B98" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D98" s="30" t="s">
+    <row r="102" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="18"/>
+      <c r="B102" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D102" s="30" t="s">
         <v>862</v>
       </c>
-      <c r="E98" s="30" t="s">
+      <c r="E102" s="30" t="s">
         <v>858</v>
       </c>
-      <c r="F98" s="30" t="s">
+      <c r="F102" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="G98" s="30" t="s">
+      <c r="G102" s="30" t="s">
         <v>852</v>
       </c>
-      <c r="H98" s="30">
+      <c r="H102" s="30">
         <v>12</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="18"/>
-      <c r="B99" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D99" s="30" t="s">
-        <v>863</v>
-      </c>
-      <c r="E99" s="30" t="s">
-        <v>859</v>
-      </c>
-      <c r="F99" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G99" s="30" t="s">
-        <v>853</v>
-      </c>
-      <c r="H99" s="30">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B100" s="49" t="s">
-        <v>804</v>
-      </c>
-      <c r="C100" s="49" t="s">
-        <v>803</v>
-      </c>
-      <c r="D100" s="49" t="s">
-        <v>803</v>
-      </c>
-      <c r="E100" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="J100" s="50"/>
-      <c r="K100" s="51"/>
-      <c r="L100" s="51"/>
-      <c r="M100" s="51"/>
-      <c r="N100" s="51"/>
-      <c r="O100" s="51"/>
-      <c r="Q100" s="52"/>
-    </row>
-    <row r="101" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B101" s="49" t="s">
-        <v>832</v>
-      </c>
-      <c r="C101" s="49" t="s">
-        <v>831</v>
-      </c>
-      <c r="D101" s="49" t="s">
-        <v>831</v>
-      </c>
-      <c r="E101" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="J101" s="50"/>
-      <c r="K101" s="51"/>
-      <c r="L101" s="51"/>
-      <c r="M101" s="51"/>
-      <c r="N101" s="51"/>
-      <c r="O101" s="51"/>
-      <c r="Q101" s="52"/>
-    </row>
-    <row r="102" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="B102" s="22" t="s">
-        <v>801</v>
-      </c>
-      <c r="C102" s="22" t="s">
-        <v>286</v>
-      </c>
-      <c r="D102" s="22" t="s">
-        <v>286</v>
-      </c>
-      <c r="E102" s="22" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="103" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -9673,135 +9723,144 @@
         <v>21</v>
       </c>
       <c r="D103" s="30" t="s">
+        <v>863</v>
+      </c>
+      <c r="E103" s="30" t="s">
+        <v>859</v>
+      </c>
+      <c r="F103" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G103" s="30" t="s">
+        <v>853</v>
+      </c>
+      <c r="H103" s="30">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="B104" s="49" t="s">
+        <v>804</v>
+      </c>
+      <c r="C104" s="49" t="s">
+        <v>803</v>
+      </c>
+      <c r="D104" s="49" t="s">
+        <v>803</v>
+      </c>
+      <c r="E104" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="J104" s="50"/>
+      <c r="K104" s="51"/>
+      <c r="L104" s="51"/>
+      <c r="M104" s="51"/>
+      <c r="N104" s="51"/>
+      <c r="O104" s="51"/>
+      <c r="Q104" s="52"/>
+    </row>
+    <row r="105" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="B105" s="49" t="s">
+        <v>832</v>
+      </c>
+      <c r="C105" s="49" t="s">
+        <v>831</v>
+      </c>
+      <c r="D105" s="49" t="s">
+        <v>831</v>
+      </c>
+      <c r="E105" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="J105" s="50"/>
+      <c r="K105" s="51"/>
+      <c r="L105" s="51"/>
+      <c r="M105" s="51"/>
+      <c r="N105" s="51"/>
+      <c r="O105" s="51"/>
+      <c r="Q105" s="52"/>
+    </row>
+    <row r="106" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="B106" s="22" t="s">
+        <v>801</v>
+      </c>
+      <c r="C106" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="D106" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="E106" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="18"/>
+      <c r="B107" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D107" s="30" t="s">
         <v>373</v>
       </c>
-      <c r="E103" s="30" t="s">
+      <c r="E107" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="F103" s="30" t="s">
+      <c r="F107" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="H103" s="30" t="s">
+      <c r="H107" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="I103" s="30" t="s">
+      <c r="I107" s="30" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="104" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="43" t="s">
+    <row r="108" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D104" s="43" t="s">
+      <c r="D108" s="43" t="s">
         <v>802</v>
       </c>
-      <c r="E104" s="43" t="s">
+      <c r="E108" s="43" t="s">
         <v>288</v>
       </c>
-      <c r="F104" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="G104" s="43" t="s">
+      <c r="F108" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="G108" s="43" t="s">
         <v>792</v>
       </c>
-      <c r="H104" s="43">
-        <v>0</v>
-      </c>
-      <c r="J104" s="43">
-        <v>0</v>
-      </c>
-      <c r="K104" s="43">
+      <c r="H108" s="43">
+        <v>0</v>
+      </c>
+      <c r="J108" s="43">
+        <v>0</v>
+      </c>
+      <c r="K108" s="43">
         <v>40</v>
       </c>
-      <c r="L104" s="43">
+      <c r="L108" s="43">
         <v>-1</v>
       </c>
-      <c r="M104" s="45">
-        <f>(K104-J104)/6</f>
+      <c r="M108" s="45">
+        <f>(K108-J108)/6</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="N104" s="45">
+      <c r="N108" s="45">
         <v>2.5</v>
       </c>
-      <c r="Q104" s="43" t="s">
+      <c r="Q108" s="43" t="s">
         <v>777</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D105" s="30" t="s">
-        <v>793</v>
-      </c>
-      <c r="E105" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F105" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G105" s="30" t="s">
-        <v>792</v>
-      </c>
-      <c r="H105" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D106" s="30" t="s">
-        <v>794</v>
-      </c>
-      <c r="E106" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F106" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G106" s="30" t="s">
-        <v>792</v>
-      </c>
-      <c r="H106" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D107" s="30" t="s">
-        <v>795</v>
-      </c>
-      <c r="E107" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F107" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G107" s="30" t="s">
-        <v>796</v>
-      </c>
-      <c r="H107" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D108" s="30" t="s">
-        <v>797</v>
-      </c>
-      <c r="E108" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="F108" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H108" s="30" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -9809,19 +9868,19 @@
         <v>21</v>
       </c>
       <c r="D109" s="30" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="E109" s="30" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F109" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G109" s="30" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="H109" s="30">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -9829,10 +9888,10 @@
         <v>21</v>
       </c>
       <c r="D110" s="30" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="E110" s="30" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F110" s="30" t="s">
         <v>64</v>
@@ -9849,10 +9908,10 @@
         <v>21</v>
       </c>
       <c r="D111" s="30" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="E111" s="30" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F111" s="30" t="s">
         <v>65</v>
@@ -9861,142 +9920,143 @@
         <v>796</v>
       </c>
       <c r="H111" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D112" s="30" t="s">
+        <v>797</v>
+      </c>
+      <c r="E112" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F112" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="H112" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D113" s="30" t="s">
+        <v>798</v>
+      </c>
+      <c r="E113" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F113" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G113" s="30" t="s">
+        <v>796</v>
+      </c>
+      <c r="H113" s="30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D114" s="30" t="s">
+        <v>799</v>
+      </c>
+      <c r="E114" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F114" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G114" s="30" t="s">
+        <v>792</v>
+      </c>
+      <c r="H114" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D115" s="30" t="s">
+        <v>800</v>
+      </c>
+      <c r="E115" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F115" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G115" s="30" t="s">
+        <v>796</v>
+      </c>
+      <c r="H115" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="49" t="b">
+    <row r="116" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="B112" s="49" t="s">
+      <c r="B116" s="49" t="s">
         <v>209</v>
       </c>
-      <c r="C112" s="49" t="s">
+      <c r="C116" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="D112" s="49" t="s">
+      <c r="D116" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="E112" s="49" t="s">
+      <c r="E116" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="J112" s="50"/>
-      <c r="K112" s="51"/>
-      <c r="L112" s="51"/>
-      <c r="M112" s="51"/>
-      <c r="N112" s="51"/>
-      <c r="O112" s="51"/>
-      <c r="Q112" s="52"/>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B113" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D113" s="31" t="s">
-        <v>835</v>
-      </c>
-      <c r="E113" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="F113" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H113" s="31" t="s">
-        <v>417</v>
-      </c>
-      <c r="I113" s="30" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B114" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D114" s="31" t="s">
-        <v>836</v>
-      </c>
-      <c r="E114" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="F114" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H114" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I114" s="31"/>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B115" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D115" s="31" t="s">
-        <v>837</v>
-      </c>
-      <c r="E115" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="F115" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="H115" s="31">
-        <v>0</v>
-      </c>
-      <c r="I115" s="31"/>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B116" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D116" s="31" t="s">
-        <v>838</v>
-      </c>
-      <c r="E116" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="F116" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="H116" s="31">
-        <v>0</v>
-      </c>
-      <c r="I116" s="31"/>
+      <c r="J116" s="50"/>
+      <c r="K116" s="51"/>
+      <c r="L116" s="51"/>
+      <c r="M116" s="51"/>
+      <c r="N116" s="51"/>
+      <c r="O116" s="51"/>
+      <c r="Q116" s="52"/>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B117" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D117" s="31" t="s">
-        <v>795</v>
+        <v>835</v>
       </c>
       <c r="E117" s="31" t="s">
-        <v>52</v>
+        <v>126</v>
       </c>
       <c r="F117" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G117" s="30" t="s">
-        <v>796</v>
-      </c>
-      <c r="H117" s="31">
-        <v>0</v>
-      </c>
-      <c r="I117" s="31"/>
+        <v>62</v>
+      </c>
+      <c r="H117" s="31" t="s">
+        <v>417</v>
+      </c>
+      <c r="I117" s="30" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B118" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D118" s="31" t="s">
-        <v>797</v>
+        <v>836</v>
       </c>
       <c r="E118" s="31" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="F118" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="G118" s="30"/>
       <c r="H118" s="31" t="b">
         <v>0</v>
       </c>
@@ -10006,20 +10066,17 @@
       <c r="B119" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D119" s="30" t="s">
-        <v>798</v>
-      </c>
-      <c r="E119" s="30" t="s">
-        <v>56</v>
+      <c r="D119" s="31" t="s">
+        <v>837</v>
+      </c>
+      <c r="E119" s="31" t="s">
+        <v>128</v>
       </c>
       <c r="F119" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G119" s="30" t="s">
-        <v>796</v>
+        <v>64</v>
       </c>
       <c r="H119" s="31">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I119" s="31"/>
     </row>
@@ -10027,17 +10084,14 @@
       <c r="B120" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D120" s="30" t="s">
-        <v>851</v>
-      </c>
-      <c r="E120" s="30" t="s">
-        <v>58</v>
+      <c r="D120" s="31" t="s">
+        <v>838</v>
+      </c>
+      <c r="E120" s="31" t="s">
+        <v>50</v>
       </c>
       <c r="F120" s="30" t="s">
         <v>64</v>
-      </c>
-      <c r="G120" s="30" t="s">
-        <v>792</v>
       </c>
       <c r="H120" s="31">
         <v>0</v>
@@ -10048,11 +10102,11 @@
       <c r="B121" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D121" s="30" t="s">
-        <v>800</v>
-      </c>
-      <c r="E121" s="30" t="s">
-        <v>60</v>
+      <c r="D121" s="31" t="s">
+        <v>795</v>
+      </c>
+      <c r="E121" s="31" t="s">
+        <v>52</v>
       </c>
       <c r="F121" s="30" t="s">
         <v>65</v>
@@ -10061,173 +10115,174 @@
         <v>796</v>
       </c>
       <c r="H121" s="31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" s="31"/>
     </row>
-    <row r="122" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B122" s="49" t="s">
-        <v>216</v>
-      </c>
-      <c r="C122" s="49" t="s">
-        <v>217</v>
-      </c>
-      <c r="D122" s="49" t="s">
-        <v>217</v>
-      </c>
-      <c r="E122" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="J122" s="50"/>
-      <c r="K122" s="51"/>
-      <c r="L122" s="51"/>
-      <c r="M122" s="51"/>
-      <c r="N122" s="51"/>
-      <c r="O122" s="51"/>
-      <c r="Q122" s="52"/>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B122" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D122" s="31" t="s">
+        <v>797</v>
+      </c>
+      <c r="E122" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="F122" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="G122" s="30"/>
+      <c r="H122" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I122" s="31"/>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B123" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D123" s="31" t="s">
-        <v>835</v>
-      </c>
-      <c r="E123" s="31" t="s">
-        <v>126</v>
+      <c r="D123" s="30" t="s">
+        <v>798</v>
+      </c>
+      <c r="E123" s="30" t="s">
+        <v>56</v>
       </c>
       <c r="F123" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H123" s="31" t="s">
-        <v>417</v>
-      </c>
-      <c r="I123" s="30" t="s">
-        <v>418</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G123" s="30" t="s">
+        <v>796</v>
+      </c>
+      <c r="H123" s="31">
+        <v>15</v>
+      </c>
+      <c r="I123" s="31"/>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B124" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D124" s="31" t="s">
-        <v>841</v>
-      </c>
-      <c r="E124" s="31" t="s">
-        <v>219</v>
+      <c r="D124" s="30" t="s">
+        <v>851</v>
+      </c>
+      <c r="E124" s="30" t="s">
+        <v>58</v>
       </c>
       <c r="F124" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H124" s="31" t="s">
-        <v>839</v>
-      </c>
-      <c r="I124" s="30" t="s">
-        <v>840</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G124" s="30" t="s">
+        <v>792</v>
+      </c>
+      <c r="H124" s="31">
+        <v>0</v>
+      </c>
+      <c r="I124" s="31"/>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B125" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D125" s="31" t="s">
-        <v>842</v>
-      </c>
-      <c r="E125" s="31" t="s">
-        <v>221</v>
+      <c r="D125" s="30" t="s">
+        <v>800</v>
+      </c>
+      <c r="E125" s="30" t="s">
+        <v>60</v>
       </c>
       <c r="F125" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G125" s="31" t="s">
-        <v>843</v>
+        <v>65</v>
+      </c>
+      <c r="G125" s="30" t="s">
+        <v>796</v>
       </c>
       <c r="H125" s="31">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="I125" s="31"/>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B126" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D126" s="31" t="s">
-        <v>845</v>
-      </c>
-      <c r="E126" s="31" t="s">
-        <v>223</v>
-      </c>
-      <c r="F126" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G126" s="31" t="s">
-        <v>844</v>
-      </c>
-      <c r="H126" s="31">
-        <v>28</v>
-      </c>
-      <c r="I126" s="31"/>
+    <row r="126" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="B126" s="49" t="s">
+        <v>216</v>
+      </c>
+      <c r="C126" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="D126" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="E126" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="J126" s="50"/>
+      <c r="K126" s="51"/>
+      <c r="L126" s="51"/>
+      <c r="M126" s="51"/>
+      <c r="N126" s="51"/>
+      <c r="O126" s="51"/>
+      <c r="Q126" s="52"/>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B127" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D127" s="31" t="s">
-        <v>846</v>
+        <v>835</v>
       </c>
       <c r="E127" s="31" t="s">
-        <v>225</v>
+        <v>126</v>
       </c>
       <c r="F127" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G127" s="31" t="s">
-        <v>843</v>
-      </c>
-      <c r="H127" s="31">
-        <v>55</v>
-      </c>
-      <c r="I127" s="31"/>
+        <v>62</v>
+      </c>
+      <c r="H127" s="31" t="s">
+        <v>417</v>
+      </c>
+      <c r="I127" s="30" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B128" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D128" s="31" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="E128" s="31" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="F128" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G128" s="31" t="s">
-        <v>843</v>
-      </c>
-      <c r="H128" s="31">
-        <v>-148</v>
-      </c>
-      <c r="I128" s="31"/>
+        <v>62</v>
+      </c>
+      <c r="H128" s="31" t="s">
+        <v>839</v>
+      </c>
+      <c r="I128" s="30" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="129" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B129" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D129" s="31" t="s">
-        <v>836</v>
+        <v>842</v>
       </c>
       <c r="E129" s="31" t="s">
-        <v>91</v>
+        <v>221</v>
       </c>
       <c r="F129" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H129" s="31" t="b">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="G129" s="31" t="s">
+        <v>843</v>
+      </c>
+      <c r="H129" s="31">
+        <v>69</v>
       </c>
       <c r="I129" s="31"/>
     </row>
@@ -10236,16 +10291,19 @@
         <v>21</v>
       </c>
       <c r="D130" s="31" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="E130" s="31" t="s">
-        <v>128</v>
+        <v>223</v>
       </c>
       <c r="F130" s="30" t="s">
         <v>64</v>
       </c>
+      <c r="G130" s="31" t="s">
+        <v>844</v>
+      </c>
       <c r="H130" s="31">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I130" s="31"/>
     </row>
@@ -10254,16 +10312,19 @@
         <v>21</v>
       </c>
       <c r="D131" s="31" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="E131" s="31" t="s">
-        <v>50</v>
+        <v>225</v>
       </c>
       <c r="F131" s="30" t="s">
         <v>64</v>
       </c>
+      <c r="G131" s="31" t="s">
+        <v>843</v>
+      </c>
       <c r="H131" s="31">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="I131" s="31"/>
     </row>
@@ -10272,19 +10333,19 @@
         <v>21</v>
       </c>
       <c r="D132" s="31" t="s">
-        <v>795</v>
+        <v>847</v>
       </c>
       <c r="E132" s="31" t="s">
-        <v>52</v>
+        <v>227</v>
       </c>
       <c r="F132" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G132" s="30" t="s">
-        <v>796</v>
+        <v>64</v>
+      </c>
+      <c r="G132" s="31" t="s">
+        <v>843</v>
       </c>
       <c r="H132" s="31">
-        <v>0</v>
+        <v>-148</v>
       </c>
       <c r="I132" s="31"/>
     </row>
@@ -10293,15 +10354,14 @@
         <v>21</v>
       </c>
       <c r="D133" s="31" t="s">
-        <v>797</v>
+        <v>836</v>
       </c>
       <c r="E133" s="31" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="F133" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="G133" s="30"/>
       <c r="H133" s="31" t="b">
         <v>0</v>
       </c>
@@ -10311,20 +10371,17 @@
       <c r="B134" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D134" s="30" t="s">
-        <v>798</v>
-      </c>
-      <c r="E134" s="30" t="s">
-        <v>56</v>
+      <c r="D134" s="31" t="s">
+        <v>848</v>
+      </c>
+      <c r="E134" s="31" t="s">
+        <v>128</v>
       </c>
       <c r="F134" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G134" s="30" t="s">
-        <v>796</v>
+        <v>64</v>
       </c>
       <c r="H134" s="31">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I134" s="31"/>
     </row>
@@ -10332,17 +10389,14 @@
       <c r="B135" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D135" s="30" t="s">
-        <v>850</v>
-      </c>
-      <c r="E135" s="30" t="s">
-        <v>58</v>
+      <c r="D135" s="31" t="s">
+        <v>849</v>
+      </c>
+      <c r="E135" s="31" t="s">
+        <v>50</v>
       </c>
       <c r="F135" s="30" t="s">
         <v>64</v>
-      </c>
-      <c r="G135" s="30" t="s">
-        <v>792</v>
       </c>
       <c r="H135" s="31">
         <v>0</v>
@@ -10353,11 +10407,11 @@
       <c r="B136" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D136" s="30" t="s">
-        <v>800</v>
-      </c>
-      <c r="E136" s="30" t="s">
-        <v>60</v>
+      <c r="D136" s="31" t="s">
+        <v>795</v>
+      </c>
+      <c r="E136" s="31" t="s">
+        <v>52</v>
       </c>
       <c r="F136" s="30" t="s">
         <v>65</v>
@@ -10366,24 +10420,90 @@
         <v>796</v>
       </c>
       <c r="H136" s="31">
+        <v>0</v>
+      </c>
+      <c r="I136" s="31"/>
+    </row>
+    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B137" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D137" s="31" t="s">
+        <v>797</v>
+      </c>
+      <c r="E137" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="F137" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="G137" s="30"/>
+      <c r="H137" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I137" s="31"/>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B138" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D138" s="30" t="s">
+        <v>798</v>
+      </c>
+      <c r="E138" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F138" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G138" s="30" t="s">
+        <v>796</v>
+      </c>
+      <c r="H138" s="31">
+        <v>15</v>
+      </c>
+      <c r="I138" s="31"/>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B139" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D139" s="30" t="s">
+        <v>850</v>
+      </c>
+      <c r="E139" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F139" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G139" s="30" t="s">
+        <v>792</v>
+      </c>
+      <c r="H139" s="31">
+        <v>0</v>
+      </c>
+      <c r="I139" s="31"/>
+    </row>
+    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B140" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D140" s="30" t="s">
+        <v>800</v>
+      </c>
+      <c r="E140" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F140" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G140" s="30" t="s">
+        <v>796</v>
+      </c>
+      <c r="H140" s="31">
         <v>1</v>
       </c>
-      <c r="I136" s="31"/>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H137" s="31"/>
-      <c r="I137" s="31"/>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H138" s="31"/>
-      <c r="I138" s="31"/>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H139" s="31"/>
-      <c r="I139" s="31"/>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H140" s="31"/>
       <c r="I140" s="31"/>
     </row>
     <row r="141" spans="2:9" x14ac:dyDescent="0.25">
@@ -10694,8 +10814,24 @@
       <c r="H217" s="31"/>
       <c r="I217" s="31"/>
     </row>
+    <row r="218" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H218" s="31"/>
+      <c r="I218" s="31"/>
+    </row>
+    <row r="219" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H219" s="31"/>
+      <c r="I219" s="31"/>
+    </row>
+    <row r="220" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H220" s="31"/>
+      <c r="I220" s="31"/>
+    </row>
+    <row r="221" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H221" s="31"/>
+      <c r="I221" s="31"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:Z144"/>
+  <autoFilter ref="A2:Z148"/>
   <mergeCells count="1">
     <mergeCell ref="T1:Y1"/>
   </mergeCells>

--- a/projects/office_ee.xlsx
+++ b/projects/office_ee.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15090" windowHeight="7905" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="22840" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="TrueFalse">Lookups!$C$12:$C$13</definedName>
     <definedName name="Workflow">Lookups!$E$12:$E$13</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -2014,9 +2014,6 @@
     <t>createConstructionSet</t>
   </si>
   <si>
-    <t>DOE Ref 2004</t>
-  </si>
-  <si>
     <t>ASHRAE 169-2006-5B</t>
   </si>
   <si>
@@ -2678,6 +2675,9 @@
   </si>
   <si>
     <t>Degrees Fahrenheit to Adjust heating Setpoint By</t>
+  </si>
+  <si>
+    <t>DOE Ref 1980-2004</t>
   </si>
 </sst>
 </file>
@@ -2687,7 +2687,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2745,6 +2745,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
     </font>
   </fonts>
   <fills count="12">
@@ -2824,7 +2829,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1826">
+  <cellStyleXfs count="1828">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4651,8 +4656,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4763,8 +4770,9 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1826">
+  <cellStyles count="1828">
     <cellStyle name="Comma" xfId="1749" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -5678,6 +5686,7 @@
     <cellStyle name="Followed Hyperlink" xfId="1821" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1823" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1825" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1827" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -6590,6 +6599,7 @@
     <cellStyle name="Hyperlink" xfId="1820" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1822" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1824" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1826" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6895,17 +6905,17 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="81.85546875" customWidth="1"/>
+    <col min="1" max="1" width="81.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="28">
       <c r="A1" s="36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="28">
       <c r="A2" s="36" t="s">
         <v>41</v>
       </c>
@@ -6929,17 +6939,17 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.7109375" style="1"/>
+    <col min="4" max="4" width="33.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="19"/>
       <c r="B1" s="28"/>
       <c r="C1" s="19"/>
@@ -6948,7 +6958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="12" customFormat="1">
       <c r="A2" s="11" t="s">
         <v>435</v>
       </c>
@@ -6957,7 +6967,7 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>436</v>
       </c>
@@ -6968,18 +6978,18 @@
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="28">
       <c r="A4" s="1" t="s">
         <v>456</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="42">
       <c r="A5" s="1" t="s">
         <v>469</v>
       </c>
@@ -6990,18 +7000,18 @@
         <v>614</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="46" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>470</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>442</v>
       </c>
@@ -7020,7 +7030,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="28">
       <c r="A8" s="1" t="s">
         <v>443</v>
       </c>
@@ -7039,7 +7049,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>458</v>
       </c>
@@ -7052,7 +7062,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="12" customFormat="1">
       <c r="A11" s="11" t="s">
         <v>28</v>
       </c>
@@ -7061,40 +7071,40 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>462</v>
       </c>
@@ -7105,7 +7115,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>463</v>
       </c>
@@ -7116,7 +7126,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>464</v>
       </c>
@@ -7127,7 +7137,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>466</v>
       </c>
@@ -7138,7 +7148,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A20" s="11" t="s">
         <v>27</v>
       </c>
@@ -7151,7 +7161,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>451</v>
       </c>
@@ -7159,11 +7169,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" s="31" customFormat="1">
       <c r="B22" s="26"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A23" s="11" t="s">
         <v>450</v>
       </c>
@@ -7180,7 +7190,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="30" t="s">
         <v>570</v>
       </c>
@@ -7192,7 +7202,7 @@
       </c>
       <c r="D24" s="35"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="30" t="s">
         <v>4</v>
       </c>
@@ -7204,61 +7214,61 @@
       </c>
       <c r="D25" s="35"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="31"/>
       <c r="B26" s="29"/>
       <c r="C26" s="30"/>
       <c r="D26" s="35"/>
     </row>
-    <row r="27" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" s="31" customFormat="1">
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
       <c r="D27" s="35"/>
     </row>
-    <row r="28" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" s="31" customFormat="1">
       <c r="C28" s="30"/>
       <c r="D28" s="35"/>
     </row>
-    <row r="29" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" s="31" customFormat="1">
       <c r="C29" s="30"/>
       <c r="D29" s="35"/>
     </row>
-    <row r="30" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" s="31" customFormat="1">
       <c r="B30" s="26"/>
       <c r="C30" s="34"/>
       <c r="D30" s="35"/>
     </row>
-    <row r="31" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" s="31" customFormat="1">
       <c r="B31" s="26"/>
       <c r="C31" s="34"/>
       <c r="D31" s="35"/>
     </row>
-    <row r="32" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" s="31" customFormat="1">
       <c r="B32" s="26"/>
       <c r="C32" s="34"/>
       <c r="D32" s="35"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="31"/>
       <c r="C33" s="34"/>
       <c r="D33" s="35"/>
     </row>
-    <row r="34" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" s="31" customFormat="1">
       <c r="B34" s="26"/>
       <c r="C34" s="34"/>
       <c r="D34" s="35"/>
     </row>
-    <row r="35" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" s="31" customFormat="1">
       <c r="B35" s="26"/>
       <c r="C35" s="26"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A36" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>31</v>
@@ -7266,15 +7276,15 @@
       <c r="D36" s="11"/>
       <c r="E36" s="13"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A39" s="11" t="s">
         <v>30</v>
       </c>
@@ -7285,25 +7295,25 @@
         <v>38</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" s="31" customFormat="1">
       <c r="A40" s="31" t="s">
         <v>32</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E40" s="2"/>
     </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" s="2" customFormat="1" ht="56">
       <c r="A42" s="11" t="s">
         <v>35</v>
       </c>
@@ -7311,25 +7321,25 @@
         <v>34</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="13" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" s="31" t="s">
+        <v>785</v>
+      </c>
+      <c r="B43" s="26" t="s">
         <v>786</v>
       </c>
-      <c r="B43" s="26" t="s">
-        <v>787</v>
-      </c>
       <c r="C43" s="31" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="31" customFormat="1">
       <c r="B44" s="26"/>
       <c r="D44" s="2"/>
     </row>
@@ -7360,36 +7370,36 @@
   <dimension ref="A1:Y221"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O102" sqref="O102"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="31" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="31" customWidth="1"/>
     <col min="2" max="2" width="47" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="31" customWidth="1"/>
-    <col min="4" max="4" width="39.140625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="31" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="31" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" style="31" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" style="31" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" style="31" customWidth="1"/>
-    <col min="13" max="14" width="7.85546875" style="31" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" style="31"/>
-    <col min="16" max="16" width="11.42578125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="39.1640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" style="31" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="31" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" style="31" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" style="31" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" style="31" customWidth="1"/>
+    <col min="13" max="14" width="7.83203125" style="31" customWidth="1"/>
+    <col min="15" max="15" width="11.5" style="31"/>
+    <col min="16" max="16" width="11.5" style="31" customWidth="1"/>
     <col min="17" max="17" width="23" style="31" customWidth="1"/>
-    <col min="18" max="18" width="27.7109375" style="31" customWidth="1"/>
-    <col min="19" max="19" width="46.140625" style="31" customWidth="1"/>
-    <col min="20" max="22" width="11.42578125" style="31"/>
-    <col min="23" max="23" width="13.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="11.42578125" style="31"/>
+    <col min="18" max="18" width="27.6640625" style="31" customWidth="1"/>
+    <col min="19" max="19" width="46.1640625" style="31" customWidth="1"/>
+    <col min="20" max="22" width="11.5" style="31"/>
+    <col min="23" max="23" width="13.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="11.5" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7424,7 +7434,7 @@
       <c r="X1" s="53"/>
       <c r="Y1" s="53"/>
     </row>
-    <row r="2" spans="1:25" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" s="8" customFormat="1" ht="15">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -7440,7 +7450,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:25" s="14" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" s="14" customFormat="1" ht="45">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -7514,18 +7524,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" s="38" customFormat="1">
       <c r="A4" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B4" s="38" t="s">
+        <v>732</v>
+      </c>
+      <c r="C4" s="38" t="s">
         <v>733</v>
       </c>
-      <c r="C4" s="38" t="s">
-        <v>734</v>
-      </c>
       <c r="D4" s="38" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E4" s="38" t="s">
         <v>68</v>
@@ -7533,46 +7543,46 @@
       <c r="G4" s="39"/>
       <c r="H4" s="39"/>
     </row>
-    <row r="5" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" s="30" customFormat="1">
       <c r="B5" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="30" t="s">
+        <v>770</v>
+      </c>
+      <c r="E5" s="30" t="s">
         <v>771</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>772</v>
       </c>
       <c r="F5" s="30" t="s">
         <v>104</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.25">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" s="30" customFormat="1">
       <c r="B6" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F6" s="30" t="s">
         <v>104</v>
       </c>
       <c r="H6" s="31" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" s="38" customFormat="1">
       <c r="A7" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C7" s="38" t="s">
         <v>648</v>
@@ -7586,7 +7596,7 @@
       <c r="G7" s="39"/>
       <c r="H7" s="39"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="B8" s="31" t="s">
         <v>21</v>
       </c>
@@ -7600,7 +7610,7 @@
         <v>618</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -7611,7 +7621,7 @@
       <c r="P8" s="40"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25">
       <c r="B9" s="31" t="s">
         <v>21</v>
       </c>
@@ -7625,7 +7635,7 @@
         <v>618</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>657</v>
+        <v>878</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -7634,7 +7644,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25">
       <c r="B10" s="31" t="s">
         <v>21</v>
       </c>
@@ -7648,16 +7658,16 @@
         <v>618</v>
       </c>
       <c r="H10" s="31" t="s">
+        <v>657</v>
+      </c>
+      <c r="I10" s="31"/>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="B11" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="31" t="s">
         <v>658</v>
-      </c>
-      <c r="I10" s="31"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B11" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>659</v>
       </c>
       <c r="E11" s="31" t="s">
         <v>655</v>
@@ -7670,12 +7680,12 @@
       </c>
       <c r="I11" s="31"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25">
       <c r="B12" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E12" s="31" t="s">
         <v>656</v>
@@ -7688,18 +7698,18 @@
       </c>
       <c r="I12" s="31"/>
     </row>
-    <row r="13" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" s="38" customFormat="1">
       <c r="A13" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E13" s="38" t="s">
         <v>68</v>
@@ -7707,12 +7717,12 @@
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
     </row>
-    <row r="14" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" s="30" customFormat="1" ht="17">
       <c r="B14" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E14" s="30" t="s">
         <v>198</v>
@@ -7721,30 +7731,33 @@
         <v>64</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>767</v>
-      </c>
-      <c r="H14" s="30">
-        <v>12717</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.25">
+        <v>766</v>
+      </c>
+      <c r="H14" s="54">
+        <v>104666</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" s="30" customFormat="1">
+      <c r="A15" s="43"/>
       <c r="B15" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="30" t="s">
-        <v>663</v>
-      </c>
-      <c r="E15" s="30" t="s">
+      <c r="C15" s="43"/>
+      <c r="D15" s="43" t="s">
+        <v>662</v>
+      </c>
+      <c r="E15" s="43" t="s">
         <v>200</v>
       </c>
-      <c r="F15" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="H15" s="30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F15" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" s="30" customFormat="1">
       <c r="B16" s="30" t="s">
         <v>21</v>
       </c>
@@ -7758,38 +7771,40 @@
         <v>65</v>
       </c>
       <c r="H16" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="30" customFormat="1">
+      <c r="A17" s="43"/>
       <c r="B17" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="30" t="s">
-        <v>664</v>
-      </c>
-      <c r="E17" s="30" t="s">
+      <c r="C17" s="43"/>
+      <c r="D17" s="43" t="s">
+        <v>663</v>
+      </c>
+      <c r="E17" s="43" t="s">
         <v>204</v>
       </c>
-      <c r="F17" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G17" s="30" t="s">
-        <v>768</v>
-      </c>
-      <c r="H17" s="30">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F17" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="43" t="s">
+        <v>767</v>
+      </c>
+      <c r="H17" s="43">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="30" customFormat="1">
       <c r="B18" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="30" t="s">
+        <v>740</v>
+      </c>
+      <c r="E18" s="30" t="s">
         <v>741</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>742</v>
       </c>
       <c r="F18" s="30" t="s">
         <v>64</v>
@@ -7798,15 +7813,15 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="30" customFormat="1">
       <c r="B19" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="30" t="s">
+        <v>742</v>
+      </c>
+      <c r="E19" s="30" t="s">
         <v>743</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>744</v>
       </c>
       <c r="F19" s="30" t="s">
         <v>64</v>
@@ -7815,15 +7830,15 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" s="30" customFormat="1">
       <c r="B20" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="30" t="s">
+        <v>744</v>
+      </c>
+      <c r="E20" s="30" t="s">
         <v>745</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>746</v>
       </c>
       <c r="F20" s="30" t="s">
         <v>64</v>
@@ -7832,15 +7847,15 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" s="30" customFormat="1">
       <c r="B21" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="30" t="s">
+        <v>746</v>
+      </c>
+      <c r="E21" s="30" t="s">
         <v>747</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>748</v>
       </c>
       <c r="F21" s="30" t="s">
         <v>64</v>
@@ -7849,15 +7864,15 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" s="30" customFormat="1">
       <c r="B22" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D22" s="30" t="s">
+        <v>748</v>
+      </c>
+      <c r="E22" s="30" t="s">
         <v>749</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>750</v>
       </c>
       <c r="F22" s="30" t="s">
         <v>64</v>
@@ -7866,15 +7881,15 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="30" customFormat="1">
       <c r="B23" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D23" s="30" t="s">
+        <v>750</v>
+      </c>
+      <c r="E23" s="30" t="s">
         <v>751</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>752</v>
       </c>
       <c r="F23" s="30" t="s">
         <v>64</v>
@@ -7883,15 +7898,15 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" s="30" customFormat="1">
       <c r="B24" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D24" s="30" t="s">
+        <v>752</v>
+      </c>
+      <c r="E24" s="30" t="s">
         <v>753</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>754</v>
       </c>
       <c r="F24" s="30" t="s">
         <v>64</v>
@@ -7900,15 +7915,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" s="30" customFormat="1">
       <c r="B25" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D25" s="30" t="s">
+        <v>754</v>
+      </c>
+      <c r="E25" s="30" t="s">
         <v>755</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>756</v>
       </c>
       <c r="F25" s="30" t="s">
         <v>64</v>
@@ -7917,15 +7932,15 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" s="30" customFormat="1">
       <c r="B26" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="30" t="s">
+        <v>756</v>
+      </c>
+      <c r="E26" s="30" t="s">
         <v>757</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>758</v>
       </c>
       <c r="F26" s="30" t="s">
         <v>64</v>
@@ -7934,15 +7949,15 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="30" customFormat="1">
       <c r="B27" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="30" t="s">
+        <v>758</v>
+      </c>
+      <c r="E27" s="30" t="s">
         <v>759</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>760</v>
       </c>
       <c r="F27" s="30" t="s">
         <v>64</v>
@@ -7951,15 +7966,15 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" s="30" customFormat="1">
       <c r="B28" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="30" t="s">
+        <v>760</v>
+      </c>
+      <c r="E28" s="30" t="s">
         <v>761</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>762</v>
       </c>
       <c r="F28" s="30" t="s">
         <v>64</v>
@@ -7968,15 +7983,15 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" s="30" customFormat="1">
       <c r="B29" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D29" s="30" t="s">
+        <v>762</v>
+      </c>
+      <c r="E29" s="30" t="s">
         <v>763</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>764</v>
       </c>
       <c r="F29" s="30" t="s">
         <v>64</v>
@@ -7985,15 +8000,15 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" s="30" customFormat="1">
       <c r="B30" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D30" s="30" t="s">
+        <v>764</v>
+      </c>
+      <c r="E30" s="30" t="s">
         <v>765</v>
-      </c>
-      <c r="E30" s="30" t="s">
-        <v>766</v>
       </c>
       <c r="F30" s="30" t="s">
         <v>64</v>
@@ -8002,18 +8017,18 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" s="38" customFormat="1">
       <c r="A31" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B31" s="38" t="s">
+        <v>664</v>
+      </c>
+      <c r="C31" s="38" t="s">
         <v>665</v>
       </c>
-      <c r="C31" s="38" t="s">
-        <v>666</v>
-      </c>
       <c r="D31" s="38" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E31" s="38" t="s">
         <v>68</v>
@@ -8021,15 +8036,15 @@
       <c r="G31" s="39"/>
       <c r="H31" s="39"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="B32" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D32" s="31" t="s">
+        <v>676</v>
+      </c>
+      <c r="E32" s="31" t="s">
         <v>677</v>
-      </c>
-      <c r="E32" s="31" t="s">
-        <v>678</v>
       </c>
       <c r="F32" s="31" t="s">
         <v>619</v>
@@ -8037,32 +8052,32 @@
       <c r="H32" s="31"/>
       <c r="I32" s="31"/>
     </row>
-    <row r="33" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" s="38" customFormat="1">
       <c r="A33" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B33" s="38" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E33" s="38" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" s="30" customFormat="1">
       <c r="B34" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D34" s="30" t="s">
+        <v>787</v>
+      </c>
+      <c r="E34" s="30" t="s">
         <v>788</v>
-      </c>
-      <c r="E34" s="30" t="s">
-        <v>789</v>
       </c>
       <c r="F34" s="30" t="s">
         <v>64</v>
@@ -8071,15 +8086,15 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="35" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" s="30" customFormat="1">
       <c r="B35" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D35" s="30" t="s">
+        <v>789</v>
+      </c>
+      <c r="E35" s="30" t="s">
         <v>790</v>
-      </c>
-      <c r="E35" s="30" t="s">
-        <v>791</v>
       </c>
       <c r="F35" s="30" t="s">
         <v>64</v>
@@ -8088,12 +8103,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" s="38" customFormat="1">
       <c r="A36" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B36" s="38" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C36" s="38" t="s">
         <v>74</v>
@@ -8107,12 +8122,12 @@
       <c r="G36" s="39"/>
       <c r="H36" s="39"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17">
       <c r="B37" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D37" s="31" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E37" s="31" t="s">
         <v>75</v>
@@ -8121,19 +8136,19 @@
         <v>619</v>
       </c>
       <c r="G37" s="31" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H37" s="31">
         <v>10</v>
       </c>
       <c r="I37" s="31"/>
     </row>
-    <row r="38" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" s="38" customFormat="1">
       <c r="A38" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B38" s="38" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C38" s="38" t="s">
         <v>76</v>
@@ -8147,12 +8162,12 @@
       <c r="G38" s="39"/>
       <c r="H38" s="39"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17">
       <c r="B39" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D39" s="31" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E39" s="31" t="s">
         <v>77</v>
@@ -8172,12 +8187,12 @@
       <c r="P39" s="40"/>
       <c r="Q39" s="2"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17">
       <c r="B40" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E40" s="31" t="s">
         <v>79</v>
@@ -8186,7 +8201,7 @@
         <v>619</v>
       </c>
       <c r="G40" s="31" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H40" s="31">
         <v>30</v>
@@ -8200,12 +8215,12 @@
       <c r="P40" s="40"/>
       <c r="Q40" s="2"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17">
       <c r="B41" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D41" s="31" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E41" s="31" t="s">
         <v>81</v>
@@ -8214,10 +8229,10 @@
         <v>618</v>
       </c>
       <c r="G41" s="31" t="s">
+        <v>667</v>
+      </c>
+      <c r="H41" s="31" t="s">
         <v>668</v>
-      </c>
-      <c r="H41" s="31" t="s">
-        <v>669</v>
       </c>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
@@ -8228,12 +8243,12 @@
       <c r="P41" s="40"/>
       <c r="Q41" s="2"/>
     </row>
-    <row r="42" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" s="38" customFormat="1">
       <c r="A42" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B42" s="38" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C42" s="38" t="s">
         <v>76</v>
@@ -8247,12 +8262,12 @@
       <c r="G42" s="39"/>
       <c r="H42" s="39"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17">
       <c r="B43" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D43" s="31" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E43" s="31" t="s">
         <v>77</v>
@@ -8272,12 +8287,12 @@
       <c r="P43" s="40"/>
       <c r="Q43" s="2"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17">
       <c r="B44" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D44" s="31" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E44" s="31" t="s">
         <v>79</v>
@@ -8286,7 +8301,7 @@
         <v>619</v>
       </c>
       <c r="G44" s="31" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H44" s="31">
         <v>30</v>
@@ -8300,12 +8315,12 @@
       <c r="P44" s="40"/>
       <c r="Q44" s="2"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17">
       <c r="B45" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D45" s="31" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E45" s="31" t="s">
         <v>81</v>
@@ -8314,7 +8329,7 @@
         <v>618</v>
       </c>
       <c r="G45" s="31" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H45" s="31" t="s">
         <v>82</v>
@@ -8328,12 +8343,12 @@
       <c r="P45" s="40"/>
       <c r="Q45" s="2"/>
     </row>
-    <row r="46" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" s="38" customFormat="1">
       <c r="A46" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B46" s="38" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C46" s="38" t="s">
         <v>76</v>
@@ -8347,12 +8362,12 @@
       <c r="G46" s="39"/>
       <c r="H46" s="39"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17">
       <c r="B47" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D47" s="31" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E47" s="31" t="s">
         <v>77</v>
@@ -8372,12 +8387,12 @@
       <c r="P47" s="40"/>
       <c r="Q47" s="2"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17">
       <c r="B48" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D48" s="31" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E48" s="31" t="s">
         <v>79</v>
@@ -8386,7 +8401,7 @@
         <v>619</v>
       </c>
       <c r="G48" s="31" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H48" s="31">
         <v>30</v>
@@ -8400,12 +8415,12 @@
       <c r="P48" s="40"/>
       <c r="Q48" s="2"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17">
       <c r="B49" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E49" s="31" t="s">
         <v>81</v>
@@ -8414,10 +8429,10 @@
         <v>618</v>
       </c>
       <c r="G49" s="31" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H49" s="31" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
@@ -8428,12 +8443,12 @@
       <c r="P49" s="40"/>
       <c r="Q49" s="2"/>
     </row>
-    <row r="50" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" s="38" customFormat="1">
       <c r="A50" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B50" s="38" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C50" s="38" t="s">
         <v>76</v>
@@ -8447,12 +8462,12 @@
       <c r="G50" s="39"/>
       <c r="H50" s="39"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17">
       <c r="B51" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D51" s="31" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E51" s="31" t="s">
         <v>77</v>
@@ -8472,12 +8487,12 @@
       <c r="P51" s="40"/>
       <c r="Q51" s="2"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17">
       <c r="B52" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D52" s="31" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E52" s="31" t="s">
         <v>79</v>
@@ -8486,7 +8501,7 @@
         <v>619</v>
       </c>
       <c r="G52" s="31" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H52" s="31">
         <v>30</v>
@@ -8500,12 +8515,12 @@
       <c r="P52" s="40"/>
       <c r="Q52" s="2"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17">
       <c r="B53" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D53" s="31" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E53" s="31" t="s">
         <v>81</v>
@@ -8514,10 +8529,10 @@
         <v>618</v>
       </c>
       <c r="G53" s="31" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H53" s="31" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
@@ -8528,18 +8543,18 @@
       <c r="P53" s="40"/>
       <c r="Q53" s="2"/>
     </row>
-    <row r="54" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" s="38" customFormat="1">
       <c r="A54" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B54" s="38" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C54" s="38" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D54" s="38" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E54" s="38" t="s">
         <v>68</v>
@@ -8547,90 +8562,90 @@
       <c r="G54" s="39"/>
       <c r="H54" s="39"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17">
       <c r="B55" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D55" s="31" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E55" s="31" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F55" s="31" t="s">
         <v>618</v>
       </c>
       <c r="H55" s="31" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="I55" s="31"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17">
       <c r="B56" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D56" s="31" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F56" s="31" t="s">
         <v>618</v>
       </c>
       <c r="H56" s="31" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="I56" s="31"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17">
       <c r="B57" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D57" s="31" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F57" s="31" t="s">
         <v>618</v>
       </c>
       <c r="H57" s="41" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I57" s="31"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17">
       <c r="B58" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D58" s="31" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F58" s="31" t="s">
         <v>618</v>
       </c>
       <c r="H58" s="41" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="I58" s="31"/>
     </row>
-    <row r="59" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" s="38" customFormat="1">
       <c r="A59" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B59" s="38" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C59" s="38" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D59" s="38" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E59" s="38" t="s">
         <v>233</v>
@@ -8638,12 +8653,12 @@
       <c r="G59" s="39"/>
       <c r="H59" s="39"/>
     </row>
-    <row r="60" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" s="38" customFormat="1">
       <c r="A60" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B60" s="38" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C60" s="38" t="s">
         <v>76</v>
@@ -8657,12 +8672,12 @@
       <c r="G60" s="39"/>
       <c r="H60" s="39"/>
     </row>
-    <row r="61" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" s="43" customFormat="1">
       <c r="B61" s="43" t="s">
         <v>21</v>
       </c>
       <c r="D61" s="43" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E61" s="43" t="s">
         <v>77</v>
@@ -8690,10 +8705,10 @@
         <v>0.01</v>
       </c>
       <c r="Q61" s="43" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" s="30" customFormat="1">
       <c r="B62" s="30" t="s">
         <v>21</v>
       </c>
@@ -8710,7 +8725,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" s="30" customFormat="1">
       <c r="B63" s="30" t="s">
         <v>21</v>
       </c>
@@ -8730,12 +8745,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" s="38" customFormat="1">
       <c r="A64" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B64" s="38" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C64" s="38" t="s">
         <v>76</v>
@@ -8749,12 +8764,12 @@
       <c r="G64" s="39"/>
       <c r="H64" s="39"/>
     </row>
-    <row r="65" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" s="43" customFormat="1">
       <c r="B65" s="43" t="s">
         <v>21</v>
       </c>
       <c r="D65" s="43" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E65" s="43" t="s">
         <v>77</v>
@@ -8782,10 +8797,10 @@
         <v>0.01</v>
       </c>
       <c r="Q65" s="43" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" s="30" customFormat="1">
       <c r="B66" s="30" t="s">
         <v>21</v>
       </c>
@@ -8802,7 +8817,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" s="30" customFormat="1">
       <c r="B67" s="30" t="s">
         <v>21</v>
       </c>
@@ -8816,18 +8831,18 @@
         <v>62</v>
       </c>
       <c r="H67" s="30" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="I67" s="30" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" s="38" customFormat="1">
       <c r="A68" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B68" s="38" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C68" s="38" t="s">
         <v>76</v>
@@ -8841,12 +8856,12 @@
       <c r="G68" s="39"/>
       <c r="H68" s="39"/>
     </row>
-    <row r="69" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" s="43" customFormat="1">
       <c r="B69" s="43" t="s">
         <v>21</v>
       </c>
       <c r="D69" s="43" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E69" s="43" t="s">
         <v>77</v>
@@ -8874,10 +8889,10 @@
         <v>0.01</v>
       </c>
       <c r="Q69" s="43" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" s="30" customFormat="1">
       <c r="B70" s="30" t="s">
         <v>21</v>
       </c>
@@ -8894,7 +8909,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" s="30" customFormat="1">
       <c r="B71" s="30" t="s">
         <v>21</v>
       </c>
@@ -8908,13 +8923,13 @@
         <v>62</v>
       </c>
       <c r="H71" s="30" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I71" s="30" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" s="38" customFormat="1">
       <c r="A72" s="38" t="b">
         <v>1</v>
       </c>
@@ -8933,7 +8948,7 @@
       <c r="G72" s="39"/>
       <c r="H72" s="39"/>
     </row>
-    <row r="73" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" s="30" customFormat="1">
       <c r="B73" s="30" t="s">
         <v>21</v>
       </c>
@@ -8954,12 +8969,12 @@
       </c>
       <c r="O73" s="31"/>
     </row>
-    <row r="74" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" s="43" customFormat="1">
       <c r="B74" s="43" t="s">
         <v>21</v>
       </c>
       <c r="D74" s="44" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E74" s="43" t="s">
         <v>70</v>
@@ -8987,10 +9002,10 @@
         <v>2.5</v>
       </c>
       <c r="Q74" s="43" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" s="30" customFormat="1">
       <c r="B75" s="30" t="s">
         <v>21</v>
       </c>
@@ -9008,7 +9023,7 @@
       </c>
       <c r="O75" s="31"/>
     </row>
-    <row r="76" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" s="30" customFormat="1">
       <c r="B76" s="30" t="s">
         <v>21</v>
       </c>
@@ -9026,7 +9041,7 @@
       </c>
       <c r="O76" s="31"/>
     </row>
-    <row r="77" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" s="30" customFormat="1">
       <c r="B77" s="30" t="s">
         <v>21</v>
       </c>
@@ -9044,7 +9059,7 @@
       </c>
       <c r="O77" s="31"/>
     </row>
-    <row r="78" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" s="38" customFormat="1">
       <c r="A78" s="38" t="b">
         <v>1</v>
       </c>
@@ -9063,7 +9078,7 @@
       <c r="G78" s="39"/>
       <c r="H78" s="39"/>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17">
       <c r="A79" s="30"/>
       <c r="B79" s="30" t="s">
         <v>21</v>
@@ -9092,12 +9107,12 @@
       <c r="N79" s="3"/>
       <c r="P79" s="40"/>
     </row>
-    <row r="80" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" s="43" customFormat="1">
       <c r="B80" s="43" t="s">
         <v>21</v>
       </c>
       <c r="D80" s="43" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E80" s="43" t="s">
         <v>46</v>
@@ -9130,7 +9145,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17">
       <c r="A81" s="30"/>
       <c r="B81" s="30" t="s">
         <v>21</v>
@@ -9156,7 +9171,7 @@
       <c r="N81" s="3"/>
       <c r="P81" s="40"/>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17">
       <c r="A82" s="30"/>
       <c r="B82" s="30" t="s">
         <v>21</v>
@@ -9182,7 +9197,7 @@
       <c r="N82" s="3"/>
       <c r="P82" s="40"/>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17">
       <c r="A83" s="30"/>
       <c r="B83" s="30" t="s">
         <v>21</v>
@@ -9208,7 +9223,7 @@
       <c r="N83" s="3"/>
       <c r="P83" s="40"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17">
       <c r="A84" s="30"/>
       <c r="B84" s="30" t="s">
         <v>21</v>
@@ -9234,7 +9249,7 @@
       <c r="N84" s="3"/>
       <c r="P84" s="40"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17">
       <c r="A85" s="30"/>
       <c r="B85" s="30" t="s">
         <v>21</v>
@@ -9260,7 +9275,7 @@
       <c r="N85" s="3"/>
       <c r="P85" s="40"/>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17">
       <c r="A86" s="30"/>
       <c r="B86" s="30" t="s">
         <v>21</v>
@@ -9286,7 +9301,7 @@
       <c r="N86" s="3"/>
       <c r="P86" s="40"/>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17">
       <c r="A87" s="30"/>
       <c r="B87" s="30" t="s">
         <v>21</v>
@@ -9312,7 +9327,7 @@
       <c r="N87" s="3"/>
       <c r="P87" s="40"/>
     </row>
-    <row r="88" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" s="38" customFormat="1">
       <c r="A88" s="38" t="b">
         <v>1</v>
       </c>
@@ -9331,7 +9346,7 @@
       <c r="G88" s="39"/>
       <c r="H88" s="39"/>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17">
       <c r="A89" s="30"/>
       <c r="B89" s="30" t="s">
         <v>21</v>
@@ -9360,12 +9375,12 @@
       <c r="N89" s="3"/>
       <c r="P89" s="40"/>
     </row>
-    <row r="90" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" s="43" customFormat="1">
       <c r="B90" s="43" t="s">
         <v>21</v>
       </c>
       <c r="D90" s="43" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E90" s="43" t="s">
         <v>330</v>
@@ -9394,21 +9409,21 @@
         <v>2.5</v>
       </c>
       <c r="Q90" s="43" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" s="38" customFormat="1">
       <c r="A91" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B91" s="38" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C91" s="38" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D91" s="38" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E91" s="38" t="s">
         <v>68</v>
@@ -9416,12 +9431,12 @@
       <c r="G91" s="39"/>
       <c r="H91" s="39"/>
     </row>
-    <row r="92" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" s="43" customFormat="1">
       <c r="B92" s="43" t="s">
         <v>21</v>
       </c>
       <c r="D92" s="43" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E92" s="43" t="s">
         <v>258</v>
@@ -9450,21 +9465,21 @@
         <v>2.5</v>
       </c>
       <c r="Q92" s="43" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" s="38" customFormat="1">
       <c r="A93" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B93" s="38" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C93" s="38" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D93" s="38" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E93" s="38" t="s">
         <v>68</v>
@@ -9472,12 +9487,12 @@
       <c r="G93" s="39"/>
       <c r="H93" s="39"/>
     </row>
-    <row r="94" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" s="43" customFormat="1">
       <c r="B94" s="43" t="s">
         <v>21</v>
       </c>
       <c r="D94" s="43" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E94" s="43" t="s">
         <v>258</v>
@@ -9506,10 +9521,10 @@
         <v>2.5</v>
       </c>
       <c r="Q94" s="43" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" s="38" customFormat="1">
       <c r="A95" s="38" t="b">
         <v>1</v>
       </c>
@@ -9517,10 +9532,10 @@
         <v>187</v>
       </c>
       <c r="C95" s="38" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D95" s="38" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E95" s="38" t="s">
         <v>68</v>
@@ -9528,12 +9543,12 @@
       <c r="G95" s="39"/>
       <c r="H95" s="39"/>
     </row>
-    <row r="96" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" s="43" customFormat="1">
       <c r="B96" s="43" t="s">
         <v>21</v>
       </c>
       <c r="D96" s="43" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E96" s="43" t="s">
         <v>190</v>
@@ -9542,7 +9557,7 @@
         <v>64</v>
       </c>
       <c r="G96" s="43" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H96" s="43">
         <v>1</v>
@@ -9565,15 +9580,15 @@
         <v>2.5</v>
       </c>
       <c r="Q96" s="43" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" s="43" customFormat="1">
       <c r="B97" s="43" t="s">
         <v>21</v>
       </c>
       <c r="D97" s="43" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E97" s="43" t="s">
         <v>192</v>
@@ -9582,7 +9597,7 @@
         <v>64</v>
       </c>
       <c r="G97" s="43" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H97" s="43">
         <v>-1</v>
@@ -9605,15 +9620,15 @@
         <v>2.5</v>
       </c>
       <c r="Q97" s="43" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17">
       <c r="B98" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D98" s="31" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E98" s="31" t="s">
         <v>194</v>
@@ -9630,18 +9645,18 @@
       <c r="M98" s="3"/>
       <c r="N98" s="3"/>
     </row>
-    <row r="99" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" s="49" customFormat="1">
       <c r="A99" s="49" t="b">
         <v>1</v>
       </c>
       <c r="B99" s="49" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C99" s="49" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D99" s="49" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E99" s="49" t="s">
         <v>68</v>
@@ -9654,102 +9669,102 @@
       <c r="O99" s="51"/>
       <c r="Q99" s="52"/>
     </row>
-    <row r="100" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" s="30" customFormat="1">
       <c r="A100" s="18"/>
       <c r="B100" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D100" s="30" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E100" s="30" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F100" s="30" t="s">
         <v>65</v>
       </c>
       <c r="G100" s="30" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H100" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" s="30" customFormat="1">
       <c r="A101" s="18"/>
       <c r="B101" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D101" s="30" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E101" s="30" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F101" s="30" t="s">
         <v>65</v>
       </c>
       <c r="G101" s="30" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H101" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" s="30" customFormat="1">
       <c r="A102" s="18"/>
       <c r="B102" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D102" s="30" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E102" s="30" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F102" s="30" t="s">
         <v>65</v>
       </c>
       <c r="G102" s="30" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H102" s="30">
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17" s="30" customFormat="1">
       <c r="A103" s="18"/>
       <c r="B103" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D103" s="30" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E103" s="30" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F103" s="30" t="s">
         <v>65</v>
       </c>
       <c r="G103" s="30" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H103" s="30">
         <v>31</v>
       </c>
     </row>
-    <row r="104" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" s="49" customFormat="1">
       <c r="A104" s="49" t="b">
         <v>1</v>
       </c>
       <c r="B104" s="49" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C104" s="49" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D104" s="49" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E104" s="49" t="s">
         <v>68</v>
@@ -9762,18 +9777,18 @@
       <c r="O104" s="51"/>
       <c r="Q104" s="52"/>
     </row>
-    <row r="105" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" s="49" customFormat="1">
       <c r="A105" s="49" t="b">
         <v>1</v>
       </c>
       <c r="B105" s="49" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C105" s="49" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D105" s="49" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E105" s="49" t="s">
         <v>68</v>
@@ -9786,12 +9801,12 @@
       <c r="O105" s="51"/>
       <c r="Q105" s="52"/>
     </row>
-    <row r="106" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" s="22" customFormat="1">
       <c r="A106" s="22" t="b">
         <v>1</v>
       </c>
       <c r="B106" s="22" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C106" s="22" t="s">
         <v>286</v>
@@ -9803,7 +9818,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="107" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" s="30" customFormat="1">
       <c r="A107" s="18"/>
       <c r="B107" s="30" t="s">
         <v>21</v>
@@ -9824,12 +9839,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="108" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17" s="43" customFormat="1">
       <c r="B108" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D108" s="43" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E108" s="43" t="s">
         <v>288</v>
@@ -9838,7 +9853,7 @@
         <v>64</v>
       </c>
       <c r="G108" s="43" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H108" s="43">
         <v>0</v>
@@ -9860,15 +9875,15 @@
         <v>2.5</v>
       </c>
       <c r="Q108" s="43" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="109" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" s="30" customFormat="1">
       <c r="B109" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D109" s="30" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E109" s="30" t="s">
         <v>48</v>
@@ -9877,18 +9892,18 @@
         <v>64</v>
       </c>
       <c r="G109" s="30" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H109" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17" s="30" customFormat="1">
       <c r="B110" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D110" s="30" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E110" s="30" t="s">
         <v>50</v>
@@ -9897,18 +9912,18 @@
         <v>64</v>
       </c>
       <c r="G110" s="30" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H110" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17" s="30" customFormat="1">
       <c r="B111" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D111" s="30" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E111" s="30" t="s">
         <v>52</v>
@@ -9917,18 +9932,18 @@
         <v>65</v>
       </c>
       <c r="G111" s="30" t="s">
+        <v>795</v>
+      </c>
+      <c r="H111" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" s="30" customFormat="1">
+      <c r="B112" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D112" s="30" t="s">
         <v>796</v>
-      </c>
-      <c r="H111" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D112" s="30" t="s">
-        <v>797</v>
       </c>
       <c r="E112" s="30" t="s">
         <v>54</v>
@@ -9940,12 +9955,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" s="30" customFormat="1">
       <c r="B113" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D113" s="30" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E113" s="30" t="s">
         <v>56</v>
@@ -9954,18 +9969,18 @@
         <v>65</v>
       </c>
       <c r="G113" s="30" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H113" s="30">
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" s="30" customFormat="1">
       <c r="B114" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D114" s="30" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E114" s="30" t="s">
         <v>58</v>
@@ -9974,18 +9989,18 @@
         <v>64</v>
       </c>
       <c r="G114" s="30" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H114" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" s="30" customFormat="1">
       <c r="B115" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D115" s="30" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E115" s="30" t="s">
         <v>60</v>
@@ -9994,13 +10009,13 @@
         <v>65</v>
       </c>
       <c r="G115" s="30" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H115" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17" s="49" customFormat="1">
       <c r="A116" s="49" t="b">
         <v>1</v>
       </c>
@@ -10024,12 +10039,12 @@
       <c r="O116" s="51"/>
       <c r="Q116" s="52"/>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17">
       <c r="B117" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D117" s="31" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E117" s="31" t="s">
         <v>126</v>
@@ -10044,12 +10059,12 @@
         <v>418</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17">
       <c r="B118" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D118" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E118" s="31" t="s">
         <v>91</v>
@@ -10062,12 +10077,12 @@
       </c>
       <c r="I118" s="31"/>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:17">
       <c r="B119" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D119" s="31" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E119" s="31" t="s">
         <v>128</v>
@@ -10080,12 +10095,12 @@
       </c>
       <c r="I119" s="31"/>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17">
       <c r="B120" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D120" s="31" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E120" s="31" t="s">
         <v>50</v>
@@ -10098,12 +10113,12 @@
       </c>
       <c r="I120" s="31"/>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17">
       <c r="B121" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D121" s="31" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E121" s="31" t="s">
         <v>52</v>
@@ -10112,19 +10127,19 @@
         <v>65</v>
       </c>
       <c r="G121" s="30" t="s">
+        <v>795</v>
+      </c>
+      <c r="H121" s="31">
+        <v>0</v>
+      </c>
+      <c r="I121" s="31"/>
+    </row>
+    <row r="122" spans="1:17">
+      <c r="B122" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D122" s="31" t="s">
         <v>796</v>
-      </c>
-      <c r="H121" s="31">
-        <v>0</v>
-      </c>
-      <c r="I121" s="31"/>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B122" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D122" s="31" t="s">
-        <v>797</v>
       </c>
       <c r="E122" s="31" t="s">
         <v>54</v>
@@ -10138,12 +10153,12 @@
       </c>
       <c r="I122" s="31"/>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:17">
       <c r="B123" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D123" s="30" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E123" s="30" t="s">
         <v>56</v>
@@ -10152,19 +10167,19 @@
         <v>65</v>
       </c>
       <c r="G123" s="30" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H123" s="31">
         <v>15</v>
       </c>
       <c r="I123" s="31"/>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:17">
       <c r="B124" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D124" s="30" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E124" s="30" t="s">
         <v>58</v>
@@ -10173,19 +10188,19 @@
         <v>64</v>
       </c>
       <c r="G124" s="30" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H124" s="31">
         <v>0</v>
       </c>
       <c r="I124" s="31"/>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:17">
       <c r="B125" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D125" s="30" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E125" s="30" t="s">
         <v>60</v>
@@ -10194,14 +10209,14 @@
         <v>65</v>
       </c>
       <c r="G125" s="30" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H125" s="31">
         <v>1</v>
       </c>
       <c r="I125" s="31"/>
     </row>
-    <row r="126" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:17" s="49" customFormat="1">
       <c r="A126" s="49" t="b">
         <v>1</v>
       </c>
@@ -10225,12 +10240,12 @@
       <c r="O126" s="51"/>
       <c r="Q126" s="52"/>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17">
       <c r="B127" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D127" s="31" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E127" s="31" t="s">
         <v>126</v>
@@ -10245,12 +10260,12 @@
         <v>418</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:17">
       <c r="B128" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D128" s="31" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E128" s="31" t="s">
         <v>219</v>
@@ -10259,18 +10274,18 @@
         <v>62</v>
       </c>
       <c r="H128" s="31" t="s">
+        <v>838</v>
+      </c>
+      <c r="I128" s="30" t="s">
         <v>839</v>
       </c>
-      <c r="I128" s="30" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="2:9">
       <c r="B129" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D129" s="31" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E129" s="31" t="s">
         <v>221</v>
@@ -10279,19 +10294,19 @@
         <v>64</v>
       </c>
       <c r="G129" s="31" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H129" s="31">
         <v>69</v>
       </c>
       <c r="I129" s="31"/>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9">
       <c r="B130" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D130" s="31" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E130" s="31" t="s">
         <v>223</v>
@@ -10300,19 +10315,19 @@
         <v>64</v>
       </c>
       <c r="G130" s="31" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H130" s="31">
         <v>28</v>
       </c>
       <c r="I130" s="31"/>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9">
       <c r="B131" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D131" s="31" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E131" s="31" t="s">
         <v>225</v>
@@ -10321,19 +10336,19 @@
         <v>64</v>
       </c>
       <c r="G131" s="31" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H131" s="31">
         <v>55</v>
       </c>
       <c r="I131" s="31"/>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9">
       <c r="B132" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D132" s="31" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E132" s="31" t="s">
         <v>227</v>
@@ -10342,19 +10357,19 @@
         <v>64</v>
       </c>
       <c r="G132" s="31" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H132" s="31">
         <v>-148</v>
       </c>
       <c r="I132" s="31"/>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9">
       <c r="B133" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D133" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E133" s="31" t="s">
         <v>91</v>
@@ -10367,12 +10382,12 @@
       </c>
       <c r="I133" s="31"/>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9">
       <c r="B134" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D134" s="31" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E134" s="31" t="s">
         <v>128</v>
@@ -10385,12 +10400,12 @@
       </c>
       <c r="I134" s="31"/>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9">
       <c r="B135" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D135" s="31" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E135" s="31" t="s">
         <v>50</v>
@@ -10403,12 +10418,12 @@
       </c>
       <c r="I135" s="31"/>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9">
       <c r="B136" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D136" s="31" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E136" s="31" t="s">
         <v>52</v>
@@ -10417,19 +10432,19 @@
         <v>65</v>
       </c>
       <c r="G136" s="30" t="s">
+        <v>795</v>
+      </c>
+      <c r="H136" s="31">
+        <v>0</v>
+      </c>
+      <c r="I136" s="31"/>
+    </row>
+    <row r="137" spans="2:9">
+      <c r="B137" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D137" s="31" t="s">
         <v>796</v>
-      </c>
-      <c r="H136" s="31">
-        <v>0</v>
-      </c>
-      <c r="I136" s="31"/>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B137" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D137" s="31" t="s">
-        <v>797</v>
       </c>
       <c r="E137" s="31" t="s">
         <v>54</v>
@@ -10443,12 +10458,12 @@
       </c>
       <c r="I137" s="31"/>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:9">
       <c r="B138" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D138" s="30" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E138" s="30" t="s">
         <v>56</v>
@@ -10457,19 +10472,19 @@
         <v>65</v>
       </c>
       <c r="G138" s="30" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H138" s="31">
         <v>15</v>
       </c>
       <c r="I138" s="31"/>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:9">
       <c r="B139" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D139" s="30" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E139" s="30" t="s">
         <v>58</v>
@@ -10478,19 +10493,19 @@
         <v>64</v>
       </c>
       <c r="G139" s="30" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H139" s="31">
         <v>0</v>
       </c>
       <c r="I139" s="31"/>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:9">
       <c r="B140" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D140" s="30" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E140" s="30" t="s">
         <v>60</v>
@@ -10499,334 +10514,334 @@
         <v>65</v>
       </c>
       <c r="G140" s="30" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H140" s="31">
         <v>1</v>
       </c>
       <c r="I140" s="31"/>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9">
       <c r="H141" s="31"/>
       <c r="I141" s="31"/>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9">
       <c r="H142" s="31"/>
       <c r="I142" s="31"/>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9">
       <c r="H143" s="31"/>
       <c r="I143" s="31"/>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9">
       <c r="H144" s="31"/>
       <c r="I144" s="31"/>
     </row>
-    <row r="145" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="8:9">
       <c r="H145" s="31"/>
       <c r="I145" s="31"/>
     </row>
-    <row r="146" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="8:9">
       <c r="H146" s="31"/>
       <c r="I146" s="31"/>
     </row>
-    <row r="147" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="8:9">
       <c r="H147" s="31"/>
       <c r="I147" s="31"/>
     </row>
-    <row r="148" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="8:9">
       <c r="H148" s="31"/>
       <c r="I148" s="31"/>
     </row>
-    <row r="149" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="8:9">
       <c r="H149" s="31"/>
       <c r="I149" s="31"/>
     </row>
-    <row r="150" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="8:9">
       <c r="H150" s="31"/>
       <c r="I150" s="31"/>
     </row>
-    <row r="151" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="8:9">
       <c r="H151" s="31"/>
       <c r="I151" s="31"/>
     </row>
-    <row r="152" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="8:9">
       <c r="H152" s="31"/>
       <c r="I152" s="31"/>
     </row>
-    <row r="153" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="8:9">
       <c r="H153" s="31"/>
       <c r="I153" s="31"/>
     </row>
-    <row r="154" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="8:9">
       <c r="H154" s="31"/>
       <c r="I154" s="31"/>
     </row>
-    <row r="155" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="8:9">
       <c r="H155" s="31"/>
       <c r="I155" s="31"/>
     </row>
-    <row r="156" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="8:9">
       <c r="H156" s="31"/>
       <c r="I156" s="31"/>
     </row>
-    <row r="157" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="8:9">
       <c r="H157" s="31"/>
       <c r="I157" s="31"/>
     </row>
-    <row r="158" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="8:9">
       <c r="H158" s="31"/>
       <c r="I158" s="31"/>
     </row>
-    <row r="159" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="8:9">
       <c r="H159" s="31"/>
       <c r="I159" s="31"/>
     </row>
-    <row r="160" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="8:9">
       <c r="H160" s="31"/>
       <c r="I160" s="31"/>
     </row>
-    <row r="161" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="8:9">
       <c r="H161" s="31"/>
       <c r="I161" s="31"/>
     </row>
-    <row r="162" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="8:9">
       <c r="H162" s="31"/>
       <c r="I162" s="31"/>
     </row>
-    <row r="163" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="8:9">
       <c r="H163" s="31"/>
       <c r="I163" s="31"/>
     </row>
-    <row r="164" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="8:9">
       <c r="H164" s="31"/>
       <c r="I164" s="31"/>
     </row>
-    <row r="165" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="8:9">
       <c r="H165" s="31"/>
       <c r="I165" s="31"/>
     </row>
-    <row r="166" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="8:9">
       <c r="H166" s="31"/>
       <c r="I166" s="31"/>
     </row>
-    <row r="167" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="8:9">
       <c r="H167" s="31"/>
       <c r="I167" s="31"/>
     </row>
-    <row r="168" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="8:9">
       <c r="H168" s="31"/>
       <c r="I168" s="31"/>
     </row>
-    <row r="169" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="8:9">
       <c r="H169" s="31"/>
       <c r="I169" s="31"/>
     </row>
-    <row r="170" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="8:9">
       <c r="H170" s="31"/>
       <c r="I170" s="31"/>
     </row>
-    <row r="171" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="8:9">
       <c r="H171" s="31"/>
       <c r="I171" s="31"/>
     </row>
-    <row r="172" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="8:9">
       <c r="H172" s="31"/>
       <c r="I172" s="31"/>
     </row>
-    <row r="173" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="8:9">
       <c r="H173" s="31"/>
       <c r="I173" s="31"/>
     </row>
-    <row r="174" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="8:9">
       <c r="H174" s="31"/>
       <c r="I174" s="31"/>
     </row>
-    <row r="175" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="8:9">
       <c r="H175" s="31"/>
       <c r="I175" s="31"/>
     </row>
-    <row r="176" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="8:9">
       <c r="H176" s="31"/>
       <c r="I176" s="31"/>
     </row>
-    <row r="177" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="8:9">
       <c r="H177" s="31"/>
       <c r="I177" s="31"/>
     </row>
-    <row r="178" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="8:9">
       <c r="H178" s="31"/>
       <c r="I178" s="31"/>
     </row>
-    <row r="179" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="8:9">
       <c r="H179" s="31"/>
       <c r="I179" s="31"/>
     </row>
-    <row r="180" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="8:9">
       <c r="H180" s="31"/>
       <c r="I180" s="31"/>
     </row>
-    <row r="181" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="8:9">
       <c r="H181" s="31"/>
       <c r="I181" s="31"/>
     </row>
-    <row r="182" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="8:9">
       <c r="H182" s="31"/>
       <c r="I182" s="31"/>
     </row>
-    <row r="183" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="8:9">
       <c r="H183" s="31"/>
       <c r="I183" s="31"/>
     </row>
-    <row r="184" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="8:9">
       <c r="H184" s="31"/>
       <c r="I184" s="31"/>
     </row>
-    <row r="185" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="8:9">
       <c r="H185" s="31"/>
       <c r="I185" s="31"/>
     </row>
-    <row r="186" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="8:9">
       <c r="H186" s="31"/>
       <c r="I186" s="31"/>
     </row>
-    <row r="187" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="8:9">
       <c r="H187" s="31"/>
       <c r="I187" s="31"/>
     </row>
-    <row r="188" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="8:9">
       <c r="H188" s="31"/>
       <c r="I188" s="31"/>
     </row>
-    <row r="189" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="8:9">
       <c r="H189" s="31"/>
       <c r="I189" s="31"/>
     </row>
-    <row r="190" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="8:9">
       <c r="H190" s="31"/>
       <c r="I190" s="31"/>
     </row>
-    <row r="191" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="8:9">
       <c r="H191" s="31"/>
       <c r="I191" s="31"/>
     </row>
-    <row r="192" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="8:9">
       <c r="H192" s="31"/>
       <c r="I192" s="31"/>
     </row>
-    <row r="193" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="8:9">
       <c r="H193" s="31"/>
       <c r="I193" s="31"/>
     </row>
-    <row r="194" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="8:9">
       <c r="H194" s="31"/>
       <c r="I194" s="31"/>
     </row>
-    <row r="195" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="8:9">
       <c r="H195" s="31"/>
       <c r="I195" s="31"/>
     </row>
-    <row r="196" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="8:9">
       <c r="H196" s="31"/>
       <c r="I196" s="31"/>
     </row>
-    <row r="197" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="8:9">
       <c r="H197" s="31"/>
       <c r="I197" s="31"/>
     </row>
-    <row r="198" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="8:9">
       <c r="H198" s="31"/>
       <c r="I198" s="31"/>
     </row>
-    <row r="199" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="8:9">
       <c r="H199" s="31"/>
       <c r="I199" s="31"/>
     </row>
-    <row r="200" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="8:9">
       <c r="H200" s="31"/>
       <c r="I200" s="31"/>
     </row>
-    <row r="201" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="8:9">
       <c r="H201" s="31"/>
       <c r="I201" s="31"/>
     </row>
-    <row r="202" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="8:9">
       <c r="H202" s="31"/>
       <c r="I202" s="31"/>
     </row>
-    <row r="203" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="8:9">
       <c r="H203" s="31"/>
       <c r="I203" s="31"/>
     </row>
-    <row r="204" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="8:9">
       <c r="H204" s="31"/>
       <c r="I204" s="31"/>
     </row>
-    <row r="205" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="8:9">
       <c r="H205" s="31"/>
       <c r="I205" s="31"/>
     </row>
-    <row r="206" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="8:9">
       <c r="H206" s="31"/>
       <c r="I206" s="31"/>
     </row>
-    <row r="207" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="8:9">
       <c r="H207" s="31"/>
       <c r="I207" s="31"/>
     </row>
-    <row r="208" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="8:9">
       <c r="H208" s="31"/>
       <c r="I208" s="31"/>
     </row>
-    <row r="209" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="8:9">
       <c r="H209" s="31"/>
       <c r="I209" s="31"/>
     </row>
-    <row r="210" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="8:9">
       <c r="H210" s="31"/>
       <c r="I210" s="31"/>
     </row>
-    <row r="211" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="8:9">
       <c r="H211" s="31"/>
       <c r="I211" s="31"/>
     </row>
-    <row r="212" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="8:9">
       <c r="H212" s="31"/>
       <c r="I212" s="31"/>
     </row>
-    <row r="213" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="8:9">
       <c r="H213" s="31"/>
       <c r="I213" s="31"/>
     </row>
-    <row r="214" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="8:9">
       <c r="H214" s="31"/>
       <c r="I214" s="31"/>
     </row>
-    <row r="215" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="8:9">
       <c r="H215" s="31"/>
       <c r="I215" s="31"/>
     </row>
-    <row r="216" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="8:9">
       <c r="H216" s="31"/>
       <c r="I216" s="31"/>
     </row>
-    <row r="217" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="8:9">
       <c r="H217" s="31"/>
       <c r="I217" s="31"/>
     </row>
-    <row r="218" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="8:9">
       <c r="H218" s="31"/>
       <c r="I218" s="31"/>
     </row>
-    <row r="219" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="8:9">
       <c r="H219" s="31"/>
       <c r="I219" s="31"/>
     </row>
-    <row r="220" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="8:9">
       <c r="H220" s="31"/>
       <c r="I220" s="31"/>
     </row>
-    <row r="221" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="8:9">
       <c r="H221" s="31"/>
       <c r="I221" s="31"/>
     </row>
@@ -10854,20 +10869,20 @@
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="29.42578125" style="31" customWidth="1"/>
+    <col min="1" max="2" width="29.5" style="31" customWidth="1"/>
     <col min="3" max="3" width="71" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="31" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.42578125" style="31" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="31" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="31" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="31" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="31"/>
+    <col min="4" max="4" width="10.5" style="31" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.5" style="31" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="31" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="31" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" style="31" customWidth="1"/>
+    <col min="11" max="16384" width="11.5" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -10882,7 +10897,7 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="15">
       <c r="A2" s="8" t="s">
         <v>459</v>
       </c>
@@ -10917,7 +10932,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="14" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="14" customFormat="1" ht="30">
       <c r="A3" s="14" t="s">
         <v>628</v>
       </c>
@@ -10953,7 +10968,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="30" t="s">
         <v>644</v>
       </c>
@@ -10982,7 +10997,7 @@
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="30" t="s">
         <v>645</v>
       </c>
@@ -11012,7 +11027,7 @@
       <c r="K5" s="30"/>
       <c r="L5" s="30"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" s="30" t="s">
         <v>646</v>
       </c>
@@ -11041,7 +11056,7 @@
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="30" t="s">
         <v>647</v>
       </c>
@@ -11070,16 +11085,16 @@
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" s="30" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E8" s="30" t="s">
         <v>64</v>
@@ -11098,16 +11113,16 @@
       <c r="K8" s="30"/>
       <c r="L8" s="30"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="30" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="30" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E9" s="30" t="s">
         <v>64</v>
@@ -11126,16 +11141,16 @@
       <c r="K9" s="30"/>
       <c r="L9" s="30"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="30" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="30" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E10" s="30" t="s">
         <v>64</v>
@@ -11154,16 +11169,16 @@
       <c r="K10" s="30"/>
       <c r="L10" s="30"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" s="30" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="30" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E11" s="30" t="s">
         <v>64</v>
@@ -11182,16 +11197,16 @@
       <c r="K11" s="30"/>
       <c r="L11" s="30"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" s="30" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E12" s="30" t="s">
         <v>64</v>
@@ -11210,16 +11225,16 @@
       <c r="K12" s="30"/>
       <c r="L12" s="30"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" s="30" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E13" s="30" t="s">
         <v>64</v>
@@ -11238,16 +11253,16 @@
       <c r="K13" s="30"/>
       <c r="L13" s="30"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" s="30" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="30" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E14" s="30" t="s">
         <v>64</v>
@@ -11266,16 +11281,16 @@
       <c r="K14" s="30"/>
       <c r="L14" s="30"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" s="30" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="30" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E15" s="30" t="s">
         <v>64</v>
@@ -11294,16 +11309,16 @@
       <c r="K15" s="30"/>
       <c r="L15" s="30"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" s="30" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B16" s="30"/>
       <c r="C16" s="30" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E16" s="30" t="s">
         <v>64</v>
@@ -11322,16 +11337,16 @@
       <c r="K16" s="30"/>
       <c r="L16" s="30"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17" s="30" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="30" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E17" s="30" t="s">
         <v>64</v>
@@ -11350,16 +11365,16 @@
       <c r="K17" s="30"/>
       <c r="L17" s="30"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" s="30" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B18" s="30"/>
       <c r="C18" s="30" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E18" s="30" t="s">
         <v>64</v>
@@ -11378,16 +11393,16 @@
       <c r="K18" s="30"/>
       <c r="L18" s="30"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19" s="30" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="30" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E19" s="30" t="s">
         <v>64</v>
@@ -11406,16 +11421,16 @@
       <c r="K19" s="30"/>
       <c r="L19" s="30"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20" s="30" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B20" s="30"/>
       <c r="C20" s="30" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E20" s="30" t="s">
         <v>64</v>
@@ -11434,16 +11449,16 @@
       <c r="K20" s="30"/>
       <c r="L20" s="30"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="A21" s="30" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B21" s="30"/>
       <c r="C21" s="30" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E21" s="30" t="s">
         <v>64</v>
@@ -11462,16 +11477,16 @@
       <c r="K21" s="30"/>
       <c r="L21" s="30"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="A22" s="30" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B22" s="30"/>
       <c r="C22" s="30" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E22" s="30" t="s">
         <v>64</v>
@@ -11490,16 +11505,16 @@
       <c r="K22" s="30"/>
       <c r="L22" s="30"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="A23" s="30" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B23" s="30"/>
       <c r="C23" s="30" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E23" s="30" t="s">
         <v>64</v>
@@ -11518,16 +11533,16 @@
       <c r="K23" s="30"/>
       <c r="L23" s="30"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="A24" s="30" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="30" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E24" s="30" t="s">
         <v>64</v>
@@ -11546,16 +11561,16 @@
       <c r="K24" s="30"/>
       <c r="L24" s="30"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="A25" s="30" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B25" s="30"/>
       <c r="C25" s="30" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E25" s="30" t="s">
         <v>64</v>
@@ -11574,16 +11589,16 @@
       <c r="K25" s="30"/>
       <c r="L25" s="30"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26" s="30" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E26" s="30" t="s">
         <v>64</v>
@@ -11602,16 +11617,16 @@
       <c r="K26" s="30"/>
       <c r="L26" s="30"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27" s="30" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B27" s="30"/>
       <c r="C27" s="30" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E27" s="30" t="s">
         <v>64</v>
@@ -11630,16 +11645,16 @@
       <c r="K27" s="30"/>
       <c r="L27" s="30"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28" s="30" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B28" s="30"/>
       <c r="C28" s="30" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E28" s="30" t="s">
         <v>64</v>
@@ -11658,16 +11673,16 @@
       <c r="K28" s="30"/>
       <c r="L28" s="30"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" s="30" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E29" s="30" t="s">
         <v>64</v>
@@ -11686,16 +11701,16 @@
       <c r="K29" s="30"/>
       <c r="L29" s="30"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" s="30" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B30" s="30"/>
       <c r="C30" s="30" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E30" s="30" t="s">
         <v>64</v>
@@ -11714,49 +11729,49 @@
       <c r="K30" s="30"/>
       <c r="L30" s="30"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12">
       <c r="A31" s="30"/>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12">
       <c r="A32" s="30"/>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" s="30"/>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="30"/>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" s="30"/>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="30"/>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" s="30"/>
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
       <c r="D37" s="30"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" s="30"/>
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
@@ -11781,19 +11796,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="17" t="b">
         <v>0</v>
       </c>
@@ -11812,7 +11827,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
         <v>21</v>
@@ -11833,7 +11848,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
         <v>21</v>
@@ -11856,7 +11871,7 @@
       </c>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>21</v>
@@ -11879,7 +11894,7 @@
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
         <v>21</v>
@@ -11902,7 +11917,7 @@
       </c>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
         <v>21</v>
@@ -11925,7 +11940,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
         <v>21</v>
@@ -11948,7 +11963,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
         <v>21</v>
@@ -11971,7 +11986,7 @@
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
         <v>21</v>
@@ -11994,7 +12009,7 @@
       </c>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="17"/>
       <c r="B10" s="17" t="s">
         <v>21</v>
@@ -12017,7 +12032,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" s="17" t="b">
         <v>0</v>
       </c>
@@ -12036,7 +12051,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
         <v>21</v>
@@ -12057,7 +12072,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
@@ -12080,7 +12095,7 @@
       </c>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
         <v>21</v>
@@ -12103,7 +12118,7 @@
       </c>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15">
       <c r="A15" s="17"/>
       <c r="B15" s="17" t="s">
         <v>21</v>
@@ -12126,7 +12141,7 @@
       </c>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
         <v>21</v>
@@ -12149,7 +12164,7 @@
       </c>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
         <v>21</v>
@@ -12172,7 +12187,7 @@
       </c>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" s="17"/>
       <c r="B18" s="17" t="s">
         <v>21</v>
@@ -12195,7 +12210,7 @@
       </c>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="17"/>
       <c r="B19" s="17" t="s">
         <v>21</v>
@@ -12218,7 +12233,7 @@
       </c>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" s="17"/>
       <c r="B20" s="17" t="s">
         <v>21</v>
@@ -12241,7 +12256,7 @@
       </c>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15">
       <c r="A21" s="17" t="b">
         <v>0</v>
       </c>
@@ -12260,7 +12275,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15">
       <c r="A22" s="17"/>
       <c r="B22" s="17" t="s">
         <v>21</v>
@@ -12283,7 +12298,7 @@
       </c>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15">
       <c r="A23" s="17"/>
       <c r="B23" s="17" t="s">
         <v>21</v>
@@ -12306,7 +12321,7 @@
       </c>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15">
       <c r="A24" s="17"/>
       <c r="B24" s="17" t="s">
         <v>21</v>
@@ -12329,7 +12344,7 @@
       </c>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15">
       <c r="A25" s="17"/>
       <c r="B25" s="17" t="s">
         <v>21</v>
@@ -12352,7 +12367,7 @@
       </c>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15">
       <c r="A26" s="17"/>
       <c r="B26" s="17" t="s">
         <v>21</v>
@@ -12375,7 +12390,7 @@
       </c>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15">
       <c r="A27" s="17"/>
       <c r="B27" s="17" t="s">
         <v>21</v>
@@ -12398,7 +12413,7 @@
       </c>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
         <v>21</v>
@@ -12421,7 +12436,7 @@
       </c>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15">
       <c r="A29" s="17"/>
       <c r="B29" s="17" t="s">
         <v>21</v>
@@ -12444,7 +12459,7 @@
       </c>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15">
       <c r="A30" s="17"/>
       <c r="B30" s="17" t="s">
         <v>21</v>
@@ -12467,7 +12482,7 @@
       </c>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15">
       <c r="A31" s="17" t="b">
         <v>0</v>
       </c>
@@ -12486,7 +12501,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" s="17"/>
       <c r="B32" s="17" t="s">
         <v>21</v>
@@ -12507,7 +12522,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15">
       <c r="A33" s="17"/>
       <c r="B33" s="17" t="s">
         <v>21</v>
@@ -12530,7 +12545,7 @@
       </c>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15">
       <c r="A34" s="17"/>
       <c r="B34" s="17" t="s">
         <v>21</v>
@@ -12553,7 +12568,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
         <v>21</v>
@@ -12576,7 +12591,7 @@
       </c>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
         <v>21</v>
@@ -12599,7 +12614,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
         <v>21</v>
@@ -12622,7 +12637,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
         <v>21</v>
@@ -12645,7 +12660,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15">
       <c r="A39" s="17"/>
       <c r="B39" s="17" t="s">
         <v>21</v>
@@ -12668,7 +12683,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
         <v>21</v>
@@ -12691,7 +12706,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="15">
       <c r="A41" s="17" t="b">
         <v>0</v>
       </c>
@@ -12710,7 +12725,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="15">
       <c r="A42" s="17"/>
       <c r="B42" s="17" t="s">
         <v>21</v>
@@ -12731,7 +12746,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="15">
       <c r="A43" s="17"/>
       <c r="B43" s="17" t="s">
         <v>21</v>
@@ -12754,7 +12769,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="15">
       <c r="A44" s="17"/>
       <c r="B44" s="17" t="s">
         <v>21</v>
@@ -12777,7 +12792,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="15">
       <c r="A45" s="17"/>
       <c r="B45" s="17" t="s">
         <v>21</v>
@@ -12800,7 +12815,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="15">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>21</v>
@@ -12823,7 +12838,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="15">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>21</v>
@@ -12846,7 +12861,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="15">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>21</v>
@@ -12869,7 +12884,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="15">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>21</v>
@@ -12892,7 +12907,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="15">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>21</v>
@@ -12915,7 +12930,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="15">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -12934,7 +12949,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="15">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>21</v>
@@ -12955,7 +12970,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="15">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>21</v>
@@ -12978,7 +12993,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="15">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>21</v>
@@ -13001,7 +13016,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="15">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>21</v>
@@ -13024,7 +13039,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="15">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>21</v>
@@ -13047,7 +13062,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="15">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>21</v>
@@ -13070,7 +13085,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="15">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>21</v>
@@ -13093,7 +13108,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="15">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>21</v>
@@ -13116,7 +13131,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="15">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>21</v>
@@ -13139,7 +13154,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="15">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -13158,7 +13173,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="15">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>21</v>
@@ -13179,7 +13194,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="15">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>21</v>
@@ -13204,7 +13219,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="15">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>21</v>
@@ -13227,7 +13242,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="15">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>21</v>
@@ -13250,7 +13265,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="15">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>21</v>
@@ -13273,7 +13288,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="15">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>21</v>
@@ -13296,7 +13311,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="15">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>21</v>
@@ -13319,7 +13334,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="15">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>21</v>
@@ -13342,7 +13357,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="15">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>21</v>
@@ -13365,7 +13380,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="15">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>21</v>
@@ -13388,7 +13403,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="15">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -13407,7 +13422,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="15">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>21</v>
@@ -13428,7 +13443,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="15">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>21</v>
@@ -13451,7 +13466,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="15">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>21</v>
@@ -13476,7 +13491,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="15">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>21</v>
@@ -13499,7 +13514,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="15">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>21</v>
@@ -13522,7 +13537,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="15">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>21</v>
@@ -13545,7 +13560,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="15">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>21</v>
@@ -13568,7 +13583,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="15">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>21</v>
@@ -13591,7 +13606,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="15">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>21</v>
@@ -13614,7 +13629,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="15">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>21</v>
@@ -13637,7 +13652,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="15">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>21</v>
@@ -13660,7 +13675,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="15">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>21</v>
@@ -13683,7 +13698,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="15">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>21</v>
@@ -13706,7 +13721,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="15">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -13725,7 +13740,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="15">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>21</v>
@@ -13748,7 +13763,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="15">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>21</v>
@@ -13771,7 +13786,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="15">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>21</v>
@@ -13794,7 +13809,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="15">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>21</v>
@@ -13817,7 +13832,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="15">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>21</v>
@@ -13840,7 +13855,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="15">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>21</v>
@@ -13863,7 +13878,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="15">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>21</v>
@@ -13886,7 +13901,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="15">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>21</v>
@@ -13909,7 +13924,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="15">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>21</v>
@@ -13932,7 +13947,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="15">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>21</v>
@@ -13955,7 +13970,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="15">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -13974,7 +13989,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="15">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>21</v>
@@ -13999,7 +14014,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="15">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -14018,7 +14033,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="15">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>21</v>
@@ -14039,7 +14054,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="15">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>21</v>
@@ -14064,7 +14079,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="15">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -14083,7 +14098,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" ht="15">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>21</v>
@@ -14106,7 +14121,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" ht="15">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>21</v>
@@ -14131,7 +14146,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="15">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>21</v>
@@ -14154,7 +14169,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="15">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>21</v>
@@ -14175,7 +14190,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="15">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -14194,7 +14209,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" ht="15">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>21</v>
@@ -14219,7 +14234,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="15">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>21</v>
@@ -14242,7 +14257,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="15">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>21</v>
@@ -14265,7 +14280,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" ht="15">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>21</v>
@@ -14288,7 +14303,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" ht="15">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>21</v>
@@ -14311,7 +14326,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="15">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>21</v>
@@ -14334,7 +14349,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" ht="15">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>21</v>
@@ -14357,7 +14372,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" ht="15">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -14376,7 +14391,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" ht="15">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>21</v>
@@ -14399,7 +14414,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" ht="15">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>21</v>
@@ -14422,7 +14437,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" ht="15">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>21</v>
@@ -14445,7 +14460,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" ht="15">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -14464,7 +14479,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" ht="15">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>21</v>
@@ -14487,7 +14502,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" ht="15">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>21</v>
@@ -14510,7 +14525,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" ht="15">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>21</v>
@@ -14533,7 +14548,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" ht="15">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>21</v>
@@ -14556,7 +14571,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" ht="15">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>21</v>
@@ -14579,7 +14594,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" ht="15">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>21</v>
@@ -14602,7 +14617,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" ht="15">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -14621,7 +14636,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" ht="15">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>21</v>
@@ -14646,7 +14661,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" ht="15">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>21</v>
@@ -14669,7 +14684,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="15">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>21</v>
@@ -14692,7 +14707,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="15">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>21</v>
@@ -14715,7 +14730,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" ht="15">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>21</v>
@@ -14738,7 +14753,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" ht="15">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>21</v>
@@ -14761,7 +14776,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" ht="15">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>21</v>
@@ -14784,7 +14799,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" ht="15">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>21</v>
@@ -14807,7 +14822,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" ht="15">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>21</v>
@@ -14830,7 +14845,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" ht="15">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -14849,7 +14864,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" ht="15">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>21</v>
@@ -14874,7 +14889,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" ht="15">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>21</v>
@@ -14895,7 +14910,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" ht="15">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>21</v>
@@ -14918,7 +14933,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" ht="15">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>21</v>
@@ -14941,7 +14956,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="15">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>21</v>
@@ -14964,7 +14979,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" ht="15">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>21</v>
@@ -14987,7 +15002,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" ht="15">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>21</v>
@@ -15010,7 +15025,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" ht="15">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>21</v>
@@ -15033,7 +15048,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" ht="15">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>21</v>
@@ -15056,7 +15071,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" ht="15">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>21</v>
@@ -15079,7 +15094,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" ht="15">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>21</v>
@@ -15102,7 +15117,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" ht="15">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>21</v>
@@ -15125,7 +15140,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" ht="15">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>21</v>
@@ -15148,7 +15163,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" ht="15">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>21</v>
@@ -15171,7 +15186,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" ht="15">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -15190,7 +15205,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" ht="15">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>21</v>
@@ -15213,7 +15228,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" ht="15">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -15232,7 +15247,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" ht="15">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>21</v>
@@ -15255,7 +15270,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" ht="15">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>21</v>
@@ -15278,7 +15293,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" ht="15">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -15297,7 +15312,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" ht="15">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>21</v>
@@ -15322,7 +15337,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" ht="15">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>21</v>
@@ -15345,7 +15360,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" ht="15">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>21</v>
@@ -15368,7 +15383,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" ht="15">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>21</v>
@@ -15391,7 +15406,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" ht="15">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>21</v>
@@ -15414,7 +15429,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" ht="15">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>21</v>
@@ -15437,7 +15452,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" ht="15">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>21</v>
@@ -15460,7 +15475,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" ht="15">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>21</v>
@@ -15483,7 +15498,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" ht="15">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>21</v>
@@ -15506,7 +15521,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" ht="15">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>21</v>
@@ -15529,7 +15544,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" ht="15">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -15548,7 +15563,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" ht="15">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>21</v>
@@ -15573,7 +15588,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" ht="15">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>21</v>
@@ -15596,7 +15611,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" ht="15">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>21</v>
@@ -15619,7 +15634,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" ht="15">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>21</v>
@@ -15642,7 +15657,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" ht="15">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>21</v>
@@ -15665,7 +15680,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" ht="15">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>21</v>
@@ -15688,7 +15703,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" ht="15">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>21</v>
@@ -15711,7 +15726,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" ht="15">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>21</v>
@@ -15734,7 +15749,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" ht="15">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>21</v>
@@ -15757,7 +15772,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" ht="15">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>21</v>
@@ -15780,7 +15795,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" ht="15">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -15799,7 +15814,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" ht="15">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>21</v>
@@ -15822,7 +15837,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" ht="15">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>21</v>
@@ -15845,7 +15860,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" ht="15">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>21</v>
@@ -15868,7 +15883,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" ht="15">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>21</v>
@@ -15891,7 +15906,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" ht="15">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -15910,7 +15925,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" ht="15">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>21</v>
@@ -15933,7 +15948,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" ht="15">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>21</v>
@@ -15956,7 +15971,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" ht="15">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>21</v>
@@ -15979,7 +15994,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" ht="15">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>21</v>
@@ -16002,7 +16017,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" ht="15">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -16021,7 +16036,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" ht="15">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>21</v>
@@ -16042,7 +16057,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" ht="15">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>21</v>
@@ -16065,7 +16080,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" ht="15">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -16084,7 +16099,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" ht="15">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>21</v>
@@ -16107,7 +16122,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" ht="15">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>21</v>
@@ -16132,7 +16147,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" ht="15">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>21</v>
@@ -16153,7 +16168,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" ht="15">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>21</v>
@@ -16178,7 +16193,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" ht="15">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>21</v>
@@ -16203,7 +16218,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" ht="15">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -16222,7 +16237,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" ht="15">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>21</v>
@@ -16247,7 +16262,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" ht="15">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>21</v>
@@ -16270,7 +16285,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" ht="15">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>21</v>
@@ -16293,7 +16308,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" ht="15">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>21</v>
@@ -16316,7 +16331,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" ht="15">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>21</v>
@@ -16339,7 +16354,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" ht="15">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>21</v>
@@ -16362,7 +16377,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" ht="15">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>21</v>
@@ -16385,7 +16400,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" ht="15">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>21</v>
@@ -16408,7 +16423,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" ht="15">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>21</v>
@@ -16431,7 +16446,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" ht="15">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -16450,7 +16465,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" ht="15">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>21</v>
@@ -16475,7 +16490,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" ht="15">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>21</v>
@@ -16498,7 +16513,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" ht="15">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>21</v>
@@ -16521,7 +16536,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" ht="15">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>21</v>
@@ -16544,7 +16559,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" ht="15">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>21</v>
@@ -16567,7 +16582,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" ht="15">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>21</v>
@@ -16590,7 +16605,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" ht="15">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>21</v>
@@ -16613,7 +16628,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" ht="15">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>21</v>
@@ -16636,7 +16651,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" ht="15">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>21</v>
@@ -16659,7 +16674,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" ht="15">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -16678,7 +16693,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" ht="15">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>21</v>
@@ -16699,7 +16714,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" ht="15">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>21</v>
@@ -16722,7 +16737,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" ht="15">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>21</v>
@@ -16745,7 +16760,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" ht="15">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>21</v>
@@ -16768,7 +16783,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" ht="15">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>21</v>
@@ -16791,7 +16806,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" ht="15">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>21</v>
@@ -16814,7 +16829,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" ht="15">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>21</v>
@@ -16837,7 +16852,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" ht="15">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>21</v>
@@ -16860,7 +16875,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" ht="15">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>21</v>
@@ -16883,7 +16898,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" ht="15">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>21</v>
@@ -16906,7 +16921,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" ht="15">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>21</v>
@@ -16929,7 +16944,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" ht="15">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>21</v>
@@ -16952,7 +16967,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" ht="15">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>21</v>
@@ -16975,7 +16990,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" ht="15">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>21</v>
@@ -16998,7 +17013,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" ht="15">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>21</v>
@@ -17021,7 +17036,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" ht="15">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>21</v>
@@ -17044,7 +17059,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" ht="15">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -17063,7 +17078,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" ht="15">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>21</v>
@@ -17084,7 +17099,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" ht="15">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>21</v>
@@ -17107,7 +17122,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" ht="15">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>21</v>
@@ -17130,7 +17145,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" ht="15">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>21</v>
@@ -17153,7 +17168,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" ht="15">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>21</v>
@@ -17176,7 +17191,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" ht="15">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>21</v>
@@ -17199,7 +17214,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" ht="15">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>21</v>
@@ -17222,7 +17237,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" ht="15">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>21</v>
@@ -17245,7 +17260,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" ht="15">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>21</v>
@@ -17268,7 +17283,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" ht="15">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>21</v>
@@ -17291,7 +17306,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" ht="15">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>21</v>
@@ -17314,7 +17329,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" ht="15">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>21</v>
@@ -17337,7 +17352,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" ht="15">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>21</v>
@@ -17360,7 +17375,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" ht="15">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>21</v>
@@ -17383,7 +17398,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" ht="15">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>21</v>
@@ -17406,7 +17421,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" ht="15">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>21</v>
@@ -17429,7 +17444,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" ht="15">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -17448,7 +17463,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" ht="15">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>21</v>
@@ -17473,7 +17488,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" ht="15">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>21</v>
@@ -17496,7 +17511,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" ht="15">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>21</v>
@@ -17519,7 +17534,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" ht="15">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>21</v>
@@ -17542,7 +17557,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" ht="15">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>21</v>
@@ -17565,7 +17580,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" ht="15">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -17584,7 +17599,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" ht="15">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>21</v>
@@ -17609,7 +17624,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" ht="15">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>21</v>
@@ -17632,7 +17647,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" ht="15">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -17651,7 +17666,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" ht="15">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -17670,7 +17685,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" ht="15">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -17689,7 +17704,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" ht="15">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>21</v>
@@ -17710,7 +17725,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" ht="15">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>21</v>
@@ -17733,7 +17748,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" ht="15">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>21</v>
@@ -17756,7 +17771,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" ht="15">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>21</v>
@@ -17779,7 +17794,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" ht="15">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>21</v>
@@ -17802,7 +17817,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" ht="15">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>21</v>
@@ -17825,7 +17840,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" ht="15">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>21</v>
@@ -17848,7 +17863,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" ht="15">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>21</v>
@@ -17871,7 +17886,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" ht="15">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>21</v>
@@ -17894,7 +17909,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" ht="15">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>21</v>
@@ -17917,7 +17932,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" ht="15">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>21</v>
@@ -17940,7 +17955,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" ht="15">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -17959,7 +17974,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" ht="15">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>21</v>
@@ -17982,7 +17997,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" ht="15">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -18001,7 +18016,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" ht="15">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>21</v>
@@ -18026,7 +18041,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" ht="15">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>21</v>
@@ -18049,7 +18064,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" ht="15">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>21</v>
@@ -18072,7 +18087,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" ht="15">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>21</v>
@@ -18095,7 +18110,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" ht="15">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>21</v>
@@ -18118,7 +18133,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" ht="15">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>21</v>
@@ -18141,7 +18156,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" ht="15">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>21</v>
@@ -18164,7 +18179,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" ht="15">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>21</v>
@@ -18187,7 +18202,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" ht="15">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>21</v>
@@ -18210,7 +18225,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" ht="15">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>21</v>
@@ -18233,7 +18248,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" ht="15">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>21</v>
@@ -18256,7 +18271,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" ht="15">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -18275,7 +18290,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" ht="15">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>21</v>
@@ -18298,7 +18313,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" ht="15">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -18317,7 +18332,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" ht="15">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>21</v>
@@ -18338,7 +18353,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" ht="15">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -18357,7 +18372,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" ht="15">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>21</v>
@@ -18378,7 +18393,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" ht="15">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -18397,7 +18412,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" ht="15">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>21</v>
@@ -18418,7 +18433,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" ht="15">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -18437,7 +18452,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" ht="15">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>21</v>
@@ -18460,7 +18475,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" ht="15">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -18479,7 +18494,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" ht="15">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>21</v>
@@ -18504,7 +18519,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" ht="15">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>21</v>
@@ -18527,7 +18542,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" ht="15">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>21</v>
@@ -18550,7 +18565,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" ht="15">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>21</v>
@@ -18573,7 +18588,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" ht="15">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>21</v>
@@ -18596,7 +18611,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" ht="15">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>21</v>
@@ -18619,7 +18634,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" ht="15">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>21</v>
@@ -18642,7 +18657,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" ht="15">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>21</v>
@@ -18665,7 +18680,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" ht="15">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>21</v>
@@ -18688,7 +18703,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" ht="15">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -18707,7 +18722,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" ht="15">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>21</v>
@@ -18730,7 +18745,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" ht="15">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>21</v>
@@ -18753,7 +18768,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" ht="15">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>21</v>
@@ -18776,7 +18791,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" ht="15">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>21</v>
@@ -18799,7 +18814,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" ht="15">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -18818,7 +18833,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" ht="15">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>21</v>
@@ -18841,7 +18856,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" ht="15">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>21</v>
@@ -18864,7 +18879,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" ht="15">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>21</v>
@@ -18889,7 +18904,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" ht="15">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -18908,7 +18923,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" ht="15">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>21</v>
@@ -18933,7 +18948,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" ht="15">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>21</v>
@@ -18956,7 +18971,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" ht="15">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -18975,7 +18990,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" ht="15">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>21</v>
@@ -18996,7 +19011,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" ht="15">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>21</v>
@@ -19017,7 +19032,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" ht="15">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>21</v>
@@ -19040,7 +19055,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" ht="15">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -19059,7 +19074,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" ht="15">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -19078,7 +19093,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" ht="15">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>21</v>
@@ -19103,7 +19118,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" ht="15">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>21</v>
@@ -19128,7 +19143,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -19142,7 +19157,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9">
       <c r="B329" t="s">
         <v>21</v>
       </c>
@@ -19165,7 +19180,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9">
       <c r="B330" t="s">
         <v>21</v>
       </c>
@@ -19185,7 +19200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9">
       <c r="B331" t="s">
         <v>21</v>
       </c>
@@ -19205,7 +19220,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9">
       <c r="B332" t="s">
         <v>21</v>
       </c>
@@ -19225,7 +19240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9">
       <c r="B333" t="s">
         <v>21</v>
       </c>
@@ -19242,7 +19257,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9">
       <c r="B334" t="s">
         <v>21</v>
       </c>
@@ -19265,7 +19280,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9">
       <c r="B335" t="s">
         <v>21</v>
       </c>
@@ -19288,7 +19303,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -19302,7 +19317,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:16">
       <c r="B337" t="s">
         <v>21</v>
       </c>
@@ -19325,7 +19340,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:16">
       <c r="B338" t="s">
         <v>21</v>
       </c>
@@ -19348,7 +19363,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:16">
       <c r="B339" t="s">
         <v>21</v>
       </c>
@@ -19368,7 +19383,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:16">
       <c r="B340" t="s">
         <v>21</v>
       </c>
@@ -19388,7 +19403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:16">
       <c r="B341" t="s">
         <v>21</v>
       </c>
@@ -19405,7 +19420,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:16">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
@@ -19431,7 +19446,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:16">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>21</v>
@@ -19460,7 +19475,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:16" ht="15">
       <c r="A344" s="17"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -19499,7 +19514,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:16">
       <c r="A345" t="b">
         <v>0</v>
       </c>
@@ -19513,7 +19528,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:16">
       <c r="B346" t="s">
         <v>21</v>
       </c>
@@ -19533,7 +19548,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:16">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -19547,7 +19562,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:16">
       <c r="B348" t="s">
         <v>21</v>
       </c>
@@ -19567,7 +19582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:16">
       <c r="B349" t="s">
         <v>21</v>
       </c>
@@ -19587,7 +19602,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:16">
       <c r="B350" t="s">
         <v>21</v>
       </c>
@@ -19607,7 +19622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:16">
       <c r="B351" t="s">
         <v>21</v>
       </c>
@@ -19627,7 +19642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:16">
       <c r="B352" t="s">
         <v>21</v>
       </c>
@@ -19647,7 +19662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:18">
       <c r="B353" t="s">
         <v>21</v>
       </c>
@@ -19667,7 +19682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:18">
       <c r="B354" t="s">
         <v>21</v>
       </c>
@@ -19687,7 +19702,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:18">
       <c r="B355" t="s">
         <v>21</v>
       </c>
@@ -19707,7 +19722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:18">
       <c r="B356" t="s">
         <v>21</v>
       </c>
@@ -19727,7 +19742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:18">
       <c r="A357" t="b">
         <v>0</v>
       </c>
@@ -19741,7 +19756,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:18">
       <c r="B358" t="s">
         <v>21</v>
       </c>
@@ -19761,7 +19776,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:18">
       <c r="B359" t="s">
         <v>21</v>
       </c>
@@ -19781,7 +19796,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:18" s="1" customFormat="1">
       <c r="A360" t="b">
         <v>0</v>
       </c>
@@ -19797,7 +19812,7 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:18" s="1" customFormat="1">
       <c r="B361" t="s">
         <v>21</v>
       </c>
@@ -19823,7 +19838,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
       <c r="A362" s="17"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -19864,7 +19879,7 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:18">
       <c r="A363" t="b">
         <v>0</v>
       </c>
@@ -19878,7 +19893,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:18">
       <c r="B364" t="s">
         <v>21</v>
       </c>
@@ -19898,7 +19913,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:18">
       <c r="A365" t="b">
         <v>0</v>
       </c>
@@ -19912,7 +19927,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:18">
       <c r="B366" t="s">
         <v>21</v>
       </c>
@@ -19951,17 +19966,17 @@
       <selection activeCell="A17" sqref="A17:A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" customWidth="1"/>
-    <col min="17" max="17" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" customWidth="1"/>
+    <col min="17" max="17" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>441</v>
       </c>
@@ -19972,7 +19987,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" s="30" customFormat="1">
       <c r="A2" s="30" t="s">
         <v>589</v>
       </c>
@@ -19986,7 +20001,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" s="30" customFormat="1">
       <c r="A3" s="30" t="s">
         <v>592</v>
       </c>
@@ -20000,7 +20015,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" s="30" customFormat="1">
       <c r="A4" s="30" t="s">
         <v>594</v>
       </c>
@@ -20014,7 +20029,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" s="30" customFormat="1">
       <c r="A5" s="30" t="s">
         <v>596</v>
       </c>
@@ -20028,7 +20043,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" s="30" customFormat="1">
       <c r="A6" s="30" t="s">
         <v>598</v>
       </c>
@@ -20042,7 +20057,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" s="30" customFormat="1">
       <c r="A7" s="30" t="s">
         <v>440</v>
       </c>
@@ -20056,7 +20071,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" s="30" customFormat="1">
       <c r="A8" s="30" t="s">
         <v>601</v>
       </c>
@@ -20070,7 +20085,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" s="30" customFormat="1">
       <c r="A9" s="30" t="s">
         <v>603</v>
       </c>
@@ -20084,7 +20099,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>569</v>
       </c>
@@ -20098,7 +20113,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>454</v>
       </c>
@@ -20112,7 +20127,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>452</v>
       </c>
@@ -20123,8 +20138,8 @@
         <v>544</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" s="30" customFormat="1"/>
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>547</v>
       </c>
@@ -20150,7 +20165,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>548</v>
       </c>
@@ -20191,7 +20206,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -20232,7 +20247,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>542</v>
       </c>
@@ -20264,7 +20279,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>550</v>
       </c>
@@ -20296,7 +20311,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>549</v>
       </c>
@@ -20325,7 +20340,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>551</v>
       </c>
@@ -20357,7 +20372,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>552</v>
       </c>
@@ -20377,9 +20392,9 @@
         <v>540</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>557</v>
@@ -20400,7 +20415,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17">
       <c r="L25" s="1" t="s">
         <v>558</v>
       </c>
@@ -20411,7 +20426,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17">
       <c r="L26" s="1" t="s">
         <v>539</v>
       </c>
@@ -20419,7 +20434,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17">
       <c r="L27" s="1" t="s">
         <v>541</v>
       </c>

--- a/projects/office_ee.xlsx
+++ b/projects/office_ee.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="22840" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="13740" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Outputs!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$Z$148</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$Z$131</definedName>
     <definedName name="AnalysisType">Lookups!$A$17:$A$23</definedName>
     <definedName name="instance_defs">Lookups!$A$2:$D$9</definedName>
     <definedName name="instance_types">Lookups!$A$2:$A$9</definedName>
@@ -31,7 +31,7 @@
     <definedName name="TrueFalse">Lookups!$C$12:$C$13</definedName>
     <definedName name="Workflow">Lookups!$E$12:$E$13</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2772" uniqueCount="879">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2692" uniqueCount="875">
   <si>
     <t>type</t>
   </si>
@@ -2545,24 +2545,6 @@
     <t>Add Sys 3 - PSZ-AC Ngrid</t>
   </si>
   <si>
-    <t>Choose an Air Loop to Alter</t>
-  </si>
-  <si>
-    <t>Remove Baseline Costs From Effected AirLoopHVACOutdoorAirSystems</t>
-  </si>
-  <si>
-    <t>Material and Installation Costs per Air Loop to Enable Demand Controlled Ventilation</t>
-  </si>
-  <si>
-    <t>Demolition Costs per Air Loop to Enable Demand Controlled Ventilation</t>
-  </si>
-  <si>
-    <t>FixedEnthalpy</t>
-  </si>
-  <si>
-    <t>|FixedDryBulb,FixedEnthalpy,DifferentialDryBulb,DifferentialEnthalpy,FixedDewPointAndDryBulb,NoEconomizer|</t>
-  </si>
-  <si>
     <t>Economizer Control Type</t>
   </si>
   <si>
@@ -2572,30 +2554,9 @@
     <t>F</t>
   </si>
   <si>
-    <t>Btu/lb</t>
-  </si>
-  <si>
-    <t>Economizer Maximum Enthalpy</t>
-  </si>
-  <si>
-    <t>Economizer Maximum Limit Dewpoint Temperature</t>
-  </si>
-  <si>
     <t>Economizer Minimum Limit Dry-Bulb Temperature</t>
   </si>
   <si>
-    <t>Material and Installation Costs per Air Loop to Enable Economizer</t>
-  </si>
-  <si>
-    <t>Demolition Costs per Air Loop to Enable Economizer</t>
-  </si>
-  <si>
-    <t>O &amp; M Costs per Air Loop for Economizer</t>
-  </si>
-  <si>
-    <t>O &amp; M Costs per Air Loop for Demand Controlled Ventilation</t>
-  </si>
-  <si>
     <t>month</t>
   </si>
   <si>
@@ -2678,6 +2639,33 @@
   </si>
   <si>
     <t>DOE Ref 1980-2004</t>
+  </si>
+  <si>
+    <t>|EnableDCV,DisableDCV,NoChange|</t>
+  </si>
+  <si>
+    <t>EnableDCV</t>
+  </si>
+  <si>
+    <t>dcv_type</t>
+  </si>
+  <si>
+    <t>lpd_to_lamps</t>
+  </si>
+  <si>
+    <t>Replace LPD with Lamps</t>
+  </si>
+  <si>
+    <t>t12_to_t8_lamp_replacement</t>
+  </si>
+  <si>
+    <t>Replace T12s with T8s</t>
+  </si>
+  <si>
+    <t>FixedDryBulb</t>
+  </si>
+  <si>
+    <t>|FixedDryBulb,NoEconomizer,NoChange|</t>
   </si>
 </sst>
 </file>
@@ -2687,7 +2675,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4767,10 +4755,10 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1828">
     <cellStyle name="Comma" xfId="1749" builtinId="3"/>
@@ -6905,17 +6893,17 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="81.83203125" customWidth="1"/>
+    <col min="1" max="1" width="81.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="28">
+    <row r="1" spans="1:1" ht="45">
       <c r="A1" s="36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="28">
+    <row r="2" spans="1:1" ht="30">
       <c r="A2" s="36" t="s">
         <v>41</v>
       </c>
@@ -6939,14 +6927,14 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.1640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.6640625" style="1"/>
+    <col min="4" max="4" width="33.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="61.7109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -6978,7 +6966,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28">
+    <row r="4" spans="1:5" ht="30">
       <c r="A4" s="1" t="s">
         <v>456</v>
       </c>
@@ -6989,7 +6977,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="42">
+    <row r="5" spans="1:5" ht="75">
       <c r="A5" s="1" t="s">
         <v>469</v>
       </c>
@@ -7000,7 +6988,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="46" customHeight="1">
+    <row r="6" spans="1:5" ht="45.95" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>470</v>
       </c>
@@ -7011,7 +6999,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="30">
       <c r="A7" s="1" t="s">
         <v>442</v>
       </c>
@@ -7030,7 +7018,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28">
+    <row r="8" spans="1:5" ht="30">
       <c r="A8" s="1" t="s">
         <v>443</v>
       </c>
@@ -7115,7 +7103,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" ht="30">
       <c r="A16" s="1" t="s">
         <v>463</v>
       </c>
@@ -7148,7 +7136,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="42">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="60">
       <c r="A20" s="11" t="s">
         <v>27</v>
       </c>
@@ -7173,7 +7161,7 @@
       <c r="B22" s="26"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="42">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="60">
       <c r="A23" s="11" t="s">
         <v>450</v>
       </c>
@@ -7263,7 +7251,7 @@
       <c r="C35" s="26"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="28">
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="45">
       <c r="A36" s="11" t="s">
         <v>33</v>
       </c>
@@ -7284,7 +7272,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="28">
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="30">
       <c r="A39" s="11" t="s">
         <v>30</v>
       </c>
@@ -7313,7 +7301,7 @@
       </c>
       <c r="E40" s="2"/>
     </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" ht="56">
+    <row r="42" spans="1:5" s="2" customFormat="1" ht="60">
       <c r="A42" s="11" t="s">
         <v>35</v>
       </c>
@@ -7367,39 +7355,39 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y221"/>
+  <dimension ref="A1:Y204"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I122" sqref="I122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="31" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="31" customWidth="1"/>
     <col min="2" max="2" width="47" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="31" customWidth="1"/>
-    <col min="4" max="4" width="39.1640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="24.1640625" style="31" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="31" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.1640625" style="31" customWidth="1"/>
-    <col min="11" max="11" width="8.1640625" style="31" customWidth="1"/>
-    <col min="12" max="12" width="6.6640625" style="31" customWidth="1"/>
-    <col min="13" max="14" width="7.83203125" style="31" customWidth="1"/>
-    <col min="15" max="15" width="11.5" style="31"/>
-    <col min="16" max="16" width="11.5" style="31" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="35.140625" style="31" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="31" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" style="31" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" style="31" customWidth="1"/>
+    <col min="12" max="12" width="6.7109375" style="31" customWidth="1"/>
+    <col min="13" max="14" width="7.85546875" style="31" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" style="31"/>
+    <col min="16" max="16" width="11.42578125" style="31" customWidth="1"/>
     <col min="17" max="17" width="23" style="31" customWidth="1"/>
-    <col min="18" max="18" width="27.6640625" style="31" customWidth="1"/>
-    <col min="19" max="19" width="46.1640625" style="31" customWidth="1"/>
-    <col min="20" max="22" width="11.5" style="31"/>
-    <col min="23" max="23" width="13.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="11.5" style="31"/>
+    <col min="18" max="18" width="27.7109375" style="31" customWidth="1"/>
+    <col min="19" max="19" width="46.140625" style="31" customWidth="1"/>
+    <col min="20" max="22" width="11.42578125" style="31"/>
+    <col min="23" max="23" width="13.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="11.42578125" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18">
+    <row r="1" spans="1:25" ht="18.75">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7425,16 +7413,16 @@
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
-      <c r="T1" s="53" t="s">
+      <c r="T1" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-    </row>
-    <row r="2" spans="1:25" s="8" customFormat="1" ht="15">
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+    </row>
+    <row r="2" spans="1:25" s="8" customFormat="1" ht="15.75">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -7450,7 +7438,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:25" s="14" customFormat="1" ht="45">
+    <row r="3" spans="1:25" s="14" customFormat="1" ht="63">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -7635,7 +7623,7 @@
         <v>618</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>878</v>
+        <v>865</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -7717,7 +7705,7 @@
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
     </row>
-    <row r="14" spans="1:25" s="30" customFormat="1" ht="17">
+    <row r="14" spans="1:25" s="30" customFormat="1" ht="18">
       <c r="B14" s="30" t="s">
         <v>21</v>
       </c>
@@ -7733,7 +7721,7 @@
       <c r="G14" s="30" t="s">
         <v>766</v>
       </c>
-      <c r="H14" s="54">
+      <c r="H14" s="53">
         <v>104666</v>
       </c>
     </row>
@@ -8108,7 +8096,7 @@
         <v>1</v>
       </c>
       <c r="B36" s="38" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="C36" s="38" t="s">
         <v>74</v>
@@ -8127,7 +8115,7 @@
         <v>21</v>
       </c>
       <c r="D37" s="31" t="s">
-        <v>871</v>
+        <v>858</v>
       </c>
       <c r="E37" s="31" t="s">
         <v>75</v>
@@ -8136,7 +8124,7 @@
         <v>619</v>
       </c>
       <c r="G37" s="31" t="s">
-        <v>872</v>
+        <v>859</v>
       </c>
       <c r="H37" s="31">
         <v>10</v>
@@ -9380,7 +9368,7 @@
         <v>21</v>
       </c>
       <c r="D90" s="43" t="s">
-        <v>863</v>
+        <v>850</v>
       </c>
       <c r="E90" s="43" t="s">
         <v>330</v>
@@ -9417,13 +9405,13 @@
         <v>1</v>
       </c>
       <c r="B91" s="38" t="s">
-        <v>866</v>
+        <v>853</v>
       </c>
       <c r="C91" s="38" t="s">
-        <v>864</v>
+        <v>851</v>
       </c>
       <c r="D91" s="38" t="s">
-        <v>864</v>
+        <v>851</v>
       </c>
       <c r="E91" s="38" t="s">
         <v>68</v>
@@ -9436,7 +9424,7 @@
         <v>21</v>
       </c>
       <c r="D92" s="43" t="s">
-        <v>868</v>
+        <v>855</v>
       </c>
       <c r="E92" s="43" t="s">
         <v>258</v>
@@ -9473,13 +9461,13 @@
         <v>1</v>
       </c>
       <c r="B93" s="38" t="s">
-        <v>867</v>
+        <v>854</v>
       </c>
       <c r="C93" s="38" t="s">
-        <v>865</v>
+        <v>852</v>
       </c>
       <c r="D93" s="38" t="s">
-        <v>865</v>
+        <v>852</v>
       </c>
       <c r="E93" s="38" t="s">
         <v>68</v>
@@ -9492,7 +9480,7 @@
         <v>21</v>
       </c>
       <c r="D94" s="43" t="s">
-        <v>869</v>
+        <v>856</v>
       </c>
       <c r="E94" s="43" t="s">
         <v>258</v>
@@ -9532,10 +9520,10 @@
         <v>187</v>
       </c>
       <c r="C95" s="38" t="s">
-        <v>873</v>
+        <v>860</v>
       </c>
       <c r="D95" s="38" t="s">
-        <v>873</v>
+        <v>860</v>
       </c>
       <c r="E95" s="38" t="s">
         <v>68</v>
@@ -9548,7 +9536,7 @@
         <v>21</v>
       </c>
       <c r="D96" s="43" t="s">
-        <v>876</v>
+        <v>863</v>
       </c>
       <c r="E96" s="43" t="s">
         <v>190</v>
@@ -9557,7 +9545,7 @@
         <v>64</v>
       </c>
       <c r="G96" s="43" t="s">
-        <v>874</v>
+        <v>861</v>
       </c>
       <c r="H96" s="43">
         <v>1</v>
@@ -9588,7 +9576,7 @@
         <v>21</v>
       </c>
       <c r="D97" s="43" t="s">
-        <v>877</v>
+        <v>864</v>
       </c>
       <c r="E97" s="43" t="s">
         <v>192</v>
@@ -9597,7 +9585,7 @@
         <v>64</v>
       </c>
       <c r="G97" s="43" t="s">
-        <v>874</v>
+        <v>861</v>
       </c>
       <c r="H97" s="43">
         <v>-1</v>
@@ -9628,7 +9616,7 @@
         <v>21</v>
       </c>
       <c r="D98" s="31" t="s">
-        <v>875</v>
+        <v>862</v>
       </c>
       <c r="E98" s="31" t="s">
         <v>194</v>
@@ -9650,13 +9638,13 @@
         <v>1</v>
       </c>
       <c r="B99" s="49" t="s">
-        <v>854</v>
+        <v>841</v>
       </c>
       <c r="C99" s="49" t="s">
-        <v>853</v>
+        <v>840</v>
       </c>
       <c r="D99" s="49" t="s">
-        <v>853</v>
+        <v>840</v>
       </c>
       <c r="E99" s="49" t="s">
         <v>68</v>
@@ -9675,16 +9663,16 @@
         <v>21</v>
       </c>
       <c r="D100" s="30" t="s">
-        <v>859</v>
+        <v>846</v>
       </c>
       <c r="E100" s="30" t="s">
-        <v>855</v>
+        <v>842</v>
       </c>
       <c r="F100" s="30" t="s">
         <v>65</v>
       </c>
       <c r="G100" s="30" t="s">
-        <v>851</v>
+        <v>838</v>
       </c>
       <c r="H100" s="30">
         <v>1</v>
@@ -9696,16 +9684,16 @@
         <v>21</v>
       </c>
       <c r="D101" s="30" t="s">
-        <v>860</v>
+        <v>847</v>
       </c>
       <c r="E101" s="30" t="s">
-        <v>856</v>
+        <v>843</v>
       </c>
       <c r="F101" s="30" t="s">
         <v>65</v>
       </c>
       <c r="G101" s="30" t="s">
-        <v>852</v>
+        <v>839</v>
       </c>
       <c r="H101" s="30">
         <v>1</v>
@@ -9717,16 +9705,16 @@
         <v>21</v>
       </c>
       <c r="D102" s="30" t="s">
-        <v>861</v>
+        <v>848</v>
       </c>
       <c r="E102" s="30" t="s">
-        <v>857</v>
+        <v>844</v>
       </c>
       <c r="F102" s="30" t="s">
         <v>65</v>
       </c>
       <c r="G102" s="30" t="s">
-        <v>851</v>
+        <v>838</v>
       </c>
       <c r="H102" s="30">
         <v>12</v>
@@ -9738,16 +9726,16 @@
         <v>21</v>
       </c>
       <c r="D103" s="30" t="s">
-        <v>862</v>
+        <v>849</v>
       </c>
       <c r="E103" s="30" t="s">
-        <v>858</v>
+        <v>845</v>
       </c>
       <c r="F103" s="30" t="s">
         <v>65</v>
       </c>
       <c r="G103" s="30" t="s">
-        <v>852</v>
+        <v>839</v>
       </c>
       <c r="H103" s="30">
         <v>31</v>
@@ -9777,145 +9765,148 @@
       <c r="O104" s="51"/>
       <c r="Q104" s="52"/>
     </row>
-    <row r="105" spans="1:17" s="49" customFormat="1">
-      <c r="A105" s="49" t="b">
+    <row r="105" spans="1:17">
+      <c r="B105" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D105" s="31" t="s">
+        <v>870</v>
+      </c>
+      <c r="E105" s="31" t="s">
+        <v>869</v>
+      </c>
+      <c r="F105" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="H105" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="B105" s="49" t="s">
+      <c r="I105" s="31"/>
+      <c r="J105" s="4"/>
+      <c r="K105" s="3"/>
+      <c r="L105" s="3"/>
+      <c r="M105" s="3"/>
+      <c r="N105" s="3"/>
+      <c r="O105" s="3"/>
+      <c r="Q105" s="40"/>
+    </row>
+    <row r="106" spans="1:17" s="49" customFormat="1">
+      <c r="A106" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="B106" s="49" t="s">
         <v>831</v>
       </c>
-      <c r="C105" s="49" t="s">
+      <c r="C106" s="49" t="s">
         <v>830</v>
       </c>
-      <c r="D105" s="49" t="s">
+      <c r="D106" s="49" t="s">
         <v>830</v>
       </c>
-      <c r="E105" s="49" t="s">
+      <c r="E106" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="J105" s="50"/>
-      <c r="K105" s="51"/>
-      <c r="L105" s="51"/>
-      <c r="M105" s="51"/>
-      <c r="N105" s="51"/>
-      <c r="O105" s="51"/>
-      <c r="Q105" s="52"/>
-    </row>
-    <row r="106" spans="1:17" s="22" customFormat="1">
-      <c r="A106" s="22" t="b">
+      <c r="J106" s="50"/>
+      <c r="K106" s="51"/>
+      <c r="L106" s="51"/>
+      <c r="M106" s="51"/>
+      <c r="N106" s="51"/>
+      <c r="O106" s="51"/>
+      <c r="Q106" s="52"/>
+    </row>
+    <row r="107" spans="1:17">
+      <c r="B107" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D107" s="31" t="s">
+        <v>872</v>
+      </c>
+      <c r="E107" s="31" t="s">
+        <v>871</v>
+      </c>
+      <c r="F107" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="H107" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="B106" s="22" t="s">
+      <c r="I107" s="30"/>
+    </row>
+    <row r="108" spans="1:17" s="22" customFormat="1">
+      <c r="A108" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="B108" s="22" t="s">
         <v>800</v>
       </c>
-      <c r="C106" s="22" t="s">
+      <c r="C108" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="D106" s="22" t="s">
+      <c r="D108" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="E106" s="22" t="s">
+      <c r="E108" s="22" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="107" spans="1:17" s="30" customFormat="1">
-      <c r="A107" s="18"/>
-      <c r="B107" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D107" s="30" t="s">
+    <row r="109" spans="1:17" s="30" customFormat="1">
+      <c r="A109" s="18"/>
+      <c r="B109" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D109" s="30" t="s">
         <v>373</v>
       </c>
-      <c r="E107" s="30" t="s">
+      <c r="E109" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="F107" s="30" t="s">
+      <c r="F109" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="H107" s="30" t="s">
+      <c r="H109" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="I107" s="30" t="s">
+      <c r="I109" s="30" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="108" spans="1:17" s="43" customFormat="1">
-      <c r="B108" s="43" t="s">
+    <row r="110" spans="1:17" s="43" customFormat="1">
+      <c r="B110" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D108" s="43" t="s">
+      <c r="D110" s="43" t="s">
         <v>801</v>
       </c>
-      <c r="E108" s="43" t="s">
+      <c r="E110" s="43" t="s">
         <v>288</v>
       </c>
-      <c r="F108" s="43" t="s">
+      <c r="F110" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="G108" s="43" t="s">
+      <c r="G110" s="43" t="s">
         <v>791</v>
       </c>
-      <c r="H108" s="43">
-        <v>0</v>
-      </c>
-      <c r="J108" s="43">
-        <v>0</v>
-      </c>
-      <c r="K108" s="43">
+      <c r="H110" s="43">
+        <v>0</v>
+      </c>
+      <c r="J110" s="43">
+        <v>0</v>
+      </c>
+      <c r="K110" s="43">
         <v>40</v>
       </c>
-      <c r="L108" s="43">
+      <c r="L110" s="43">
         <v>-1</v>
       </c>
-      <c r="M108" s="45">
-        <f>(K108-J108)/6</f>
+      <c r="M110" s="45">
+        <f>(K110-J110)/6</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="N108" s="45">
+      <c r="N110" s="45">
         <v>2.5</v>
       </c>
-      <c r="Q108" s="43" t="s">
+      <c r="Q110" s="43" t="s">
         <v>776</v>
-      </c>
-    </row>
-    <row r="109" spans="1:17" s="30" customFormat="1">
-      <c r="B109" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D109" s="30" t="s">
-        <v>792</v>
-      </c>
-      <c r="E109" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F109" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G109" s="30" t="s">
-        <v>791</v>
-      </c>
-      <c r="H109" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:17" s="30" customFormat="1">
-      <c r="B110" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D110" s="30" t="s">
-        <v>793</v>
-      </c>
-      <c r="E110" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F110" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G110" s="30" t="s">
-        <v>791</v>
-      </c>
-      <c r="H110" s="30">
-        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:17" s="30" customFormat="1">
@@ -9923,16 +9914,16 @@
         <v>21</v>
       </c>
       <c r="D111" s="30" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E111" s="30" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F111" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G111" s="30" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="H111" s="30">
         <v>0</v>
@@ -9943,15 +9934,18 @@
         <v>21</v>
       </c>
       <c r="D112" s="30" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="E112" s="30" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F112" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H112" s="30" t="b">
+        <v>64</v>
+      </c>
+      <c r="G112" s="30" t="s">
+        <v>791</v>
+      </c>
+      <c r="H112" s="30">
         <v>0</v>
       </c>
     </row>
@@ -9960,10 +9954,10 @@
         <v>21</v>
       </c>
       <c r="D113" s="30" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="E113" s="30" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F113" s="30" t="s">
         <v>65</v>
@@ -9972,7 +9966,7 @@
         <v>795</v>
       </c>
       <c r="H113" s="30">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:17" s="30" customFormat="1">
@@ -9980,18 +9974,15 @@
         <v>21</v>
       </c>
       <c r="D114" s="30" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="E114" s="30" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F114" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G114" s="30" t="s">
-        <v>791</v>
-      </c>
-      <c r="H114" s="30">
+        <v>63</v>
+      </c>
+      <c r="H114" s="30" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10000,10 +9991,10 @@
         <v>21</v>
       </c>
       <c r="D115" s="30" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E115" s="30" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F115" s="30" t="s">
         <v>65</v>
@@ -10012,144 +10003,155 @@
         <v>795</v>
       </c>
       <c r="H115" s="30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" s="30" customFormat="1">
+      <c r="B116" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D116" s="30" t="s">
+        <v>798</v>
+      </c>
+      <c r="E116" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F116" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G116" s="30" t="s">
+        <v>791</v>
+      </c>
+      <c r="H116" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" s="30" customFormat="1">
+      <c r="B117" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D117" s="30" t="s">
+        <v>799</v>
+      </c>
+      <c r="E117" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F117" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G117" s="30" t="s">
+        <v>795</v>
+      </c>
+      <c r="H117" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:17" s="49" customFormat="1">
-      <c r="A116" s="49" t="b">
+    <row r="118" spans="1:17" s="49" customFormat="1">
+      <c r="A118" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="B116" s="49" t="s">
+      <c r="B118" s="49" t="s">
         <v>209</v>
       </c>
-      <c r="C116" s="49" t="s">
+      <c r="C118" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="D116" s="49" t="s">
+      <c r="D118" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="E116" s="49" t="s">
+      <c r="E118" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="J116" s="50"/>
-      <c r="K116" s="51"/>
-      <c r="L116" s="51"/>
-      <c r="M116" s="51"/>
-      <c r="N116" s="51"/>
-      <c r="O116" s="51"/>
-      <c r="Q116" s="52"/>
-    </row>
-    <row r="117" spans="1:17">
-      <c r="B117" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D117" s="31" t="s">
-        <v>834</v>
-      </c>
-      <c r="E117" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="F117" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H117" s="31" t="s">
-        <v>417</v>
-      </c>
-      <c r="I117" s="30" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="118" spans="1:17">
-      <c r="B118" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D118" s="31" t="s">
-        <v>835</v>
-      </c>
-      <c r="E118" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="F118" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H118" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I118" s="31"/>
+      <c r="J118" s="50"/>
+      <c r="K118" s="51"/>
+      <c r="L118" s="51"/>
+      <c r="M118" s="51"/>
+      <c r="N118" s="51"/>
+      <c r="O118" s="51"/>
+      <c r="Q118" s="52"/>
     </row>
     <row r="119" spans="1:17">
       <c r="B119" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D119" s="31" t="s">
-        <v>836</v>
+        <v>209</v>
       </c>
       <c r="E119" s="31" t="s">
-        <v>128</v>
+        <v>868</v>
       </c>
       <c r="F119" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="H119" s="31">
-        <v>0</v>
-      </c>
-      <c r="I119" s="31"/>
-    </row>
-    <row r="120" spans="1:17">
-      <c r="B120" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D120" s="31" t="s">
-        <v>837</v>
-      </c>
-      <c r="E120" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="F120" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="H120" s="31">
-        <v>0</v>
-      </c>
-      <c r="I120" s="31"/>
+        <v>62</v>
+      </c>
+      <c r="H119" s="31" t="s">
+        <v>867</v>
+      </c>
+      <c r="I119" s="30" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" s="49" customFormat="1">
+      <c r="A120" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="B120" s="49" t="s">
+        <v>216</v>
+      </c>
+      <c r="C120" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="D120" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="E120" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="J120" s="50"/>
+      <c r="K120" s="51"/>
+      <c r="L120" s="51"/>
+      <c r="M120" s="51"/>
+      <c r="N120" s="51"/>
+      <c r="O120" s="51"/>
+      <c r="Q120" s="52"/>
     </row>
     <row r="121" spans="1:17">
       <c r="B121" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D121" s="31" t="s">
-        <v>794</v>
+        <v>834</v>
       </c>
       <c r="E121" s="31" t="s">
-        <v>52</v>
+        <v>219</v>
       </c>
       <c r="F121" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G121" s="30" t="s">
-        <v>795</v>
-      </c>
-      <c r="H121" s="31">
-        <v>0</v>
-      </c>
-      <c r="I121" s="31"/>
+        <v>62</v>
+      </c>
+      <c r="H121" s="31" t="s">
+        <v>873</v>
+      </c>
+      <c r="I121" s="30" t="s">
+        <v>874</v>
+      </c>
     </row>
     <row r="122" spans="1:17">
       <c r="B122" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D122" s="31" t="s">
-        <v>796</v>
+        <v>835</v>
       </c>
       <c r="E122" s="31" t="s">
-        <v>54</v>
+        <v>221</v>
       </c>
       <c r="F122" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="G122" s="30"/>
-      <c r="H122" s="31" t="b">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="G122" s="31" t="s">
+        <v>836</v>
+      </c>
+      <c r="H122" s="31">
+        <v>69</v>
       </c>
       <c r="I122" s="31"/>
     </row>
@@ -10157,403 +10159,124 @@
       <c r="B123" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D123" s="30" t="s">
-        <v>797</v>
-      </c>
-      <c r="E123" s="30" t="s">
-        <v>56</v>
+      <c r="D123" s="31" t="s">
+        <v>837</v>
+      </c>
+      <c r="E123" s="31" t="s">
+        <v>227</v>
       </c>
       <c r="F123" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G123" s="30" t="s">
-        <v>795</v>
+        <v>64</v>
+      </c>
+      <c r="G123" s="31" t="s">
+        <v>836</v>
       </c>
       <c r="H123" s="31">
-        <v>15</v>
+        <v>-148</v>
       </c>
       <c r="I123" s="31"/>
     </row>
     <row r="124" spans="1:17">
-      <c r="B124" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D124" s="30" t="s">
-        <v>850</v>
-      </c>
-      <c r="E124" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F124" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G124" s="30" t="s">
-        <v>791</v>
-      </c>
-      <c r="H124" s="31">
-        <v>0</v>
-      </c>
+      <c r="H124" s="31"/>
       <c r="I124" s="31"/>
     </row>
     <row r="125" spans="1:17">
-      <c r="B125" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D125" s="30" t="s">
-        <v>799</v>
-      </c>
-      <c r="E125" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="F125" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G125" s="30" t="s">
-        <v>795</v>
-      </c>
-      <c r="H125" s="31">
-        <v>1</v>
-      </c>
+      <c r="H125" s="31"/>
       <c r="I125" s="31"/>
     </row>
-    <row r="126" spans="1:17" s="49" customFormat="1">
-      <c r="A126" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B126" s="49" t="s">
-        <v>216</v>
-      </c>
-      <c r="C126" s="49" t="s">
-        <v>217</v>
-      </c>
-      <c r="D126" s="49" t="s">
-        <v>217</v>
-      </c>
-      <c r="E126" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="J126" s="50"/>
-      <c r="K126" s="51"/>
-      <c r="L126" s="51"/>
-      <c r="M126" s="51"/>
-      <c r="N126" s="51"/>
-      <c r="O126" s="51"/>
-      <c r="Q126" s="52"/>
+    <row r="126" spans="1:17">
+      <c r="H126" s="31"/>
+      <c r="I126" s="31"/>
     </row>
     <row r="127" spans="1:17">
-      <c r="B127" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D127" s="31" t="s">
-        <v>834</v>
-      </c>
-      <c r="E127" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="F127" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H127" s="31" t="s">
-        <v>417</v>
-      </c>
-      <c r="I127" s="30" t="s">
-        <v>418</v>
-      </c>
+      <c r="H127" s="31"/>
+      <c r="I127" s="31"/>
     </row>
     <row r="128" spans="1:17">
-      <c r="B128" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D128" s="31" t="s">
-        <v>840</v>
-      </c>
-      <c r="E128" s="31" t="s">
-        <v>219</v>
-      </c>
-      <c r="F128" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H128" s="31" t="s">
-        <v>838</v>
-      </c>
-      <c r="I128" s="30" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="129" spans="2:9">
-      <c r="B129" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D129" s="31" t="s">
-        <v>841</v>
-      </c>
-      <c r="E129" s="31" t="s">
-        <v>221</v>
-      </c>
-      <c r="F129" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G129" s="31" t="s">
-        <v>842</v>
-      </c>
-      <c r="H129" s="31">
-        <v>69</v>
-      </c>
+      <c r="H128" s="31"/>
+      <c r="I128" s="31"/>
+    </row>
+    <row r="129" spans="8:9">
+      <c r="H129" s="31"/>
       <c r="I129" s="31"/>
     </row>
-    <row r="130" spans="2:9">
-      <c r="B130" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D130" s="31" t="s">
-        <v>844</v>
-      </c>
-      <c r="E130" s="31" t="s">
-        <v>223</v>
-      </c>
-      <c r="F130" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G130" s="31" t="s">
-        <v>843</v>
-      </c>
-      <c r="H130" s="31">
-        <v>28</v>
-      </c>
+    <row r="130" spans="8:9">
+      <c r="H130" s="31"/>
       <c r="I130" s="31"/>
     </row>
-    <row r="131" spans="2:9">
-      <c r="B131" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D131" s="31" t="s">
-        <v>845</v>
-      </c>
-      <c r="E131" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="F131" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G131" s="31" t="s">
-        <v>842</v>
-      </c>
-      <c r="H131" s="31">
-        <v>55</v>
-      </c>
+    <row r="131" spans="8:9" ht="409.6">
+      <c r="H131" s="31"/>
       <c r="I131" s="31"/>
     </row>
-    <row r="132" spans="2:9">
-      <c r="B132" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D132" s="31" t="s">
-        <v>846</v>
-      </c>
-      <c r="E132" s="31" t="s">
-        <v>227</v>
-      </c>
-      <c r="F132" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G132" s="31" t="s">
-        <v>842</v>
-      </c>
-      <c r="H132" s="31">
-        <v>-148</v>
-      </c>
+    <row r="132" spans="8:9" ht="409.6">
+      <c r="H132" s="31"/>
       <c r="I132" s="31"/>
     </row>
-    <row r="133" spans="2:9">
-      <c r="B133" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D133" s="31" t="s">
-        <v>835</v>
-      </c>
-      <c r="E133" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="F133" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H133" s="31" t="b">
-        <v>0</v>
-      </c>
+    <row r="133" spans="8:9" ht="409.6">
+      <c r="H133" s="31"/>
       <c r="I133" s="31"/>
     </row>
-    <row r="134" spans="2:9">
-      <c r="B134" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D134" s="31" t="s">
-        <v>847</v>
-      </c>
-      <c r="E134" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="F134" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="H134" s="31">
-        <v>0</v>
-      </c>
+    <row r="134" spans="8:9" ht="409.6">
+      <c r="H134" s="31"/>
       <c r="I134" s="31"/>
     </row>
-    <row r="135" spans="2:9">
-      <c r="B135" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D135" s="31" t="s">
-        <v>848</v>
-      </c>
-      <c r="E135" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="F135" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="H135" s="31">
-        <v>0</v>
-      </c>
+    <row r="135" spans="8:9" ht="409.6">
+      <c r="H135" s="31"/>
       <c r="I135" s="31"/>
     </row>
-    <row r="136" spans="2:9">
-      <c r="B136" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D136" s="31" t="s">
-        <v>794</v>
-      </c>
-      <c r="E136" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="F136" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G136" s="30" t="s">
-        <v>795</v>
-      </c>
-      <c r="H136" s="31">
-        <v>0</v>
-      </c>
+    <row r="136" spans="8:9" ht="409.6">
+      <c r="H136" s="31"/>
       <c r="I136" s="31"/>
     </row>
-    <row r="137" spans="2:9">
-      <c r="B137" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D137" s="31" t="s">
-        <v>796</v>
-      </c>
-      <c r="E137" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="F137" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="G137" s="30"/>
-      <c r="H137" s="31" t="b">
-        <v>0</v>
-      </c>
+    <row r="137" spans="8:9" ht="409.6">
+      <c r="H137" s="31"/>
       <c r="I137" s="31"/>
     </row>
-    <row r="138" spans="2:9">
-      <c r="B138" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D138" s="30" t="s">
-        <v>797</v>
-      </c>
-      <c r="E138" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="F138" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G138" s="30" t="s">
-        <v>795</v>
-      </c>
-      <c r="H138" s="31">
-        <v>15</v>
-      </c>
+    <row r="138" spans="8:9" ht="409.6">
+      <c r="H138" s="31"/>
       <c r="I138" s="31"/>
     </row>
-    <row r="139" spans="2:9">
-      <c r="B139" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D139" s="30" t="s">
-        <v>849</v>
-      </c>
-      <c r="E139" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F139" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G139" s="30" t="s">
-        <v>791</v>
-      </c>
-      <c r="H139" s="31">
-        <v>0</v>
-      </c>
+    <row r="139" spans="8:9" ht="409.6">
+      <c r="H139" s="31"/>
       <c r="I139" s="31"/>
     </row>
-    <row r="140" spans="2:9">
-      <c r="B140" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D140" s="30" t="s">
-        <v>799</v>
-      </c>
-      <c r="E140" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="F140" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G140" s="30" t="s">
-        <v>795</v>
-      </c>
-      <c r="H140" s="31">
-        <v>1</v>
-      </c>
+    <row r="140" spans="8:9" ht="409.6">
+      <c r="H140" s="31"/>
       <c r="I140" s="31"/>
     </row>
-    <row r="141" spans="2:9">
+    <row r="141" spans="8:9" ht="409.6">
       <c r="H141" s="31"/>
       <c r="I141" s="31"/>
     </row>
-    <row r="142" spans="2:9">
+    <row r="142" spans="8:9">
       <c r="H142" s="31"/>
       <c r="I142" s="31"/>
     </row>
-    <row r="143" spans="2:9">
+    <row r="143" spans="8:9">
       <c r="H143" s="31"/>
       <c r="I143" s="31"/>
     </row>
-    <row r="144" spans="2:9">
+    <row r="144" spans="8:9">
       <c r="H144" s="31"/>
       <c r="I144" s="31"/>
     </row>
-    <row r="145" spans="8:9">
+    <row r="145" spans="8:9" ht="409.6">
       <c r="H145" s="31"/>
       <c r="I145" s="31"/>
     </row>
-    <row r="146" spans="8:9">
+    <row r="146" spans="8:9" ht="409.6">
       <c r="H146" s="31"/>
       <c r="I146" s="31"/>
     </row>
-    <row r="147" spans="8:9">
+    <row r="147" spans="8:9" ht="409.6">
       <c r="H147" s="31"/>
       <c r="I147" s="31"/>
     </row>
-    <row r="148" spans="8:9">
+    <row r="148" spans="8:9" ht="409.6">
       <c r="H148" s="31"/>
       <c r="I148" s="31"/>
     </row>
-    <row r="149" spans="8:9">
+    <row r="149" spans="8:9" ht="409.6">
       <c r="H149" s="31"/>
       <c r="I149" s="31"/>
     </row>
@@ -10777,76 +10500,8 @@
       <c r="H204" s="31"/>
       <c r="I204" s="31"/>
     </row>
-    <row r="205" spans="8:9">
-      <c r="H205" s="31"/>
-      <c r="I205" s="31"/>
-    </row>
-    <row r="206" spans="8:9">
-      <c r="H206" s="31"/>
-      <c r="I206" s="31"/>
-    </row>
-    <row r="207" spans="8:9">
-      <c r="H207" s="31"/>
-      <c r="I207" s="31"/>
-    </row>
-    <row r="208" spans="8:9">
-      <c r="H208" s="31"/>
-      <c r="I208" s="31"/>
-    </row>
-    <row r="209" spans="8:9">
-      <c r="H209" s="31"/>
-      <c r="I209" s="31"/>
-    </row>
-    <row r="210" spans="8:9">
-      <c r="H210" s="31"/>
-      <c r="I210" s="31"/>
-    </row>
-    <row r="211" spans="8:9">
-      <c r="H211" s="31"/>
-      <c r="I211" s="31"/>
-    </row>
-    <row r="212" spans="8:9">
-      <c r="H212" s="31"/>
-      <c r="I212" s="31"/>
-    </row>
-    <row r="213" spans="8:9">
-      <c r="H213" s="31"/>
-      <c r="I213" s="31"/>
-    </row>
-    <row r="214" spans="8:9">
-      <c r="H214" s="31"/>
-      <c r="I214" s="31"/>
-    </row>
-    <row r="215" spans="8:9">
-      <c r="H215" s="31"/>
-      <c r="I215" s="31"/>
-    </row>
-    <row r="216" spans="8:9">
-      <c r="H216" s="31"/>
-      <c r="I216" s="31"/>
-    </row>
-    <row r="217" spans="8:9">
-      <c r="H217" s="31"/>
-      <c r="I217" s="31"/>
-    </row>
-    <row r="218" spans="8:9">
-      <c r="H218" s="31"/>
-      <c r="I218" s="31"/>
-    </row>
-    <row r="219" spans="8:9">
-      <c r="H219" s="31"/>
-      <c r="I219" s="31"/>
-    </row>
-    <row r="220" spans="8:9">
-      <c r="H220" s="31"/>
-      <c r="I220" s="31"/>
-    </row>
-    <row r="221" spans="8:9">
-      <c r="H221" s="31"/>
-      <c r="I221" s="31"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A2:Z148"/>
+  <autoFilter ref="A2:Z131"/>
   <mergeCells count="1">
     <mergeCell ref="T1:Y1"/>
   </mergeCells>
@@ -10869,20 +10524,20 @@
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="29.5" style="31" customWidth="1"/>
+    <col min="1" max="2" width="29.42578125" style="31" customWidth="1"/>
     <col min="3" max="3" width="71" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="31" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.5" style="31" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="31" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="31" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" style="31" customWidth="1"/>
-    <col min="11" max="16384" width="11.5" style="31"/>
+    <col min="4" max="4" width="10.42578125" style="31" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.42578125" style="31" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="31" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="31" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="31" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18">
+    <row r="1" spans="1:12" ht="18.75">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -10897,7 +10552,7 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="15">
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="15.75">
       <c r="A2" s="8" t="s">
         <v>459</v>
       </c>
@@ -10932,7 +10587,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="14" customFormat="1" ht="30">
+    <row r="3" spans="1:12" s="14" customFormat="1" ht="47.25">
       <c r="A3" s="14" t="s">
         <v>628</v>
       </c>
@@ -11796,19 +11451,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="15.75">
       <c r="A1" s="17" t="b">
         <v>0</v>
       </c>
@@ -11827,7 +11482,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
         <v>21</v>
@@ -11848,7 +11503,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="15.75">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
         <v>21</v>
@@ -11871,7 +11526,7 @@
       </c>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="15.75">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>21</v>
@@ -11894,7 +11549,7 @@
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="15.75">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
         <v>21</v>
@@ -11917,7 +11572,7 @@
       </c>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="15.75">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
         <v>21</v>
@@ -11940,7 +11595,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="15.75">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
         <v>21</v>
@@ -11963,7 +11618,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="15.75">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
         <v>21</v>
@@ -11986,7 +11641,7 @@
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="15.75">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
         <v>21</v>
@@ -12009,7 +11664,7 @@
       </c>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="15.75">
       <c r="A10" s="17"/>
       <c r="B10" s="17" t="s">
         <v>21</v>
@@ -12032,7 +11687,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="15.75">
       <c r="A11" s="17" t="b">
         <v>0</v>
       </c>
@@ -12051,7 +11706,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="15.75">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
         <v>21</v>
@@ -12072,7 +11727,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="15.75">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
@@ -12095,7 +11750,7 @@
       </c>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="15.75">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
         <v>21</v>
@@ -12118,7 +11773,7 @@
       </c>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="15.75">
       <c r="A15" s="17"/>
       <c r="B15" s="17" t="s">
         <v>21</v>
@@ -12141,7 +11796,7 @@
       </c>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="15.75">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
         <v>21</v>
@@ -12164,7 +11819,7 @@
       </c>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="15.75">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
         <v>21</v>
@@ -12187,7 +11842,7 @@
       </c>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="15.75">
       <c r="A18" s="17"/>
       <c r="B18" s="17" t="s">
         <v>21</v>
@@ -12210,7 +11865,7 @@
       </c>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="15.75">
       <c r="A19" s="17"/>
       <c r="B19" s="17" t="s">
         <v>21</v>
@@ -12233,7 +11888,7 @@
       </c>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="15.75">
       <c r="A20" s="17"/>
       <c r="B20" s="17" t="s">
         <v>21</v>
@@ -12256,7 +11911,7 @@
       </c>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="15.75">
       <c r="A21" s="17" t="b">
         <v>0</v>
       </c>
@@ -12275,7 +11930,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="15.75">
       <c r="A22" s="17"/>
       <c r="B22" s="17" t="s">
         <v>21</v>
@@ -12298,7 +11953,7 @@
       </c>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="15.75">
       <c r="A23" s="17"/>
       <c r="B23" s="17" t="s">
         <v>21</v>
@@ -12321,7 +11976,7 @@
       </c>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="15.75">
       <c r="A24" s="17"/>
       <c r="B24" s="17" t="s">
         <v>21</v>
@@ -12344,7 +11999,7 @@
       </c>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="15.75">
       <c r="A25" s="17"/>
       <c r="B25" s="17" t="s">
         <v>21</v>
@@ -12367,7 +12022,7 @@
       </c>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="15.75">
       <c r="A26" s="17"/>
       <c r="B26" s="17" t="s">
         <v>21</v>
@@ -12390,7 +12045,7 @@
       </c>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="15.75">
       <c r="A27" s="17"/>
       <c r="B27" s="17" t="s">
         <v>21</v>
@@ -12413,7 +12068,7 @@
       </c>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="15.75">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
         <v>21</v>
@@ -12436,7 +12091,7 @@
       </c>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="15.75">
       <c r="A29" s="17"/>
       <c r="B29" s="17" t="s">
         <v>21</v>
@@ -12459,7 +12114,7 @@
       </c>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" ht="15">
+    <row r="30" spans="1:9" ht="15.75">
       <c r="A30" s="17"/>
       <c r="B30" s="17" t="s">
         <v>21</v>
@@ -12482,7 +12137,7 @@
       </c>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="15">
+    <row r="31" spans="1:9" ht="15.75">
       <c r="A31" s="17" t="b">
         <v>0</v>
       </c>
@@ -12501,7 +12156,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="15">
+    <row r="32" spans="1:9" ht="15.75">
       <c r="A32" s="17"/>
       <c r="B32" s="17" t="s">
         <v>21</v>
@@ -12522,7 +12177,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" ht="15">
+    <row r="33" spans="1:9" ht="15.75">
       <c r="A33" s="17"/>
       <c r="B33" s="17" t="s">
         <v>21</v>
@@ -12545,7 +12200,7 @@
       </c>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="15">
+    <row r="34" spans="1:9" ht="15.75">
       <c r="A34" s="17"/>
       <c r="B34" s="17" t="s">
         <v>21</v>
@@ -12568,7 +12223,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="15">
+    <row r="35" spans="1:9" ht="15.75">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
         <v>21</v>
@@ -12591,7 +12246,7 @@
       </c>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="15">
+    <row r="36" spans="1:9" ht="15.75">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
         <v>21</v>
@@ -12614,7 +12269,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="15">
+    <row r="37" spans="1:9" ht="15.75">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
         <v>21</v>
@@ -12637,7 +12292,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="15">
+    <row r="38" spans="1:9" ht="15.75">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
         <v>21</v>
@@ -12660,7 +12315,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" ht="15">
+    <row r="39" spans="1:9" ht="15.75">
       <c r="A39" s="17"/>
       <c r="B39" s="17" t="s">
         <v>21</v>
@@ -12683,7 +12338,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="15">
+    <row r="40" spans="1:9" ht="15.75">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
         <v>21</v>
@@ -12706,7 +12361,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="15">
+    <row r="41" spans="1:9" ht="15.75">
       <c r="A41" s="17" t="b">
         <v>0</v>
       </c>
@@ -12725,7 +12380,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="15">
+    <row r="42" spans="1:9" ht="15.75">
       <c r="A42" s="17"/>
       <c r="B42" s="17" t="s">
         <v>21</v>
@@ -12746,7 +12401,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="15">
+    <row r="43" spans="1:9" ht="15.75">
       <c r="A43" s="17"/>
       <c r="B43" s="17" t="s">
         <v>21</v>
@@ -12769,7 +12424,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="15">
+    <row r="44" spans="1:9" ht="15.75">
       <c r="A44" s="17"/>
       <c r="B44" s="17" t="s">
         <v>21</v>
@@ -12792,7 +12447,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="15">
+    <row r="45" spans="1:9" ht="15.75">
       <c r="A45" s="17"/>
       <c r="B45" s="17" t="s">
         <v>21</v>
@@ -12815,7 +12470,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15">
+    <row r="46" spans="1:9" ht="15.75">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>21</v>
@@ -12838,7 +12493,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15">
+    <row r="47" spans="1:9" ht="15.75">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>21</v>
@@ -12861,7 +12516,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15">
+    <row r="48" spans="1:9" ht="15.75">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>21</v>
@@ -12884,7 +12539,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15">
+    <row r="49" spans="1:9" ht="15.75">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>21</v>
@@ -12907,7 +12562,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15">
+    <row r="50" spans="1:9" ht="15.75">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>21</v>
@@ -12930,7 +12585,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15">
+    <row r="51" spans="1:9" ht="15.75">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -12949,7 +12604,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15">
+    <row r="52" spans="1:9" ht="15.75">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>21</v>
@@ -12970,7 +12625,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15">
+    <row r="53" spans="1:9" ht="15.75">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>21</v>
@@ -12993,7 +12648,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15">
+    <row r="54" spans="1:9" ht="15.75">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>21</v>
@@ -13016,7 +12671,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15">
+    <row r="55" spans="1:9" ht="15.75">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>21</v>
@@ -13039,7 +12694,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15">
+    <row r="56" spans="1:9" ht="15.75">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>21</v>
@@ -13062,7 +12717,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15">
+    <row r="57" spans="1:9" ht="15.75">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>21</v>
@@ -13085,7 +12740,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15">
+    <row r="58" spans="1:9" ht="15.75">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>21</v>
@@ -13108,7 +12763,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15">
+    <row r="59" spans="1:9" ht="15.75">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>21</v>
@@ -13131,7 +12786,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15">
+    <row r="60" spans="1:9" ht="15.75">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>21</v>
@@ -13154,7 +12809,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15">
+    <row r="61" spans="1:9" ht="15.75">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -13173,7 +12828,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15">
+    <row r="62" spans="1:9" ht="15.75">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>21</v>
@@ -13194,7 +12849,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15">
+    <row r="63" spans="1:9" ht="15.75">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>21</v>
@@ -13219,7 +12874,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15">
+    <row r="64" spans="1:9" ht="15.75">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>21</v>
@@ -13242,7 +12897,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15">
+    <row r="65" spans="1:9" ht="15.75">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>21</v>
@@ -13265,7 +12920,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15">
+    <row r="66" spans="1:9" ht="15.75">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>21</v>
@@ -13288,7 +12943,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15">
+    <row r="67" spans="1:9" ht="15.75">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>21</v>
@@ -13311,7 +12966,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15">
+    <row r="68" spans="1:9" ht="15.75">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>21</v>
@@ -13334,7 +12989,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15">
+    <row r="69" spans="1:9" ht="15.75">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>21</v>
@@ -13357,7 +13012,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15">
+    <row r="70" spans="1:9" ht="15.75">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>21</v>
@@ -13380,7 +13035,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15">
+    <row r="71" spans="1:9" ht="15.75">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>21</v>
@@ -13403,7 +13058,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15">
+    <row r="72" spans="1:9" ht="15.75">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -13422,7 +13077,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15">
+    <row r="73" spans="1:9" ht="15.75">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>21</v>
@@ -13443,7 +13098,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15">
+    <row r="74" spans="1:9" ht="15.75">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>21</v>
@@ -13466,7 +13121,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15">
+    <row r="75" spans="1:9" ht="15.75">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>21</v>
@@ -13491,7 +13146,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15">
+    <row r="76" spans="1:9" ht="15.75">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>21</v>
@@ -13514,7 +13169,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15">
+    <row r="77" spans="1:9" ht="15.75">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>21</v>
@@ -13537,7 +13192,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15">
+    <row r="78" spans="1:9" ht="15.75">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>21</v>
@@ -13560,7 +13215,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15">
+    <row r="79" spans="1:9" ht="15.75">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>21</v>
@@ -13583,7 +13238,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15">
+    <row r="80" spans="1:9" ht="15.75">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>21</v>
@@ -13606,7 +13261,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15">
+    <row r="81" spans="1:9" ht="15.75">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>21</v>
@@ -13629,7 +13284,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15">
+    <row r="82" spans="1:9" ht="15.75">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>21</v>
@@ -13652,7 +13307,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15">
+    <row r="83" spans="1:9" ht="15.75">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>21</v>
@@ -13675,7 +13330,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15">
+    <row r="84" spans="1:9" ht="15.75">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>21</v>
@@ -13698,7 +13353,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15">
+    <row r="85" spans="1:9" ht="15.75">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>21</v>
@@ -13721,7 +13376,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15">
+    <row r="86" spans="1:9" ht="15.75">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -13740,7 +13395,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15">
+    <row r="87" spans="1:9" ht="15.75">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>21</v>
@@ -13763,7 +13418,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15">
+    <row r="88" spans="1:9" ht="15.75">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>21</v>
@@ -13786,7 +13441,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15">
+    <row r="89" spans="1:9" ht="15.75">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>21</v>
@@ -13809,7 +13464,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15">
+    <row r="90" spans="1:9" ht="15.75">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>21</v>
@@ -13832,7 +13487,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15">
+    <row r="91" spans="1:9" ht="15.75">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>21</v>
@@ -13855,7 +13510,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15">
+    <row r="92" spans="1:9" ht="15.75">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>21</v>
@@ -13878,7 +13533,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15">
+    <row r="93" spans="1:9" ht="15.75">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>21</v>
@@ -13901,7 +13556,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15">
+    <row r="94" spans="1:9" ht="15.75">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>21</v>
@@ -13924,7 +13579,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15">
+    <row r="95" spans="1:9" ht="15.75">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>21</v>
@@ -13947,7 +13602,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15">
+    <row r="96" spans="1:9" ht="15.75">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>21</v>
@@ -13970,7 +13625,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15">
+    <row r="97" spans="1:9" ht="15.75">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -13989,7 +13644,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15">
+    <row r="98" spans="1:9" ht="15.75">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>21</v>
@@ -14014,7 +13669,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15">
+    <row r="99" spans="1:9" ht="15.75">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -14033,7 +13688,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15">
+    <row r="100" spans="1:9" ht="15.75">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>21</v>
@@ -14054,7 +13709,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="15">
+    <row r="101" spans="1:9" ht="15.75">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>21</v>
@@ -14079,7 +13734,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15">
+    <row r="102" spans="1:9" ht="15.75">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -14098,7 +13753,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15">
+    <row r="103" spans="1:9" ht="15.75">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>21</v>
@@ -14121,7 +13776,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15">
+    <row r="104" spans="1:9" ht="15.75">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>21</v>
@@ -14146,7 +13801,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15">
+    <row r="105" spans="1:9" ht="15.75">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>21</v>
@@ -14169,7 +13824,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15">
+    <row r="106" spans="1:9" ht="15.75">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>21</v>
@@ -14190,7 +13845,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15">
+    <row r="107" spans="1:9" ht="15.75">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -14209,7 +13864,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15">
+    <row r="108" spans="1:9" ht="15.75">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>21</v>
@@ -14234,7 +13889,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15">
+    <row r="109" spans="1:9" ht="15.75">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>21</v>
@@ -14257,7 +13912,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15">
+    <row r="110" spans="1:9" ht="15.75">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>21</v>
@@ -14280,7 +13935,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15">
+    <row r="111" spans="1:9" ht="15.75">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>21</v>
@@ -14303,7 +13958,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15">
+    <row r="112" spans="1:9" ht="15.75">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>21</v>
@@ -14326,7 +13981,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15">
+    <row r="113" spans="1:9" ht="15.75">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>21</v>
@@ -14349,7 +14004,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15">
+    <row r="114" spans="1:9" ht="15.75">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>21</v>
@@ -14372,7 +14027,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15">
+    <row r="115" spans="1:9" ht="15.75">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -14391,7 +14046,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15">
+    <row r="116" spans="1:9" ht="15.75">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>21</v>
@@ -14414,7 +14069,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15">
+    <row r="117" spans="1:9" ht="15.75">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>21</v>
@@ -14437,7 +14092,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15">
+    <row r="118" spans="1:9" ht="15.75">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>21</v>
@@ -14460,7 +14115,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15">
+    <row r="119" spans="1:9" ht="15.75">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -14479,7 +14134,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15">
+    <row r="120" spans="1:9" ht="15.75">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>21</v>
@@ -14502,7 +14157,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15">
+    <row r="121" spans="1:9" ht="15.75">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>21</v>
@@ -14525,7 +14180,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15">
+    <row r="122" spans="1:9" ht="15.75">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>21</v>
@@ -14548,7 +14203,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15">
+    <row r="123" spans="1:9" ht="15.75">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>21</v>
@@ -14571,7 +14226,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15">
+    <row r="124" spans="1:9" ht="15.75">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>21</v>
@@ -14594,7 +14249,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15">
+    <row r="125" spans="1:9" ht="15.75">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>21</v>
@@ -14617,7 +14272,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15">
+    <row r="126" spans="1:9" ht="15.75">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -14636,7 +14291,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15">
+    <row r="127" spans="1:9" ht="15.75">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>21</v>
@@ -14661,7 +14316,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15">
+    <row r="128" spans="1:9" ht="15.75">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>21</v>
@@ -14684,7 +14339,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15">
+    <row r="129" spans="1:9" ht="15.75">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>21</v>
@@ -14707,7 +14362,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15">
+    <row r="130" spans="1:9" ht="15.75">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>21</v>
@@ -14730,7 +14385,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15">
+    <row r="131" spans="1:9" ht="15.75">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>21</v>
@@ -14753,7 +14408,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15">
+    <row r="132" spans="1:9" ht="15.75">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>21</v>
@@ -14776,7 +14431,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15">
+    <row r="133" spans="1:9" ht="15.75">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>21</v>
@@ -14799,7 +14454,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15">
+    <row r="134" spans="1:9" ht="15.75">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>21</v>
@@ -14822,7 +14477,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15">
+    <row r="135" spans="1:9" ht="15.75">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>21</v>
@@ -14845,7 +14500,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15">
+    <row r="136" spans="1:9" ht="15.75">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -14864,7 +14519,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15">
+    <row r="137" spans="1:9" ht="15.75">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>21</v>
@@ -14889,7 +14544,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15">
+    <row r="138" spans="1:9" ht="15.75">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>21</v>
@@ -14910,7 +14565,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15">
+    <row r="139" spans="1:9" ht="15.75">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>21</v>
@@ -14933,7 +14588,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15">
+    <row r="140" spans="1:9" ht="15.75">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>21</v>
@@ -14956,7 +14611,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15">
+    <row r="141" spans="1:9" ht="15.75">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>21</v>
@@ -14979,7 +14634,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15">
+    <row r="142" spans="1:9" ht="15.75">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>21</v>
@@ -15002,7 +14657,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15">
+    <row r="143" spans="1:9" ht="15.75">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>21</v>
@@ -15025,7 +14680,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15">
+    <row r="144" spans="1:9" ht="15.75">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>21</v>
@@ -15048,7 +14703,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15">
+    <row r="145" spans="1:9" ht="15.75">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>21</v>
@@ -15071,7 +14726,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15">
+    <row r="146" spans="1:9" ht="15.75">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>21</v>
@@ -15094,7 +14749,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15">
+    <row r="147" spans="1:9" ht="15.75">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>21</v>
@@ -15117,7 +14772,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15">
+    <row r="148" spans="1:9" ht="15.75">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>21</v>
@@ -15140,7 +14795,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15">
+    <row r="149" spans="1:9" ht="15.75">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>21</v>
@@ -15163,7 +14818,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15">
+    <row r="150" spans="1:9" ht="15.75">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>21</v>
@@ -15186,7 +14841,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15">
+    <row r="151" spans="1:9" ht="15.75">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -15205,7 +14860,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15">
+    <row r="152" spans="1:9" ht="15.75">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>21</v>
@@ -15228,7 +14883,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15">
+    <row r="153" spans="1:9" ht="15.75">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -15247,7 +14902,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15">
+    <row r="154" spans="1:9" ht="15.75">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>21</v>
@@ -15270,7 +14925,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15">
+    <row r="155" spans="1:9" ht="15.75">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>21</v>
@@ -15293,7 +14948,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15">
+    <row r="156" spans="1:9" ht="15.75">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -15312,7 +14967,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15">
+    <row r="157" spans="1:9" ht="15.75">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>21</v>
@@ -15337,7 +14992,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15">
+    <row r="158" spans="1:9" ht="15.75">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>21</v>
@@ -15360,7 +15015,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15">
+    <row r="159" spans="1:9" ht="15.75">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>21</v>
@@ -15383,7 +15038,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15">
+    <row r="160" spans="1:9" ht="15.75">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>21</v>
@@ -15406,7 +15061,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15">
+    <row r="161" spans="1:9" ht="15.75">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>21</v>
@@ -15429,7 +15084,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15">
+    <row r="162" spans="1:9" ht="15.75">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>21</v>
@@ -15452,7 +15107,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15">
+    <row r="163" spans="1:9" ht="15.75">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>21</v>
@@ -15475,7 +15130,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15">
+    <row r="164" spans="1:9" ht="15.75">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>21</v>
@@ -15498,7 +15153,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15">
+    <row r="165" spans="1:9" ht="15.75">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>21</v>
@@ -15521,7 +15176,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15">
+    <row r="166" spans="1:9" ht="15.75">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>21</v>
@@ -15544,7 +15199,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15">
+    <row r="167" spans="1:9" ht="15.75">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -15563,7 +15218,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15">
+    <row r="168" spans="1:9" ht="15.75">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>21</v>
@@ -15588,7 +15243,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15">
+    <row r="169" spans="1:9" ht="15.75">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>21</v>
@@ -15611,7 +15266,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15">
+    <row r="170" spans="1:9" ht="15.75">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>21</v>
@@ -15634,7 +15289,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15">
+    <row r="171" spans="1:9" ht="15.75">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>21</v>
@@ -15657,7 +15312,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15">
+    <row r="172" spans="1:9" ht="15.75">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>21</v>
@@ -15680,7 +15335,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15">
+    <row r="173" spans="1:9" ht="15.75">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>21</v>
@@ -15703,7 +15358,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15">
+    <row r="174" spans="1:9" ht="15.75">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>21</v>
@@ -15726,7 +15381,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15">
+    <row r="175" spans="1:9" ht="15.75">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>21</v>
@@ -15749,7 +15404,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15">
+    <row r="176" spans="1:9" ht="15.75">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>21</v>
@@ -15772,7 +15427,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15">
+    <row r="177" spans="1:9" ht="15.75">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>21</v>
@@ -15795,7 +15450,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15">
+    <row r="178" spans="1:9" ht="15.75">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -15814,7 +15469,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15">
+    <row r="179" spans="1:9" ht="15.75">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>21</v>
@@ -15837,7 +15492,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15">
+    <row r="180" spans="1:9" ht="15.75">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>21</v>
@@ -15860,7 +15515,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15">
+    <row r="181" spans="1:9" ht="15.75">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>21</v>
@@ -15883,7 +15538,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15">
+    <row r="182" spans="1:9" ht="15.75">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>21</v>
@@ -15906,7 +15561,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15">
+    <row r="183" spans="1:9" ht="15.75">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -15925,7 +15580,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15">
+    <row r="184" spans="1:9" ht="15.75">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>21</v>
@@ -15948,7 +15603,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15">
+    <row r="185" spans="1:9" ht="15.75">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>21</v>
@@ -15971,7 +15626,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15">
+    <row r="186" spans="1:9" ht="15.75">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>21</v>
@@ -15994,7 +15649,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15">
+    <row r="187" spans="1:9" ht="15.75">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>21</v>
@@ -16017,7 +15672,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15">
+    <row r="188" spans="1:9" ht="15.75">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -16036,7 +15691,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15">
+    <row r="189" spans="1:9" ht="15.75">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>21</v>
@@ -16057,7 +15712,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15">
+    <row r="190" spans="1:9" ht="15.75">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>21</v>
@@ -16080,7 +15735,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15">
+    <row r="191" spans="1:9" ht="15.75">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -16099,7 +15754,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15">
+    <row r="192" spans="1:9" ht="15.75">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>21</v>
@@ -16122,7 +15777,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15">
+    <row r="193" spans="1:9" ht="15.75">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>21</v>
@@ -16147,7 +15802,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15">
+    <row r="194" spans="1:9" ht="15.75">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>21</v>
@@ -16168,7 +15823,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15">
+    <row r="195" spans="1:9" ht="15.75">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>21</v>
@@ -16193,7 +15848,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15">
+    <row r="196" spans="1:9" ht="15.75">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>21</v>
@@ -16218,7 +15873,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15">
+    <row r="197" spans="1:9" ht="15.75">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -16237,7 +15892,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15">
+    <row r="198" spans="1:9" ht="15.75">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>21</v>
@@ -16262,7 +15917,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15">
+    <row r="199" spans="1:9" ht="15.75">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>21</v>
@@ -16285,7 +15940,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15">
+    <row r="200" spans="1:9" ht="15.75">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>21</v>
@@ -16308,7 +15963,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15">
+    <row r="201" spans="1:9" ht="15.75">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>21</v>
@@ -16331,7 +15986,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15">
+    <row r="202" spans="1:9" ht="15.75">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>21</v>
@@ -16354,7 +16009,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15">
+    <row r="203" spans="1:9" ht="15.75">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>21</v>
@@ -16377,7 +16032,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15">
+    <row r="204" spans="1:9" ht="15.75">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>21</v>
@@ -16400,7 +16055,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15">
+    <row r="205" spans="1:9" ht="15.75">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>21</v>
@@ -16423,7 +16078,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15">
+    <row r="206" spans="1:9" ht="15.75">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>21</v>
@@ -16446,7 +16101,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15">
+    <row r="207" spans="1:9" ht="15.75">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -16465,7 +16120,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15">
+    <row r="208" spans="1:9" ht="15.75">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>21</v>
@@ -16490,7 +16145,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15">
+    <row r="209" spans="1:9" ht="15.75">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>21</v>
@@ -16513,7 +16168,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15">
+    <row r="210" spans="1:9" ht="15.75">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>21</v>
@@ -16536,7 +16191,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15">
+    <row r="211" spans="1:9" ht="15.75">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>21</v>
@@ -16559,7 +16214,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15">
+    <row r="212" spans="1:9" ht="15.75">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>21</v>
@@ -16582,7 +16237,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15">
+    <row r="213" spans="1:9" ht="15.75">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>21</v>
@@ -16605,7 +16260,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15">
+    <row r="214" spans="1:9" ht="15.75">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>21</v>
@@ -16628,7 +16283,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15">
+    <row r="215" spans="1:9" ht="15.75">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>21</v>
@@ -16651,7 +16306,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15">
+    <row r="216" spans="1:9" ht="15.75">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>21</v>
@@ -16674,7 +16329,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15">
+    <row r="217" spans="1:9" ht="15.75">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -16693,7 +16348,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15">
+    <row r="218" spans="1:9" ht="15.75">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>21</v>
@@ -16714,7 +16369,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15">
+    <row r="219" spans="1:9" ht="15.75">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>21</v>
@@ -16737,7 +16392,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15">
+    <row r="220" spans="1:9" ht="15.75">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>21</v>
@@ -16760,7 +16415,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15">
+    <row r="221" spans="1:9" ht="15.75">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>21</v>
@@ -16783,7 +16438,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15">
+    <row r="222" spans="1:9" ht="15.75">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>21</v>
@@ -16806,7 +16461,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15">
+    <row r="223" spans="1:9" ht="15.75">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>21</v>
@@ -16829,7 +16484,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15">
+    <row r="224" spans="1:9" ht="15.75">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>21</v>
@@ -16852,7 +16507,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15">
+    <row r="225" spans="1:9" ht="15.75">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>21</v>
@@ -16875,7 +16530,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15">
+    <row r="226" spans="1:9" ht="15.75">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>21</v>
@@ -16898,7 +16553,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15">
+    <row r="227" spans="1:9" ht="15.75">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>21</v>
@@ -16921,7 +16576,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15">
+    <row r="228" spans="1:9" ht="15.75">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>21</v>
@@ -16944,7 +16599,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15">
+    <row r="229" spans="1:9" ht="15.75">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>21</v>
@@ -16967,7 +16622,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15">
+    <row r="230" spans="1:9" ht="15.75">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>21</v>
@@ -16990,7 +16645,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15">
+    <row r="231" spans="1:9" ht="15.75">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>21</v>
@@ -17013,7 +16668,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15">
+    <row r="232" spans="1:9" ht="15.75">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>21</v>
@@ -17036,7 +16691,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15">
+    <row r="233" spans="1:9" ht="15.75">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>21</v>
@@ -17059,7 +16714,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15">
+    <row r="234" spans="1:9" ht="15.75">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -17078,7 +16733,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15">
+    <row r="235" spans="1:9" ht="15.75">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>21</v>
@@ -17099,7 +16754,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15">
+    <row r="236" spans="1:9" ht="15.75">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>21</v>
@@ -17122,7 +16777,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15">
+    <row r="237" spans="1:9" ht="15.75">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>21</v>
@@ -17145,7 +16800,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15">
+    <row r="238" spans="1:9" ht="15.75">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>21</v>
@@ -17168,7 +16823,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15">
+    <row r="239" spans="1:9" ht="15.75">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>21</v>
@@ -17191,7 +16846,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15">
+    <row r="240" spans="1:9" ht="15.75">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>21</v>
@@ -17214,7 +16869,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15">
+    <row r="241" spans="1:9" ht="15.75">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>21</v>
@@ -17237,7 +16892,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15">
+    <row r="242" spans="1:9" ht="15.75">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>21</v>
@@ -17260,7 +16915,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15">
+    <row r="243" spans="1:9" ht="15.75">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>21</v>
@@ -17283,7 +16938,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15">
+    <row r="244" spans="1:9" ht="15.75">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>21</v>
@@ -17306,7 +16961,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15">
+    <row r="245" spans="1:9" ht="15.75">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>21</v>
@@ -17329,7 +16984,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15">
+    <row r="246" spans="1:9" ht="15.75">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>21</v>
@@ -17352,7 +17007,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15">
+    <row r="247" spans="1:9" ht="15.75">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>21</v>
@@ -17375,7 +17030,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15">
+    <row r="248" spans="1:9" ht="15.75">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>21</v>
@@ -17398,7 +17053,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15">
+    <row r="249" spans="1:9" ht="15.75">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>21</v>
@@ -17421,7 +17076,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15">
+    <row r="250" spans="1:9" ht="15.75">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>21</v>
@@ -17444,7 +17099,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15">
+    <row r="251" spans="1:9" ht="15.75">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -17463,7 +17118,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15">
+    <row r="252" spans="1:9" ht="15.75">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>21</v>
@@ -17488,7 +17143,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15">
+    <row r="253" spans="1:9" ht="15.75">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>21</v>
@@ -17511,7 +17166,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15">
+    <row r="254" spans="1:9" ht="15.75">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>21</v>
@@ -17534,7 +17189,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15">
+    <row r="255" spans="1:9" ht="15.75">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>21</v>
@@ -17557,7 +17212,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15">
+    <row r="256" spans="1:9" ht="15.75">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>21</v>
@@ -17580,7 +17235,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15">
+    <row r="257" spans="1:9" ht="15.75">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -17599,7 +17254,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15">
+    <row r="258" spans="1:9" ht="15.75">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>21</v>
@@ -17624,7 +17279,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15">
+    <row r="259" spans="1:9" ht="15.75">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>21</v>
@@ -17647,7 +17302,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15">
+    <row r="260" spans="1:9" ht="15.75">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -17666,7 +17321,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15">
+    <row r="261" spans="1:9" ht="15.75">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -17685,7 +17340,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15">
+    <row r="262" spans="1:9" ht="15.75">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -17704,7 +17359,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15">
+    <row r="263" spans="1:9" ht="15.75">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>21</v>
@@ -17725,7 +17380,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15">
+    <row r="264" spans="1:9" ht="15.75">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>21</v>
@@ -17748,7 +17403,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15">
+    <row r="265" spans="1:9" ht="15.75">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>21</v>
@@ -17771,7 +17426,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15">
+    <row r="266" spans="1:9" ht="15.75">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>21</v>
@@ -17794,7 +17449,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15">
+    <row r="267" spans="1:9" ht="15.75">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>21</v>
@@ -17817,7 +17472,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15">
+    <row r="268" spans="1:9" ht="15.75">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>21</v>
@@ -17840,7 +17495,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15">
+    <row r="269" spans="1:9" ht="15.75">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>21</v>
@@ -17863,7 +17518,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15">
+    <row r="270" spans="1:9" ht="15.75">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>21</v>
@@ -17886,7 +17541,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15">
+    <row r="271" spans="1:9" ht="15.75">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>21</v>
@@ -17909,7 +17564,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15">
+    <row r="272" spans="1:9" ht="15.75">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>21</v>
@@ -17932,7 +17587,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15">
+    <row r="273" spans="1:9" ht="15.75">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>21</v>
@@ -17955,7 +17610,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15">
+    <row r="274" spans="1:9" ht="15.75">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -17974,7 +17629,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15">
+    <row r="275" spans="1:9" ht="15.75">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>21</v>
@@ -17997,7 +17652,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15">
+    <row r="276" spans="1:9" ht="15.75">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -18016,7 +17671,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15">
+    <row r="277" spans="1:9" ht="15.75">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>21</v>
@@ -18041,7 +17696,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15">
+    <row r="278" spans="1:9" ht="15.75">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>21</v>
@@ -18064,7 +17719,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15">
+    <row r="279" spans="1:9" ht="15.75">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>21</v>
@@ -18087,7 +17742,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15">
+    <row r="280" spans="1:9" ht="15.75">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>21</v>
@@ -18110,7 +17765,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15">
+    <row r="281" spans="1:9" ht="15.75">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>21</v>
@@ -18133,7 +17788,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15">
+    <row r="282" spans="1:9" ht="15.75">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>21</v>
@@ -18156,7 +17811,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15">
+    <row r="283" spans="1:9" ht="15.75">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>21</v>
@@ -18179,7 +17834,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15">
+    <row r="284" spans="1:9" ht="15.75">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>21</v>
@@ -18202,7 +17857,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15">
+    <row r="285" spans="1:9" ht="15.75">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>21</v>
@@ -18225,7 +17880,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15">
+    <row r="286" spans="1:9" ht="15.75">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>21</v>
@@ -18248,7 +17903,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15">
+    <row r="287" spans="1:9" ht="15.75">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>21</v>
@@ -18271,7 +17926,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15">
+    <row r="288" spans="1:9" ht="15.75">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -18290,7 +17945,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15">
+    <row r="289" spans="1:9" ht="15.75">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>21</v>
@@ -18313,7 +17968,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15">
+    <row r="290" spans="1:9" ht="15.75">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -18332,7 +17987,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15">
+    <row r="291" spans="1:9" ht="15.75">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>21</v>
@@ -18353,7 +18008,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15">
+    <row r="292" spans="1:9" ht="15.75">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -18372,7 +18027,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15">
+    <row r="293" spans="1:9" ht="15.75">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>21</v>
@@ -18393,7 +18048,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15">
+    <row r="294" spans="1:9" ht="15.75">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -18412,7 +18067,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15">
+    <row r="295" spans="1:9" ht="15.75">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>21</v>
@@ -18433,7 +18088,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15">
+    <row r="296" spans="1:9" ht="15.75">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -18452,7 +18107,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15">
+    <row r="297" spans="1:9" ht="15.75">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>21</v>
@@ -18475,7 +18130,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15">
+    <row r="298" spans="1:9" ht="15.75">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -18494,7 +18149,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15">
+    <row r="299" spans="1:9" ht="15.75">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>21</v>
@@ -18519,7 +18174,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15">
+    <row r="300" spans="1:9" ht="15.75">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>21</v>
@@ -18542,7 +18197,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15">
+    <row r="301" spans="1:9" ht="15.75">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>21</v>
@@ -18565,7 +18220,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15">
+    <row r="302" spans="1:9" ht="15.75">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>21</v>
@@ -18588,7 +18243,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15">
+    <row r="303" spans="1:9" ht="15.75">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>21</v>
@@ -18611,7 +18266,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15">
+    <row r="304" spans="1:9" ht="15.75">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>21</v>
@@ -18634,7 +18289,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15">
+    <row r="305" spans="1:9" ht="15.75">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>21</v>
@@ -18657,7 +18312,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15">
+    <row r="306" spans="1:9" ht="15.75">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>21</v>
@@ -18680,7 +18335,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15">
+    <row r="307" spans="1:9" ht="15.75">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>21</v>
@@ -18703,7 +18358,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15">
+    <row r="308" spans="1:9" ht="15.75">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -18722,7 +18377,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15">
+    <row r="309" spans="1:9" ht="15.75">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>21</v>
@@ -18745,7 +18400,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15">
+    <row r="310" spans="1:9" ht="15.75">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>21</v>
@@ -18768,7 +18423,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15">
+    <row r="311" spans="1:9" ht="15.75">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>21</v>
@@ -18791,7 +18446,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15">
+    <row r="312" spans="1:9" ht="15.75">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>21</v>
@@ -18814,7 +18469,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15">
+    <row r="313" spans="1:9" ht="15.75">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -18833,7 +18488,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15">
+    <row r="314" spans="1:9" ht="15.75">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>21</v>
@@ -18856,7 +18511,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15">
+    <row r="315" spans="1:9" ht="15.75">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>21</v>
@@ -18879,7 +18534,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15">
+    <row r="316" spans="1:9" ht="15.75">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>21</v>
@@ -18904,7 +18559,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15">
+    <row r="317" spans="1:9" ht="15.75">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -18923,7 +18578,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15">
+    <row r="318" spans="1:9" ht="15.75">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>21</v>
@@ -18948,7 +18603,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15">
+    <row r="319" spans="1:9" ht="15.75">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>21</v>
@@ -18971,7 +18626,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15">
+    <row r="320" spans="1:9" ht="15.75">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -18990,7 +18645,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15">
+    <row r="321" spans="1:9" ht="15.75">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>21</v>
@@ -19011,7 +18666,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15">
+    <row r="322" spans="1:9" ht="15.75">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>21</v>
@@ -19032,7 +18687,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15">
+    <row r="323" spans="1:9" ht="15.75">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>21</v>
@@ -19055,7 +18710,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15">
+    <row r="324" spans="1:9" ht="15.75">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -19074,7 +18729,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15">
+    <row r="325" spans="1:9" ht="15.75">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -19093,7 +18748,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15">
+    <row r="326" spans="1:9" ht="15.75">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>21</v>
@@ -19118,7 +18773,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15">
+    <row r="327" spans="1:9" ht="15.75">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>21</v>
@@ -19475,7 +19130,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15">
+    <row r="344" spans="1:16" ht="15.75">
       <c r="A344" s="17"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -19838,7 +19493,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.75">
       <c r="A362" s="17"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -19966,14 +19621,14 @@
       <selection activeCell="A17" sqref="A17:A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" customWidth="1"/>
+    <col min="17" max="17" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">

--- a/projects/office_ee.xlsx
+++ b/projects/office_ee.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Outputs!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$Z$131</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$Z$134</definedName>
     <definedName name="AnalysisType">Lookups!$A$17:$A$23</definedName>
     <definedName name="instance_defs">Lookups!$A$2:$D$9</definedName>
     <definedName name="instance_types">Lookups!$A$2:$A$9</definedName>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2692" uniqueCount="875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2706" uniqueCount="883">
   <si>
     <t>type</t>
   </si>
@@ -2666,6 +2666,30 @@
   </si>
   <si>
     <t>|FixedDryBulb,NoEconomizer,NoChange|</t>
+  </si>
+  <si>
+    <t>Add Service Water Heating</t>
+  </si>
+  <si>
+    <t>AddServiceWaterHeating</t>
+  </si>
+  <si>
+    <t>Water Heater Fuel Type</t>
+  </si>
+  <si>
+    <t>water_heater_fuel_type</t>
+  </si>
+  <si>
+    <t>NaturalGas</t>
+  </si>
+  <si>
+    <t>Gallons Hot Water per Occupant per Day</t>
+  </si>
+  <si>
+    <t>hot_water_per_occ_per_day_gal</t>
+  </si>
+  <si>
+    <t>gal</t>
   </si>
 </sst>
 </file>
@@ -7355,11 +7379,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y204"/>
+  <dimension ref="A1:Y207"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I122" sqref="I122"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -8627,165 +8651,148 @@
         <v>1</v>
       </c>
       <c r="B59" s="38" t="s">
-        <v>704</v>
+        <v>875</v>
       </c>
       <c r="C59" s="38" t="s">
-        <v>703</v>
+        <v>876</v>
       </c>
       <c r="D59" s="38" t="s">
-        <v>703</v>
+        <v>876</v>
       </c>
       <c r="E59" s="38" t="s">
-        <v>233</v>
+        <v>68</v>
       </c>
       <c r="G59" s="39"/>
       <c r="H59" s="39"/>
     </row>
-    <row r="60" spans="1:17" s="38" customFormat="1">
-      <c r="A60" s="38" t="b">
+    <row r="60" spans="1:17">
+      <c r="B60" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" s="31" t="s">
+        <v>877</v>
+      </c>
+      <c r="E60" s="31" t="s">
+        <v>878</v>
+      </c>
+      <c r="F60" s="31" t="s">
+        <v>618</v>
+      </c>
+      <c r="H60" s="31" t="s">
+        <v>879</v>
+      </c>
+      <c r="I60" s="31"/>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="B61" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" s="31" t="s">
+        <v>880</v>
+      </c>
+      <c r="E61" s="31" t="s">
+        <v>881</v>
+      </c>
+      <c r="F61" s="31" t="s">
+        <v>619</v>
+      </c>
+      <c r="G61" s="31" t="s">
+        <v>882</v>
+      </c>
+      <c r="H61" s="31">
         <v>1</v>
       </c>
-      <c r="B60" s="38" t="s">
+      <c r="I61" s="31"/>
+    </row>
+    <row r="62" spans="1:17" s="38" customFormat="1">
+      <c r="A62" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="B62" s="38" t="s">
+        <v>704</v>
+      </c>
+      <c r="C62" s="38" t="s">
+        <v>703</v>
+      </c>
+      <c r="D62" s="38" t="s">
+        <v>703</v>
+      </c>
+      <c r="E62" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="G62" s="39"/>
+      <c r="H62" s="39"/>
+    </row>
+    <row r="63" spans="1:17" s="38" customFormat="1">
+      <c r="A63" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="B63" s="38" t="s">
         <v>774</v>
       </c>
-      <c r="C60" s="38" t="s">
+      <c r="C63" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="D60" s="38" t="s">
+      <c r="D63" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="E60" s="38" t="s">
+      <c r="E63" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="G60" s="39"/>
-      <c r="H60" s="39"/>
-    </row>
-    <row r="61" spans="1:17" s="43" customFormat="1">
-      <c r="B61" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="D61" s="43" t="s">
+      <c r="G63" s="39"/>
+      <c r="H63" s="39"/>
+    </row>
+    <row r="64" spans="1:17" s="43" customFormat="1">
+      <c r="B64" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" s="43" t="s">
         <v>775</v>
       </c>
-      <c r="E61" s="43" t="s">
+      <c r="E64" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="F61" s="43" t="s">
+      <c r="F64" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="H61" s="43">
+      <c r="H64" s="43">
         <v>0.44400000000000001</v>
       </c>
-      <c r="J61" s="43">
+      <c r="J64" s="43">
         <v>0.3</v>
       </c>
-      <c r="K61" s="43">
+      <c r="K64" s="43">
         <v>0.5</v>
       </c>
-      <c r="L61" s="43">
+      <c r="L64" s="43">
         <v>0.4</v>
       </c>
-      <c r="M61" s="43">
-        <f>(K61+J61)/6</f>
+      <c r="M64" s="43">
+        <f>(K64+J64)/6</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="N61" s="43">
+      <c r="N64" s="43">
         <v>0.01</v>
       </c>
-      <c r="Q61" s="43" t="s">
+      <c r="Q64" s="43" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="62" spans="1:17" s="30" customFormat="1">
-      <c r="B62" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D62" s="30" t="s">
+    <row r="65" spans="1:17" s="30" customFormat="1">
+      <c r="B65" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="E62" s="30" t="s">
+      <c r="E65" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="F62" s="30" t="s">
+      <c r="F65" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H62" s="30">
+      <c r="H65" s="30">
         <v>30</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" s="30" customFormat="1">
-      <c r="B63" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D63" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="E63" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="F63" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H63" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="I63" s="30" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" s="38" customFormat="1">
-      <c r="A64" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="B64" s="38" t="s">
-        <v>777</v>
-      </c>
-      <c r="C64" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D64" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="E64" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="G64" s="39"/>
-      <c r="H64" s="39"/>
-    </row>
-    <row r="65" spans="1:17" s="43" customFormat="1">
-      <c r="B65" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="D65" s="43" t="s">
-        <v>778</v>
-      </c>
-      <c r="E65" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="F65" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="H65" s="43">
-        <v>0.2</v>
-      </c>
-      <c r="J65" s="43">
-        <v>0.3</v>
-      </c>
-      <c r="K65" s="43">
-        <v>0.5</v>
-      </c>
-      <c r="L65" s="43">
-        <v>0.4</v>
-      </c>
-      <c r="M65" s="43">
-        <f>(K65+J65)/6</f>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="N65" s="43">
-        <v>0.01</v>
-      </c>
-      <c r="Q65" s="43" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="66" spans="1:17" s="30" customFormat="1">
@@ -8793,91 +8800,91 @@
         <v>21</v>
       </c>
       <c r="D66" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E66" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="F66" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H66" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="I66" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" s="38" customFormat="1">
+      <c r="A67" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="B67" s="38" t="s">
+        <v>777</v>
+      </c>
+      <c r="C67" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D67" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="E67" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="G67" s="39"/>
+      <c r="H67" s="39"/>
+    </row>
+    <row r="68" spans="1:17" s="43" customFormat="1">
+      <c r="B68" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" s="43" t="s">
+        <v>778</v>
+      </c>
+      <c r="E68" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="F68" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H68" s="43">
+        <v>0.2</v>
+      </c>
+      <c r="J68" s="43">
+        <v>0.3</v>
+      </c>
+      <c r="K68" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="L68" s="43">
+        <v>0.4</v>
+      </c>
+      <c r="M68" s="43">
+        <f>(K68+J68)/6</f>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="N68" s="43">
+        <v>0.01</v>
+      </c>
+      <c r="Q68" s="43" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" s="30" customFormat="1">
+      <c r="B69" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="E66" s="30" t="s">
+      <c r="E69" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="F66" s="30" t="s">
+      <c r="F69" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H66" s="30">
+      <c r="H69" s="30">
         <v>30</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" s="30" customFormat="1">
-      <c r="B67" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D67" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="E67" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="F67" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H67" s="30" t="s">
-        <v>669</v>
-      </c>
-      <c r="I67" s="30" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" s="38" customFormat="1">
-      <c r="A68" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="B68" s="38" t="s">
-        <v>779</v>
-      </c>
-      <c r="C68" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D68" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="E68" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="G68" s="39"/>
-      <c r="H68" s="39"/>
-    </row>
-    <row r="69" spans="1:17" s="43" customFormat="1">
-      <c r="B69" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="D69" s="43" t="s">
-        <v>780</v>
-      </c>
-      <c r="E69" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="F69" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="H69" s="43">
-        <v>0.3</v>
-      </c>
-      <c r="J69" s="43">
-        <v>0.3</v>
-      </c>
-      <c r="K69" s="43">
-        <v>0.5</v>
-      </c>
-      <c r="L69" s="43">
-        <v>0.4</v>
-      </c>
-      <c r="M69" s="43">
-        <f>(K69+J69)/6</f>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="N69" s="43">
-        <v>0.01</v>
-      </c>
-      <c r="Q69" s="43" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="70" spans="1:17" s="30" customFormat="1">
@@ -8885,279 +8892,261 @@
         <v>21</v>
       </c>
       <c r="D70" s="30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E70" s="30" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F70" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H70" s="30" t="s">
+        <v>669</v>
+      </c>
+      <c r="I70" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" s="38" customFormat="1">
+      <c r="A71" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="B71" s="38" t="s">
+        <v>779</v>
+      </c>
+      <c r="C71" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D71" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="E71" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="G71" s="39"/>
+      <c r="H71" s="39"/>
+    </row>
+    <row r="72" spans="1:17" s="43" customFormat="1">
+      <c r="B72" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" s="43" t="s">
+        <v>780</v>
+      </c>
+      <c r="E72" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="F72" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="H70" s="30">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" s="30" customFormat="1">
-      <c r="B71" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D71" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="E71" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="F71" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H71" s="30" t="s">
-        <v>670</v>
-      </c>
-      <c r="I71" s="30" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" s="38" customFormat="1">
-      <c r="A72" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="B72" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="C72" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="D72" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="E72" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="G72" s="39"/>
-      <c r="H72" s="39"/>
+      <c r="H72" s="43">
+        <v>0.3</v>
+      </c>
+      <c r="J72" s="43">
+        <v>0.3</v>
+      </c>
+      <c r="K72" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="L72" s="43">
+        <v>0.4</v>
+      </c>
+      <c r="M72" s="43">
+        <f>(K72+J72)/6</f>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="N72" s="43">
+        <v>0.01</v>
+      </c>
+      <c r="Q72" s="43" t="s">
+        <v>776</v>
+      </c>
     </row>
     <row r="73" spans="1:17" s="30" customFormat="1">
       <c r="B73" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D73" s="30" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="E73" s="30" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="F73" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="H73" s="30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" s="30" customFormat="1">
+      <c r="B74" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E74" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="F74" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="H73" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="I73" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="O73" s="31"/>
-    </row>
-    <row r="74" spans="1:17" s="43" customFormat="1">
-      <c r="B74" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="D74" s="44" t="s">
-        <v>781</v>
-      </c>
-      <c r="E74" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="F74" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="H74" s="43">
-        <v>-20</v>
-      </c>
-      <c r="J74" s="45">
-        <v>-100</v>
-      </c>
-      <c r="K74" s="45">
-        <v>100</v>
-      </c>
-      <c r="L74" s="45">
-        <v>0</v>
-      </c>
-      <c r="M74" s="45">
-        <f>(K74-J74)/6</f>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="N74" s="45">
-        <v>2.5</v>
-      </c>
-      <c r="Q74" s="43" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" s="30" customFormat="1">
-      <c r="B75" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D75" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="E75" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F75" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="H75" s="30">
-        <v>0</v>
-      </c>
-      <c r="O75" s="31"/>
+      <c r="H74" s="30" t="s">
+        <v>670</v>
+      </c>
+      <c r="I74" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" s="38" customFormat="1">
+      <c r="A75" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="B75" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C75" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="D75" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="G75" s="39"/>
+      <c r="H75" s="39"/>
     </row>
     <row r="76" spans="1:17" s="30" customFormat="1">
       <c r="B76" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D76" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E76" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F76" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H76" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="I76" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="O76" s="31"/>
+    </row>
+    <row r="77" spans="1:17" s="43" customFormat="1">
+      <c r="B77" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" s="44" t="s">
+        <v>781</v>
+      </c>
+      <c r="E77" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="F77" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H77" s="43">
+        <v>-20</v>
+      </c>
+      <c r="J77" s="45">
+        <v>-100</v>
+      </c>
+      <c r="K77" s="45">
+        <v>100</v>
+      </c>
+      <c r="L77" s="45">
+        <v>0</v>
+      </c>
+      <c r="M77" s="45">
+        <f>(K77-J77)/6</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="N77" s="45">
+        <v>2.5</v>
+      </c>
+      <c r="Q77" s="43" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" s="30" customFormat="1">
+      <c r="B78" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D78" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E78" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="F78" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="H78" s="30">
+        <v>0</v>
+      </c>
+      <c r="O78" s="31"/>
+    </row>
+    <row r="79" spans="1:17" s="30" customFormat="1">
+      <c r="B79" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D79" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="E76" s="30" t="s">
+      <c r="E79" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="F76" s="30" t="s">
+      <c r="F79" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H76" s="30">
-        <v>0</v>
-      </c>
-      <c r="O76" s="31"/>
-    </row>
-    <row r="77" spans="1:17" s="30" customFormat="1">
-      <c r="B77" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D77" s="30" t="s">
+      <c r="H79" s="30">
+        <v>0</v>
+      </c>
+      <c r="O79" s="31"/>
+    </row>
+    <row r="80" spans="1:17" s="30" customFormat="1">
+      <c r="B80" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D80" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="E77" s="30" t="s">
+      <c r="E80" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="F77" s="30" t="s">
+      <c r="F80" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="H77" s="30">
+      <c r="H80" s="30">
         <v>1</v>
       </c>
-      <c r="O77" s="31"/>
-    </row>
-    <row r="78" spans="1:17" s="38" customFormat="1">
-      <c r="A78" s="38" t="b">
+      <c r="O80" s="31"/>
+    </row>
+    <row r="81" spans="1:17" s="38" customFormat="1">
+      <c r="A81" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="B78" s="38" t="s">
+      <c r="B81" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C78" s="38" t="s">
+      <c r="C81" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="D78" s="38" t="s">
+      <c r="D81" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="E78" s="38" t="s">
+      <c r="E81" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="G78" s="39"/>
-      <c r="H78" s="39"/>
-    </row>
-    <row r="79" spans="1:17">
-      <c r="A79" s="30"/>
-      <c r="B79" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C79" s="30"/>
-      <c r="D79" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="E79" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="F79" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G79" s="30"/>
-      <c r="H79" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="I79" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
-      <c r="L79" s="3"/>
-      <c r="M79" s="3"/>
-      <c r="N79" s="3"/>
-      <c r="P79" s="40"/>
-    </row>
-    <row r="80" spans="1:17" s="43" customFormat="1">
-      <c r="B80" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="D80" s="43" t="s">
-        <v>782</v>
-      </c>
-      <c r="E80" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="F80" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="H80" s="43">
-        <v>30</v>
-      </c>
-      <c r="I80" s="46"/>
-      <c r="J80" s="45">
-        <v>-40</v>
-      </c>
-      <c r="K80" s="45">
-        <v>40</v>
-      </c>
-      <c r="L80" s="45">
-        <v>-1</v>
-      </c>
-      <c r="M80" s="45">
-        <f>(K80-J80)/6</f>
-        <v>13.333333333333334</v>
-      </c>
-      <c r="N80" s="45">
-        <v>2.5</v>
-      </c>
-      <c r="P80" s="47"/>
-      <c r="Q80" s="43" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17">
-      <c r="A81" s="30"/>
-      <c r="B81" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C81" s="30"/>
-      <c r="D81" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="E81" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F81" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G81" s="30"/>
-      <c r="H81" s="30">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
-      <c r="L81" s="3"/>
-      <c r="M81" s="3"/>
-      <c r="N81" s="3"/>
-      <c r="P81" s="40"/>
+      <c r="G81" s="39"/>
+      <c r="H81" s="39"/>
     </row>
     <row r="82" spans="1:17">
       <c r="A82" s="30"/>
@@ -9166,17 +9155,20 @@
       </c>
       <c r="C82" s="30"/>
       <c r="D82" s="30" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E82" s="30" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F82" s="30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G82" s="30"/>
-      <c r="H82" s="30">
-        <v>0</v>
+      <c r="H82" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="I82" s="30" t="s">
+        <v>83</v>
       </c>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
@@ -9185,31 +9177,43 @@
       <c r="N82" s="3"/>
       <c r="P82" s="40"/>
     </row>
-    <row r="83" spans="1:17">
-      <c r="A83" s="30"/>
-      <c r="B83" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C83" s="30"/>
-      <c r="D83" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="E83" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F83" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G83" s="30"/>
-      <c r="H83" s="30">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
-      <c r="L83" s="3"/>
-      <c r="M83" s="3"/>
-      <c r="N83" s="3"/>
-      <c r="P83" s="40"/>
+    <row r="83" spans="1:17" s="43" customFormat="1">
+      <c r="B83" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" s="43" t="s">
+        <v>782</v>
+      </c>
+      <c r="E83" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="F83" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H83" s="43">
+        <v>30</v>
+      </c>
+      <c r="I83" s="46"/>
+      <c r="J83" s="45">
+        <v>-40</v>
+      </c>
+      <c r="K83" s="45">
+        <v>40</v>
+      </c>
+      <c r="L83" s="45">
+        <v>-1</v>
+      </c>
+      <c r="M83" s="45">
+        <f>(K83-J83)/6</f>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="N83" s="45">
+        <v>2.5</v>
+      </c>
+      <c r="P83" s="47"/>
+      <c r="Q83" s="43" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="84" spans="1:17">
       <c r="A84" s="30"/>
@@ -9217,18 +9221,18 @@
         <v>21</v>
       </c>
       <c r="C84" s="30"/>
-      <c r="D84" s="30" t="s">
-        <v>53</v>
+      <c r="D84" s="48" t="s">
+        <v>47</v>
       </c>
       <c r="E84" s="30" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F84" s="30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G84" s="30"/>
-      <c r="H84" s="30" t="b">
-        <v>1</v>
+      <c r="H84" s="30">
+        <v>0</v>
       </c>
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
@@ -9244,17 +9248,17 @@
       </c>
       <c r="C85" s="30"/>
       <c r="D85" s="30" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E85" s="30" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F85" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G85" s="30"/>
       <c r="H85" s="30">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
@@ -9270,13 +9274,13 @@
       </c>
       <c r="C86" s="30"/>
       <c r="D86" s="30" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E86" s="30" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F86" s="30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G86" s="30"/>
       <c r="H86" s="30">
@@ -9296,16 +9300,16 @@
       </c>
       <c r="C87" s="30"/>
       <c r="D87" s="30" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E87" s="30" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F87" s="30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G87" s="30"/>
-      <c r="H87" s="30">
+      <c r="H87" s="30" t="b">
         <v>1</v>
       </c>
       <c r="J87" s="3"/>
@@ -9315,24 +9319,31 @@
       <c r="N87" s="3"/>
       <c r="P87" s="40"/>
     </row>
-    <row r="88" spans="1:17" s="38" customFormat="1">
-      <c r="A88" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="B88" s="38" t="s">
-        <v>327</v>
-      </c>
-      <c r="C88" s="38" t="s">
-        <v>328</v>
-      </c>
-      <c r="D88" s="38" t="s">
-        <v>328</v>
-      </c>
-      <c r="E88" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="G88" s="39"/>
-      <c r="H88" s="39"/>
+    <row r="88" spans="1:17">
+      <c r="A88" s="30"/>
+      <c r="B88" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C88" s="30"/>
+      <c r="D88" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E88" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F88" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G88" s="30"/>
+      <c r="H88" s="30">
+        <v>15</v>
+      </c>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+      <c r="M88" s="3"/>
+      <c r="N88" s="3"/>
+      <c r="P88" s="40"/>
     </row>
     <row r="89" spans="1:17">
       <c r="A89" s="30"/>
@@ -9341,20 +9352,17 @@
       </c>
       <c r="C89" s="30"/>
       <c r="D89" s="30" t="s">
-        <v>373</v>
+        <v>57</v>
       </c>
       <c r="E89" s="30" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="F89" s="30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G89" s="30"/>
-      <c r="H89" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="I89" s="30" t="s">
-        <v>83</v>
+      <c r="H89" s="30">
+        <v>0</v>
       </c>
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
@@ -9363,55 +9371,44 @@
       <c r="N89" s="3"/>
       <c r="P89" s="40"/>
     </row>
-    <row r="90" spans="1:17" s="43" customFormat="1">
-      <c r="B90" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="D90" s="43" t="s">
-        <v>850</v>
-      </c>
-      <c r="E90" s="43" t="s">
-        <v>330</v>
-      </c>
-      <c r="F90" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="H90" s="43">
-        <v>30</v>
-      </c>
-      <c r="I90" s="46"/>
-      <c r="J90" s="45">
-        <v>-100</v>
-      </c>
-      <c r="K90" s="45">
-        <v>100</v>
-      </c>
-      <c r="L90" s="45">
-        <v>0</v>
-      </c>
-      <c r="M90" s="45">
-        <f>(K90-J90)/6</f>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="N90" s="45">
-        <v>2.5</v>
-      </c>
-      <c r="Q90" s="43" t="s">
-        <v>776</v>
-      </c>
+    <row r="90" spans="1:17">
+      <c r="A90" s="30"/>
+      <c r="B90" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C90" s="30"/>
+      <c r="D90" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E90" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F90" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G90" s="30"/>
+      <c r="H90" s="30">
+        <v>1</v>
+      </c>
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="P90" s="40"/>
     </row>
     <row r="91" spans="1:17" s="38" customFormat="1">
       <c r="A91" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B91" s="38" t="s">
-        <v>853</v>
+        <v>327</v>
       </c>
       <c r="C91" s="38" t="s">
-        <v>851</v>
+        <v>328</v>
       </c>
       <c r="D91" s="38" t="s">
-        <v>851</v>
+        <v>328</v>
       </c>
       <c r="E91" s="38" t="s">
         <v>68</v>
@@ -9419,190 +9416,176 @@
       <c r="G91" s="39"/>
       <c r="H91" s="39"/>
     </row>
-    <row r="92" spans="1:17" s="43" customFormat="1">
-      <c r="B92" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="D92" s="43" t="s">
+    <row r="92" spans="1:17">
+      <c r="A92" s="30"/>
+      <c r="B92" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C92" s="30"/>
+      <c r="D92" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="E92" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F92" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G92" s="30"/>
+      <c r="H92" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="I92" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+      <c r="M92" s="3"/>
+      <c r="N92" s="3"/>
+      <c r="P92" s="40"/>
+    </row>
+    <row r="93" spans="1:17" s="43" customFormat="1">
+      <c r="B93" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D93" s="43" t="s">
+        <v>850</v>
+      </c>
+      <c r="E93" s="43" t="s">
+        <v>330</v>
+      </c>
+      <c r="F93" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H93" s="43">
+        <v>30</v>
+      </c>
+      <c r="I93" s="46"/>
+      <c r="J93" s="45">
+        <v>-100</v>
+      </c>
+      <c r="K93" s="45">
+        <v>100</v>
+      </c>
+      <c r="L93" s="45">
+        <v>0</v>
+      </c>
+      <c r="M93" s="45">
+        <f>(K93-J93)/6</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="N93" s="45">
+        <v>2.5</v>
+      </c>
+      <c r="Q93" s="43" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" s="38" customFormat="1">
+      <c r="A94" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="B94" s="38" t="s">
+        <v>853</v>
+      </c>
+      <c r="C94" s="38" t="s">
+        <v>851</v>
+      </c>
+      <c r="D94" s="38" t="s">
+        <v>851</v>
+      </c>
+      <c r="E94" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="G94" s="39"/>
+      <c r="H94" s="39"/>
+    </row>
+    <row r="95" spans="1:17" s="43" customFormat="1">
+      <c r="B95" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D95" s="43" t="s">
         <v>855</v>
       </c>
-      <c r="E92" s="43" t="s">
+      <c r="E95" s="43" t="s">
         <v>258</v>
       </c>
-      <c r="F92" s="43" t="s">
+      <c r="F95" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="H92" s="43">
+      <c r="H95" s="43">
         <v>30</v>
       </c>
-      <c r="I92" s="46"/>
-      <c r="J92" s="45">
+      <c r="I95" s="46"/>
+      <c r="J95" s="45">
         <v>-100</v>
       </c>
-      <c r="K92" s="45">
+      <c r="K95" s="45">
         <v>100</v>
       </c>
-      <c r="L92" s="45">
-        <v>0</v>
-      </c>
-      <c r="M92" s="45">
-        <f>(K92-J92)/6</f>
+      <c r="L95" s="45">
+        <v>0</v>
+      </c>
+      <c r="M95" s="45">
+        <f>(K95-J95)/6</f>
         <v>33.333333333333336</v>
       </c>
-      <c r="N92" s="45">
+      <c r="N95" s="45">
         <v>2.5</v>
       </c>
-      <c r="Q92" s="43" t="s">
+      <c r="Q95" s="43" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="93" spans="1:17" s="38" customFormat="1">
-      <c r="A93" s="38" t="b">
+    <row r="96" spans="1:17" s="38" customFormat="1">
+      <c r="A96" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="B93" s="38" t="s">
+      <c r="B96" s="38" t="s">
         <v>854</v>
       </c>
-      <c r="C93" s="38" t="s">
+      <c r="C96" s="38" t="s">
         <v>852</v>
       </c>
-      <c r="D93" s="38" t="s">
+      <c r="D96" s="38" t="s">
         <v>852</v>
       </c>
-      <c r="E93" s="38" t="s">
+      <c r="E96" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="G93" s="39"/>
-      <c r="H93" s="39"/>
-    </row>
-    <row r="94" spans="1:17" s="43" customFormat="1">
-      <c r="B94" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="D94" s="43" t="s">
-        <v>856</v>
-      </c>
-      <c r="E94" s="43" t="s">
-        <v>258</v>
-      </c>
-      <c r="F94" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="H94" s="43">
-        <v>30</v>
-      </c>
-      <c r="I94" s="46"/>
-      <c r="J94" s="45">
-        <v>-100</v>
-      </c>
-      <c r="K94" s="45">
-        <v>100</v>
-      </c>
-      <c r="L94" s="45">
-        <v>0</v>
-      </c>
-      <c r="M94" s="45">
-        <f>(K94-J94)/6</f>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="N94" s="45">
-        <v>2.5</v>
-      </c>
-      <c r="Q94" s="43" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" s="38" customFormat="1">
-      <c r="A95" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="B95" s="38" t="s">
-        <v>187</v>
-      </c>
-      <c r="C95" s="38" t="s">
-        <v>860</v>
-      </c>
-      <c r="D95" s="38" t="s">
-        <v>860</v>
-      </c>
-      <c r="E95" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="G95" s="39"/>
-      <c r="H95" s="39"/>
-    </row>
-    <row r="96" spans="1:17" s="43" customFormat="1">
-      <c r="B96" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="D96" s="43" t="s">
-        <v>863</v>
-      </c>
-      <c r="E96" s="43" t="s">
-        <v>190</v>
-      </c>
-      <c r="F96" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="G96" s="43" t="s">
-        <v>861</v>
-      </c>
-      <c r="H96" s="43">
-        <v>1</v>
-      </c>
-      <c r="I96" s="46"/>
-      <c r="J96" s="45">
-        <v>-5</v>
-      </c>
-      <c r="K96" s="45">
-        <v>5</v>
-      </c>
-      <c r="L96" s="45">
-        <v>0</v>
-      </c>
-      <c r="M96" s="45">
-        <f>(K96-J96)/6</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="N96" s="45">
-        <v>2.5</v>
-      </c>
-      <c r="Q96" s="43" t="s">
-        <v>776</v>
-      </c>
+      <c r="G96" s="39"/>
+      <c r="H96" s="39"/>
     </row>
     <row r="97" spans="1:17" s="43" customFormat="1">
       <c r="B97" s="43" t="s">
         <v>21</v>
       </c>
       <c r="D97" s="43" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
       <c r="E97" s="43" t="s">
-        <v>192</v>
+        <v>258</v>
       </c>
       <c r="F97" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="G97" s="43" t="s">
-        <v>861</v>
-      </c>
       <c r="H97" s="43">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="I97" s="46"/>
       <c r="J97" s="45">
-        <v>-5</v>
+        <v>-100</v>
       </c>
       <c r="K97" s="45">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="L97" s="45">
         <v>0</v>
       </c>
       <c r="M97" s="45">
         <f>(K97-J97)/6</f>
-        <v>1.6666666666666667</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="N97" s="45">
         <v>2.5</v>
@@ -9611,114 +9594,150 @@
         <v>776</v>
       </c>
     </row>
-    <row r="98" spans="1:17">
-      <c r="B98" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D98" s="31" t="s">
+    <row r="98" spans="1:17" s="38" customFormat="1">
+      <c r="A98" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="B98" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="C98" s="38" t="s">
+        <v>860</v>
+      </c>
+      <c r="D98" s="38" t="s">
+        <v>860</v>
+      </c>
+      <c r="E98" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="G98" s="39"/>
+      <c r="H98" s="39"/>
+    </row>
+    <row r="99" spans="1:17" s="43" customFormat="1">
+      <c r="B99" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D99" s="43" t="s">
+        <v>863</v>
+      </c>
+      <c r="E99" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="F99" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="G99" s="43" t="s">
+        <v>861</v>
+      </c>
+      <c r="H99" s="43">
+        <v>1</v>
+      </c>
+      <c r="I99" s="46"/>
+      <c r="J99" s="45">
+        <v>-5</v>
+      </c>
+      <c r="K99" s="45">
+        <v>5</v>
+      </c>
+      <c r="L99" s="45">
+        <v>0</v>
+      </c>
+      <c r="M99" s="45">
+        <f>(K99-J99)/6</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="N99" s="45">
+        <v>2.5</v>
+      </c>
+      <c r="Q99" s="43" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" s="43" customFormat="1">
+      <c r="B100" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D100" s="43" t="s">
+        <v>864</v>
+      </c>
+      <c r="E100" s="43" t="s">
+        <v>192</v>
+      </c>
+      <c r="F100" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="G100" s="43" t="s">
+        <v>861</v>
+      </c>
+      <c r="H100" s="43">
+        <v>-1</v>
+      </c>
+      <c r="I100" s="46"/>
+      <c r="J100" s="45">
+        <v>-5</v>
+      </c>
+      <c r="K100" s="45">
+        <v>5</v>
+      </c>
+      <c r="L100" s="45">
+        <v>0</v>
+      </c>
+      <c r="M100" s="45">
+        <f>(K100-J100)/6</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="N100" s="45">
+        <v>2.5</v>
+      </c>
+      <c r="Q100" s="43" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17">
+      <c r="B101" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" s="31" t="s">
         <v>862</v>
       </c>
-      <c r="E98" s="31" t="s">
+      <c r="E101" s="31" t="s">
         <v>194</v>
       </c>
-      <c r="F98" s="31" t="s">
+      <c r="F101" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="H98" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J98" s="3"/>
-      <c r="K98" s="3"/>
-      <c r="L98" s="3"/>
-      <c r="M98" s="3"/>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="1:17" s="49" customFormat="1">
-      <c r="A99" s="49" t="b">
+      <c r="H101" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3"/>
+      <c r="K101" s="3"/>
+      <c r="L101" s="3"/>
+      <c r="M101" s="3"/>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="1:17" s="49" customFormat="1">
+      <c r="A102" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="B99" s="49" t="s">
+      <c r="B102" s="49" t="s">
         <v>841</v>
       </c>
-      <c r="C99" s="49" t="s">
+      <c r="C102" s="49" t="s">
         <v>840</v>
       </c>
-      <c r="D99" s="49" t="s">
+      <c r="D102" s="49" t="s">
         <v>840</v>
       </c>
-      <c r="E99" s="49" t="s">
+      <c r="E102" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="J99" s="50"/>
-      <c r="K99" s="51"/>
-      <c r="L99" s="51"/>
-      <c r="M99" s="51"/>
-      <c r="N99" s="51"/>
-      <c r="O99" s="51"/>
-      <c r="Q99" s="52"/>
-    </row>
-    <row r="100" spans="1:17" s="30" customFormat="1">
-      <c r="A100" s="18"/>
-      <c r="B100" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D100" s="30" t="s">
-        <v>846</v>
-      </c>
-      <c r="E100" s="30" t="s">
-        <v>842</v>
-      </c>
-      <c r="F100" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G100" s="30" t="s">
-        <v>838</v>
-      </c>
-      <c r="H100" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17" s="30" customFormat="1">
-      <c r="A101" s="18"/>
-      <c r="B101" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D101" s="30" t="s">
-        <v>847</v>
-      </c>
-      <c r="E101" s="30" t="s">
-        <v>843</v>
-      </c>
-      <c r="F101" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G101" s="30" t="s">
-        <v>839</v>
-      </c>
-      <c r="H101" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17" s="30" customFormat="1">
-      <c r="A102" s="18"/>
-      <c r="B102" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D102" s="30" t="s">
-        <v>848</v>
-      </c>
-      <c r="E102" s="30" t="s">
-        <v>844</v>
-      </c>
-      <c r="F102" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G102" s="30" t="s">
-        <v>838</v>
-      </c>
-      <c r="H102" s="30">
-        <v>12</v>
-      </c>
+      <c r="J102" s="50"/>
+      <c r="K102" s="51"/>
+      <c r="L102" s="51"/>
+      <c r="M102" s="51"/>
+      <c r="N102" s="51"/>
+      <c r="O102" s="51"/>
+      <c r="Q102" s="52"/>
     </row>
     <row r="103" spans="1:17" s="30" customFormat="1">
       <c r="A103" s="18"/>
@@ -9726,247 +9745,250 @@
         <v>21</v>
       </c>
       <c r="D103" s="30" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="E103" s="30" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="F103" s="30" t="s">
         <v>65</v>
       </c>
       <c r="G103" s="30" t="s">
+        <v>838</v>
+      </c>
+      <c r="H103" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" s="30" customFormat="1">
+      <c r="A104" s="18"/>
+      <c r="B104" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D104" s="30" t="s">
+        <v>847</v>
+      </c>
+      <c r="E104" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="F104" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G104" s="30" t="s">
         <v>839</v>
       </c>
-      <c r="H103" s="30">
+      <c r="H104" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" s="30" customFormat="1">
+      <c r="A105" s="18"/>
+      <c r="B105" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D105" s="30" t="s">
+        <v>848</v>
+      </c>
+      <c r="E105" s="30" t="s">
+        <v>844</v>
+      </c>
+      <c r="F105" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G105" s="30" t="s">
+        <v>838</v>
+      </c>
+      <c r="H105" s="30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" s="30" customFormat="1">
+      <c r="A106" s="18"/>
+      <c r="B106" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D106" s="30" t="s">
+        <v>849</v>
+      </c>
+      <c r="E106" s="30" t="s">
+        <v>845</v>
+      </c>
+      <c r="F106" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G106" s="30" t="s">
+        <v>839</v>
+      </c>
+      <c r="H106" s="30">
         <v>31</v>
       </c>
     </row>
-    <row r="104" spans="1:17" s="49" customFormat="1">
-      <c r="A104" s="49" t="b">
+    <row r="107" spans="1:17" s="49" customFormat="1">
+      <c r="A107" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="B104" s="49" t="s">
+      <c r="B107" s="49" t="s">
         <v>803</v>
       </c>
-      <c r="C104" s="49" t="s">
+      <c r="C107" s="49" t="s">
         <v>802</v>
       </c>
-      <c r="D104" s="49" t="s">
+      <c r="D107" s="49" t="s">
         <v>802</v>
       </c>
-      <c r="E104" s="49" t="s">
+      <c r="E107" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="J104" s="50"/>
-      <c r="K104" s="51"/>
-      <c r="L104" s="51"/>
-      <c r="M104" s="51"/>
-      <c r="N104" s="51"/>
-      <c r="O104" s="51"/>
-      <c r="Q104" s="52"/>
-    </row>
-    <row r="105" spans="1:17">
-      <c r="B105" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D105" s="31" t="s">
+      <c r="J107" s="50"/>
+      <c r="K107" s="51"/>
+      <c r="L107" s="51"/>
+      <c r="M107" s="51"/>
+      <c r="N107" s="51"/>
+      <c r="O107" s="51"/>
+      <c r="Q107" s="52"/>
+    </row>
+    <row r="108" spans="1:17">
+      <c r="B108" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D108" s="31" t="s">
         <v>870</v>
       </c>
-      <c r="E105" s="31" t="s">
+      <c r="E108" s="31" t="s">
         <v>869</v>
       </c>
-      <c r="F105" s="31" t="s">
+      <c r="F108" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="H105" s="31" t="b">
+      <c r="H108" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="I105" s="31"/>
-      <c r="J105" s="4"/>
-      <c r="K105" s="3"/>
-      <c r="L105" s="3"/>
-      <c r="M105" s="3"/>
-      <c r="N105" s="3"/>
-      <c r="O105" s="3"/>
-      <c r="Q105" s="40"/>
-    </row>
-    <row r="106" spans="1:17" s="49" customFormat="1">
-      <c r="A106" s="49" t="b">
+      <c r="I108" s="31"/>
+      <c r="J108" s="4"/>
+      <c r="K108" s="3"/>
+      <c r="L108" s="3"/>
+      <c r="M108" s="3"/>
+      <c r="N108" s="3"/>
+      <c r="O108" s="3"/>
+      <c r="Q108" s="40"/>
+    </row>
+    <row r="109" spans="1:17" s="49" customFormat="1">
+      <c r="A109" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="B106" s="49" t="s">
+      <c r="B109" s="49" t="s">
         <v>831</v>
       </c>
-      <c r="C106" s="49" t="s">
+      <c r="C109" s="49" t="s">
         <v>830</v>
       </c>
-      <c r="D106" s="49" t="s">
+      <c r="D109" s="49" t="s">
         <v>830</v>
       </c>
-      <c r="E106" s="49" t="s">
+      <c r="E109" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="J106" s="50"/>
-      <c r="K106" s="51"/>
-      <c r="L106" s="51"/>
-      <c r="M106" s="51"/>
-      <c r="N106" s="51"/>
-      <c r="O106" s="51"/>
-      <c r="Q106" s="52"/>
-    </row>
-    <row r="107" spans="1:17">
-      <c r="B107" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D107" s="31" t="s">
+      <c r="J109" s="50"/>
+      <c r="K109" s="51"/>
+      <c r="L109" s="51"/>
+      <c r="M109" s="51"/>
+      <c r="N109" s="51"/>
+      <c r="O109" s="51"/>
+      <c r="Q109" s="52"/>
+    </row>
+    <row r="110" spans="1:17">
+      <c r="B110" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D110" s="31" t="s">
         <v>872</v>
       </c>
-      <c r="E107" s="31" t="s">
+      <c r="E110" s="31" t="s">
         <v>871</v>
       </c>
-      <c r="F107" s="31" t="s">
+      <c r="F110" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="H107" s="31" t="b">
+      <c r="H110" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="I107" s="30"/>
-    </row>
-    <row r="108" spans="1:17" s="22" customFormat="1">
-      <c r="A108" s="22" t="b">
+      <c r="I110" s="30"/>
+    </row>
+    <row r="111" spans="1:17" s="22" customFormat="1">
+      <c r="A111" s="22" t="b">
         <v>1</v>
       </c>
-      <c r="B108" s="22" t="s">
+      <c r="B111" s="22" t="s">
         <v>800</v>
       </c>
-      <c r="C108" s="22" t="s">
+      <c r="C111" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="D108" s="22" t="s">
+      <c r="D111" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="E108" s="22" t="s">
+      <c r="E111" s="22" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="109" spans="1:17" s="30" customFormat="1">
-      <c r="A109" s="18"/>
-      <c r="B109" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D109" s="30" t="s">
+    <row r="112" spans="1:17" s="30" customFormat="1">
+      <c r="A112" s="18"/>
+      <c r="B112" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D112" s="30" t="s">
         <v>373</v>
       </c>
-      <c r="E109" s="30" t="s">
+      <c r="E112" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="F109" s="30" t="s">
+      <c r="F112" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="H109" s="30" t="s">
+      <c r="H112" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="I109" s="30" t="s">
+      <c r="I112" s="30" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="110" spans="1:17" s="43" customFormat="1">
-      <c r="B110" s="43" t="s">
+    <row r="113" spans="1:17" s="43" customFormat="1">
+      <c r="B113" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D110" s="43" t="s">
+      <c r="D113" s="43" t="s">
         <v>801</v>
       </c>
-      <c r="E110" s="43" t="s">
+      <c r="E113" s="43" t="s">
         <v>288</v>
       </c>
-      <c r="F110" s="43" t="s">
+      <c r="F113" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="G110" s="43" t="s">
+      <c r="G113" s="43" t="s">
         <v>791</v>
       </c>
-      <c r="H110" s="43">
-        <v>0</v>
-      </c>
-      <c r="J110" s="43">
-        <v>0</v>
-      </c>
-      <c r="K110" s="43">
+      <c r="H113" s="43">
+        <v>0</v>
+      </c>
+      <c r="J113" s="43">
+        <v>0</v>
+      </c>
+      <c r="K113" s="43">
         <v>40</v>
       </c>
-      <c r="L110" s="43">
+      <c r="L113" s="43">
         <v>-1</v>
       </c>
-      <c r="M110" s="45">
-        <f>(K110-J110)/6</f>
+      <c r="M113" s="45">
+        <f>(K113-J113)/6</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="N110" s="45">
+      <c r="N113" s="45">
         <v>2.5</v>
       </c>
-      <c r="Q110" s="43" t="s">
+      <c r="Q113" s="43" t="s">
         <v>776</v>
-      </c>
-    </row>
-    <row r="111" spans="1:17" s="30" customFormat="1">
-      <c r="B111" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D111" s="30" t="s">
-        <v>792</v>
-      </c>
-      <c r="E111" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F111" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G111" s="30" t="s">
-        <v>791</v>
-      </c>
-      <c r="H111" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:17" s="30" customFormat="1">
-      <c r="B112" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D112" s="30" t="s">
-        <v>793</v>
-      </c>
-      <c r="E112" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F112" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G112" s="30" t="s">
-        <v>791</v>
-      </c>
-      <c r="H112" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:17" s="30" customFormat="1">
-      <c r="B113" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D113" s="30" t="s">
-        <v>794</v>
-      </c>
-      <c r="E113" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F113" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G113" s="30" t="s">
-        <v>795</v>
-      </c>
-      <c r="H113" s="30">
-        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:17" s="30" customFormat="1">
@@ -9974,15 +9996,18 @@
         <v>21</v>
       </c>
       <c r="D114" s="30" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="E114" s="30" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F114" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H114" s="30" t="b">
+        <v>64</v>
+      </c>
+      <c r="G114" s="30" t="s">
+        <v>791</v>
+      </c>
+      <c r="H114" s="30">
         <v>0</v>
       </c>
     </row>
@@ -9991,19 +10016,19 @@
         <v>21</v>
       </c>
       <c r="D115" s="30" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="E115" s="30" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F115" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G115" s="30" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="H115" s="30">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:17" s="30" customFormat="1">
@@ -10011,16 +10036,16 @@
         <v>21</v>
       </c>
       <c r="D116" s="30" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="E116" s="30" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F116" s="30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G116" s="30" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="H116" s="30">
         <v>0</v>
@@ -10031,161 +10056,206 @@
         <v>21</v>
       </c>
       <c r="D117" s="30" t="s">
+        <v>796</v>
+      </c>
+      <c r="E117" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F117" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="H117" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" s="30" customFormat="1">
+      <c r="B118" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D118" s="30" t="s">
+        <v>797</v>
+      </c>
+      <c r="E118" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F118" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G118" s="30" t="s">
+        <v>795</v>
+      </c>
+      <c r="H118" s="30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" s="30" customFormat="1">
+      <c r="B119" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D119" s="30" t="s">
+        <v>798</v>
+      </c>
+      <c r="E119" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F119" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G119" s="30" t="s">
+        <v>791</v>
+      </c>
+      <c r="H119" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" s="30" customFormat="1">
+      <c r="B120" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D120" s="30" t="s">
         <v>799</v>
       </c>
-      <c r="E117" s="30" t="s">
+      <c r="E120" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="F117" s="30" t="s">
+      <c r="F120" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="G117" s="30" t="s">
+      <c r="G120" s="30" t="s">
         <v>795</v>
       </c>
-      <c r="H117" s="30">
+      <c r="H120" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:17" s="49" customFormat="1">
-      <c r="A118" s="49" t="b">
+    <row r="121" spans="1:17" s="49" customFormat="1">
+      <c r="A121" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="B118" s="49" t="s">
+      <c r="B121" s="49" t="s">
         <v>209</v>
       </c>
-      <c r="C118" s="49" t="s">
+      <c r="C121" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="D118" s="49" t="s">
+      <c r="D121" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="E118" s="49" t="s">
+      <c r="E121" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="J118" s="50"/>
-      <c r="K118" s="51"/>
-      <c r="L118" s="51"/>
-      <c r="M118" s="51"/>
-      <c r="N118" s="51"/>
-      <c r="O118" s="51"/>
-      <c r="Q118" s="52"/>
-    </row>
-    <row r="119" spans="1:17">
-      <c r="B119" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D119" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="E119" s="31" t="s">
-        <v>868</v>
-      </c>
-      <c r="F119" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H119" s="31" t="s">
-        <v>867</v>
-      </c>
-      <c r="I119" s="30" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="120" spans="1:17" s="49" customFormat="1">
-      <c r="A120" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B120" s="49" t="s">
-        <v>216</v>
-      </c>
-      <c r="C120" s="49" t="s">
-        <v>217</v>
-      </c>
-      <c r="D120" s="49" t="s">
-        <v>217</v>
-      </c>
-      <c r="E120" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="J120" s="50"/>
-      <c r="K120" s="51"/>
-      <c r="L120" s="51"/>
-      <c r="M120" s="51"/>
-      <c r="N120" s="51"/>
-      <c r="O120" s="51"/>
-      <c r="Q120" s="52"/>
-    </row>
-    <row r="121" spans="1:17">
-      <c r="B121" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D121" s="31" t="s">
-        <v>834</v>
-      </c>
-      <c r="E121" s="31" t="s">
-        <v>219</v>
-      </c>
-      <c r="F121" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H121" s="31" t="s">
-        <v>873</v>
-      </c>
-      <c r="I121" s="30" t="s">
-        <v>874</v>
-      </c>
+      <c r="J121" s="50"/>
+      <c r="K121" s="51"/>
+      <c r="L121" s="51"/>
+      <c r="M121" s="51"/>
+      <c r="N121" s="51"/>
+      <c r="O121" s="51"/>
+      <c r="Q121" s="52"/>
     </row>
     <row r="122" spans="1:17">
       <c r="B122" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D122" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="E122" s="31" t="s">
+        <v>868</v>
+      </c>
+      <c r="F122" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H122" s="31" t="s">
+        <v>867</v>
+      </c>
+      <c r="I122" s="30" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" s="49" customFormat="1">
+      <c r="A123" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="B123" s="49" t="s">
+        <v>216</v>
+      </c>
+      <c r="C123" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="D123" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="E123" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="J123" s="50"/>
+      <c r="K123" s="51"/>
+      <c r="L123" s="51"/>
+      <c r="M123" s="51"/>
+      <c r="N123" s="51"/>
+      <c r="O123" s="51"/>
+      <c r="Q123" s="52"/>
+    </row>
+    <row r="124" spans="1:17">
+      <c r="B124" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D124" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="E124" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="F124" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H124" s="31" t="s">
+        <v>873</v>
+      </c>
+      <c r="I124" s="30" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17">
+      <c r="B125" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D125" s="31" t="s">
         <v>835</v>
       </c>
-      <c r="E122" s="31" t="s">
+      <c r="E125" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="F122" s="30" t="s">
+      <c r="F125" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="G122" s="31" t="s">
+      <c r="G125" s="31" t="s">
         <v>836</v>
       </c>
-      <c r="H122" s="31">
+      <c r="H125" s="31">
         <v>69</v>
       </c>
-      <c r="I122" s="31"/>
-    </row>
-    <row r="123" spans="1:17">
-      <c r="B123" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D123" s="31" t="s">
+      <c r="I125" s="31"/>
+    </row>
+    <row r="126" spans="1:17">
+      <c r="B126" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D126" s="31" t="s">
         <v>837</v>
       </c>
-      <c r="E123" s="31" t="s">
+      <c r="E126" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="F123" s="30" t="s">
+      <c r="F126" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="G123" s="31" t="s">
+      <c r="G126" s="31" t="s">
         <v>836</v>
       </c>
-      <c r="H123" s="31">
+      <c r="H126" s="31">
         <v>-148</v>
       </c>
-      <c r="I123" s="31"/>
-    </row>
-    <row r="124" spans="1:17">
-      <c r="H124" s="31"/>
-      <c r="I124" s="31"/>
-    </row>
-    <row r="125" spans="1:17">
-      <c r="H125" s="31"/>
-      <c r="I125" s="31"/>
-    </row>
-    <row r="126" spans="1:17">
-      <c r="H126" s="31"/>
       <c r="I126" s="31"/>
     </row>
     <row r="127" spans="1:17">
@@ -10204,47 +10274,47 @@
       <c r="H130" s="31"/>
       <c r="I130" s="31"/>
     </row>
-    <row r="131" spans="8:9" ht="409.6">
+    <row r="131" spans="8:9">
       <c r="H131" s="31"/>
       <c r="I131" s="31"/>
     </row>
-    <row r="132" spans="8:9" ht="409.6">
+    <row r="132" spans="8:9">
       <c r="H132" s="31"/>
       <c r="I132" s="31"/>
     </row>
-    <row r="133" spans="8:9" ht="409.6">
+    <row r="133" spans="8:9">
       <c r="H133" s="31"/>
       <c r="I133" s="31"/>
     </row>
-    <row r="134" spans="8:9" ht="409.6">
+    <row r="134" spans="8:9">
       <c r="H134" s="31"/>
       <c r="I134" s="31"/>
     </row>
-    <row r="135" spans="8:9" ht="409.6">
+    <row r="135" spans="8:9">
       <c r="H135" s="31"/>
       <c r="I135" s="31"/>
     </row>
-    <row r="136" spans="8:9" ht="409.6">
+    <row r="136" spans="8:9">
       <c r="H136" s="31"/>
       <c r="I136" s="31"/>
     </row>
-    <row r="137" spans="8:9" ht="409.6">
+    <row r="137" spans="8:9">
       <c r="H137" s="31"/>
       <c r="I137" s="31"/>
     </row>
-    <row r="138" spans="8:9" ht="409.6">
+    <row r="138" spans="8:9">
       <c r="H138" s="31"/>
       <c r="I138" s="31"/>
     </row>
-    <row r="139" spans="8:9" ht="409.6">
+    <row r="139" spans="8:9">
       <c r="H139" s="31"/>
       <c r="I139" s="31"/>
     </row>
-    <row r="140" spans="8:9" ht="409.6">
+    <row r="140" spans="8:9">
       <c r="H140" s="31"/>
       <c r="I140" s="31"/>
     </row>
-    <row r="141" spans="8:9" ht="409.6">
+    <row r="141" spans="8:9">
       <c r="H141" s="31"/>
       <c r="I141" s="31"/>
     </row>
@@ -10260,23 +10330,23 @@
       <c r="H144" s="31"/>
       <c r="I144" s="31"/>
     </row>
-    <row r="145" spans="8:9" ht="409.6">
+    <row r="145" spans="8:9">
       <c r="H145" s="31"/>
       <c r="I145" s="31"/>
     </row>
-    <row r="146" spans="8:9" ht="409.6">
+    <row r="146" spans="8:9">
       <c r="H146" s="31"/>
       <c r="I146" s="31"/>
     </row>
-    <row r="147" spans="8:9" ht="409.6">
+    <row r="147" spans="8:9">
       <c r="H147" s="31"/>
       <c r="I147" s="31"/>
     </row>
-    <row r="148" spans="8:9" ht="409.6">
+    <row r="148" spans="8:9">
       <c r="H148" s="31"/>
       <c r="I148" s="31"/>
     </row>
-    <row r="149" spans="8:9" ht="409.6">
+    <row r="149" spans="8:9">
       <c r="H149" s="31"/>
       <c r="I149" s="31"/>
     </row>
@@ -10500,8 +10570,20 @@
       <c r="H204" s="31"/>
       <c r="I204" s="31"/>
     </row>
+    <row r="205" spans="8:9">
+      <c r="H205" s="31"/>
+      <c r="I205" s="31"/>
+    </row>
+    <row r="206" spans="8:9">
+      <c r="H206" s="31"/>
+      <c r="I206" s="31"/>
+    </row>
+    <row r="207" spans="8:9">
+      <c r="H207" s="31"/>
+      <c r="I207" s="31"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:Z131"/>
+  <autoFilter ref="A2:Z134"/>
   <mergeCells count="1">
     <mergeCell ref="T1:Y1"/>
   </mergeCells>
